--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA7CE98-CE5E-44EC-9483-B9331E634D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EDBCC2-CB5A-45BD-8DF2-7BFF575175D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="110">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -285,10 +285,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tender_len</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>retire_early</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -418,6 +414,70 @@
   </si>
   <si>
     <t>inf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NACHN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_len</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_len</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ25T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RZ25T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YW25T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW25T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz25t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rz25t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yw25t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw25t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ25T (25m Express Hard Seat Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RZ25T (25m Express Soft Seat Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YW25T (25m Express Hard Sleeper Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW25T (25m Express Soft Sleeper Passenger Coach)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -756,19 +816,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="25" max="27" width="8.6640625" style="1"/>
-    <col min="28" max="29" width="8.6640625" style="2"/>
+    <col min="26" max="28" width="8.6640625" style="1"/>
+    <col min="29" max="30" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -839,33 +899,36 @@
         <v>60</v>
       </c>
       <c r="X1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -928,35 +991,35 @@
         <v>853.125</v>
       </c>
       <c r="V2">
-        <f>W2+X2</f>
+        <f>W2+X2+Y2</f>
         <v>11</v>
       </c>
       <c r="W2">
         <v>6</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>5</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>1</v>
       </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
       <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB2" s="2">
-        <f>AVERAGE(Y2:AA2)</f>
+      <c r="AC2" s="2">
+        <f>AVERAGE(Z2:AB2)</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -966,13 +1029,21 @@
       </c>
       <c r="F3">
         <v>1934</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O27" si="3">M3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q27" si="4">O3*P3*9.8</f>
+        <v>0</v>
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S27" si="3">R3*50000/16</f>
+        <f t="shared" ref="S3:S27" si="5">R3*50000/16</f>
         <v>62500</v>
       </c>
       <c r="T3" t="e">
@@ -983,13 +1054,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V3">
+        <f t="shared" ref="V3:V27" si="6">W3+X3+Y3</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="e">
+        <f t="shared" ref="AC3:AC27" si="7">AVERAGE(Z3:AB3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -999,13 +1078,21 @@
       </c>
       <c r="F4">
         <v>1933</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T4" t="e">
@@ -1016,13 +1103,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -1032,13 +1127,21 @@
       </c>
       <c r="F5">
         <v>1956</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T5" t="e">
@@ -1049,13 +1152,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -1065,13 +1176,21 @@
       </c>
       <c r="F6">
         <v>1957</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T6" t="e">
@@ -1082,26 +1201,42 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T7" t="e">
@@ -1112,13 +1247,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1128,13 +1271,21 @@
       </c>
       <c r="F8">
         <v>1974</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T8" t="e">
@@ -1145,13 +1296,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -1161,13 +1320,21 @@
       </c>
       <c r="F9">
         <v>1976</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T9" t="e">
@@ -1178,13 +1345,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
@@ -1194,13 +1369,21 @@
       </c>
       <c r="F10">
         <v>1874</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T10" t="e">
@@ -1211,13 +1394,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -1227,13 +1418,21 @@
       </c>
       <c r="F11">
         <v>1992</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T11" t="e">
@@ -1244,26 +1443,42 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="E12" t="s">
         <v>52</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T12" t="e">
@@ -1274,13 +1489,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -1290,13 +1513,21 @@
       </c>
       <c r="F13">
         <v>2005</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T13" t="e">
@@ -1307,13 +1538,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -1323,13 +1562,21 @@
       </c>
       <c r="F14">
         <v>1958</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T14" t="e">
@@ -1340,13 +1587,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -1356,13 +1611,21 @@
       </c>
       <c r="F15">
         <v>1979</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T15" t="e">
@@ -1373,13 +1636,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -1389,13 +1660,21 @@
       </c>
       <c r="F16">
         <v>1989</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T16" t="e">
@@ -1406,13 +1685,21 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
@@ -1422,13 +1709,21 @@
       </c>
       <c r="F17">
         <v>1995</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T17" t="e">
@@ -1439,13 +1734,24 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <v>6144</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -1456,29 +1762,87 @@
       <c r="F18">
         <v>2010</v>
       </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>120</v>
+      </c>
+      <c r="L18">
+        <v>9789</v>
+      </c>
+      <c r="M18">
+        <v>138</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="P18">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>519.99779999999998</v>
+      </c>
       <c r="R18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S18">
-        <f t="shared" si="3"/>
-        <v>62500</v>
-      </c>
-      <c r="T18" t="e">
+        <f t="shared" si="5"/>
+        <v>396875</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" t="e">
+        <v>104</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1950</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
@@ -1488,13 +1852,21 @@
       </c>
       <c r="F19">
         <v>2012</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R19">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T19" t="e">
@@ -1505,14 +1877,30 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T20" t="e">
@@ -1523,14 +1911,30 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T21" t="e">
@@ -1541,14 +1945,30 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T22" t="e">
@@ -1559,14 +1979,30 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T23" t="e">
@@ -1577,14 +2013,30 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T24" t="e">
@@ -1595,14 +2047,30 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R25">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T25" t="e">
@@ -1613,14 +2081,30 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T26" t="e">
@@ -1631,14 +2115,30 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="S27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
       <c r="T27" t="e">
@@ -1647,6 +2147,14 @@
       </c>
       <c r="U27" t="e">
         <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1766,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1856,13 +2364,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
       </c>
       <c r="E2">
         <v>1991</v>
@@ -1871,16 +2379,16 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2">
         <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="N2">
         <v>16</v>
@@ -1893,11 +2401,11 @@
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q4" si="0">MEDIAN(0,255,INT(P2/20+SQRT(H2)/40+SQRT(M2)/2+(SQRT(O2)-SQRT(185))))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R2">
         <f>Q2*50000/16</f>
-        <v>21875</v>
+        <v>25000</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S4" si="1">MEDIAN(0,255,INT(SQRT(H2)/200+SQRT(M2)/2+(SQRT(O2)-SQRT(185))))</f>
@@ -1910,13 +2418,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>1991</v>
@@ -1925,13 +2433,13 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3">
         <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M3">
         <v>80</v>
@@ -1943,7 +2451,7 @@
         <v>222</v>
       </c>
       <c r="P3">
-        <v>47.9</v>
+        <v>45.3</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
@@ -1964,13 +2472,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>1991</v>
@@ -1979,13 +2487,13 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4">
         <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M4">
         <v>66</v>
@@ -2018,13 +2526,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>1991</v>
@@ -2033,13 +2541,13 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5">
         <v>120</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M5">
         <v>36</v>
@@ -2051,7 +2559,7 @@
         <v>444</v>
       </c>
       <c r="P5">
-        <v>49</v>
+        <v>47.5</v>
       </c>
       <c r="Q5">
         <f>MEDIAN(0,255,INT(P5/20+SQRT(H5)/40+SQRT(M5)/2+(SQRT(O5)-SQRT(185))))</f>
@@ -2067,6 +2575,222 @@
       </c>
       <c r="T5">
         <f t="shared" si="3"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6">
+        <v>2002</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6">
+        <v>160</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6">
+        <v>118</v>
+      </c>
+      <c r="N6">
+        <v>16</v>
+      </c>
+      <c r="O6">
+        <v>185</v>
+      </c>
+      <c r="P6">
+        <v>50</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q8" si="4">MEDIAN(0,255,INT(P6/20+SQRT(H6)/40+SQRT(M6)/2+(SQRT(O6)-SQRT(185))))</f>
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <f>Q6*50000/16</f>
+        <v>25000</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S8" si="5">MEDIAN(0,255,INT(SQRT(H6)/200+SQRT(M6)/2+(SQRT(O6)-SQRT(185))))</f>
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <f>S6*300/16</f>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7">
+        <v>2002</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7">
+        <v>80</v>
+      </c>
+      <c r="N7">
+        <v>16</v>
+      </c>
+      <c r="O7">
+        <v>222</v>
+      </c>
+      <c r="P7">
+        <v>46.4</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R9" si="6">Q7*50000/16</f>
+        <v>25000</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7:T9" si="7">S7*300/16</f>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8">
+        <v>2002</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8">
+        <v>66</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>370</v>
+      </c>
+      <c r="P8">
+        <v>52.9</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>37500</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9">
+        <v>2002</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9">
+        <v>160</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9">
+        <v>36</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>444</v>
+      </c>
+      <c r="P9">
+        <v>51.3</v>
+      </c>
+      <c r="Q9">
+        <f>MEDIAN(0,255,INT(P9/20+SQRT(H9)/40+SQRT(M9)/2+(SQRT(O9)-SQRT(185))))</f>
+        <v>13</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>40625</v>
+      </c>
+      <c r="S9">
+        <f>MEDIAN(0,255,INT(SQRT(H9)/200+SQRT(M9)/2+(SQRT(O9)-SQRT(185))))</f>
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
         <v>187.5</v>
       </c>
     </row>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EDBCC2-CB5A-45BD-8DF2-7BFF575175D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07ADF04-422A-4D84-9BEA-76BD29FACDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="133">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DF4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DF5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -313,10 +309,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>df4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>df5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -478,6 +470,106 @@
   </si>
   <si>
     <t>RW25T (25m Express Soft Sleeper Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df4k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df4h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4 (Dongfeng 4 Diesel Locomotive, Passenger Version)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4 (Dongfeng 4 Diesel Locomotive, Freight Version)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL25K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl25k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL25K (25m Rapid Luggage Car)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_MAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL25G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl25g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL25G (25m Improved Luggage Car)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ25K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RZ25K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YW25K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW25K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz25k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rz25k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yw25k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw25k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ25K (25m Rapid Hard Seat Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RZ25K (25m Rapid Soft Seat Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YW25K (25m Rapid Hard Sleeper Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW25K (25m Rapid Soft Sleeper Passenger Coach)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -816,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="T19" sqref="T18:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -854,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -863,22 +955,22 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
-      </c>
-      <c r="O1" t="s">
-        <v>56</v>
       </c>
       <c r="P1" t="s">
         <v>18</v>
       </c>
       <c r="Q1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -893,16 +985,16 @@
         <v>27</v>
       </c>
       <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
-        <v>60</v>
-      </c>
       <c r="X1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>21</v>
@@ -925,13 +1017,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -975,7 +1067,7 @@
         <v>235.09563</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R27" si="0">MEDIAN(255, INT(M2/10+SQRT(K2)/20+SQRT(L2)+P2+20-J2), 0)</f>
+        <f>MEDIAN(255, INT((M2/10+SQRT(K2)/20+SQRT(L2)+P2+20-J2)), 0)</f>
         <v>53</v>
       </c>
       <c r="S2">
@@ -983,12 +1075,12 @@
         <v>165625</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T27" si="1">MEDIAN(0, 255, INT(SQRT(K2)/100+SQRT(L2)+P2+40/J2-2))</f>
-        <v>39</v>
+        <f>MEDIAN(0, 255, INT((SQRT(K2)/100+SQRT(L2)+P2+40/J2-2)/2))</f>
+        <v>19</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U27" si="2">IF(E2="Steam", T2*350/16, IF(E2="Diesel", T2*325/16,  T2*300/16))</f>
-        <v>853.125</v>
+        <f>IF(E2="Steam", T2*350/16*12, IF(E2="Diesel", T2*325/16*12,  T2*300/16*12))</f>
+        <v>4987.5</v>
       </c>
       <c r="V2">
         <f>W2+X2+Y2</f>
@@ -1016,13 +1108,13 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1031,47 +1123,47 @@
         <v>1934</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O27" si="3">M3-N3</f>
+        <f t="shared" ref="O3:O28" si="0">M3-N3</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q27" si="4">O3*P3*9.8</f>
+        <f t="shared" ref="Q3:Q28" si="1">O3*P3*9.8</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R3:R28" si="2">MEDIAN(255, INT((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3)), 0)</f>
         <v>20</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S27" si="5">R3*50000/16</f>
+        <f t="shared" ref="S3:S28" si="3">R3*50000/16</f>
         <v>62500</v>
       </c>
       <c r="T3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T3:T28" si="4">MEDIAN(0, 255, INT((SQRT(K3)/100+SQRT(L3)+P3+40/J3-2)/2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U3:U28" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V27" si="6">W3+X3+Y3</f>
+        <f t="shared" ref="V3:V28" si="6">W3+X3+Y3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="2" t="e">
-        <f t="shared" ref="AC3:AC27" si="7">AVERAGE(Z3:AB3)</f>
+        <f t="shared" ref="AC3:AC28" si="7">AVERAGE(Z3:AB3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -1080,27 +1172,27 @@
         <v>1933</v>
       </c>
       <c r="O4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T4" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U4" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U4" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V4">
@@ -1114,13 +1206,13 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -1129,27 +1221,27 @@
         <v>1956</v>
       </c>
       <c r="O5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T5" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U5" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V5">
@@ -1163,13 +1255,13 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1178,27 +1270,27 @@
         <v>1957</v>
       </c>
       <c r="O6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T6" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U6" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V6">
@@ -1212,39 +1304,39 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T7" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U7" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V7">
@@ -1258,47 +1350,80 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8">
-        <v>1974</v>
+        <v>1969</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>120</v>
+      </c>
+      <c r="L8">
+        <v>2610</v>
+      </c>
+      <c r="M8">
+        <v>138</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="P8">
+        <v>0.24199999999999999</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>327.28080000000006</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>165625</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S8">
+        <v>25</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6093.75</v>
       </c>
       <c r="V8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
       </c>
       <c r="AC8" s="2" t="e">
         <f t="shared" si="7"/>
@@ -1307,91 +1432,139 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9">
-        <v>1976</v>
+        <v>1969</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>32</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>2610</v>
+      </c>
+      <c r="M9">
+        <v>138</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="P9">
+        <v>0.30499999999999999</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>412.48199999999997</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9" si="8">R9*50000/16</f>
+        <v>165625</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S9">
+        <v>25</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6093.75</v>
       </c>
       <c r="V9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="V9" si="9">W9+X9+Y9</f>
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10">
-        <v>1874</v>
+        <v>1976</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T10" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V10">
@@ -1405,42 +1578,42 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11">
-        <v>1992</v>
+        <v>1874</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T11" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V11">
@@ -1454,39 +1627,42 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>1992</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T12" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V12">
@@ -1500,42 +1676,39 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13">
-        <v>2005</v>
+        <v>51</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T13" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V13">
@@ -1549,42 +1722,42 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14">
-        <v>1958</v>
+        <v>2005</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T14" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V14">
@@ -1598,42 +1771,42 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15">
-        <v>1979</v>
+        <v>1958</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T15" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V15">
@@ -1647,42 +1820,42 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16">
-        <v>1989</v>
+        <v>1979</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V16">
@@ -1696,42 +1869,42 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T17" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V17">
@@ -1745,170 +1918,185 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18">
-        <v>6144</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18">
-        <v>2010</v>
-      </c>
-      <c r="G18">
-        <v>30</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-      <c r="K18">
-        <v>120</v>
-      </c>
-      <c r="L18">
-        <v>9789</v>
-      </c>
-      <c r="M18">
-        <v>138</v>
+        <v>1995</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="P18">
-        <v>0.38450000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T18" t="e">
         <f t="shared" si="4"/>
-        <v>519.99779999999998</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="S18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
         <f t="shared" si="5"/>
-        <v>396875</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="2"/>
-        <v>1950</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V18">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>8</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C19">
+        <v>6144</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19">
+        <v>2010</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>120</v>
+      </c>
+      <c r="L19">
+        <v>9789</v>
+      </c>
+      <c r="M19">
+        <v>138</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="P19">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>519.99779999999998</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>396875</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>11700</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>8</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20">
         <v>2012</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T20" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="O20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V20">
@@ -1922,27 +2110,27 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T21" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V21">
@@ -1956,27 +2144,27 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T22" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V22">
@@ -1990,27 +2178,27 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T23" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V23">
@@ -2024,27 +2212,27 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T24" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T24" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V24">
@@ -2058,27 +2246,27 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T25" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V25">
@@ -2092,27 +2280,27 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T26" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T26" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V26">
@@ -2126,34 +2314,68 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T27" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O28">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S27">
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" t="e">
         <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="T27" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -2274,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2364,13 +2586,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
       </c>
       <c r="E2">
         <v>1991</v>
@@ -2379,13 +2601,13 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2">
         <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M2">
         <v>118</v>
@@ -2394,7 +2616,7 @@
         <v>16</v>
       </c>
       <c r="O2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P2">
         <v>47.3</v>
@@ -2409,22 +2631,22 @@
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S4" si="1">MEDIAN(0,255,INT(SQRT(H2)/200+SQRT(M2)/2+(SQRT(O2)-SQRT(185))))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T2">
-        <f>S2*300/16</f>
-        <v>93.75</v>
+        <f>S2*300/16*12</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>1991</v>
@@ -2433,13 +2655,13 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H3">
         <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M3">
         <v>80</v>
@@ -2448,7 +2670,7 @@
         <v>16</v>
       </c>
       <c r="O3">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="P3">
         <v>45.3</v>
@@ -2463,22 +2685,22 @@
       </c>
       <c r="S3">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T5" si="3">S3*300/16</f>
-        <v>93.75</v>
+        <f t="shared" ref="T3:T29" si="3">S3*300/16*12</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
       </c>
       <c r="E4">
         <v>1991</v>
@@ -2487,13 +2709,13 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H4">
         <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M4">
         <v>66</v>
@@ -2502,37 +2724,37 @@
         <v>12</v>
       </c>
       <c r="O4">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="P4">
         <v>48.5</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>37500</v>
+        <v>40625</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T4">
         <f t="shared" si="3"/>
-        <v>168.75</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
       </c>
       <c r="E5">
         <v>1991</v>
@@ -2541,13 +2763,13 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H5">
         <v>120</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M5">
         <v>36</v>
@@ -2556,7 +2778,7 @@
         <v>8</v>
       </c>
       <c r="O5">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="P5">
         <v>47.5</v>
@@ -2571,22 +2793,22 @@
       </c>
       <c r="S5">
         <f>MEDIAN(0,255,INT(SQRT(H5)/200+SQRT(M5)/2+(SQRT(O5)-SQRT(185))))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T5">
         <f t="shared" si="3"/>
-        <v>187.5</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>2002</v>
@@ -2595,13 +2817,13 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H6">
         <v>160</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M6">
         <v>118</v>
@@ -2610,7 +2832,7 @@
         <v>16</v>
       </c>
       <c r="O6">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P6">
         <v>50</v>
@@ -2625,22 +2847,22 @@
       </c>
       <c r="S6">
         <f t="shared" ref="S6:S8" si="5">MEDIAN(0,255,INT(SQRT(H6)/200+SQRT(M6)/2+(SQRT(O6)-SQRT(185))))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T6">
-        <f>S6*300/16</f>
-        <v>93.75</v>
+        <f t="shared" si="3"/>
+        <v>1350</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E7">
         <v>2002</v>
@@ -2649,13 +2871,13 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H7">
         <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M7">
         <v>80</v>
@@ -2664,7 +2886,7 @@
         <v>16</v>
       </c>
       <c r="O7">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="P7">
         <v>46.4</v>
@@ -2674,27 +2896,27 @@
         <v>8</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R9" si="6">Q7*50000/16</f>
+        <f t="shared" ref="R7:R29" si="6">Q7*50000/16</f>
         <v>25000</v>
       </c>
       <c r="S7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7:T9" si="7">S7*300/16</f>
-        <v>93.75</v>
+        <f t="shared" si="3"/>
+        <v>1350</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>2002</v>
@@ -2703,13 +2925,13 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H8">
         <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M8">
         <v>66</v>
@@ -2718,37 +2940,37 @@
         <v>12</v>
       </c>
       <c r="O8">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="P8">
         <v>52.9</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
-        <v>37500</v>
+        <v>40625</v>
       </c>
       <c r="S8">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T8">
-        <f t="shared" si="7"/>
-        <v>168.75</v>
+        <f t="shared" si="3"/>
+        <v>2250</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>2002</v>
@@ -2757,13 +2979,13 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H9">
         <v>160</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M9">
         <v>36</v>
@@ -2772,26 +2994,602 @@
         <v>8</v>
       </c>
       <c r="O9">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="P9">
         <v>51.3</v>
       </c>
       <c r="Q9">
         <f>MEDIAN(0,255,INT(P9/20+SQRT(H9)/40+SQRT(M9)/2+(SQRT(O9)-SQRT(185))))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R9">
         <f t="shared" si="6"/>
-        <v>40625</v>
+        <v>43750</v>
       </c>
       <c r="S9">
         <f>MEDIAN(0,255,INT(SQRT(H9)/200+SQRT(M9)/2+(SQRT(O9)-SQRT(185))))</f>
+        <v>11</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10">
+        <v>1996</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10">
+        <v>140</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10">
+        <v>71</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>45.1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q29" si="7">MEDIAN(0,255,INT(P10/20+SQRT(H10)/40+SQRT(M10)/2+(SQRT(O10)-SQRT(185))))</f>
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>21875</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ref="S10:S29" si="8">MEDIAN(0,255,INT(SQRT(H10)/200+SQRT(M10)/2+(SQRT(O10)-SQRT(185))))</f>
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>1991</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11">
+        <v>71</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>200</v>
+      </c>
+      <c r="P11">
+        <v>46</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>21875</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12">
+        <v>1996</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12">
+        <v>140</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12">
+        <v>118</v>
+      </c>
+      <c r="N12">
+        <v>16</v>
+      </c>
+      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="P12">
+        <v>48.8</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>25000</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>1996</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13">
+        <v>140</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13">
+        <v>80</v>
+      </c>
+      <c r="N13">
+        <v>16</v>
+      </c>
+      <c r="O13">
+        <v>240</v>
+      </c>
+      <c r="P13">
+        <v>41.6</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>25000</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14">
+        <v>1996</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14">
+        <v>140</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14">
+        <v>66</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>400</v>
+      </c>
+      <c r="P14">
+        <v>46.5</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>40625</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="7"/>
-        <v>187.5</v>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15">
+        <v>1996</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15">
+        <v>140</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15">
+        <v>36</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
+        <v>480</v>
+      </c>
+      <c r="P15">
+        <v>47</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>40625</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07ADF04-422A-4D84-9BEA-76BD29FACDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3FB35D-CCD4-469A-9373-C4E21AF9E2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="154">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -570,6 +570,90 @@
   </si>
   <si>
     <t>RW25K (25m Rapid Soft Sleeper Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ze</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR200J1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zesw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zyt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zysw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>we</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zec</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -910,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T18:T19"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1151,7 @@
         <v>235.09563</v>
       </c>
       <c r="R2">
-        <f>MEDIAN(255, INT((M2/10+SQRT(K2)/20+SQRT(L2)+P2+20-J2)), 0)</f>
+        <f>MEDIAN(255, ROUND((M2/10+SQRT(K2)/20+SQRT(L2)+P2+20-J2), 0), 0)</f>
         <v>53</v>
       </c>
       <c r="S2">
@@ -1075,12 +1159,12 @@
         <v>165625</v>
       </c>
       <c r="T2">
-        <f>MEDIAN(0, 255, INT((SQRT(K2)/100+SQRT(L2)+P2+40/J2-2)/2))</f>
-        <v>19</v>
+        <f>MEDIAN(0, 255, ROUND((SQRT(K2)/100+SQRT(L2)+P2+40/J2-2)/2,0))</f>
+        <v>20</v>
       </c>
       <c r="U2">
         <f>IF(E2="Steam", T2*350/16*12, IF(E2="Diesel", T2*325/16*12,  T2*300/16*12))</f>
-        <v>4987.5</v>
+        <v>5250</v>
       </c>
       <c r="V2">
         <f>W2+X2+Y2</f>
@@ -1131,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R28" si="2">MEDIAN(255, INT((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3)), 0)</f>
+        <f t="shared" ref="R3:R28" si="2">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="S3">
@@ -1139,7 +1223,7 @@
         <v>62500</v>
       </c>
       <c r="T3" t="e">
-        <f t="shared" ref="T3:T28" si="4">MEDIAN(0, 255, INT((SQRT(K3)/100+SQRT(L3)+P3+40/J3-2)/2))</f>
+        <f t="shared" ref="T3:T28" si="4">MEDIAN(0, 255, ROUND((SQRT(K3)/100+SQRT(L3)+P3+40/J3-2)/2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U3" t="e">
@@ -1398,11 +1482,11 @@
       </c>
       <c r="R8">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S8">
         <f t="shared" si="3"/>
-        <v>165625</v>
+        <v>168750</v>
       </c>
       <c r="T8">
         <f t="shared" si="4"/>
@@ -1480,11 +1564,11 @@
       </c>
       <c r="R9">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S9">
         <f t="shared" ref="S9" si="8">R9*50000/16</f>
-        <v>165625</v>
+        <v>168750</v>
       </c>
       <c r="T9">
         <f t="shared" si="4"/>
@@ -2012,11 +2096,11 @@
       </c>
       <c r="R19">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S19">
         <f t="shared" si="3"/>
-        <v>396875</v>
+        <v>400000</v>
       </c>
       <c r="T19">
         <f t="shared" si="4"/>
@@ -2388,15 +2472,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AD1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2446,46 +2530,884 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2">
+        <v>2017</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>160</v>
+      </c>
+      <c r="K2">
+        <v>7614</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>185</v>
+      </c>
+      <c r="W2">
+        <v>78</v>
+      </c>
+      <c r="X2">
+        <v>0.314</v>
+      </c>
+      <c r="Y2">
+        <f>W2*X2*9.8</f>
+        <v>240.02160000000003</v>
+      </c>
+      <c r="Z2">
+        <f>MAX(1, INT(W2/10+SQRT(J2)/20+SQRT(K2)+X2+SQRT(P2)/2+SQRT(T2)-SQRT(185)+20-I2))</f>
+        <v>96</v>
+      </c>
+      <c r="AA2">
+        <f>Z2*50000/16</f>
+        <v>300000</v>
+      </c>
+      <c r="AB2">
+        <f>MAX(1, ROUND((SQRT(J2)/100+SQRT(K2)+X2+(40/I2-2)+SQRT(P2)/2+SQRT(T2)-SQRT(185))/2, 0))</f>
+        <v>44</v>
+      </c>
+      <c r="AC2">
+        <f>AB2*300/16</f>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>160</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3">
+        <v>98</v>
+      </c>
+      <c r="T3">
+        <v>300</v>
+      </c>
+      <c r="W3">
+        <v>56</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z17" si="0">MAX(1, INT(W3/10+SQRT(J3)/20+SQRT(K3)+X3+SQRT(P3)/2+SQRT(T3)-SQRT(185)+20-I3))</f>
+        <v>14</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA17" si="1">Z3*50000/16</f>
+        <v>43750</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB17" si="2">MAX(1, ROUND((SQRT(J3)/100+SQRT(K3)+X3+(40/I3-2)+SQRT(P3)/2+SQRT(T3)-SQRT(185))/2, 0))</f>
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC17" si="3">AB3*300/16</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>160</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4">
+        <v>71</v>
+      </c>
+      <c r="T4">
+        <v>500</v>
+      </c>
+      <c r="W4">
+        <v>56</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="1"/>
+        <v>59375</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="3"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>160</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5">
+        <v>36</v>
+      </c>
+      <c r="T5">
+        <v>700</v>
+      </c>
+      <c r="W5">
+        <v>56</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>68750</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>160</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="T6">
+        <v>800</v>
+      </c>
+      <c r="W6">
+        <v>56</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>71875</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="3"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>160</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7">
+        <v>22</v>
+      </c>
+      <c r="T7">
+        <v>960</v>
+      </c>
+      <c r="W7">
+        <v>56</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>78125</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="3"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>160</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8">
+        <f>Q8+R8</f>
+        <v>81</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>72</v>
+      </c>
+      <c r="T8">
+        <f>SQRT((Q8*U8^2+R8*V8^2)/(Q8+R8))</f>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="U8">
+        <v>700</v>
+      </c>
+      <c r="V8">
+        <v>300</v>
+      </c>
+      <c r="W8">
+        <v>56</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>160</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:P13" si="4">Q9+R9</f>
+        <v>75</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>66</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T17" si="5">SQRT((Q9*U9^2+R9*V9^2)/(Q9+R9))</f>
+        <v>394.96835316262997</v>
+      </c>
+      <c r="U9">
+        <v>800</v>
+      </c>
+      <c r="V9">
+        <v>300</v>
+      </c>
+      <c r="W9">
+        <v>56</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>160</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>70</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>394.52836600040223</v>
+      </c>
+      <c r="U10">
+        <v>960</v>
+      </c>
+      <c r="V10">
+        <v>300</v>
+      </c>
+      <c r="W10">
+        <v>56</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>160</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>52</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>534.23762134987624</v>
+      </c>
+      <c r="U11">
+        <v>700</v>
+      </c>
+      <c r="V11">
+        <v>500</v>
+      </c>
+      <c r="W11">
+        <v>56</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>59375</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="3"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>160</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>48</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>558.19257193948852</v>
+      </c>
+      <c r="U12">
+        <v>800</v>
+      </c>
+      <c r="V12">
+        <v>500</v>
+      </c>
+      <c r="W12">
+        <v>56</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="1"/>
+        <v>62500</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="3"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>160</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>567.41267421264286</v>
+      </c>
+      <c r="U13">
+        <v>960</v>
+      </c>
+      <c r="V13">
+        <v>500</v>
+      </c>
+      <c r="W13">
+        <v>56</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="1"/>
+        <v>62500</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="3"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>160</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14">
+        <v>46</v>
+      </c>
+      <c r="T14">
+        <v>300</v>
+      </c>
+      <c r="W14">
+        <v>56</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="1"/>
+        <v>40625</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>160</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15">
+        <v>66</v>
+      </c>
+      <c r="T15">
+        <v>600</v>
+      </c>
+      <c r="W15">
+        <v>56</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>65625</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>160</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16">
+        <v>40</v>
+      </c>
+      <c r="T16">
+        <v>900</v>
+      </c>
+      <c r="W16">
+        <v>56</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="1"/>
+        <v>78125</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="3"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>160</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17">
+        <v>16</v>
+      </c>
+      <c r="T17">
+        <v>1200</v>
+      </c>
+      <c r="W17">
+        <v>56</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="1"/>
+        <v>90625</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2498,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2622,15 +3544,15 @@
         <v>47.3</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q4" si="0">MEDIAN(0,255,INT(P2/20+SQRT(H2)/40+SQRT(M2)/2+(SQRT(O2)-SQRT(185))))</f>
-        <v>8</v>
+        <f>MEDIAN(0,255,ROUND(P2/20+SQRT(H2)/40+SQRT(M2)/2+(SQRT(O2)-SQRT(185)), 0))</f>
+        <v>9</v>
       </c>
       <c r="R2">
         <f>Q2*50000/16</f>
-        <v>25000</v>
+        <v>28125</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S4" si="1">MEDIAN(0,255,INT(SQRT(H2)/200+SQRT(M2)/2+(SQRT(O2)-SQRT(185))))</f>
+        <f>MEDIAN(0,255,ROUND(SQRT(H2)/200+SQRT(M2)/2+(SQRT(O2)-SQRT(185)),0))</f>
         <v>6</v>
       </c>
       <c r="T2">
@@ -2676,15 +3598,15 @@
         <v>45.3</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" ref="Q3:Q29" si="0">MEDIAN(0,255,ROUND(P3/20+SQRT(H3)/40+SQRT(M3)/2+(SQRT(O3)-SQRT(185)), 0))</f>
+        <v>9</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R5" si="2">Q3*50000/16</f>
-        <v>25000</v>
+        <f t="shared" ref="R3:R5" si="1">Q3*50000/16</f>
+        <v>28125</v>
       </c>
       <c r="S3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S3:S29" si="2">MEDIAN(0,255,ROUND(SQRT(H3)/200+SQRT(M3)/2+(SQRT(O3)-SQRT(185)),0))</f>
         <v>6</v>
       </c>
       <c r="T3">
@@ -2734,16 +3656,16 @@
         <v>13</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40625</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="T4">
         <f t="shared" si="3"/>
-        <v>2250</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -2784,15 +3706,15 @@
         <v>47.5</v>
       </c>
       <c r="Q5">
-        <f>MEDIAN(0,255,INT(P5/20+SQRT(H5)/40+SQRT(M5)/2+(SQRT(O5)-SQRT(185))))</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
-        <v>40625</v>
+        <f t="shared" si="1"/>
+        <v>43750</v>
       </c>
       <c r="S5">
-        <f>MEDIAN(0,255,INT(SQRT(H5)/200+SQRT(M5)/2+(SQRT(O5)-SQRT(185))))</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="T5">
@@ -2838,15 +3760,15 @@
         <v>50</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q8" si="4">MEDIAN(0,255,INT(P6/20+SQRT(H6)/40+SQRT(M6)/2+(SQRT(O6)-SQRT(185))))</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="R6">
         <f>Q6*50000/16</f>
-        <v>25000</v>
+        <v>28125</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S8" si="5">MEDIAN(0,255,INT(SQRT(H6)/200+SQRT(M6)/2+(SQRT(O6)-SQRT(185))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T6">
@@ -2892,15 +3814,15 @@
         <v>46.4</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R29" si="6">Q7*50000/16</f>
-        <v>25000</v>
+        <f t="shared" ref="R7:R29" si="4">Q7*50000/16</f>
+        <v>28125</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T7">
@@ -2946,20 +3868,20 @@
         <v>52.9</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="R8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>40625</v>
       </c>
       <c r="S8">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
-        <v>2250</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -3000,15 +3922,15 @@
         <v>51.3</v>
       </c>
       <c r="Q9">
-        <f>MEDIAN(0,255,INT(P9/20+SQRT(H9)/40+SQRT(M9)/2+(SQRT(O9)-SQRT(185))))</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="R9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>43750</v>
       </c>
       <c r="S9">
-        <f>MEDIAN(0,255,INT(SQRT(H9)/200+SQRT(M9)/2+(SQRT(O9)-SQRT(185))))</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="T9">
@@ -3054,20 +3976,20 @@
         <v>45.1</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q29" si="7">MEDIAN(0,255,INT(P10/20+SQRT(H10)/40+SQRT(M10)/2+(SQRT(O10)-SQRT(185))))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="R10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>21875</v>
       </c>
       <c r="S10">
-        <f t="shared" ref="S10:S29" si="8">MEDIAN(0,255,INT(SQRT(H10)/200+SQRT(M10)/2+(SQRT(O10)-SQRT(185))))</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="T10">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -3108,20 +4030,20 @@
         <v>46</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="R11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>21875</v>
       </c>
       <c r="S11">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="T11">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -3162,15 +4084,15 @@
         <v>48.8</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="R12">
-        <f t="shared" si="6"/>
-        <v>25000</v>
+        <f t="shared" si="4"/>
+        <v>28125</v>
       </c>
       <c r="S12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T12">
@@ -3216,15 +4138,15 @@
         <v>41.6</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="R13">
-        <f t="shared" si="6"/>
-        <v>25000</v>
+        <f t="shared" si="4"/>
+        <v>28125</v>
       </c>
       <c r="S13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T13">
@@ -3270,20 +4192,20 @@
         <v>46.5</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="R14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>40625</v>
       </c>
       <c r="S14">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="T14">
         <f t="shared" si="3"/>
-        <v>2250</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -3324,15 +4246,15 @@
         <v>47</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="R15">
-        <f t="shared" si="6"/>
-        <v>40625</v>
+        <f t="shared" si="4"/>
+        <v>43750</v>
       </c>
       <c r="S15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="T15">
@@ -3342,15 +4264,15 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16">
@@ -3360,15 +4282,15 @@
     </row>
     <row r="17" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T17">
@@ -3378,15 +4300,15 @@
     </row>
     <row r="18" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T18">
@@ -3396,15 +4318,15 @@
     </row>
     <row r="19" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19">
@@ -3414,15 +4336,15 @@
     </row>
     <row r="20" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T20">
@@ -3432,15 +4354,15 @@
     </row>
     <row r="21" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T21">
@@ -3450,15 +4372,15 @@
     </row>
     <row r="22" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T22">
@@ -3468,15 +4390,15 @@
     </row>
     <row r="23" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T23">
@@ -3486,15 +4408,15 @@
     </row>
     <row r="24" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T24">
@@ -3504,15 +4426,15 @@
     </row>
     <row r="25" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T25">
@@ -3522,15 +4444,15 @@
     </row>
     <row r="26" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T26">
@@ -3540,15 +4462,15 @@
     </row>
     <row r="27" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T27">
@@ -3558,15 +4480,15 @@
     </row>
     <row r="28" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T28">
@@ -3576,15 +4498,15 @@
     </row>
     <row r="29" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T29">

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3FB35D-CCD4-469A-9373-C4E21AF9E2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C30558-2A9C-445A-9454-787A283F27B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="0" windowWidth="12960" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="163">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -654,6 +654,42 @@
   </si>
   <si>
     <t>zec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HXD3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hxd3d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD25G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kd25g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD25G (25m Improved Air Conditioner Generator Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_EXPRESS, CC_BULK, CC_PIECE_GOODS, CC_COVERED, CC_OVERSIZED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_PASSENGERS, CC_LIQUID, CC_HAZARDOUS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -994,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1674,7 +1710,7 @@
         <v>51</v>
       </c>
       <c r="F11">
-        <v>1874</v>
+        <v>1974</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
@@ -2071,6 +2107,9 @@
       <c r="G19">
         <v>30</v>
       </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
       <c r="J19">
         <v>6</v>
       </c>
@@ -2193,37 +2232,100 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21">
+        <v>6145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>2012</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>170</v>
+      </c>
+      <c r="L21">
+        <v>9789</v>
+      </c>
+      <c r="M21">
+        <v>126</v>
+      </c>
       <c r="O21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="P21">
+        <v>0.34</v>
       </c>
       <c r="Q21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>419.83200000000005</v>
       </c>
       <c r="R21">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S21">
         <f t="shared" si="3"/>
-        <v>62500</v>
-      </c>
-      <c r="T21" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" t="e">
+        <v>396875</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>11700</v>
       </c>
       <c r="V21">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>8</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
@@ -2474,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -2962,7 +3064,7 @@
         <v>66</v>
       </c>
       <c r="T9">
-        <f t="shared" ref="T9:T17" si="5">SQRT((Q9*U9^2+R9*V9^2)/(Q9+R9))</f>
+        <f t="shared" ref="T9:T13" si="5">SQRT((Q9*U9^2+R9*V9^2)/(Q9+R9))</f>
         <v>394.96835316262997</v>
       </c>
       <c r="U9">
@@ -3421,7 +3523,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S29"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4263,13 +4365,49 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16">
+        <v>1991</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16">
+        <v>120</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>16</v>
+      </c>
+      <c r="O16">
+        <v>185</v>
+      </c>
+      <c r="P16">
+        <v>60</v>
+      </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9375</v>
       </c>
       <c r="S16">
         <f t="shared" si="2"/>
@@ -4524,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4556,7 +4694,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -4623,13 +4761,49 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="U2" t="e">
-        <f>MEDIAN(0,255,INT(S2/20+SQRT(J2)/40+SQRT(P2)/2+(LOG((R2/185),2))^3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="W2" t="e">
-        <f>MEDIAN(0,255,INT(SQRT(J2)/200+SQRT(P2)/2+(LOG((R2/185),2))^3))</f>
-        <v>#NUM!</v>
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2">
+        <v>1987</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P2">
+        <v>61</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>185</v>
+      </c>
+      <c r="S2">
+        <v>22.5</v>
+      </c>
+      <c r="U2">
+        <f>MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <f>MEDIAN(0,255,ROUND(SQRT(J2)/200+SQRT(P2)/2+(SQRT(R2)-SQRT(185))^3,0))</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C30558-2A9C-445A-9454-787A283F27B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA8C424-D760-44D3-90CD-574ADA2A90B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="0" windowWidth="12960" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="165">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -690,6 +690,14 @@
   </si>
   <si>
     <t>CC_PASSENGERS, CC_LIQUID, CC_HAZARDOUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P62</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p62</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4660,10 +4668,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4806,6 +4814,46 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3">
+        <v>1980</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>185</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="U3">
+        <f>MEDIAN(0,255,ROUND(S3/20+SQRT(J3)/40+SQRT(P3)/2+(SQRT(R3)-SQRT(185)),0))</f>
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <f>MEDIAN(0,255,ROUND(SQRT(J3)/200+SQRT(P3)/2+(SQRT(R3)-SQRT(185))^3,0))</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA8C424-D760-44D3-90CD-574ADA2A90B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7D2F07-106A-401E-9EAD-B7D6DD0AECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="167">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -698,6 +698,14 @@
   </si>
   <si>
     <t>p62</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH5A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no power</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2582,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="S13" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2789,20 +2797,24 @@
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y42" si="0">W3*X3*9.8</f>
+        <v>0</v>
+      </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z17" si="0">MAX(1, INT(W3/10+SQRT(J3)/20+SQRT(K3)+X3+SQRT(P3)/2+SQRT(T3)-SQRT(185)+20-I3))</f>
+        <f t="shared" ref="Z3:Z30" si="1">MAX(1, INT(W3/10+SQRT(J3)/20+SQRT(K3)+X3+SQRT(P3)/2+SQRT(T3)-SQRT(185)+20-I3))</f>
         <v>14</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA17" si="1">Z3*50000/16</f>
+        <f t="shared" ref="AA3:AA30" si="2">Z3*50000/16</f>
         <v>43750</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB17" si="2">MAX(1, ROUND((SQRT(J3)/100+SQRT(K3)+X3+(40/I3-2)+SQRT(P3)/2+SQRT(T3)-SQRT(185))/2, 0))</f>
+        <f t="shared" ref="AB3:AB30" si="3">MAX(1, ROUND((SQRT(J3)/100+SQRT(K3)+X3+(40/I3-2)+SQRT(P3)/2+SQRT(T3)-SQRT(185))/2, 0))</f>
         <v>4</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC17" si="3">AB3*300/16</f>
+        <f t="shared" ref="AC3:AC30" si="4">AB3*300/16</f>
         <v>75</v>
       </c>
     </row>
@@ -2834,20 +2846,24 @@
       <c r="X4">
         <v>0</v>
       </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59375</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131.25</v>
       </c>
     </row>
@@ -2879,20 +2895,24 @@
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68750</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
     </row>
@@ -2924,20 +2944,24 @@
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71875</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>168.75</v>
       </c>
     </row>
@@ -2969,20 +2993,24 @@
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78125</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>187.5</v>
       </c>
     </row>
@@ -3028,20 +3056,24 @@
       <c r="X8">
         <v>0</v>
       </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93.75</v>
       </c>
     </row>
@@ -3062,7 +3094,7 @@
         <v>90</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:P13" si="4">Q9+R9</f>
+        <f t="shared" ref="P9:P13" si="5">Q9+R9</f>
         <v>75</v>
       </c>
       <c r="Q9">
@@ -3072,7 +3104,7 @@
         <v>66</v>
       </c>
       <c r="T9">
-        <f t="shared" ref="T9:T13" si="5">SQRT((Q9*U9^2+R9*V9^2)/(Q9+R9))</f>
+        <f t="shared" ref="T9:T13" si="6">SQRT((Q9*U9^2+R9*V9^2)/(Q9+R9))</f>
         <v>394.96835316262997</v>
       </c>
       <c r="U9">
@@ -3087,20 +3119,24 @@
       <c r="X9">
         <v>0</v>
       </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93.75</v>
       </c>
     </row>
@@ -3121,7 +3157,7 @@
         <v>90</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="Q10">
@@ -3131,7 +3167,7 @@
         <v>70</v>
       </c>
       <c r="T10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>394.52836600040223</v>
       </c>
       <c r="U10">
@@ -3146,20 +3182,24 @@
       <c r="X10">
         <v>0</v>
       </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93.75</v>
       </c>
     </row>
@@ -3180,7 +3220,7 @@
         <v>90</v>
       </c>
       <c r="P11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="Q11">
@@ -3190,7 +3230,7 @@
         <v>52</v>
       </c>
       <c r="T11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>534.23762134987624</v>
       </c>
       <c r="U11">
@@ -3205,20 +3245,24 @@
       <c r="X11">
         <v>0</v>
       </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59375</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131.25</v>
       </c>
     </row>
@@ -3239,7 +3283,7 @@
         <v>90</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="Q12">
@@ -3249,7 +3293,7 @@
         <v>48</v>
       </c>
       <c r="T12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>558.19257193948852</v>
       </c>
       <c r="U12">
@@ -3264,20 +3308,24 @@
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62500</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131.25</v>
       </c>
     </row>
@@ -3298,7 +3346,7 @@
         <v>90</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="Q13">
@@ -3308,7 +3356,7 @@
         <v>50</v>
       </c>
       <c r="T13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>567.41267421264286</v>
       </c>
       <c r="U13">
@@ -3323,20 +3371,24 @@
       <c r="X13">
         <v>0</v>
       </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62500</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131.25</v>
       </c>
     </row>
@@ -3368,20 +3420,24 @@
       <c r="X14">
         <v>0</v>
       </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40625</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
     </row>
@@ -3413,20 +3469,24 @@
       <c r="X15">
         <v>0</v>
       </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65625</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
     </row>
@@ -3458,24 +3518,28 @@
       <c r="X16">
         <v>0</v>
       </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78125</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>187.5</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>148</v>
       </c>
@@ -3503,21 +3567,1421 @@
       <c r="X17">
         <v>0</v>
       </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="AA17">
+        <f t="shared" si="2"/>
+        <v>90625</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>250</v>
+      </c>
+      <c r="K18">
+        <v>1495</v>
+      </c>
+      <c r="L18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18">
+        <v>56</v>
+      </c>
+      <c r="T18">
+        <v>500</v>
+      </c>
+      <c r="W18">
+        <v>52.8</v>
+      </c>
+      <c r="X18">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="2"/>
+        <v>190625</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>487.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>250</v>
+      </c>
+      <c r="K19">
+        <v>1495</v>
+      </c>
+      <c r="L19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19">
+        <v>90</v>
+      </c>
+      <c r="T19">
+        <v>300</v>
+      </c>
+      <c r="W19">
+        <v>52.8</v>
+      </c>
+      <c r="X19">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="2"/>
+        <v>178125</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>250</v>
+      </c>
+      <c r="K20">
+        <v>1495</v>
+      </c>
+      <c r="L20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20">
+        <v>69</v>
+      </c>
+      <c r="T20">
+        <v>500</v>
+      </c>
+      <c r="W20">
+        <v>52.8</v>
+      </c>
+      <c r="X20">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="2"/>
+        <v>190625</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="4"/>
+        <v>487.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <v>250</v>
+      </c>
+      <c r="K21">
+        <v>1495</v>
+      </c>
+      <c r="L21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21">
+        <v>34</v>
+      </c>
+      <c r="T21">
+        <v>700</v>
+      </c>
+      <c r="W21">
+        <v>52.8</v>
+      </c>
+      <c r="X21">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="4"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>250</v>
+      </c>
+      <c r="K22">
+        <v>1495</v>
+      </c>
+      <c r="L22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22">
+        <v>28</v>
+      </c>
+      <c r="T22">
+        <v>800</v>
+      </c>
+      <c r="W22">
+        <v>52.8</v>
+      </c>
+      <c r="X22">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="2"/>
+        <v>206250</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="4"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>250</v>
+      </c>
+      <c r="K23">
+        <v>1495</v>
+      </c>
+      <c r="L23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+      <c r="T23">
+        <v>960</v>
+      </c>
+      <c r="W23">
+        <v>52.8</v>
+      </c>
+      <c r="X23">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="2"/>
+        <v>212500</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="4"/>
+        <v>562.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>250</v>
+      </c>
+      <c r="K24">
+        <v>1495</v>
+      </c>
+      <c r="L24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24">
+        <f>Q24+R24</f>
+        <v>75</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+      <c r="R24">
+        <v>66</v>
+      </c>
+      <c r="T24">
+        <f>SQRT((Q24*U24^2+R24*V24^2)/(Q24+R24))</f>
+        <v>371.48351242013422</v>
+      </c>
+      <c r="U24">
+        <v>700</v>
+      </c>
+      <c r="V24">
+        <v>300</v>
+      </c>
+      <c r="W24">
+        <v>52.8</v>
+      </c>
+      <c r="X24">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="2"/>
+        <v>181250</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="4"/>
+        <v>468.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>250</v>
+      </c>
+      <c r="K25">
+        <v>1495</v>
+      </c>
+      <c r="L25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P29" si="7">Q25+R25</f>
+        <v>69</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+      <c r="R25">
+        <v>60</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ref="T25:T29" si="8">SQRT((Q25*U25^2+R25*V25^2)/(Q25+R25))</f>
+        <v>402.16803755990185</v>
+      </c>
+      <c r="U25">
+        <v>800</v>
+      </c>
+      <c r="V25">
+        <v>300</v>
+      </c>
+      <c r="W25">
+        <v>52.8</v>
+      </c>
+      <c r="X25">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="2"/>
+        <v>184375</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="4"/>
+        <v>468.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26">
+        <v>16</v>
+      </c>
+      <c r="J26">
+        <v>250</v>
+      </c>
+      <c r="K26">
+        <v>1495</v>
+      </c>
+      <c r="L26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <v>63</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="8"/>
+        <v>402.88092965324239</v>
+      </c>
+      <c r="U26">
+        <v>960</v>
+      </c>
+      <c r="V26">
+        <v>300</v>
+      </c>
+      <c r="W26">
+        <v>52.8</v>
+      </c>
+      <c r="X26">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="2"/>
+        <v>184375</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="4"/>
+        <v>468.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+      <c r="J27">
+        <v>250</v>
+      </c>
+      <c r="K27">
+        <v>1495</v>
+      </c>
+      <c r="L27" t="s">
+        <v>90</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <v>50</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="8"/>
+        <v>535.35985046651138</v>
+      </c>
+      <c r="U27">
+        <v>700</v>
+      </c>
+      <c r="V27">
+        <v>500</v>
+      </c>
+      <c r="W27">
+        <v>52.8</v>
+      </c>
+      <c r="X27">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="2"/>
+        <v>193750</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="4"/>
+        <v>487.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28">
+        <v>16</v>
+      </c>
+      <c r="J28">
+        <v>250</v>
+      </c>
+      <c r="K28">
+        <v>1495</v>
+      </c>
+      <c r="L28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="Q28">
+        <v>9</v>
+      </c>
+      <c r="R28">
+        <v>46</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="8"/>
+        <v>560.19477132349402</v>
+      </c>
+      <c r="U28">
+        <v>800</v>
+      </c>
+      <c r="V28">
+        <v>500</v>
+      </c>
+      <c r="W28">
+        <v>52.8</v>
+      </c>
+      <c r="X28">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="2"/>
+        <v>193750</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="4"/>
+        <v>506.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="J29">
+        <v>250</v>
+      </c>
+      <c r="K29">
+        <v>1495</v>
+      </c>
+      <c r="L29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>48</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="8"/>
+        <v>569.75628317923997</v>
+      </c>
+      <c r="U29">
+        <v>960</v>
+      </c>
+      <c r="V29">
+        <v>500</v>
+      </c>
+      <c r="W29">
+        <v>52.8</v>
+      </c>
+      <c r="X29">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="2"/>
+        <v>193750</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="4"/>
+        <v>506.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30">
+        <v>16</v>
+      </c>
+      <c r="J30">
+        <v>250</v>
+      </c>
+      <c r="K30">
+        <v>1495</v>
+      </c>
+      <c r="L30" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30">
+        <v>40</v>
+      </c>
+      <c r="T30">
+        <v>300</v>
+      </c>
+      <c r="W30">
+        <v>52.8</v>
+      </c>
+      <c r="X30">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="2"/>
+        <v>171875</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="4"/>
+        <v>431.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31">
+        <v>16</v>
+      </c>
+      <c r="J31">
+        <v>250</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31">
+        <v>90</v>
+      </c>
+      <c r="T31">
+        <v>300</v>
+      </c>
+      <c r="W31">
+        <v>52.8</v>
+      </c>
+      <c r="X31">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" ref="Z31:Z42" si="9">MAX(1, INT(W31/10+SQRT(J31)/20+SQRT(K31)+X31+SQRT(P31)/2+SQRT(T31)-SQRT(185)+20-I31))</f>
+        <v>18</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" ref="AA31:AA42" si="10">Z31*50000/16</f>
+        <v>56250</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" ref="AB31:AB42" si="11">MAX(1, ROUND((SQRT(J31)/100+SQRT(K31)+X31+(40/I31-2)+SQRT(P31)/2+SQRT(T31)-SQRT(185))/2, 0))</f>
+        <v>5</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" ref="AC31:AC42" si="12">AB31*300/16</f>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>250</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32">
+        <v>69</v>
+      </c>
+      <c r="T32">
+        <v>500</v>
+      </c>
+      <c r="W32">
+        <v>52.8</v>
+      </c>
+      <c r="X32">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="10"/>
+        <v>71875</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="12"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33">
+        <v>16</v>
+      </c>
+      <c r="J33">
+        <v>250</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33">
+        <v>34</v>
+      </c>
+      <c r="T33">
+        <v>700</v>
+      </c>
+      <c r="W33">
+        <v>52.8</v>
+      </c>
+      <c r="X33">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="10"/>
+        <v>78125</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34">
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <v>250</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34">
+        <v>28</v>
+      </c>
+      <c r="T34">
+        <v>800</v>
+      </c>
+      <c r="W34">
+        <v>52.8</v>
+      </c>
+      <c r="X34">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="10"/>
+        <v>84375</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="12"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+      <c r="J35">
+        <v>250</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35">
+        <v>20</v>
+      </c>
+      <c r="T35">
+        <v>960</v>
+      </c>
+      <c r="W35">
+        <v>52.8</v>
+      </c>
+      <c r="X35">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="10"/>
         <v>90625</v>
       </c>
-      <c r="AB17">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="3"/>
-        <v>225</v>
+      <c r="AB35">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="12"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36">
+        <v>16</v>
+      </c>
+      <c r="J36">
+        <v>250</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36">
+        <f>Q36+R36</f>
+        <v>75</v>
+      </c>
+      <c r="Q36">
+        <v>9</v>
+      </c>
+      <c r="R36">
+        <v>66</v>
+      </c>
+      <c r="T36">
+        <f>SQRT((Q36*U36^2+R36*V36^2)/(Q36+R36))</f>
+        <v>371.48351242013422</v>
+      </c>
+      <c r="U36">
+        <v>700</v>
+      </c>
+      <c r="V36">
+        <v>300</v>
+      </c>
+      <c r="W36">
+        <v>52.8</v>
+      </c>
+      <c r="X36">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="10"/>
+        <v>62500</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="12"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37">
+        <v>16</v>
+      </c>
+      <c r="J37">
+        <v>250</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ref="P37:P41" si="13">Q37+R37</f>
+        <v>69</v>
+      </c>
+      <c r="Q37">
+        <v>9</v>
+      </c>
+      <c r="R37">
+        <v>60</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ref="T37:T41" si="14">SQRT((Q37*U37^2+R37*V37^2)/(Q37+R37))</f>
+        <v>402.16803755990185</v>
+      </c>
+      <c r="U37">
+        <v>800</v>
+      </c>
+      <c r="V37">
+        <v>300</v>
+      </c>
+      <c r="W37">
+        <v>52.8</v>
+      </c>
+      <c r="X37">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="10"/>
+        <v>62500</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="12"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>250</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <v>63</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="14"/>
+        <v>402.88092965324239</v>
+      </c>
+      <c r="U38">
+        <v>960</v>
+      </c>
+      <c r="V38">
+        <v>300</v>
+      </c>
+      <c r="W38">
+        <v>52.8</v>
+      </c>
+      <c r="X38">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="10"/>
+        <v>62500</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="12"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39">
+        <v>16</v>
+      </c>
+      <c r="J39">
+        <v>250</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="13"/>
+        <v>59</v>
+      </c>
+      <c r="Q39">
+        <v>9</v>
+      </c>
+      <c r="R39">
+        <v>50</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="14"/>
+        <v>535.35985046651138</v>
+      </c>
+      <c r="U39">
+        <v>700</v>
+      </c>
+      <c r="V39">
+        <v>500</v>
+      </c>
+      <c r="W39">
+        <v>52.8</v>
+      </c>
+      <c r="X39">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="10"/>
+        <v>71875</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="12"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40">
+        <v>16</v>
+      </c>
+      <c r="J40">
+        <v>250</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>90</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="13"/>
+        <v>55</v>
+      </c>
+      <c r="Q40">
+        <v>9</v>
+      </c>
+      <c r="R40">
+        <v>46</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="14"/>
+        <v>560.19477132349402</v>
+      </c>
+      <c r="U40">
+        <v>800</v>
+      </c>
+      <c r="V40">
+        <v>500</v>
+      </c>
+      <c r="W40">
+        <v>52.8</v>
+      </c>
+      <c r="X40">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="10"/>
+        <v>71875</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="12"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41">
+        <v>16</v>
+      </c>
+      <c r="J41">
+        <v>250</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>48</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="14"/>
+        <v>569.75628317923997</v>
+      </c>
+      <c r="U41">
+        <v>960</v>
+      </c>
+      <c r="V41">
+        <v>500</v>
+      </c>
+      <c r="W41">
+        <v>52.8</v>
+      </c>
+      <c r="X41">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="10"/>
+        <v>75000</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="12"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+      <c r="I42">
+        <v>16</v>
+      </c>
+      <c r="J42">
+        <v>250</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>300</v>
+      </c>
+      <c r="W42">
+        <v>52.8</v>
+      </c>
+      <c r="X42">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="0"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="10"/>
+        <v>53125</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="12"/>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +4994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -4670,7 +6134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I7" workbookViewId="0">
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7D2F07-106A-401E-9EAD-B7D6DD0AECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE06D1B-4A35-46F5-AF39-C4E24B548870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="174">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -706,6 +706,34 @@
   </si>
   <si>
     <t>no power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF11G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df11g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD25K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kd25k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL25T-SSPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl25t-sspe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR400BF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1259,35 +1287,35 @@
         <v>1934</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O28" si="0">M3-N3</f>
+        <f t="shared" ref="O3:O29" si="0">M3-N3</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q28" si="1">O3*P3*9.8</f>
+        <f t="shared" ref="Q3:Q29" si="1">O3*P3*9.8</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R28" si="2">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
+        <f t="shared" ref="R3:R29" si="2">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S28" si="3">R3*50000/16</f>
+        <f t="shared" ref="S3:S29" si="3">R3*50000/16</f>
         <v>62500</v>
       </c>
       <c r="T3" t="e">
-        <f t="shared" ref="T3:T28" si="4">MEDIAN(0, 255, ROUND((SQRT(K3)/100+SQRT(L3)+P3+40/J3-2)/2,0))</f>
+        <f t="shared" ref="T3:T29" si="4">MEDIAN(0, 255, ROUND((SQRT(K3)/100+SQRT(L3)+P3+40/J3-2)/2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U3" t="e">
-        <f t="shared" ref="U3:U28" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
+        <f t="shared" ref="U3:U29" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V28" si="6">W3+X3+Y3</f>
+        <f t="shared" ref="V3:V29" si="6">W3+X3+Y3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="2" t="e">
-        <f t="shared" ref="AC3:AC28" si="7">AVERAGE(Z3:AB3)</f>
+        <f t="shared" ref="AC3:AC29" si="7">AVERAGE(Z3:AB3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1650,11 +1678,11 @@
         <v>1</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>92</v>
@@ -1907,68 +1935,113 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15">
-        <v>1958</v>
+        <v>2003</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>170</v>
+      </c>
+      <c r="L15">
+        <v>4133</v>
+      </c>
+      <c r="M15">
+        <v>138</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="P15">
+        <v>0.14299999999999999</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>193.39320000000001</v>
       </c>
       <c r="R15">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="S15">
         <f t="shared" si="3"/>
-        <v>62500</v>
-      </c>
-      <c r="T15" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>290625</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15" si="10">MEDIAN(0, 255, ROUND((SQRT(K15)/100+SQRT(L15)+P15+40/J15-2)/2,0))</f>
+        <v>35</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ref="U15" si="11">IF(E15="Steam", T15*350/16*12, IF(E15="Diesel", T15*325/16*12,  T15*300/16*12))</f>
+        <v>8531.25</v>
       </c>
       <c r="V15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="2" t="e">
+        <f t="shared" ref="V15" si="12">W15+X15+Y15</f>
+        <v>11</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>7</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC15" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
         <v>52</v>
       </c>
       <c r="F16">
-        <v>1979</v>
+        <v>1958</v>
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
@@ -2005,19 +2078,19 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
         <v>52</v>
       </c>
       <c r="F17">
-        <v>1989</v>
+        <v>1979</v>
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
@@ -2054,19 +2127,19 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
       </c>
       <c r="F18">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
@@ -2103,279 +2176,294 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19">
-        <v>6144</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
         <v>52</v>
       </c>
       <c r="F19">
-        <v>2010</v>
-      </c>
-      <c r="G19">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
-      </c>
-      <c r="K19">
-        <v>120</v>
-      </c>
-      <c r="L19">
-        <v>9789</v>
-      </c>
-      <c r="M19">
-        <v>138</v>
+        <v>1995</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="P19">
-        <v>0.38450000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>519.99779999999998</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="S19">
         <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20">
+        <v>6144</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>2010</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>120</v>
+      </c>
+      <c r="L20">
+        <v>9789</v>
+      </c>
+      <c r="M20">
+        <v>138</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="P20">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>519.99779999999998</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
         <v>400000</v>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="U19">
+      <c r="U20">
         <f t="shared" si="5"/>
         <v>11700</v>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="W19">
+      <c r="W20">
         <v>1</v>
       </c>
-      <c r="X19">
+      <c r="X20">
         <v>8</v>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <v>1</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z20" s="1">
         <v>1</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA20" s="1">
         <v>1</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB20" s="1">
         <v>1</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AC20" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AD20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AE20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>41</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>52</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>2012</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f t="shared" si="3"/>
         <v>62500</v>
       </c>
-      <c r="T20" t="e">
+      <c r="T21" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U20" t="e">
+      <c r="U21" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="2" t="e">
+      <c r="AC21" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>154</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>155</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>6145</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>154</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>52</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>2012</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>30</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>91</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>6</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>170</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>9789</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>126</v>
       </c>
-      <c r="O21">
+      <c r="O22">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="P21">
+      <c r="P22">
         <v>0.34</v>
       </c>
-      <c r="Q21">
+      <c r="Q22">
         <f t="shared" si="1"/>
         <v>419.83200000000005</v>
       </c>
-      <c r="R21">
+      <c r="R22">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f t="shared" si="3"/>
         <v>396875</v>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="U21">
+      <c r="U22">
         <f t="shared" si="5"/>
         <v>11700</v>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="W21">
+      <c r="W22">
         <v>1</v>
       </c>
-      <c r="X21">
+      <c r="X22">
         <v>8</v>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <v>1</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z22" s="1">
         <v>1</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA22" s="1">
         <v>1</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB22" s="1">
         <v>1</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AC22" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AD22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AE22" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="O22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="3"/>
-        <v>62500</v>
-      </c>
-      <c r="T22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
@@ -2578,6 +2666,40 @@
         <v>0</v>
       </c>
       <c r="AC28" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="T29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -2590,10 +2712,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AI42"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S13" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4345,19 +4468,19 @@
         <v>60.540480000000002</v>
       </c>
       <c r="Z31">
-        <f t="shared" ref="Z31:Z42" si="9">MAX(1, INT(W31/10+SQRT(J31)/20+SQRT(K31)+X31+SQRT(P31)/2+SQRT(T31)-SQRT(185)+20-I31))</f>
+        <f t="shared" ref="Z31:Z43" si="9">MAX(1, INT(W31/10+SQRT(J31)/20+SQRT(K31)+X31+SQRT(P31)/2+SQRT(T31)-SQRT(185)+20-I31))</f>
         <v>18</v>
       </c>
       <c r="AA31">
-        <f t="shared" ref="AA31:AA42" si="10">Z31*50000/16</f>
+        <f t="shared" ref="AA31:AA43" si="10">Z31*50000/16</f>
         <v>56250</v>
       </c>
       <c r="AB31">
-        <f t="shared" ref="AB31:AB42" si="11">MAX(1, ROUND((SQRT(J31)/100+SQRT(K31)+X31+(40/I31-2)+SQRT(P31)/2+SQRT(T31)-SQRT(185))/2, 0))</f>
+        <f t="shared" ref="AB31:AB43" si="11">MAX(1, ROUND((SQRT(J31)/100+SQRT(K31)+X31+(40/I31-2)+SQRT(P31)/2+SQRT(T31)-SQRT(185))/2, 0))</f>
         <v>5</v>
       </c>
       <c r="AC31">
-        <f t="shared" ref="AC31:AC42" si="12">AB31*300/16</f>
+        <f t="shared" ref="AC31:AC43" si="12">AB31*300/16</f>
         <v>93.75</v>
       </c>
     </row>
@@ -4410,7 +4533,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>136</v>
       </c>
@@ -4459,7 +4582,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>137</v>
       </c>
@@ -4508,7 +4631,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>139</v>
       </c>
@@ -4557,7 +4680,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>140</v>
       </c>
@@ -4620,7 +4743,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>141</v>
       </c>
@@ -4683,7 +4806,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -4746,7 +4869,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>143</v>
       </c>
@@ -4809,7 +4932,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>144</v>
       </c>
@@ -4872,7 +4995,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>145</v>
       </c>
@@ -4935,7 +5058,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>153</v>
       </c>
@@ -4982,6 +5105,1416 @@
       <c r="AC42">
         <f t="shared" si="12"/>
         <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>350</v>
+      </c>
+      <c r="K43">
+        <v>3535</v>
+      </c>
+      <c r="L43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43">
+        <f>Q43+R43</f>
+        <v>33</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <v>28</v>
+      </c>
+      <c r="T43">
+        <f t="shared" ref="T43" si="15">SQRT((Q43*U43^2+R43*V43^2)/(Q43+R43))</f>
+        <v>555.95944914256927</v>
+      </c>
+      <c r="U43">
+        <v>800</v>
+      </c>
+      <c r="V43">
+        <v>500</v>
+      </c>
+      <c r="W43">
+        <v>57.7</v>
+      </c>
+      <c r="X43">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" ref="Y43:Y55" si="16">W43*X43*9.8</f>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="10"/>
+        <v>293750</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="12"/>
+        <v>731.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>350</v>
+      </c>
+      <c r="K44">
+        <v>3535</v>
+      </c>
+      <c r="L44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P44">
+        <v>90</v>
+      </c>
+      <c r="T44">
+        <v>300</v>
+      </c>
+      <c r="W44">
+        <v>57.7</v>
+      </c>
+      <c r="X44">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" ref="Z44:Z55" si="17">MAX(1, INT(W44/10+SQRT(J44)/20+SQRT(K44)+X44+SQRT(P44)/2+SQRT(T44)-SQRT(185)+20-I44))</f>
+        <v>89</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" ref="AA44:AA55" si="18">Z44*50000/16</f>
+        <v>278125</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" ref="AB44:AB55" si="19">MAX(1, ROUND((SQRT(J44)/100+SQRT(K44)+X44+(40/I44-2)+SQRT(P44)/2+SQRT(T44)-SQRT(185))/2, 0))</f>
+        <v>37</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" ref="AC44:AC55" si="20">AB44*300/16</f>
+        <v>693.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>350</v>
+      </c>
+      <c r="K45">
+        <v>3535</v>
+      </c>
+      <c r="L45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45">
+        <v>60</v>
+      </c>
+      <c r="T45">
+        <v>500</v>
+      </c>
+      <c r="W45">
+        <v>57.7</v>
+      </c>
+      <c r="X45">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="17"/>
+        <v>93</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="18"/>
+        <v>290625</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="20"/>
+        <v>731.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>350</v>
+      </c>
+      <c r="K46">
+        <v>3535</v>
+      </c>
+      <c r="L46" t="s">
+        <v>90</v>
+      </c>
+      <c r="P46">
+        <v>33</v>
+      </c>
+      <c r="T46">
+        <v>700</v>
+      </c>
+      <c r="W46">
+        <v>57.7</v>
+      </c>
+      <c r="X46">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="17"/>
+        <v>97</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="18"/>
+        <v>303125</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="19"/>
+        <v>41</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="20"/>
+        <v>768.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>350</v>
+      </c>
+      <c r="K47">
+        <v>3535</v>
+      </c>
+      <c r="L47" t="s">
+        <v>90</v>
+      </c>
+      <c r="P47">
+        <v>26</v>
+      </c>
+      <c r="T47">
+        <v>800</v>
+      </c>
+      <c r="W47">
+        <v>57.7</v>
+      </c>
+      <c r="X47">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="17"/>
+        <v>98</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="18"/>
+        <v>306250</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="19"/>
+        <v>41</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="20"/>
+        <v>768.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>350</v>
+      </c>
+      <c r="K48">
+        <v>3535</v>
+      </c>
+      <c r="L48" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48">
+        <v>26</v>
+      </c>
+      <c r="T48">
+        <v>960</v>
+      </c>
+      <c r="W48">
+        <v>57.7</v>
+      </c>
+      <c r="X48">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="17"/>
+        <v>101</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="18"/>
+        <v>315625</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="19"/>
+        <v>43</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="20"/>
+        <v>806.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>350</v>
+      </c>
+      <c r="K49">
+        <v>3535</v>
+      </c>
+      <c r="L49" t="s">
+        <v>90</v>
+      </c>
+      <c r="P49">
+        <f>Q49+R49</f>
+        <v>74</v>
+      </c>
+      <c r="Q49">
+        <v>9</v>
+      </c>
+      <c r="R49">
+        <v>65</v>
+      </c>
+      <c r="T49">
+        <f>SQRT((Q49*U49^2+R49*V49^2)/(Q49+R49))</f>
+        <v>372.35554064448758</v>
+      </c>
+      <c r="U49">
+        <v>700</v>
+      </c>
+      <c r="V49">
+        <v>300</v>
+      </c>
+      <c r="W49">
+        <v>57.7</v>
+      </c>
+      <c r="X49">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="17"/>
+        <v>91</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="18"/>
+        <v>284375</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="20"/>
+        <v>712.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>350</v>
+      </c>
+      <c r="K50">
+        <v>3535</v>
+      </c>
+      <c r="L50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P50">
+        <f t="shared" ref="P50:P54" si="21">Q50+R50</f>
+        <v>64</v>
+      </c>
+      <c r="Q50">
+        <v>9</v>
+      </c>
+      <c r="R50">
+        <v>55</v>
+      </c>
+      <c r="T50">
+        <f t="shared" ref="T50:T54" si="22">SQRT((Q50*U50^2+R50*V50^2)/(Q50+R50))</f>
+        <v>409.07670429883927</v>
+      </c>
+      <c r="U50">
+        <v>800</v>
+      </c>
+      <c r="V50">
+        <v>300</v>
+      </c>
+      <c r="W50">
+        <v>57.7</v>
+      </c>
+      <c r="X50">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="17"/>
+        <v>91</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="18"/>
+        <v>284375</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="20"/>
+        <v>712.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>142</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>350</v>
+      </c>
+      <c r="K51">
+        <v>3535</v>
+      </c>
+      <c r="L51" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="Q51">
+        <v>8</v>
+      </c>
+      <c r="R51">
+        <v>60</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="22"/>
+        <v>433.39969325975193</v>
+      </c>
+      <c r="U51">
+        <v>960</v>
+      </c>
+      <c r="V51">
+        <v>300</v>
+      </c>
+      <c r="W51">
+        <v>57.7</v>
+      </c>
+      <c r="X51">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="17"/>
+        <v>92</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="18"/>
+        <v>287500</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="20"/>
+        <v>731.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>350</v>
+      </c>
+      <c r="K52">
+        <v>3535</v>
+      </c>
+      <c r="L52" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="Q52">
+        <v>9</v>
+      </c>
+      <c r="R52">
+        <v>40</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="22"/>
+        <v>542.29293988863731</v>
+      </c>
+      <c r="U52">
+        <v>700</v>
+      </c>
+      <c r="V52">
+        <v>500</v>
+      </c>
+      <c r="W52">
+        <v>57.7</v>
+      </c>
+      <c r="X52">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="18"/>
+        <v>293750</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="20"/>
+        <v>731.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>350</v>
+      </c>
+      <c r="K53">
+        <v>3535</v>
+      </c>
+      <c r="L53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="Q53">
+        <v>9</v>
+      </c>
+      <c r="R53">
+        <v>36</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="22"/>
+        <v>572.71284253105409</v>
+      </c>
+      <c r="U53">
+        <v>800</v>
+      </c>
+      <c r="V53">
+        <v>500</v>
+      </c>
+      <c r="W53">
+        <v>57.7</v>
+      </c>
+      <c r="X53">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="18"/>
+        <v>293750</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="20"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>350</v>
+      </c>
+      <c r="K54">
+        <v>3535</v>
+      </c>
+      <c r="L54" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="21"/>
+        <v>48</v>
+      </c>
+      <c r="Q54">
+        <v>8</v>
+      </c>
+      <c r="R54">
+        <v>40</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="22"/>
+        <v>601.60895383407762</v>
+      </c>
+      <c r="U54">
+        <v>960</v>
+      </c>
+      <c r="V54">
+        <v>500</v>
+      </c>
+      <c r="W54">
+        <v>57.7</v>
+      </c>
+      <c r="X54">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="17"/>
+        <v>95</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="18"/>
+        <v>296875</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="20"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>350</v>
+      </c>
+      <c r="K55">
+        <v>3535</v>
+      </c>
+      <c r="L55" t="s">
+        <v>90</v>
+      </c>
+      <c r="P55">
+        <v>48</v>
+      </c>
+      <c r="T55">
+        <v>300</v>
+      </c>
+      <c r="W55">
+        <v>57.7</v>
+      </c>
+      <c r="X55">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="16"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="17"/>
+        <v>88</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="18"/>
+        <v>275000</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="19"/>
+        <v>36</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="20"/>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>350</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>90</v>
+      </c>
+      <c r="P56">
+        <v>90</v>
+      </c>
+      <c r="T56">
+        <v>300</v>
+      </c>
+      <c r="W56">
+        <v>57.7</v>
+      </c>
+      <c r="X56">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" ref="Y56:Y67" si="23">W56*X56*9.8</f>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" ref="Z56:Z67" si="24">MAX(1, INT(W56/10+SQRT(J56)/20+SQRT(K56)+X56+SQRT(P56)/2+SQRT(T56)-SQRT(185)+20-I56))</f>
+        <v>30</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" ref="AA56:AA67" si="25">Z56*50000/16</f>
+        <v>93750</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" ref="AB56:AB67" si="26">MAX(1, ROUND((SQRT(J56)/100+SQRT(K56)+X56+(40/I56-2)+SQRT(P56)/2+SQRT(T56)-SQRT(185))/2, 0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" ref="AC56:AC67" si="27">AB56*300/16</f>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>350</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>90</v>
+      </c>
+      <c r="P57">
+        <v>60</v>
+      </c>
+      <c r="T57">
+        <v>500</v>
+      </c>
+      <c r="W57">
+        <v>57.7</v>
+      </c>
+      <c r="X57">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="23"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="24"/>
+        <v>34</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="25"/>
+        <v>106250</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="27"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>350</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>90</v>
+      </c>
+      <c r="P58">
+        <v>33</v>
+      </c>
+      <c r="T58">
+        <v>700</v>
+      </c>
+      <c r="W58">
+        <v>57.7</v>
+      </c>
+      <c r="X58">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="23"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="24"/>
+        <v>37</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="25"/>
+        <v>115625</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="27"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>350</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>90</v>
+      </c>
+      <c r="P59">
+        <v>26</v>
+      </c>
+      <c r="T59">
+        <v>800</v>
+      </c>
+      <c r="W59">
+        <v>57.7</v>
+      </c>
+      <c r="X59">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="23"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="24"/>
+        <v>39</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="25"/>
+        <v>121875</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="27"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>350</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>90</v>
+      </c>
+      <c r="P60">
+        <v>26</v>
+      </c>
+      <c r="T60">
+        <v>960</v>
+      </c>
+      <c r="W60">
+        <v>57.7</v>
+      </c>
+      <c r="X60">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="23"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="24"/>
+        <v>41</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="25"/>
+        <v>128125</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="27"/>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>350</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>90</v>
+      </c>
+      <c r="P61">
+        <f>Q61+R61</f>
+        <v>74</v>
+      </c>
+      <c r="Q61">
+        <v>9</v>
+      </c>
+      <c r="R61">
+        <v>65</v>
+      </c>
+      <c r="T61">
+        <f>SQRT((Q61*U61^2+R61*V61^2)/(Q61+R61))</f>
+        <v>372.35554064448758</v>
+      </c>
+      <c r="U61">
+        <v>700</v>
+      </c>
+      <c r="V61">
+        <v>300</v>
+      </c>
+      <c r="W61">
+        <v>57.7</v>
+      </c>
+      <c r="X61">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="23"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="24"/>
+        <v>31</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="25"/>
+        <v>96875</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="27"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>350</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P62">
+        <f t="shared" ref="P62:P66" si="28">Q62+R62</f>
+        <v>64</v>
+      </c>
+      <c r="Q62">
+        <v>9</v>
+      </c>
+      <c r="R62">
+        <v>55</v>
+      </c>
+      <c r="T62">
+        <f t="shared" ref="T62:T66" si="29">SQRT((Q62*U62^2+R62*V62^2)/(Q62+R62))</f>
+        <v>409.07670429883927</v>
+      </c>
+      <c r="U62">
+        <v>800</v>
+      </c>
+      <c r="V62">
+        <v>300</v>
+      </c>
+      <c r="W62">
+        <v>57.7</v>
+      </c>
+      <c r="X62">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="23"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="24"/>
+        <v>32</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="25"/>
+        <v>100000</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="27"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>350</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="28"/>
+        <v>68</v>
+      </c>
+      <c r="Q63">
+        <v>8</v>
+      </c>
+      <c r="R63">
+        <v>60</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="29"/>
+        <v>433.39969325975193</v>
+      </c>
+      <c r="U63">
+        <v>960</v>
+      </c>
+      <c r="V63">
+        <v>300</v>
+      </c>
+      <c r="W63">
+        <v>57.7</v>
+      </c>
+      <c r="X63">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="23"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="24"/>
+        <v>33</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="25"/>
+        <v>103125</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="27"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>350</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>90</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="Q64">
+        <v>9</v>
+      </c>
+      <c r="R64">
+        <v>40</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="29"/>
+        <v>542.29293988863731</v>
+      </c>
+      <c r="U64">
+        <v>700</v>
+      </c>
+      <c r="V64">
+        <v>500</v>
+      </c>
+      <c r="W64">
+        <v>57.7</v>
+      </c>
+      <c r="X64">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="23"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="24"/>
+        <v>35</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="25"/>
+        <v>109375</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="27"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>350</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>90</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="Q65">
+        <v>9</v>
+      </c>
+      <c r="R65">
+        <v>36</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="29"/>
+        <v>572.71284253105409</v>
+      </c>
+      <c r="U65">
+        <v>800</v>
+      </c>
+      <c r="V65">
+        <v>500</v>
+      </c>
+      <c r="W65">
+        <v>57.7</v>
+      </c>
+      <c r="X65">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="23"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="24"/>
+        <v>35</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="25"/>
+        <v>109375</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="27"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>350</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>90</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="28"/>
+        <v>48</v>
+      </c>
+      <c r="Q66">
+        <v>8</v>
+      </c>
+      <c r="R66">
+        <v>40</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="29"/>
+        <v>601.60895383407762</v>
+      </c>
+      <c r="U66">
+        <v>960</v>
+      </c>
+      <c r="V66">
+        <v>500</v>
+      </c>
+      <c r="W66">
+        <v>57.7</v>
+      </c>
+      <c r="X66">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="23"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="24"/>
+        <v>36</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="25"/>
+        <v>112500</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="27"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>153</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>350</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>90</v>
+      </c>
+      <c r="P67">
+        <v>48</v>
+      </c>
+      <c r="T67">
+        <v>300</v>
+      </c>
+      <c r="W67">
+        <v>57.7</v>
+      </c>
+      <c r="X67">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="23"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="24"/>
+        <v>29</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="25"/>
+        <v>90625</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" si="27"/>
+        <v>131.25</v>
       </c>
     </row>
   </sheetData>
@@ -4995,7 +6528,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5890,14 +7423,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17">
+        <v>1996</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17">
+        <v>140</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>16</v>
+      </c>
+      <c r="O17">
+        <v>185</v>
+      </c>
+      <c r="P17">
+        <v>62</v>
+      </c>
       <c r="Q17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9375</v>
       </c>
       <c r="S17">
         <f t="shared" si="2"/>
@@ -5908,25 +7477,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18">
+        <v>2002</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18">
+        <v>160</v>
+      </c>
+      <c r="I18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18">
+        <v>92</v>
+      </c>
+      <c r="N18">
+        <v>12</v>
+      </c>
+      <c r="O18">
+        <v>200</v>
+      </c>
+      <c r="P18">
+        <v>39.299999999999997</v>
+      </c>
       <c r="Q18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="S18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.3">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5944,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5962,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5980,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5998,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6016,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6034,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6052,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6070,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6088,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6106,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q29">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE06D1B-4A35-46F5-AF39-C4E24B548870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5972C9-2339-40B8-8B3A-9810DFB27918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="167">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -457,22 +457,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>YZ25T (25m Express Hard Seat Passenger Coach)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RZ25T (25m Express Soft Seat Passenger Coach)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YW25T (25m Express Hard Sleeper Passenger Coach)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RW25T (25m Express Soft Sleeper Passenger Coach)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>df4k</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -601,30 +585,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zesw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zyt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zys</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zysw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>we</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -637,22 +597,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cap1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cap2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zec</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -734,6 +678,34 @@
   </si>
   <si>
     <t>CR400BF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA25T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca25t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW25T (25m Accelerated Soft Sleeper Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA25T (25m Accelerated Restaurant Car)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YW25T (25m Accelerated Hard Sleeper Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RZ25T (25m Accelerated Soft Seat Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ25T (25m Accelerated Hard Seat Passenger Coach)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1074,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1239,12 +1211,12 @@
         <v>165625</v>
       </c>
       <c r="T2">
-        <f>MEDIAN(0, 255, ROUND((SQRT(K2)/100+SQRT(L2)+P2+40/J2-2)/2,0))</f>
-        <v>20</v>
+        <f t="shared" ref="T2:T19" si="0">MEDIAN(0, 255, ROUND(SQRT(K2)/100+SQRT(L2)+P2+40/J2-2,0))</f>
+        <v>39</v>
       </c>
       <c r="U2">
         <f>IF(E2="Steam", T2*350/16*12, IF(E2="Diesel", T2*325/16*12,  T2*300/16*12))</f>
-        <v>5250</v>
+        <v>10237.5</v>
       </c>
       <c r="V2">
         <f>W2+X2+Y2</f>
@@ -1287,23 +1259,23 @@
         <v>1934</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O29" si="0">M3-N3</f>
+        <f t="shared" ref="O3:O29" si="1">M3-N3</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q29" si="1">O3*P3*9.8</f>
+        <f t="shared" ref="Q3:Q29" si="2">O3*P3*9.8</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R29" si="2">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
+        <f t="shared" ref="R3:R29" si="3">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S29" si="3">R3*50000/16</f>
+        <f t="shared" ref="S3:S29" si="4">R3*50000/16</f>
         <v>62500</v>
       </c>
       <c r="T3" t="e">
-        <f t="shared" ref="T3:T29" si="4">MEDIAN(0, 255, ROUND((SQRT(K3)/100+SQRT(L3)+P3+40/J3-2)/2,0))</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U3" t="e">
@@ -1336,23 +1308,23 @@
         <v>1933</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U4" t="e">
@@ -1385,23 +1357,23 @@
         <v>1956</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U5" t="e">
@@ -1434,23 +1406,23 @@
         <v>1957</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U6" t="e">
@@ -1480,23 +1452,23 @@
         <v>26</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U7" t="e">
@@ -1514,13 +1486,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
         <v>108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1550,31 +1522,31 @@
         <v>138</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="P8">
         <v>0.24199999999999999</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>327.28080000000006</v>
       </c>
       <c r="R8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="S8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>168750</v>
       </c>
       <c r="T8">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="U8">
         <f t="shared" si="5"/>
-        <v>6093.75</v>
+        <v>12431.25</v>
       </c>
       <c r="V8">
         <f t="shared" si="6"/>
@@ -1596,13 +1568,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
         <v>109</v>
-      </c>
-      <c r="D9" t="s">
-        <v>113</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -1632,18 +1604,18 @@
         <v>138</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="P9">
         <v>0.30499999999999999</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>412.48199999999997</v>
       </c>
       <c r="R9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="S9">
@@ -1651,12 +1623,12 @@
         <v>168750</v>
       </c>
       <c r="T9">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="U9">
         <f t="shared" si="5"/>
-        <v>6093.75</v>
+        <v>12431.25</v>
       </c>
       <c r="V9">
         <f t="shared" ref="V9" si="9">W9+X9+Y9</f>
@@ -1708,23 +1680,23 @@
         <v>1976</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U10" t="e">
@@ -1757,23 +1729,23 @@
         <v>1974</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U11" t="e">
@@ -1806,23 +1778,23 @@
         <v>1992</v>
       </c>
       <c r="O12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T12" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U12" t="e">
@@ -1852,23 +1824,23 @@
         <v>51</v>
       </c>
       <c r="O13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U13" t="e">
@@ -1901,23 +1873,23 @@
         <v>2005</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U14" t="e">
@@ -1935,13 +1907,13 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -1968,34 +1940,34 @@
         <v>138</v>
       </c>
       <c r="O15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="P15">
         <v>0.14299999999999999</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>193.39320000000001</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>290625</v>
       </c>
       <c r="T15">
-        <f t="shared" ref="T15" si="10">MEDIAN(0, 255, ROUND((SQRT(K15)/100+SQRT(L15)+P15+40/J15-2)/2,0))</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="U15">
-        <f t="shared" ref="U15" si="11">IF(E15="Steam", T15*350/16*12, IF(E15="Diesel", T15*325/16*12,  T15*300/16*12))</f>
-        <v>8531.25</v>
+        <f t="shared" ref="U15" si="10">IF(E15="Steam", T15*350/16*12, IF(E15="Diesel", T15*325/16*12,  T15*300/16*12))</f>
+        <v>16818.75</v>
       </c>
       <c r="V15">
-        <f t="shared" ref="V15" si="12">W15+X15+Y15</f>
+        <f t="shared" ref="V15" si="11">W15+X15+Y15</f>
         <v>11</v>
       </c>
       <c r="W15">
@@ -2044,23 +2016,23 @@
         <v>1958</v>
       </c>
       <c r="O16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T16" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U16" t="e">
@@ -2093,23 +2065,23 @@
         <v>1979</v>
       </c>
       <c r="O17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T17" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U17" t="e">
@@ -2142,23 +2114,23 @@
         <v>1989</v>
       </c>
       <c r="O18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U18" t="e">
@@ -2191,23 +2163,23 @@
         <v>1995</v>
       </c>
       <c r="O19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T19" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U19" t="e">
@@ -2261,31 +2233,31 @@
         <v>138</v>
       </c>
       <c r="O20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="P20">
         <v>0.38450000000000001</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>519.99779999999998</v>
       </c>
       <c r="R20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="S20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400000</v>
       </c>
       <c r="T20">
-        <f t="shared" si="4"/>
-        <v>52</v>
+        <f>MEDIAN(0, 255, ROUND(SQRT(K20)/100+SQRT(L20)+P20+40/J20-2,0))</f>
+        <v>104</v>
       </c>
       <c r="U20">
         <f t="shared" si="5"/>
-        <v>11700</v>
+        <v>23400</v>
       </c>
       <c r="V20">
         <f t="shared" si="6"/>
@@ -2337,23 +2309,23 @@
         <v>2012</v>
       </c>
       <c r="O21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="T21:T29" si="12">MEDIAN(0, 255, ROUND(SQRT(K21)/100+SQRT(L21)+P21+40/J21-2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U21" t="e">
@@ -2371,16 +2343,16 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <v>6145</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
         <v>52</v>
@@ -2407,31 +2379,31 @@
         <v>126</v>
       </c>
       <c r="O22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="P22">
         <v>0.34</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>419.83200000000005</v>
       </c>
       <c r="R22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="S22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>396875</v>
       </c>
       <c r="T22">
-        <f t="shared" si="4"/>
-        <v>52</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="U22">
         <f t="shared" si="5"/>
-        <v>11700</v>
+        <v>23400</v>
       </c>
       <c r="V22">
         <f t="shared" si="6"/>
@@ -2468,23 +2440,23 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T23" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U23" t="e">
@@ -2502,23 +2474,23 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T24" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" t="e">
@@ -2536,23 +2508,23 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" t="e">
@@ -2570,23 +2542,23 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" t="e">
@@ -2604,23 +2576,23 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T27" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" t="e">
@@ -2638,23 +2610,23 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" t="e">
@@ -2672,23 +2644,23 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="T29" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" t="e">
@@ -2712,16 +2684,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z42" sqref="Z42"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2771,69 +2743,57 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="W1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F2">
         <v>2017</v>
@@ -2859,42 +2819,42 @@
       <c r="P2">
         <v>0</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>185</v>
+      </c>
       <c r="S2">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="T2">
-        <v>185</v>
+        <v>0.314</v>
+      </c>
+      <c r="U2">
+        <f>S2*T2*9.8</f>
+        <v>240.02160000000003</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:V37" si="0">MAX(1, INT(S2/10+SQRT(J2)/20+SQRT(K2)+T2+SQRT(P2)/2+SQRT(R2)-SQRT(185)+20-I2))</f>
+        <v>96</v>
       </c>
       <c r="W2">
-        <v>78</v>
+        <f>V2*50000/16</f>
+        <v>300000</v>
       </c>
       <c r="X2">
-        <v>0.314</v>
+        <f t="shared" ref="X2:X37" si="1">MAX(1, ROUND((SQRT(J2)/100+SQRT(K2)+T2+(40/I2-2)+SQRT(P2)/2+SQRT(R2)-SQRT(185)), 0))</f>
+        <v>88</v>
       </c>
       <c r="Y2">
-        <f>W2*X2*9.8</f>
-        <v>240.02160000000003</v>
-      </c>
-      <c r="Z2">
-        <f>MAX(1, INT(W2/10+SQRT(J2)/20+SQRT(K2)+X2+SQRT(P2)/2+SQRT(T2)-SQRT(185)+20-I2))</f>
-        <v>96</v>
-      </c>
-      <c r="AA2">
-        <f>Z2*50000/16</f>
-        <v>300000</v>
-      </c>
-      <c r="AB2">
-        <f>MAX(1, ROUND((SQRT(J2)/100+SQRT(K2)+X2+(40/I2-2)+SQRT(P2)/2+SQRT(T2)-SQRT(185))/2, 0))</f>
-        <v>44</v>
-      </c>
-      <c r="AC2">
-        <f>AB2*300/16</f>
-        <v>825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+        <f>X2*300/16</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I3">
         <v>20</v>
@@ -2911,39 +2871,39 @@
       <c r="P3">
         <v>98</v>
       </c>
+      <c r="R3">
+        <v>240</v>
+      </c>
+      <c r="S3">
+        <v>56</v>
+      </c>
       <c r="T3">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U24" si="2">S3*T3*9.8</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="W3">
-        <v>56</v>
+        <f t="shared" ref="W3:W18" si="3">V3*50000/16</f>
+        <v>40625</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y42" si="0">W3*X3*9.8</f>
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z30" si="1">MAX(1, INT(W3/10+SQRT(J3)/20+SQRT(K3)+X3+SQRT(P3)/2+SQRT(T3)-SQRT(185)+20-I3))</f>
-        <v>14</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA30" si="2">Z3*50000/16</f>
-        <v>43750</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB30" si="3">MAX(1, ROUND((SQRT(J3)/100+SQRT(K3)+X3+(40/I3-2)+SQRT(P3)/2+SQRT(T3)-SQRT(185))/2, 0))</f>
-        <v>4</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC30" si="4">AB3*300/16</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Y3:Y18" si="4">X3*300/16</f>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I4">
         <v>20</v>
@@ -2960,39 +2920,39 @@
       <c r="P4">
         <v>71</v>
       </c>
+      <c r="R4">
+        <v>400</v>
+      </c>
+      <c r="S4">
+        <v>56</v>
+      </c>
       <c r="T4">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="W4">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>50000</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="2"/>
-        <v>59375</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="4"/>
-        <v>131.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I5">
         <v>20</v>
@@ -3009,39 +2969,39 @@
       <c r="P5">
         <v>36</v>
       </c>
+      <c r="R5">
+        <v>560</v>
+      </c>
+      <c r="S5">
+        <v>56</v>
+      </c>
       <c r="T5">
-        <v>700</v>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="W5">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>59375</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="2"/>
-        <v>68750</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -3058,39 +3018,39 @@
       <c r="P6">
         <v>30</v>
       </c>
+      <c r="R6">
+        <v>640</v>
+      </c>
+      <c r="S6">
+        <v>56</v>
+      </c>
       <c r="T6">
-        <v>800</v>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="W6">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>62500</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="2"/>
-        <v>71875</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="4"/>
-        <v>168.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I7">
         <v>20</v>
@@ -3107,39 +3067,39 @@
       <c r="P7">
         <v>22</v>
       </c>
+      <c r="R7">
+        <v>720</v>
+      </c>
+      <c r="S7">
+        <v>56</v>
+      </c>
       <c r="T7">
-        <v>960</v>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="W7">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>65625</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="2"/>
-        <v>78125</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="4"/>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I8">
         <v>20</v>
@@ -3154,55 +3114,41 @@
         <v>90</v>
       </c>
       <c r="P8">
-        <f>Q8+R8</f>
-        <v>81</v>
-      </c>
-      <c r="Q8">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="R8">
-        <v>72</v>
+        <v>240</v>
+      </c>
+      <c r="S8">
+        <v>56</v>
       </c>
       <c r="T8">
-        <f>SQRT((Q8*U8^2+R8*V8^2)/(Q8+R8))</f>
-        <v>366.66666666666669</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>700</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="W8">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>34375</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AC8">
         <f t="shared" si="4"/>
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I9">
         <v>20</v>
@@ -3217,55 +3163,41 @@
         <v>90</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:P13" si="5">Q9+R9</f>
-        <v>75</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="R9">
-        <v>66</v>
+        <v>480</v>
+      </c>
+      <c r="S9">
+        <v>56</v>
       </c>
       <c r="T9">
-        <f t="shared" ref="T9:T13" si="6">SQRT((Q9*U9^2+R9*V9^2)/(Q9+R9))</f>
-        <v>394.96835316262997</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>800</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="W9">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>56250</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="4"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I10">
         <v>20</v>
@@ -3280,55 +3212,41 @@
         <v>90</v>
       </c>
       <c r="P10">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="R10">
-        <v>70</v>
+        <v>640</v>
+      </c>
+      <c r="S10">
+        <v>56</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
-        <v>394.52836600040223</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>960</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="W10">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>65625</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="4"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I11">
         <v>20</v>
@@ -3343,377 +3261,335 @@
         <v>90</v>
       </c>
       <c r="P11">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="R11">
-        <v>52</v>
+        <v>800</v>
+      </c>
+      <c r="S11">
+        <v>56</v>
       </c>
       <c r="T11">
-        <f t="shared" si="6"/>
-        <v>534.23762134987624</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>700</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="W11">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>68750</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>59375</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="4"/>
-        <v>131.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>144</v>
+        <f t="shared" si="4"/>
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>151</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J12">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1495</v>
       </c>
       <c r="L12" t="s">
         <v>90</v>
       </c>
       <c r="P12">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="Q12">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="R12">
-        <v>48</v>
+        <v>400</v>
+      </c>
+      <c r="S12">
+        <v>52.8</v>
       </c>
       <c r="T12">
-        <f t="shared" si="6"/>
-        <v>558.19257193948852</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="U12">
-        <v>800</v>
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
       </c>
       <c r="V12">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="W12">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>181250</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="2"/>
-        <v>62500</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="4"/>
-        <v>131.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J13">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1495</v>
       </c>
       <c r="L13" t="s">
         <v>90</v>
       </c>
       <c r="P13">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="R13">
-        <v>50</v>
+        <v>240</v>
+      </c>
+      <c r="S13">
+        <v>52.8</v>
       </c>
       <c r="T13">
-        <f t="shared" si="6"/>
-        <v>567.41267421264286</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="U13">
-        <v>960</v>
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
       </c>
       <c r="V13">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="W13">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>171875</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="2"/>
-        <v>62500</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="4"/>
-        <v>131.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>862.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J14">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1495</v>
       </c>
       <c r="L14" t="s">
         <v>90</v>
       </c>
       <c r="P14">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="R14">
+        <v>400</v>
+      </c>
+      <c r="S14">
+        <v>52.8</v>
       </c>
       <c r="T14">
-        <v>300</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="W14">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>184375</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="2"/>
-        <v>40625</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J15">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1495</v>
       </c>
       <c r="L15" t="s">
         <v>90</v>
       </c>
       <c r="P15">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="R15">
+        <v>560</v>
+      </c>
+      <c r="S15">
+        <v>52.8</v>
       </c>
       <c r="T15">
-        <v>600</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="W15">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>190625</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="2"/>
-        <v>65625</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="I16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J16">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1495</v>
       </c>
       <c r="L16" t="s">
         <v>90</v>
       </c>
       <c r="P16">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="R16">
+        <v>640</v>
+      </c>
+      <c r="S16">
+        <v>52.8</v>
       </c>
       <c r="T16">
-        <v>900</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="W16">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>196875</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="2"/>
-        <v>78125</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="4"/>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1012.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J17">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1495</v>
       </c>
       <c r="L17" t="s">
         <v>90</v>
       </c>
       <c r="P17">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>720</v>
+      </c>
+      <c r="S17">
+        <v>52.8</v>
       </c>
       <c r="T17">
-        <v>1200</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="W17">
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="2"/>
-        <v>90625</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>165</v>
+        <f t="shared" si="4"/>
+        <v>1031.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>139</v>
       </c>
       <c r="I18">
         <v>16</v>
@@ -3728,41 +3604,44 @@
         <v>90</v>
       </c>
       <c r="P18">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="R18">
+        <v>240</v>
+      </c>
+      <c r="S18">
+        <v>52.8</v>
       </c>
       <c r="T18">
-        <v>500</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="W18">
-        <v>52.8</v>
+        <f t="shared" si="3"/>
+        <v>165625</v>
       </c>
       <c r="X18">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="2"/>
-        <v>190625</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="4"/>
-        <v>487.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I19">
         <v>16</v>
@@ -3771,7 +3650,7 @@
         <v>250</v>
       </c>
       <c r="K19">
-        <v>1495</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>90</v>
@@ -3779,39 +3658,39 @@
       <c r="P19">
         <v>90</v>
       </c>
+      <c r="R19">
+        <v>240</v>
+      </c>
+      <c r="S19">
+        <v>52.8</v>
+      </c>
       <c r="T19">
-        <v>300</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="W19">
-        <v>52.8</v>
+        <f t="shared" ref="W19:W25" si="5">V19*50000/16</f>
+        <v>50000</v>
       </c>
       <c r="X19">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="2"/>
-        <v>178125</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="4"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Y19:Y25" si="6">X19*300/16</f>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I20">
         <v>16</v>
@@ -3820,7 +3699,7 @@
         <v>250</v>
       </c>
       <c r="K20">
-        <v>1495</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>90</v>
@@ -3828,39 +3707,39 @@
       <c r="P20">
         <v>69</v>
       </c>
+      <c r="R20">
+        <v>400</v>
+      </c>
+      <c r="S20">
+        <v>52.8</v>
+      </c>
       <c r="T20">
-        <v>500</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="W20">
-        <v>52.8</v>
+        <f t="shared" si="5"/>
+        <v>62500</v>
       </c>
       <c r="X20">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="2"/>
-        <v>190625</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="4"/>
-        <v>487.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I21">
         <v>16</v>
@@ -3869,7 +3748,7 @@
         <v>250</v>
       </c>
       <c r="K21">
-        <v>1495</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>90</v>
@@ -3877,39 +3756,39 @@
       <c r="P21">
         <v>34</v>
       </c>
+      <c r="R21">
+        <v>560</v>
+      </c>
+      <c r="S21">
+        <v>52.8</v>
+      </c>
       <c r="T21">
-        <v>700</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="W21">
-        <v>52.8</v>
+        <f t="shared" si="5"/>
+        <v>71875</v>
       </c>
       <c r="X21">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="4"/>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I22">
         <v>16</v>
@@ -3918,7 +3797,7 @@
         <v>250</v>
       </c>
       <c r="K22">
-        <v>1495</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>90</v>
@@ -3926,39 +3805,39 @@
       <c r="P22">
         <v>28</v>
       </c>
+      <c r="R22">
+        <v>640</v>
+      </c>
+      <c r="S22">
+        <v>52.8</v>
+      </c>
       <c r="T22">
-        <v>800</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="W22">
-        <v>52.8</v>
+        <f t="shared" si="5"/>
+        <v>75000</v>
       </c>
       <c r="X22">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="2"/>
-        <v>206250</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="4"/>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I23">
         <v>16</v>
@@ -3967,7 +3846,7 @@
         <v>250</v>
       </c>
       <c r="K23">
-        <v>1495</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>90</v>
@@ -3975,39 +3854,39 @@
       <c r="P23">
         <v>20</v>
       </c>
+      <c r="R23">
+        <v>720</v>
+      </c>
+      <c r="S23">
+        <v>52.8</v>
+      </c>
       <c r="T23">
-        <v>960</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="W23">
-        <v>52.8</v>
+        <f t="shared" si="5"/>
+        <v>78125</v>
       </c>
       <c r="X23">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="2"/>
-        <v>212500</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="4"/>
-        <v>562.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I24">
         <v>16</v>
@@ -4016,483 +3895,399 @@
         <v>250</v>
       </c>
       <c r="K24">
-        <v>1495</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>90</v>
       </c>
       <c r="P24">
-        <f>Q24+R24</f>
-        <v>75</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="R24">
-        <v>66</v>
+        <v>240</v>
+      </c>
+      <c r="S24">
+        <v>52.8</v>
       </c>
       <c r="T24">
-        <f>SQRT((Q24*U24^2+R24*V24^2)/(Q24+R24))</f>
-        <v>371.48351242013422</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="U24">
-        <v>700</v>
+        <f t="shared" si="2"/>
+        <v>60.540480000000002</v>
       </c>
       <c r="V24">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="W24">
-        <v>52.8</v>
+        <f t="shared" si="5"/>
+        <v>46875</v>
       </c>
       <c r="X24">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="2"/>
-        <v>181250</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="4"/>
-        <v>468.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>141</v>
+        <f t="shared" si="6"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>159</v>
       </c>
       <c r="I25">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K25">
-        <v>1495</v>
+        <v>3535</v>
       </c>
       <c r="L25" t="s">
         <v>90</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25:P29" si="7">Q25+R25</f>
-        <v>69</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="R25">
-        <v>60</v>
+        <v>400</v>
+      </c>
+      <c r="S25">
+        <v>57.7</v>
       </c>
       <c r="T25">
-        <f t="shared" ref="T25:T29" si="8">SQRT((Q25*U25^2+R25*V25^2)/(Q25+R25))</f>
-        <v>402.16803755990185</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="U25">
-        <v>800</v>
+        <f t="shared" ref="U25:U31" si="7">S25*T25*9.8</f>
+        <v>66.724280000000007</v>
       </c>
       <c r="V25">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="W25">
-        <v>52.8</v>
+        <f t="shared" si="5"/>
+        <v>281250</v>
       </c>
       <c r="X25">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="2"/>
-        <v>184375</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="4"/>
-        <v>468.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1406.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="I26">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K26">
-        <v>1495</v>
+        <v>3535</v>
       </c>
       <c r="L26" t="s">
         <v>90</v>
       </c>
       <c r="P26">
+        <v>90</v>
+      </c>
+      <c r="R26">
+        <v>240</v>
+      </c>
+      <c r="S26">
+        <v>57.7</v>
+      </c>
+      <c r="T26">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="7"/>
-        <v>69</v>
-      </c>
-      <c r="Q26">
-        <v>6</v>
-      </c>
-      <c r="R26">
-        <v>63</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="8"/>
-        <v>402.88092965324239</v>
-      </c>
-      <c r="U26">
-        <v>960</v>
+        <v>66.724280000000007</v>
       </c>
       <c r="V26">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
       <c r="W26">
-        <v>52.8</v>
+        <f t="shared" ref="W26:W31" si="8">V26*50000/16</f>
+        <v>271875</v>
       </c>
       <c r="X26">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="2"/>
-        <v>184375</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="4"/>
-        <v>468.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Y26:Y31" si="9">X26*300/16</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I27">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K27">
-        <v>1495</v>
+        <v>3535</v>
       </c>
       <c r="L27" t="s">
         <v>90</v>
       </c>
       <c r="P27">
+        <v>60</v>
+      </c>
+      <c r="R27">
+        <v>400</v>
+      </c>
+      <c r="S27">
+        <v>57.7</v>
+      </c>
+      <c r="T27">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-      <c r="Q27">
-        <v>9</v>
-      </c>
-      <c r="R27">
-        <v>50</v>
-      </c>
-      <c r="T27">
+        <v>66.724280000000007</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="W27">
         <f t="shared" si="8"/>
-        <v>535.35985046651138</v>
-      </c>
-      <c r="U27">
-        <v>700</v>
-      </c>
-      <c r="V27">
-        <v>500</v>
-      </c>
-      <c r="W27">
-        <v>52.8</v>
+        <v>284375</v>
       </c>
       <c r="X27">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="2"/>
-        <v>193750</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="4"/>
-        <v>487.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I28">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K28">
-        <v>1495</v>
+        <v>3535</v>
       </c>
       <c r="L28" t="s">
         <v>90</v>
       </c>
       <c r="P28">
+        <v>33</v>
+      </c>
+      <c r="R28">
+        <v>560</v>
+      </c>
+      <c r="S28">
+        <v>57.7</v>
+      </c>
+      <c r="T28">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="Q28">
-        <v>9</v>
-      </c>
-      <c r="R28">
-        <v>46</v>
-      </c>
-      <c r="T28">
+        <v>66.724280000000007</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="8"/>
-        <v>560.19477132349402</v>
-      </c>
-      <c r="U28">
-        <v>800</v>
-      </c>
-      <c r="V28">
-        <v>500</v>
-      </c>
-      <c r="W28">
-        <v>52.8</v>
+        <v>293750</v>
       </c>
       <c r="X28">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="2"/>
-        <v>193750</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="4"/>
-        <v>506.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1481.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="I29">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K29">
-        <v>1495</v>
+        <v>3535</v>
       </c>
       <c r="L29" t="s">
         <v>90</v>
       </c>
       <c r="P29">
+        <v>26</v>
+      </c>
+      <c r="R29">
+        <v>640</v>
+      </c>
+      <c r="S29">
+        <v>57.7</v>
+      </c>
+      <c r="T29">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="Q29">
-        <v>6</v>
-      </c>
-      <c r="R29">
-        <v>48</v>
-      </c>
-      <c r="T29">
+        <v>66.724280000000007</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="8"/>
-        <v>569.75628317923997</v>
-      </c>
-      <c r="U29">
-        <v>960</v>
-      </c>
-      <c r="V29">
-        <v>500</v>
-      </c>
-      <c r="W29">
-        <v>52.8</v>
+        <v>296875</v>
       </c>
       <c r="X29">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="2"/>
-        <v>193750</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="4"/>
-        <v>506.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="I30">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K30">
-        <v>1495</v>
+        <v>3535</v>
       </c>
       <c r="L30" t="s">
         <v>90</v>
       </c>
       <c r="P30">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="R30">
+        <v>720</v>
+      </c>
+      <c r="S30">
+        <v>57.7</v>
       </c>
       <c r="T30">
-        <v>300</v>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="7"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>97</v>
       </c>
       <c r="W30">
-        <v>52.8</v>
+        <f t="shared" si="8"/>
+        <v>303125</v>
       </c>
       <c r="X30">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>82</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="2"/>
-        <v>171875</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="4"/>
-        <v>431.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>166</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>1537.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I31">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3535</v>
       </c>
       <c r="L31" t="s">
         <v>90</v>
       </c>
       <c r="P31">
-        <v>90</v>
+        <v>48</v>
+      </c>
+      <c r="R31">
+        <v>240</v>
+      </c>
+      <c r="S31">
+        <v>57.7</v>
       </c>
       <c r="T31">
-        <v>300</v>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="7"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>86</v>
       </c>
       <c r="W31">
-        <v>52.8</v>
+        <f t="shared" si="8"/>
+        <v>268750</v>
       </c>
       <c r="X31">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" ref="Z31:Z43" si="9">MAX(1, INT(W31/10+SQRT(J31)/20+SQRT(K31)+X31+SQRT(P31)/2+SQRT(T31)-SQRT(185)+20-I31))</f>
-        <v>18</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" ref="AA31:AA43" si="10">Z31*50000/16</f>
-        <v>56250</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" ref="AB31:AB43" si="11">MAX(1, ROUND((SQRT(J31)/100+SQRT(K31)+X31+(40/I31-2)+SQRT(P31)/2+SQRT(T31)-SQRT(185))/2, 0))</f>
+        <f t="shared" si="9"/>
+        <v>1331.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32">
         <v>5</v>
       </c>
-      <c r="AC31">
-        <f t="shared" ref="AC31:AC43" si="12">AB31*300/16</f>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32">
-        <v>16</v>
-      </c>
       <c r="J32">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -4501,47 +4296,47 @@
         <v>90</v>
       </c>
       <c r="P32">
-        <v>69</v>
+        <v>90</v>
+      </c>
+      <c r="R32">
+        <v>240</v>
+      </c>
+      <c r="S32">
+        <v>57.7</v>
       </c>
       <c r="T32">
-        <v>500</v>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U32">
+        <f t="shared" ref="U32:U37" si="10">S32*T32*9.8</f>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="W32">
-        <v>52.8</v>
+        <f t="shared" ref="W32:W37" si="11">V32*50000/16</f>
+        <v>87500</v>
       </c>
       <c r="X32">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="10"/>
-        <v>71875</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="12"/>
-        <v>131.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Y32:Y37" si="12">X32*300/16</f>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I33">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -4550,47 +4345,47 @@
         <v>90</v>
       </c>
       <c r="P33">
-        <v>34</v>
+        <v>60</v>
+      </c>
+      <c r="R33">
+        <v>400</v>
+      </c>
+      <c r="S33">
+        <v>57.7</v>
       </c>
       <c r="T33">
-        <v>700</v>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="10"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="W33">
-        <v>52.8</v>
+        <f t="shared" si="11"/>
+        <v>100000</v>
       </c>
       <c r="X33">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="10"/>
-        <v>78125</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AC33">
         <f t="shared" si="12"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I34">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -4599,47 +4394,47 @@
         <v>90</v>
       </c>
       <c r="P34">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <v>560</v>
+      </c>
+      <c r="S34">
+        <v>57.7</v>
       </c>
       <c r="T34">
-        <v>800</v>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="10"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="W34">
-        <v>52.8</v>
+        <f t="shared" si="11"/>
+        <v>106250</v>
       </c>
       <c r="X34">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" si="9"/>
-        <v>27</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="10"/>
-        <v>84375</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="AC34">
         <f t="shared" si="12"/>
-        <v>168.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+        <v>356.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I35">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -4648,47 +4443,47 @@
         <v>90</v>
       </c>
       <c r="P35">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="R35">
+        <v>640</v>
+      </c>
+      <c r="S35">
+        <v>57.7</v>
       </c>
       <c r="T35">
-        <v>960</v>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="10"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="W35">
-        <v>52.8</v>
+        <f t="shared" si="11"/>
+        <v>112500</v>
       </c>
       <c r="X35">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" si="9"/>
-        <v>29</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="10"/>
-        <v>90625</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AC35">
         <f t="shared" si="12"/>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+        <v>393.75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I36">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -4697,61 +4492,47 @@
         <v>90</v>
       </c>
       <c r="P36">
-        <f>Q36+R36</f>
-        <v>75</v>
-      </c>
-      <c r="Q36">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="R36">
-        <v>66</v>
+        <v>720</v>
+      </c>
+      <c r="S36">
+        <v>57.7</v>
       </c>
       <c r="T36">
-        <f>SQRT((Q36*U36^2+R36*V36^2)/(Q36+R36))</f>
-        <v>371.48351242013422</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="U36">
-        <v>700</v>
+        <f t="shared" si="10"/>
+        <v>66.724280000000007</v>
       </c>
       <c r="V36">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="W36">
-        <v>52.8</v>
+        <f t="shared" si="11"/>
+        <v>115625</v>
       </c>
       <c r="X36">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="AA36">
-        <f t="shared" si="10"/>
-        <v>62500</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="I37">
         <v>5</v>
       </c>
-      <c r="AC36">
-        <f t="shared" si="12"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>141</v>
-      </c>
-      <c r="I37">
-        <v>16</v>
-      </c>
       <c r="J37">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -4760,1761 +4541,36 @@
         <v>90</v>
       </c>
       <c r="P37">
-        <f t="shared" ref="P37:P41" si="13">Q37+R37</f>
-        <v>69</v>
-      </c>
-      <c r="Q37">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="R37">
-        <v>60</v>
+        <v>240</v>
+      </c>
+      <c r="S37">
+        <v>57.7</v>
       </c>
       <c r="T37">
-        <f t="shared" ref="T37:T41" si="14">SQRT((Q37*U37^2+R37*V37^2)/(Q37+R37))</f>
-        <v>402.16803755990185</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="U37">
-        <v>800</v>
+        <f t="shared" si="10"/>
+        <v>66.724280000000007</v>
       </c>
       <c r="V37">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="W37">
-        <v>52.8</v>
+        <f t="shared" si="11"/>
+        <v>84375</v>
       </c>
       <c r="X37">
-        <v>0.11700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="AA37">
-        <f t="shared" si="10"/>
-        <v>62500</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AC37">
         <f t="shared" si="12"/>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38">
-        <v>16</v>
-      </c>
-      <c r="J38">
-        <v>250</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>90</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="13"/>
-        <v>69</v>
-      </c>
-      <c r="Q38">
-        <v>6</v>
-      </c>
-      <c r="R38">
-        <v>63</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="14"/>
-        <v>402.88092965324239</v>
-      </c>
-      <c r="U38">
-        <v>960</v>
-      </c>
-      <c r="V38">
-        <v>300</v>
-      </c>
-      <c r="W38">
-        <v>52.8</v>
-      </c>
-      <c r="X38">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="AA38">
-        <f t="shared" si="10"/>
-        <v>62500</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" si="12"/>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39">
-        <v>16</v>
-      </c>
-      <c r="J39">
-        <v>250</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>90</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="13"/>
-        <v>59</v>
-      </c>
-      <c r="Q39">
-        <v>9</v>
-      </c>
-      <c r="R39">
-        <v>50</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="14"/>
-        <v>535.35985046651138</v>
-      </c>
-      <c r="U39">
-        <v>700</v>
-      </c>
-      <c r="V39">
-        <v>500</v>
-      </c>
-      <c r="W39">
-        <v>52.8</v>
-      </c>
-      <c r="X39">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z39">
-        <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" si="10"/>
-        <v>71875</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="12"/>
-        <v>131.25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>144</v>
-      </c>
-      <c r="I40">
-        <v>16</v>
-      </c>
-      <c r="J40">
-        <v>250</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40" t="s">
-        <v>90</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="13"/>
-        <v>55</v>
-      </c>
-      <c r="Q40">
-        <v>9</v>
-      </c>
-      <c r="R40">
-        <v>46</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="14"/>
-        <v>560.19477132349402</v>
-      </c>
-      <c r="U40">
-        <v>800</v>
-      </c>
-      <c r="V40">
-        <v>500</v>
-      </c>
-      <c r="W40">
-        <v>52.8</v>
-      </c>
-      <c r="X40">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z40">
-        <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="AA40">
-        <f t="shared" si="10"/>
-        <v>71875</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AC40">
-        <f t="shared" si="12"/>
-        <v>131.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41">
-        <v>16</v>
-      </c>
-      <c r="J41">
-        <v>250</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>90</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="13"/>
-        <v>54</v>
-      </c>
-      <c r="Q41">
-        <v>6</v>
-      </c>
-      <c r="R41">
-        <v>48</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="14"/>
-        <v>569.75628317923997</v>
-      </c>
-      <c r="U41">
-        <v>960</v>
-      </c>
-      <c r="V41">
-        <v>500</v>
-      </c>
-      <c r="W41">
-        <v>52.8</v>
-      </c>
-      <c r="X41">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z41">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="AA41">
-        <f t="shared" si="10"/>
-        <v>75000</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="12"/>
-        <v>131.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>153</v>
-      </c>
-      <c r="I42">
-        <v>16</v>
-      </c>
-      <c r="J42">
-        <v>250</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>90</v>
-      </c>
-      <c r="P42">
-        <v>40</v>
-      </c>
-      <c r="T42">
-        <v>300</v>
-      </c>
-      <c r="W42">
-        <v>52.8</v>
-      </c>
-      <c r="X42">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="0"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="Z42">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="AA42">
-        <f t="shared" si="10"/>
-        <v>53125</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="12"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>173</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
-      </c>
-      <c r="J43">
-        <v>350</v>
-      </c>
-      <c r="K43">
-        <v>3535</v>
-      </c>
-      <c r="L43" t="s">
-        <v>90</v>
-      </c>
-      <c r="P43">
-        <f>Q43+R43</f>
-        <v>33</v>
-      </c>
-      <c r="Q43">
-        <v>5</v>
-      </c>
-      <c r="R43">
-        <v>28</v>
-      </c>
-      <c r="T43">
-        <f t="shared" ref="T43" si="15">SQRT((Q43*U43^2+R43*V43^2)/(Q43+R43))</f>
-        <v>555.95944914256927</v>
-      </c>
-      <c r="U43">
-        <v>800</v>
-      </c>
-      <c r="V43">
-        <v>500</v>
-      </c>
-      <c r="W43">
-        <v>57.7</v>
-      </c>
-      <c r="X43">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" ref="Y43:Y55" si="16">W43*X43*9.8</f>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z43">
-        <f t="shared" si="9"/>
-        <v>94</v>
-      </c>
-      <c r="AA43">
-        <f t="shared" si="10"/>
-        <v>293750</v>
-      </c>
-      <c r="AB43">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-      <c r="AC43">
-        <f t="shared" si="12"/>
-        <v>731.25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44">
-        <v>5</v>
-      </c>
-      <c r="J44">
-        <v>350</v>
-      </c>
-      <c r="K44">
-        <v>3535</v>
-      </c>
-      <c r="L44" t="s">
-        <v>90</v>
-      </c>
-      <c r="P44">
-        <v>90</v>
-      </c>
-      <c r="T44">
-        <v>300</v>
-      </c>
-      <c r="W44">
-        <v>57.7</v>
-      </c>
-      <c r="X44">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y44">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z44">
-        <f t="shared" ref="Z44:Z55" si="17">MAX(1, INT(W44/10+SQRT(J44)/20+SQRT(K44)+X44+SQRT(P44)/2+SQRT(T44)-SQRT(185)+20-I44))</f>
-        <v>89</v>
-      </c>
-      <c r="AA44">
-        <f t="shared" ref="AA44:AA55" si="18">Z44*50000/16</f>
-        <v>278125</v>
-      </c>
-      <c r="AB44">
-        <f t="shared" ref="AB44:AB55" si="19">MAX(1, ROUND((SQRT(J44)/100+SQRT(K44)+X44+(40/I44-2)+SQRT(P44)/2+SQRT(T44)-SQRT(185))/2, 0))</f>
-        <v>37</v>
-      </c>
-      <c r="AC44">
-        <f t="shared" ref="AC44:AC55" si="20">AB44*300/16</f>
-        <v>693.75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="I45">
-        <v>5</v>
-      </c>
-      <c r="J45">
-        <v>350</v>
-      </c>
-      <c r="K45">
-        <v>3535</v>
-      </c>
-      <c r="L45" t="s">
-        <v>90</v>
-      </c>
-      <c r="P45">
-        <v>60</v>
-      </c>
-      <c r="T45">
-        <v>500</v>
-      </c>
-      <c r="W45">
-        <v>57.7</v>
-      </c>
-      <c r="X45">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y45">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z45">
-        <f t="shared" si="17"/>
-        <v>93</v>
-      </c>
-      <c r="AA45">
-        <f t="shared" si="18"/>
-        <v>290625</v>
-      </c>
-      <c r="AB45">
-        <f t="shared" si="19"/>
-        <v>39</v>
-      </c>
-      <c r="AC45">
-        <f t="shared" si="20"/>
-        <v>731.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>136</v>
-      </c>
-      <c r="I46">
-        <v>5</v>
-      </c>
-      <c r="J46">
-        <v>350</v>
-      </c>
-      <c r="K46">
-        <v>3535</v>
-      </c>
-      <c r="L46" t="s">
-        <v>90</v>
-      </c>
-      <c r="P46">
-        <v>33</v>
-      </c>
-      <c r="T46">
-        <v>700</v>
-      </c>
-      <c r="W46">
-        <v>57.7</v>
-      </c>
-      <c r="X46">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y46">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z46">
-        <f t="shared" si="17"/>
-        <v>97</v>
-      </c>
-      <c r="AA46">
-        <f t="shared" si="18"/>
-        <v>303125</v>
-      </c>
-      <c r="AB46">
-        <f t="shared" si="19"/>
-        <v>41</v>
-      </c>
-      <c r="AC46">
-        <f t="shared" si="20"/>
-        <v>768.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47">
-        <v>5</v>
-      </c>
-      <c r="J47">
-        <v>350</v>
-      </c>
-      <c r="K47">
-        <v>3535</v>
-      </c>
-      <c r="L47" t="s">
-        <v>90</v>
-      </c>
-      <c r="P47">
-        <v>26</v>
-      </c>
-      <c r="T47">
-        <v>800</v>
-      </c>
-      <c r="W47">
-        <v>57.7</v>
-      </c>
-      <c r="X47">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y47">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z47">
-        <f t="shared" si="17"/>
-        <v>98</v>
-      </c>
-      <c r="AA47">
-        <f t="shared" si="18"/>
-        <v>306250</v>
-      </c>
-      <c r="AB47">
-        <f t="shared" si="19"/>
-        <v>41</v>
-      </c>
-      <c r="AC47">
-        <f t="shared" si="20"/>
-        <v>768.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="I48">
-        <v>5</v>
-      </c>
-      <c r="J48">
-        <v>350</v>
-      </c>
-      <c r="K48">
-        <v>3535</v>
-      </c>
-      <c r="L48" t="s">
-        <v>90</v>
-      </c>
-      <c r="P48">
-        <v>26</v>
-      </c>
-      <c r="T48">
-        <v>960</v>
-      </c>
-      <c r="W48">
-        <v>57.7</v>
-      </c>
-      <c r="X48">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="17"/>
-        <v>101</v>
-      </c>
-      <c r="AA48">
-        <f t="shared" si="18"/>
-        <v>315625</v>
-      </c>
-      <c r="AB48">
-        <f t="shared" si="19"/>
-        <v>43</v>
-      </c>
-      <c r="AC48">
-        <f t="shared" si="20"/>
-        <v>806.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>140</v>
-      </c>
-      <c r="I49">
-        <v>5</v>
-      </c>
-      <c r="J49">
-        <v>350</v>
-      </c>
-      <c r="K49">
-        <v>3535</v>
-      </c>
-      <c r="L49" t="s">
-        <v>90</v>
-      </c>
-      <c r="P49">
-        <f>Q49+R49</f>
-        <v>74</v>
-      </c>
-      <c r="Q49">
-        <v>9</v>
-      </c>
-      <c r="R49">
-        <v>65</v>
-      </c>
-      <c r="T49">
-        <f>SQRT((Q49*U49^2+R49*V49^2)/(Q49+R49))</f>
-        <v>372.35554064448758</v>
-      </c>
-      <c r="U49">
-        <v>700</v>
-      </c>
-      <c r="V49">
-        <v>300</v>
-      </c>
-      <c r="W49">
-        <v>57.7</v>
-      </c>
-      <c r="X49">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y49">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z49">
-        <f t="shared" si="17"/>
-        <v>91</v>
-      </c>
-      <c r="AA49">
-        <f t="shared" si="18"/>
-        <v>284375</v>
-      </c>
-      <c r="AB49">
-        <f t="shared" si="19"/>
-        <v>38</v>
-      </c>
-      <c r="AC49">
-        <f t="shared" si="20"/>
-        <v>712.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>141</v>
-      </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-      <c r="J50">
-        <v>350</v>
-      </c>
-      <c r="K50">
-        <v>3535</v>
-      </c>
-      <c r="L50" t="s">
-        <v>90</v>
-      </c>
-      <c r="P50">
-        <f t="shared" ref="P50:P54" si="21">Q50+R50</f>
-        <v>64</v>
-      </c>
-      <c r="Q50">
-        <v>9</v>
-      </c>
-      <c r="R50">
-        <v>55</v>
-      </c>
-      <c r="T50">
-        <f t="shared" ref="T50:T54" si="22">SQRT((Q50*U50^2+R50*V50^2)/(Q50+R50))</f>
-        <v>409.07670429883927</v>
-      </c>
-      <c r="U50">
-        <v>800</v>
-      </c>
-      <c r="V50">
-        <v>300</v>
-      </c>
-      <c r="W50">
-        <v>57.7</v>
-      </c>
-      <c r="X50">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y50">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z50">
-        <f t="shared" si="17"/>
-        <v>91</v>
-      </c>
-      <c r="AA50">
-        <f t="shared" si="18"/>
-        <v>284375</v>
-      </c>
-      <c r="AB50">
-        <f t="shared" si="19"/>
-        <v>38</v>
-      </c>
-      <c r="AC50">
-        <f t="shared" si="20"/>
-        <v>712.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>142</v>
-      </c>
-      <c r="I51">
-        <v>5</v>
-      </c>
-      <c r="J51">
-        <v>350</v>
-      </c>
-      <c r="K51">
-        <v>3535</v>
-      </c>
-      <c r="L51" t="s">
-        <v>90</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="21"/>
-        <v>68</v>
-      </c>
-      <c r="Q51">
-        <v>8</v>
-      </c>
-      <c r="R51">
-        <v>60</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="22"/>
-        <v>433.39969325975193</v>
-      </c>
-      <c r="U51">
-        <v>960</v>
-      </c>
-      <c r="V51">
-        <v>300</v>
-      </c>
-      <c r="W51">
-        <v>57.7</v>
-      </c>
-      <c r="X51">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y51">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z51">
-        <f t="shared" si="17"/>
-        <v>92</v>
-      </c>
-      <c r="AA51">
-        <f t="shared" si="18"/>
-        <v>287500</v>
-      </c>
-      <c r="AB51">
-        <f t="shared" si="19"/>
-        <v>39</v>
-      </c>
-      <c r="AC51">
-        <f t="shared" si="20"/>
-        <v>731.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>143</v>
-      </c>
-      <c r="I52">
-        <v>5</v>
-      </c>
-      <c r="J52">
-        <v>350</v>
-      </c>
-      <c r="K52">
-        <v>3535</v>
-      </c>
-      <c r="L52" t="s">
-        <v>90</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="21"/>
-        <v>49</v>
-      </c>
-      <c r="Q52">
-        <v>9</v>
-      </c>
-      <c r="R52">
-        <v>40</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="22"/>
-        <v>542.29293988863731</v>
-      </c>
-      <c r="U52">
-        <v>700</v>
-      </c>
-      <c r="V52">
-        <v>500</v>
-      </c>
-      <c r="W52">
-        <v>57.7</v>
-      </c>
-      <c r="X52">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y52">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z52">
-        <f t="shared" si="17"/>
-        <v>94</v>
-      </c>
-      <c r="AA52">
-        <f t="shared" si="18"/>
-        <v>293750</v>
-      </c>
-      <c r="AB52">
-        <f t="shared" si="19"/>
-        <v>39</v>
-      </c>
-      <c r="AC52">
-        <f t="shared" si="20"/>
-        <v>731.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>144</v>
-      </c>
-      <c r="I53">
-        <v>5</v>
-      </c>
-      <c r="J53">
-        <v>350</v>
-      </c>
-      <c r="K53">
-        <v>3535</v>
-      </c>
-      <c r="L53" t="s">
-        <v>90</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="21"/>
-        <v>45</v>
-      </c>
-      <c r="Q53">
-        <v>9</v>
-      </c>
-      <c r="R53">
-        <v>36</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="22"/>
-        <v>572.71284253105409</v>
-      </c>
-      <c r="U53">
-        <v>800</v>
-      </c>
-      <c r="V53">
-        <v>500</v>
-      </c>
-      <c r="W53">
-        <v>57.7</v>
-      </c>
-      <c r="X53">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y53">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z53">
-        <f t="shared" si="17"/>
-        <v>94</v>
-      </c>
-      <c r="AA53">
-        <f t="shared" si="18"/>
-        <v>293750</v>
-      </c>
-      <c r="AB53">
-        <f t="shared" si="19"/>
-        <v>40</v>
-      </c>
-      <c r="AC53">
-        <f t="shared" si="20"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>145</v>
-      </c>
-      <c r="I54">
-        <v>5</v>
-      </c>
-      <c r="J54">
-        <v>350</v>
-      </c>
-      <c r="K54">
-        <v>3535</v>
-      </c>
-      <c r="L54" t="s">
-        <v>90</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="21"/>
-        <v>48</v>
-      </c>
-      <c r="Q54">
-        <v>8</v>
-      </c>
-      <c r="R54">
-        <v>40</v>
-      </c>
-      <c r="T54">
-        <f t="shared" si="22"/>
-        <v>601.60895383407762</v>
-      </c>
-      <c r="U54">
-        <v>960</v>
-      </c>
-      <c r="V54">
-        <v>500</v>
-      </c>
-      <c r="W54">
-        <v>57.7</v>
-      </c>
-      <c r="X54">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y54">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z54">
-        <f t="shared" si="17"/>
-        <v>95</v>
-      </c>
-      <c r="AA54">
-        <f t="shared" si="18"/>
-        <v>296875</v>
-      </c>
-      <c r="AB54">
-        <f t="shared" si="19"/>
-        <v>40</v>
-      </c>
-      <c r="AC54">
-        <f t="shared" si="20"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>153</v>
-      </c>
-      <c r="I55">
-        <v>5</v>
-      </c>
-      <c r="J55">
-        <v>350</v>
-      </c>
-      <c r="K55">
-        <v>3535</v>
-      </c>
-      <c r="L55" t="s">
-        <v>90</v>
-      </c>
-      <c r="P55">
-        <v>48</v>
-      </c>
-      <c r="T55">
-        <v>300</v>
-      </c>
-      <c r="W55">
-        <v>57.7</v>
-      </c>
-      <c r="X55">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y55">
-        <f t="shared" si="16"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z55">
-        <f t="shared" si="17"/>
-        <v>88</v>
-      </c>
-      <c r="AA55">
-        <f t="shared" si="18"/>
-        <v>275000</v>
-      </c>
-      <c r="AB55">
-        <f t="shared" si="19"/>
-        <v>36</v>
-      </c>
-      <c r="AC55">
-        <f t="shared" si="20"/>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>166</v>
-      </c>
-      <c r="B56" t="s">
-        <v>134</v>
-      </c>
-      <c r="I56">
-        <v>5</v>
-      </c>
-      <c r="J56">
-        <v>350</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56" t="s">
-        <v>90</v>
-      </c>
-      <c r="P56">
-        <v>90</v>
-      </c>
-      <c r="T56">
-        <v>300</v>
-      </c>
-      <c r="W56">
-        <v>57.7</v>
-      </c>
-      <c r="X56">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y56">
-        <f t="shared" ref="Y56:Y67" si="23">W56*X56*9.8</f>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z56">
-        <f t="shared" ref="Z56:Z67" si="24">MAX(1, INT(W56/10+SQRT(J56)/20+SQRT(K56)+X56+SQRT(P56)/2+SQRT(T56)-SQRT(185)+20-I56))</f>
-        <v>30</v>
-      </c>
-      <c r="AA56">
-        <f t="shared" ref="AA56:AA67" si="25">Z56*50000/16</f>
-        <v>93750</v>
-      </c>
-      <c r="AB56">
-        <f t="shared" ref="AB56:AB67" si="26">MAX(1, ROUND((SQRT(J56)/100+SQRT(K56)+X56+(40/I56-2)+SQRT(P56)/2+SQRT(T56)-SQRT(185))/2, 0))</f>
-        <v>7</v>
-      </c>
-      <c r="AC56">
-        <f t="shared" ref="AC56:AC67" si="27">AB56*300/16</f>
-        <v>131.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>135</v>
-      </c>
-      <c r="I57">
-        <v>5</v>
-      </c>
-      <c r="J57">
-        <v>350</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57" t="s">
-        <v>90</v>
-      </c>
-      <c r="P57">
-        <v>60</v>
-      </c>
-      <c r="T57">
-        <v>500</v>
-      </c>
-      <c r="W57">
-        <v>57.7</v>
-      </c>
-      <c r="X57">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y57">
-        <f t="shared" si="23"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z57">
-        <f t="shared" si="24"/>
-        <v>34</v>
-      </c>
-      <c r="AA57">
-        <f t="shared" si="25"/>
-        <v>106250</v>
-      </c>
-      <c r="AB57">
-        <f t="shared" si="26"/>
-        <v>9</v>
-      </c>
-      <c r="AC57">
-        <f t="shared" si="27"/>
-        <v>168.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>136</v>
-      </c>
-      <c r="I58">
-        <v>5</v>
-      </c>
-      <c r="J58">
-        <v>350</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58" t="s">
-        <v>90</v>
-      </c>
-      <c r="P58">
-        <v>33</v>
-      </c>
-      <c r="T58">
-        <v>700</v>
-      </c>
-      <c r="W58">
-        <v>57.7</v>
-      </c>
-      <c r="X58">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y58">
-        <f t="shared" si="23"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z58">
-        <f t="shared" si="24"/>
-        <v>37</v>
-      </c>
-      <c r="AA58">
-        <f t="shared" si="25"/>
-        <v>115625</v>
-      </c>
-      <c r="AB58">
-        <f t="shared" si="26"/>
-        <v>11</v>
-      </c>
-      <c r="AC58">
-        <f t="shared" si="27"/>
-        <v>206.25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>137</v>
-      </c>
-      <c r="I59">
-        <v>5</v>
-      </c>
-      <c r="J59">
-        <v>350</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59" t="s">
-        <v>90</v>
-      </c>
-      <c r="P59">
-        <v>26</v>
-      </c>
-      <c r="T59">
-        <v>800</v>
-      </c>
-      <c r="W59">
-        <v>57.7</v>
-      </c>
-      <c r="X59">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y59">
-        <f t="shared" si="23"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z59">
-        <f t="shared" si="24"/>
-        <v>39</v>
-      </c>
-      <c r="AA59">
-        <f t="shared" si="25"/>
-        <v>121875</v>
-      </c>
-      <c r="AB59">
-        <f t="shared" si="26"/>
-        <v>12</v>
-      </c>
-      <c r="AC59">
-        <f t="shared" si="27"/>
         <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>139</v>
-      </c>
-      <c r="I60">
-        <v>5</v>
-      </c>
-      <c r="J60">
-        <v>350</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60" t="s">
-        <v>90</v>
-      </c>
-      <c r="P60">
-        <v>26</v>
-      </c>
-      <c r="T60">
-        <v>960</v>
-      </c>
-      <c r="W60">
-        <v>57.7</v>
-      </c>
-      <c r="X60">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y60">
-        <f t="shared" si="23"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z60">
-        <f t="shared" si="24"/>
-        <v>41</v>
-      </c>
-      <c r="AA60">
-        <f t="shared" si="25"/>
-        <v>128125</v>
-      </c>
-      <c r="AB60">
-        <f t="shared" si="26"/>
-        <v>13</v>
-      </c>
-      <c r="AC60">
-        <f t="shared" si="27"/>
-        <v>243.75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>140</v>
-      </c>
-      <c r="I61">
-        <v>5</v>
-      </c>
-      <c r="J61">
-        <v>350</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61" t="s">
-        <v>90</v>
-      </c>
-      <c r="P61">
-        <f>Q61+R61</f>
-        <v>74</v>
-      </c>
-      <c r="Q61">
-        <v>9</v>
-      </c>
-      <c r="R61">
-        <v>65</v>
-      </c>
-      <c r="T61">
-        <f>SQRT((Q61*U61^2+R61*V61^2)/(Q61+R61))</f>
-        <v>372.35554064448758</v>
-      </c>
-      <c r="U61">
-        <v>700</v>
-      </c>
-      <c r="V61">
-        <v>300</v>
-      </c>
-      <c r="W61">
-        <v>57.7</v>
-      </c>
-      <c r="X61">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" si="23"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z61">
-        <f t="shared" si="24"/>
-        <v>31</v>
-      </c>
-      <c r="AA61">
-        <f t="shared" si="25"/>
-        <v>96875</v>
-      </c>
-      <c r="AB61">
-        <f t="shared" si="26"/>
-        <v>8</v>
-      </c>
-      <c r="AC61">
-        <f t="shared" si="27"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>141</v>
-      </c>
-      <c r="I62">
-        <v>5</v>
-      </c>
-      <c r="J62">
-        <v>350</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62" t="s">
-        <v>90</v>
-      </c>
-      <c r="P62">
-        <f t="shared" ref="P62:P66" si="28">Q62+R62</f>
-        <v>64</v>
-      </c>
-      <c r="Q62">
-        <v>9</v>
-      </c>
-      <c r="R62">
-        <v>55</v>
-      </c>
-      <c r="T62">
-        <f t="shared" ref="T62:T66" si="29">SQRT((Q62*U62^2+R62*V62^2)/(Q62+R62))</f>
-        <v>409.07670429883927</v>
-      </c>
-      <c r="U62">
-        <v>800</v>
-      </c>
-      <c r="V62">
-        <v>300</v>
-      </c>
-      <c r="W62">
-        <v>57.7</v>
-      </c>
-      <c r="X62">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" si="23"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z62">
-        <f t="shared" si="24"/>
-        <v>32</v>
-      </c>
-      <c r="AA62">
-        <f t="shared" si="25"/>
-        <v>100000</v>
-      </c>
-      <c r="AB62">
-        <f t="shared" si="26"/>
-        <v>8</v>
-      </c>
-      <c r="AC62">
-        <f t="shared" si="27"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>142</v>
-      </c>
-      <c r="I63">
-        <v>5</v>
-      </c>
-      <c r="J63">
-        <v>350</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63" t="s">
-        <v>90</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="28"/>
-        <v>68</v>
-      </c>
-      <c r="Q63">
-        <v>8</v>
-      </c>
-      <c r="R63">
-        <v>60</v>
-      </c>
-      <c r="T63">
-        <f t="shared" si="29"/>
-        <v>433.39969325975193</v>
-      </c>
-      <c r="U63">
-        <v>960</v>
-      </c>
-      <c r="V63">
-        <v>300</v>
-      </c>
-      <c r="W63">
-        <v>57.7</v>
-      </c>
-      <c r="X63">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y63">
-        <f t="shared" si="23"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z63">
-        <f t="shared" si="24"/>
-        <v>33</v>
-      </c>
-      <c r="AA63">
-        <f t="shared" si="25"/>
-        <v>103125</v>
-      </c>
-      <c r="AB63">
-        <f t="shared" si="26"/>
-        <v>9</v>
-      </c>
-      <c r="AC63">
-        <f t="shared" si="27"/>
-        <v>168.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>143</v>
-      </c>
-      <c r="I64">
-        <v>5</v>
-      </c>
-      <c r="J64">
-        <v>350</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64" t="s">
-        <v>90</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="28"/>
-        <v>49</v>
-      </c>
-      <c r="Q64">
-        <v>9</v>
-      </c>
-      <c r="R64">
-        <v>40</v>
-      </c>
-      <c r="T64">
-        <f t="shared" si="29"/>
-        <v>542.29293988863731</v>
-      </c>
-      <c r="U64">
-        <v>700</v>
-      </c>
-      <c r="V64">
-        <v>500</v>
-      </c>
-      <c r="W64">
-        <v>57.7</v>
-      </c>
-      <c r="X64">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y64">
-        <f t="shared" si="23"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z64">
-        <f t="shared" si="24"/>
-        <v>35</v>
-      </c>
-      <c r="AA64">
-        <f t="shared" si="25"/>
-        <v>109375</v>
-      </c>
-      <c r="AB64">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="AC64">
-        <f t="shared" si="27"/>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>144</v>
-      </c>
-      <c r="I65">
-        <v>5</v>
-      </c>
-      <c r="J65">
-        <v>350</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65" t="s">
-        <v>90</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="28"/>
-        <v>45</v>
-      </c>
-      <c r="Q65">
-        <v>9</v>
-      </c>
-      <c r="R65">
-        <v>36</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="29"/>
-        <v>572.71284253105409</v>
-      </c>
-      <c r="U65">
-        <v>800</v>
-      </c>
-      <c r="V65">
-        <v>500</v>
-      </c>
-      <c r="W65">
-        <v>57.7</v>
-      </c>
-      <c r="X65">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y65">
-        <f t="shared" si="23"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z65">
-        <f t="shared" si="24"/>
-        <v>35</v>
-      </c>
-      <c r="AA65">
-        <f t="shared" si="25"/>
-        <v>109375</v>
-      </c>
-      <c r="AB65">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="AC65">
-        <f t="shared" si="27"/>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>145</v>
-      </c>
-      <c r="I66">
-        <v>5</v>
-      </c>
-      <c r="J66">
-        <v>350</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66" t="s">
-        <v>90</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="28"/>
-        <v>48</v>
-      </c>
-      <c r="Q66">
-        <v>8</v>
-      </c>
-      <c r="R66">
-        <v>40</v>
-      </c>
-      <c r="T66">
-        <f t="shared" si="29"/>
-        <v>601.60895383407762</v>
-      </c>
-      <c r="U66">
-        <v>960</v>
-      </c>
-      <c r="V66">
-        <v>500</v>
-      </c>
-      <c r="W66">
-        <v>57.7</v>
-      </c>
-      <c r="X66">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y66">
-        <f t="shared" si="23"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z66">
-        <f t="shared" si="24"/>
-        <v>36</v>
-      </c>
-      <c r="AA66">
-        <f t="shared" si="25"/>
-        <v>112500</v>
-      </c>
-      <c r="AB66">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="AC66">
-        <f t="shared" si="27"/>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>153</v>
-      </c>
-      <c r="I67">
-        <v>5</v>
-      </c>
-      <c r="J67">
-        <v>350</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67" t="s">
-        <v>90</v>
-      </c>
-      <c r="P67">
-        <v>48</v>
-      </c>
-      <c r="T67">
-        <v>300</v>
-      </c>
-      <c r="W67">
-        <v>57.7</v>
-      </c>
-      <c r="X67">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Y67">
-        <f t="shared" si="23"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="Z67">
-        <f t="shared" si="24"/>
-        <v>29</v>
-      </c>
-      <c r="AA67">
-        <f t="shared" si="25"/>
-        <v>90625</v>
-      </c>
-      <c r="AB67">
-        <f t="shared" si="26"/>
-        <v>7</v>
-      </c>
-      <c r="AC67">
-        <f t="shared" si="27"/>
-        <v>131.25</v>
       </c>
     </row>
   </sheetData>
@@ -6525,10 +4581,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6705,7 +4761,7 @@
         <v>45.3</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q29" si="0">MEDIAN(0,255,ROUND(P3/20+SQRT(H3)/40+SQRT(M3)/2+(SQRT(O3)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Q3:Q30" si="0">MEDIAN(0,255,ROUND(P3/20+SQRT(H3)/40+SQRT(M3)/2+(SQRT(O3)-SQRT(185)), 0))</f>
         <v>9</v>
       </c>
       <c r="R3">
@@ -6713,11 +4769,11 @@
         <v>28125</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S29" si="2">MEDIAN(0,255,ROUND(SQRT(H3)/200+SQRT(M3)/2+(SQRT(O3)-SQRT(185)),0))</f>
+        <f t="shared" ref="S3:S30" si="2">MEDIAN(0,255,ROUND(SQRT(H3)/200+SQRT(M3)/2+(SQRT(O3)-SQRT(185)),0))</f>
         <v>6</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T29" si="3">S3*300/16*12</f>
+        <f t="shared" ref="T3:T30" si="3">S3*300/16*12</f>
         <v>1350</v>
       </c>
     </row>
@@ -6753,26 +4809,26 @@
         <v>12</v>
       </c>
       <c r="O4">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="P4">
         <v>48.5</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>40625</v>
+        <v>37500</v>
       </c>
       <c r="S4">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T4">
         <f t="shared" si="3"/>
-        <v>2475</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -6837,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>2002</v>
@@ -6891,7 +4947,7 @@
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="E7">
         <v>2002</v>
@@ -6925,7 +4981,7 @@
         <v>9</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R29" si="4">Q7*50000/16</f>
+        <f t="shared" ref="R7:R30" si="4">Q7*50000/16</f>
         <v>28125</v>
       </c>
       <c r="S7">
@@ -6945,7 +5001,7 @@
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="E8">
         <v>2002</v>
@@ -6969,26 +5025,26 @@
         <v>12</v>
       </c>
       <c r="O8">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="P8">
         <v>52.9</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R8">
         <f t="shared" si="4"/>
-        <v>40625</v>
+        <v>37500</v>
       </c>
       <c r="S8">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
-        <v>2475</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -6999,7 +5055,7 @@
         <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="E9">
         <v>2002</v>
@@ -7047,16 +5103,16 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="E10">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -7065,22 +5121,22 @@
         <v>91</v>
       </c>
       <c r="H10">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="M10">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="N10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O10">
         <v>200</v>
       </c>
       <c r="P10">
-        <v>45.1</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
@@ -7092,25 +5148,25 @@
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10">
         <f t="shared" si="3"/>
-        <v>1125</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E11">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -7119,10 +5175,10 @@
         <v>91</v>
       </c>
       <c r="H11">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M11">
         <v>71</v>
@@ -7134,7 +5190,7 @@
         <v>200</v>
       </c>
       <c r="P11">
-        <v>46</v>
+        <v>45.1</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
@@ -7155,16 +5211,16 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E12">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -7173,49 +5229,49 @@
         <v>91</v>
       </c>
       <c r="H12">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="N12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O12">
         <v>200</v>
       </c>
       <c r="P12">
-        <v>48.8</v>
+        <v>46</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R12">
         <f t="shared" si="4"/>
-        <v>28125</v>
+        <v>21875</v>
       </c>
       <c r="S12">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <f t="shared" si="3"/>
-        <v>1350</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E13">
         <v>1996</v>
@@ -7233,16 +5289,16 @@
         <v>90</v>
       </c>
       <c r="M13">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="N13">
         <v>16</v>
       </c>
       <c r="O13">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="P13">
-        <v>41.6</v>
+        <v>48.8</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
@@ -7263,13 +5319,13 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E14">
         <v>1996</v>
@@ -7287,43 +5343,43 @@
         <v>90</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O14">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="P14">
-        <v>46.5</v>
+        <v>41.6</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R14">
         <f t="shared" si="4"/>
-        <v>40625</v>
+        <v>28125</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T14">
         <f t="shared" si="3"/>
-        <v>2475</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E15">
         <v>1996</v>
@@ -7341,46 +5397,46 @@
         <v>90</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="N15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O15">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="P15">
-        <v>47</v>
+        <v>46.5</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R15">
         <f t="shared" si="4"/>
-        <v>43750</v>
+        <v>37500</v>
       </c>
       <c r="S15">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T15">
         <f t="shared" si="3"/>
-        <v>2475</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E16">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -7389,52 +5445,52 @@
         <v>91</v>
       </c>
       <c r="H16">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I16" t="s">
         <v>90</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O16">
-        <v>185</v>
+        <v>480</v>
       </c>
       <c r="P16">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="R16">
         <f t="shared" si="4"/>
-        <v>9375</v>
+        <v>43750</v>
       </c>
       <c r="S16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E17">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="F17">
         <v>30</v>
@@ -7443,7 +5499,7 @@
         <v>91</v>
       </c>
       <c r="H17">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
         <v>90</v>
@@ -7458,7 +5514,7 @@
         <v>185</v>
       </c>
       <c r="P17">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
@@ -7479,16 +5535,16 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E18">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="F18">
         <v>30</v>
@@ -7497,56 +5553,92 @@
         <v>91</v>
       </c>
       <c r="H18">
+        <v>140</v>
+      </c>
+      <c r="I18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>185</v>
+      </c>
+      <c r="P18">
+        <v>62</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>9375</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19">
+        <v>2002</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19">
         <v>160</v>
       </c>
-      <c r="I18" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18">
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19">
         <v>92</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>12</v>
       </c>
-      <c r="O18">
+      <c r="O19">
         <v>200</v>
       </c>
-      <c r="P18">
+      <c r="P19">
         <v>39.299999999999997</v>
       </c>
-      <c r="Q18">
+      <c r="Q19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <f t="shared" si="4"/>
         <v>25000</v>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f t="shared" si="3"/>
         <v>1125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -7725,6 +5817,24 @@
         <v>0</v>
       </c>
       <c r="T29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7739,8 +5849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7839,10 +5949,10 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F2">
         <v>1987</v>
@@ -7857,10 +5967,10 @@
         <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P2">
         <v>61</v>
@@ -7885,10 +5995,10 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F3">
         <v>1980</v>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5972C9-2339-40B8-8B3A-9810DFB27918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4FBE04-1788-46C8-95EC-E09703D0FE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="193">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -706,6 +706,110 @@
   </si>
   <si>
     <t>YZ25T (25m Accelerated Hard Seat Passenger Coach)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL25T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl25t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ25B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RZ25B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YW25B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW25B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ22B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz22b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw25b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rz25b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yw25b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz25b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YW22B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yw22b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_LIQUID, CC_HAZARDOUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW22B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw22b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RZ22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YW22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yw22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4581,10 +4685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4680,7 +4784,7 @@
         <v>80</v>
       </c>
       <c r="E2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F2">
         <v>30</v>
@@ -4734,7 +4838,7 @@
         <v>89</v>
       </c>
       <c r="E3">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -4761,7 +4865,7 @@
         <v>45.3</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q30" si="0">MEDIAN(0,255,ROUND(P3/20+SQRT(H3)/40+SQRT(M3)/2+(SQRT(O3)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Q3:Q31" si="0">MEDIAN(0,255,ROUND(P3/20+SQRT(H3)/40+SQRT(M3)/2+(SQRT(O3)-SQRT(185)), 0))</f>
         <v>9</v>
       </c>
       <c r="R3">
@@ -4769,11 +4873,11 @@
         <v>28125</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S30" si="2">MEDIAN(0,255,ROUND(SQRT(H3)/200+SQRT(M3)/2+(SQRT(O3)-SQRT(185)),0))</f>
+        <f t="shared" ref="S3:S31" si="2">MEDIAN(0,255,ROUND(SQRT(H3)/200+SQRT(M3)/2+(SQRT(O3)-SQRT(185)),0))</f>
         <v>6</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T30" si="3">S3*300/16*12</f>
+        <f t="shared" ref="T3:T31" si="3">S3*300/16*12</f>
         <v>1350</v>
       </c>
     </row>
@@ -4788,7 +4892,7 @@
         <v>87</v>
       </c>
       <c r="E4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -4842,7 +4946,7 @@
         <v>88</v>
       </c>
       <c r="E5">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -4981,7 +5085,7 @@
         <v>9</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R30" si="4">Q7*50000/16</f>
+        <f t="shared" ref="R7:R31" si="4">Q7*50000/16</f>
         <v>28125</v>
       </c>
       <c r="S7">
@@ -5220,7 +5324,7 @@
         <v>116</v>
       </c>
       <c r="E12">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -5265,16 +5369,13 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="E13">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="F13">
         <v>30</v>
@@ -5283,49 +5384,49 @@
         <v>91</v>
       </c>
       <c r="H13">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="N13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O13">
         <v>200</v>
       </c>
       <c r="P13">
-        <v>48.8</v>
+        <v>45.7</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" ref="Q13" si="5">MEDIAN(0,255,ROUND(P13/20+SQRT(H13)/40+SQRT(M13)/2+(SQRT(O13)-SQRT(185)), 0))</f>
+        <v>7</v>
       </c>
       <c r="R13">
-        <f t="shared" si="4"/>
-        <v>28125</v>
+        <f t="shared" ref="R13" si="6">Q13*50000/16</f>
+        <v>21875</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" ref="S13" si="7">MEDIAN(0,255,ROUND(SQRT(H13)/200+SQRT(M13)/2+(SQRT(O13)-SQRT(185)),0))</f>
+        <v>5</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
-        <v>1350</v>
+        <f t="shared" ref="T13" si="8">S13*300/16*12</f>
+        <v>1125</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>1996</v>
@@ -5343,16 +5444,16 @@
         <v>90</v>
       </c>
       <c r="M14">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="N14">
         <v>16</v>
       </c>
       <c r="O14">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="P14">
-        <v>41.6</v>
+        <v>48.8</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
@@ -5373,13 +5474,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15">
         <v>1996</v>
@@ -5397,43 +5498,43 @@
         <v>90</v>
       </c>
       <c r="M15">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O15">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="P15">
-        <v>46.5</v>
+        <v>41.6</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R15">
         <f t="shared" si="4"/>
-        <v>37500</v>
+        <v>28125</v>
       </c>
       <c r="S15">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T15">
         <f t="shared" si="3"/>
-        <v>2025</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16">
         <v>1996</v>
@@ -5451,46 +5552,46 @@
         <v>90</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="N16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O16">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="P16">
-        <v>47</v>
+        <v>46.5</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R16">
         <f t="shared" si="4"/>
-        <v>43750</v>
+        <v>37500</v>
       </c>
       <c r="S16">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T16">
         <f t="shared" si="3"/>
-        <v>2475</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E17">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="F17">
         <v>30</v>
@@ -5499,52 +5600,52 @@
         <v>91</v>
       </c>
       <c r="H17">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
         <v>90</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O17">
-        <v>185</v>
+        <v>480</v>
       </c>
       <c r="P17">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="R17">
         <f t="shared" si="4"/>
-        <v>9375</v>
+        <v>43750</v>
       </c>
       <c r="S17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E18">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="F18">
         <v>30</v>
@@ -5553,7 +5654,7 @@
         <v>91</v>
       </c>
       <c r="H18">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I18" t="s">
         <v>90</v>
@@ -5568,7 +5669,7 @@
         <v>185</v>
       </c>
       <c r="P18">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
@@ -5589,16 +5690,16 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="F19">
         <v>30</v>
@@ -5607,236 +5708,653 @@
         <v>91</v>
       </c>
       <c r="H19">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="M19">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O19">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="P19">
-        <v>39.299999999999997</v>
+        <v>62</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>9375</v>
       </c>
       <c r="S19">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <f t="shared" si="3"/>
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20">
+        <v>2002</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20">
+        <v>160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20">
+        <v>92</v>
+      </c>
+      <c r="N20">
+        <v>12</v>
+      </c>
+      <c r="O20">
+        <v>200</v>
+      </c>
+      <c r="P20">
+        <v>39.299999999999997</v>
+      </c>
       <c r="Q20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="S20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21">
+        <v>1991</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21">
+        <v>128</v>
+      </c>
+      <c r="N21">
+        <v>16</v>
+      </c>
+      <c r="O21">
+        <v>144</v>
+      </c>
+      <c r="P21">
+        <v>44.7</v>
+      </c>
       <c r="Q21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21875</v>
       </c>
       <c r="S21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22">
+        <v>1991</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>120</v>
+      </c>
+      <c r="I22" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22">
+        <v>80</v>
+      </c>
+      <c r="N22">
+        <v>16</v>
+      </c>
+      <c r="O22">
+        <v>192</v>
+      </c>
+      <c r="P22">
+        <v>50.2</v>
+      </c>
       <c r="Q22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="S22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23">
+        <v>1991</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23">
+        <v>66</v>
+      </c>
+      <c r="N23">
+        <v>12</v>
+      </c>
+      <c r="O23">
+        <v>288</v>
+      </c>
+      <c r="P23">
+        <v>47</v>
+      </c>
       <c r="Q23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31250</v>
       </c>
       <c r="S23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24">
+        <v>1991</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24">
+        <v>36</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>480</v>
+      </c>
+      <c r="P24">
+        <v>51.5</v>
+      </c>
       <c r="Q24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>43750</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25">
+        <v>1988</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>120</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25">
+        <v>118</v>
+      </c>
+      <c r="N25">
+        <v>16</v>
+      </c>
+      <c r="O25">
+        <v>144</v>
+      </c>
+      <c r="P25">
+        <v>42.5</v>
+      </c>
       <c r="Q25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18750</v>
       </c>
       <c r="S25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26">
+        <v>1988</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>120</v>
+      </c>
+      <c r="I26" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26">
+        <v>60</v>
+      </c>
+      <c r="N26">
+        <v>12</v>
+      </c>
+      <c r="O26">
+        <v>288</v>
+      </c>
+      <c r="P26">
+        <v>45</v>
+      </c>
       <c r="Q26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31250</v>
       </c>
       <c r="S26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27">
+        <v>1988</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>120</v>
+      </c>
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27">
+        <v>32</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+      <c r="O27">
+        <v>480</v>
+      </c>
+      <c r="P27">
+        <v>51.2</v>
+      </c>
       <c r="Q27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>43750</v>
       </c>
       <c r="S27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28">
+        <v>1959</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>120</v>
+      </c>
+      <c r="I28" t="s">
+        <v>90</v>
+      </c>
+      <c r="M28">
+        <v>118</v>
+      </c>
+      <c r="N28">
+        <v>16</v>
+      </c>
+      <c r="O28">
+        <v>144</v>
+      </c>
+      <c r="P28">
+        <v>42.5</v>
+      </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18750</v>
       </c>
       <c r="S28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29">
+        <v>1976</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>22</v>
+      </c>
+      <c r="H29">
+        <v>120</v>
+      </c>
+      <c r="I29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29">
+        <v>64</v>
+      </c>
+      <c r="N29">
+        <v>16</v>
+      </c>
+      <c r="O29">
+        <v>192</v>
+      </c>
+      <c r="P29">
+        <v>46</v>
+      </c>
       <c r="Q29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21875</v>
       </c>
       <c r="S29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30">
+        <v>1959</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>120</v>
+      </c>
+      <c r="I30" t="s">
+        <v>90</v>
+      </c>
+      <c r="M30">
+        <v>77</v>
+      </c>
+      <c r="N30">
+        <v>12</v>
+      </c>
+      <c r="O30">
+        <v>240</v>
+      </c>
+      <c r="P30">
+        <v>45</v>
+      </c>
       <c r="Q30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28125</v>
       </c>
       <c r="S30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31">
+        <v>1959</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
+        <v>90</v>
+      </c>
+      <c r="M31">
+        <v>32</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>384</v>
+      </c>
+      <c r="P31">
+        <v>47</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="4"/>
+        <v>34375</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -5847,10 +6365,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5976,7 +6494,7 @@
         <v>61</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R2">
         <v>185</v>
@@ -6016,7 +6534,7 @@
         <v>60</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R3">
         <v>185</v>
@@ -6030,6 +6548,49 @@
       </c>
       <c r="W3">
         <f>MEDIAN(0,255,ROUND(SQRT(J3)/200+SQRT(P3)/2+(SQRT(R3)-SQRT(185))^3,0))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4">
+        <v>1958</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4">
+        <v>52</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>185</v>
+      </c>
+      <c r="S4">
+        <v>20.6</v>
+      </c>
+      <c r="U4">
+        <f>MEDIAN(0,255,ROUND(S4/20+SQRT(J4)/40+SQRT(P4)/2+(SQRT(R4)-SQRT(185)),0))</f>
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <f>MEDIAN(0,255,ROUND(SQRT(J4)/200+SQRT(P4)/2+(SQRT(R4)-SQRT(185))^3,0))</f>
         <v>4</v>
       </c>
     </row>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4FBE04-1788-46C8-95EC-E09703D0FE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA170551-B634-401A-8100-C51FF4FB2F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="195">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -810,6 +810,14 @@
   </si>
   <si>
     <t>rw22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p60</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4687,7 +4695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -6365,10 +6373,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6594,6 +6602,46 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5">
+        <v>1965</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>60</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <v>185</v>
+      </c>
+      <c r="S5">
+        <v>22.2</v>
+      </c>
+      <c r="U5">
+        <f>MEDIAN(0,255,ROUND(S5/20+SQRT(J5)/40+SQRT(P5)/2+(SQRT(R5)-SQRT(185)),0))</f>
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <f>MEDIAN(0,255,ROUND(SQRT(J5)/200+SQRT(P5)/2+(SQRT(R5)-SQRT(185))^3,0))</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA170551-B634-401A-8100-C51FF4FB2F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9632EB3E-A36B-41D3-A81A-BD6F5F529364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="198">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -818,6 +818,18 @@
   </si>
   <si>
     <t>p60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HXD1B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c62</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C62</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1171,7 @@
   <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2339,7 +2351,7 @@
         <v>120</v>
       </c>
       <c r="L20">
-        <v>9789</v>
+        <v>9655</v>
       </c>
       <c r="M20">
         <v>138</v>
@@ -2357,19 +2369,19 @@
       </c>
       <c r="R20">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S20">
         <f t="shared" si="4"/>
-        <v>400000</v>
+        <v>396875</v>
       </c>
       <c r="T20">
         <f>MEDIAN(0, 255, ROUND(SQRT(K20)/100+SQRT(L20)+P20+40/J20-2,0))</f>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U20">
         <f t="shared" si="5"/>
-        <v>23400</v>
+        <v>23175</v>
       </c>
       <c r="V20">
         <f t="shared" si="6"/>
@@ -2485,7 +2497,7 @@
         <v>170</v>
       </c>
       <c r="L22">
-        <v>9789</v>
+        <v>9655</v>
       </c>
       <c r="M22">
         <v>126</v>
@@ -2503,19 +2515,19 @@
       </c>
       <c r="R22">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S22">
         <f t="shared" si="4"/>
-        <v>396875</v>
+        <v>393750</v>
       </c>
       <c r="T22">
         <f t="shared" si="12"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U22">
         <f t="shared" si="5"/>
-        <v>23400</v>
+        <v>23175</v>
       </c>
       <c r="V22">
         <f t="shared" si="6"/>
@@ -2551,29 +2563,59 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23">
+        <v>2009</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>120</v>
+      </c>
+      <c r="L23">
+        <v>13052</v>
+      </c>
+      <c r="M23">
+        <v>150</v>
+      </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="P23">
+        <v>0.38750000000000001</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>569.625</v>
       </c>
       <c r="R23">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="S23">
         <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T23" t="e">
+        <v>450000</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" t="e">
+        <v>119</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>26775</v>
       </c>
       <c r="V23">
         <f t="shared" si="6"/>
@@ -2796,11 +2838,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V12" sqref="V12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2948,7 +2990,7 @@
         <v>240.02160000000003</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V37" si="0">MAX(1, INT(S2/10+SQRT(J2)/20+SQRT(K2)+T2+SQRT(P2)/2+SQRT(R2)-SQRT(185)+20-I2))</f>
+        <f t="shared" ref="V2:V38" si="0">MAX(1, INT(S2/10+SQRT(J2)/20+SQRT(K2)+T2+SQRT(P2)/2+SQRT(R2)-SQRT(185)+20-I2))</f>
         <v>96</v>
       </c>
       <c r="W2">
@@ -2956,7 +2998,7 @@
         <v>300000</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X37" si="1">MAX(1, ROUND((SQRT(J2)/100+SQRT(K2)+T2+(40/I2-2)+SQRT(P2)/2+SQRT(R2)-SQRT(185)), 0))</f>
+        <f t="shared" ref="X2:X38" si="1">MAX(1, ROUND((SQRT(J2)/100+SQRT(K2)+T2+(40/I2-2)+SQRT(P2)/2+SQRT(R2)-SQRT(185)), 0))</f>
         <v>88</v>
       </c>
       <c r="Y2">
@@ -2965,9 +3007,6 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>130</v>
-      </c>
       <c r="I3">
         <v>20</v>
       </c>
@@ -2975,1713 +3014,1762 @@
         <v>160</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
+        <v>15227</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>185</v>
+      </c>
+      <c r="S3">
+        <v>156</v>
+      </c>
+      <c r="T3">
+        <v>0.314</v>
+      </c>
+      <c r="U3">
+        <f>S3*T3*9.8</f>
+        <v>480.04320000000007</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3" si="2">MAX(1, INT(S3/10+SQRT(J3)/20+SQRT(K3)+T3+SQRT(P3)/2+SQRT(R3)-SQRT(185)+20-I3))</f>
+        <v>139</v>
+      </c>
+      <c r="W3">
+        <f>V3*50000/16</f>
+        <v>434375</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3" si="3">MAX(1, ROUND((SQRT(J3)/100+SQRT(K3)+T3+(40/I3-2)+SQRT(P3)/2+SQRT(R3)-SQRT(185)), 0))</f>
+        <v>124</v>
+      </c>
+      <c r="Y3">
+        <f>X3*300/16</f>
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>160</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>90</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <v>98</v>
       </c>
-      <c r="R3">
+      <c r="R4">
         <v>240</v>
       </c>
-      <c r="S3">
+      <c r="S4">
         <v>56</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U24" si="2">S3*T3*9.8</f>
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U25" si="4">S4*T4*9.8</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W18" si="3">V3*50000/16</f>
+      <c r="W4">
+        <f t="shared" ref="W4:W19" si="5">V4*50000/16</f>
         <v>40625</v>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y18" si="4">X3*300/16</f>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y19" si="6">X4*300/16</f>
         <v>131.25</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>131</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>160</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>90</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <v>71</v>
       </c>
-      <c r="R4">
+      <c r="R5">
         <v>400</v>
       </c>
-      <c r="S4">
+      <c r="S5">
         <v>56</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="W4">
-        <f t="shared" si="3"/>
+      <c r="W5">
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Y4">
-        <f t="shared" si="4"/>
+      <c r="Y5">
+        <f t="shared" si="6"/>
         <v>206.25</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>132</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>160</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>90</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <v>36</v>
       </c>
-      <c r="R5">
+      <c r="R6">
         <v>560</v>
       </c>
-      <c r="S5">
+      <c r="S6">
         <v>56</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="W5">
-        <f t="shared" si="3"/>
+      <c r="W6">
+        <f t="shared" si="5"/>
         <v>59375</v>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Y5">
-        <f t="shared" si="4"/>
+      <c r="Y6">
+        <f t="shared" si="6"/>
         <v>243.75</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>133</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>160</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>30</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <v>640</v>
       </c>
-      <c r="S6">
+      <c r="S7">
         <v>56</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="3"/>
+      <c r="W7">
+        <f t="shared" si="5"/>
         <v>62500</v>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Y6">
-        <f t="shared" si="4"/>
+      <c r="Y7">
+        <f t="shared" si="6"/>
         <v>281.25</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>135</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>20</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>160</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>22</v>
       </c>
-      <c r="R7">
+      <c r="R8">
         <v>720</v>
       </c>
-      <c r="S7">
+      <c r="S8">
         <v>56</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="W7">
-        <f t="shared" si="3"/>
+      <c r="W8">
+        <f t="shared" si="5"/>
         <v>65625</v>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Y7">
-        <f t="shared" si="4"/>
+      <c r="Y8">
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>139</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>20</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>160</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>90</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>46</v>
       </c>
-      <c r="R8">
+      <c r="R9">
         <v>240</v>
       </c>
-      <c r="S8">
+      <c r="S9">
         <v>56</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V8">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="W8">
-        <f t="shared" si="3"/>
+      <c r="W9">
+        <f t="shared" si="5"/>
         <v>34375</v>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Y8">
-        <f t="shared" si="4"/>
+      <c r="Y9">
+        <f t="shared" si="6"/>
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>136</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>20</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>160</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>90</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>66</v>
       </c>
-      <c r="R9">
+      <c r="R10">
         <v>480</v>
       </c>
-      <c r="S9">
+      <c r="S10">
         <v>56</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V9">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W9">
-        <f t="shared" si="3"/>
+      <c r="W10">
+        <f t="shared" si="5"/>
         <v>56250</v>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="Y9">
-        <f t="shared" si="4"/>
+      <c r="Y10">
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>137</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>20</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>160</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>90</v>
       </c>
-      <c r="P10">
+      <c r="P11">
         <v>40</v>
       </c>
-      <c r="R10">
+      <c r="R11">
         <v>640</v>
       </c>
-      <c r="S10">
+      <c r="S11">
         <v>56</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V10">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="W10">
-        <f t="shared" si="3"/>
+      <c r="W11">
+        <f t="shared" si="5"/>
         <v>65625</v>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Y10">
-        <f t="shared" si="4"/>
+      <c r="Y11">
+        <f t="shared" si="6"/>
         <v>281.25</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>138</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>20</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>160</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>90</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <v>16</v>
       </c>
-      <c r="R11">
+      <c r="R12">
         <v>800</v>
       </c>
-      <c r="S11">
+      <c r="S12">
         <v>56</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="W11">
-        <f t="shared" si="3"/>
+      <c r="W12">
+        <f t="shared" si="5"/>
         <v>68750</v>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="Y11">
-        <f t="shared" si="4"/>
+      <c r="Y12">
+        <f t="shared" si="6"/>
         <v>318.75</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>151</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>16</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>250</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>1495</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L13" t="s">
         <v>90</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>56</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <v>400</v>
       </c>
-      <c r="S12">
+      <c r="S13">
         <v>52.8</v>
       </c>
-      <c r="T12">
+      <c r="T13">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="2"/>
+      <c r="U13">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="W12">
-        <f t="shared" si="3"/>
+      <c r="W13">
+        <f t="shared" si="5"/>
         <v>181250</v>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Y12">
-        <f t="shared" si="4"/>
+      <c r="Y13">
+        <f t="shared" si="6"/>
         <v>937.5</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>130</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>16</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>250</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>1495</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L14" t="s">
         <v>90</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <v>90</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <v>240</v>
       </c>
-      <c r="S13">
+      <c r="S14">
         <v>52.8</v>
       </c>
-      <c r="T13">
+      <c r="T14">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="2"/>
+      <c r="U14">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="3"/>
+      <c r="W14">
+        <f t="shared" si="5"/>
         <v>171875</v>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="Y13">
-        <f t="shared" si="4"/>
+      <c r="Y14">
+        <f t="shared" si="6"/>
         <v>862.5</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>131</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>16</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>250</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>1495</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" t="s">
         <v>90</v>
       </c>
-      <c r="P14">
+      <c r="P15">
         <v>69</v>
       </c>
-      <c r="R14">
+      <c r="R15">
         <v>400</v>
       </c>
-      <c r="S14">
+      <c r="S15">
         <v>52.8</v>
       </c>
-      <c r="T14">
+      <c r="T15">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="2"/>
+      <c r="U15">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="W14">
-        <f t="shared" si="3"/>
+      <c r="W15">
+        <f t="shared" si="5"/>
         <v>184375</v>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Y14">
-        <f t="shared" si="4"/>
+      <c r="Y15">
+        <f t="shared" si="6"/>
         <v>937.5</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>132</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>16</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>250</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>1495</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L16" t="s">
         <v>90</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>34</v>
       </c>
-      <c r="R15">
+      <c r="R16">
         <v>560</v>
       </c>
-      <c r="S15">
+      <c r="S16">
         <v>52.8</v>
       </c>
-      <c r="T15">
+      <c r="T16">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="2"/>
+      <c r="U16">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="W15">
-        <f t="shared" si="3"/>
+      <c r="W16">
+        <f t="shared" si="5"/>
         <v>190625</v>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="Y15">
-        <f t="shared" si="4"/>
+      <c r="Y16">
+        <f t="shared" si="6"/>
         <v>975</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>133</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>16</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>250</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>1495</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" t="s">
         <v>90</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <v>28</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <v>640</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <v>52.8</v>
       </c>
-      <c r="T16">
+      <c r="T17">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U16">
-        <f t="shared" si="2"/>
+      <c r="U17">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="W16">
-        <f t="shared" si="3"/>
+      <c r="W17">
+        <f t="shared" si="5"/>
         <v>196875</v>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="Y16">
-        <f t="shared" si="4"/>
+      <c r="Y17">
+        <f t="shared" si="6"/>
         <v>1012.5</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>135</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>16</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>250</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>1495</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" t="s">
         <v>90</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>20</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>720</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>52.8</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="2"/>
+      <c r="U18">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="W17">
-        <f t="shared" si="3"/>
+      <c r="W18">
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="Y17">
-        <f t="shared" si="4"/>
+      <c r="Y18">
+        <f t="shared" si="6"/>
         <v>1031.25</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>139</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>16</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>250</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>1495</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>90</v>
       </c>
-      <c r="P18">
+      <c r="P19">
         <v>40</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <v>240</v>
       </c>
-      <c r="S18">
+      <c r="S19">
         <v>52.8</v>
       </c>
-      <c r="T18">
+      <c r="T19">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U18">
-        <f t="shared" si="2"/>
+      <c r="U19">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="W18">
-        <f t="shared" si="3"/>
+      <c r="W19">
+        <f t="shared" si="5"/>
         <v>165625</v>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="Y18">
-        <f t="shared" si="4"/>
+      <c r="Y19">
+        <f t="shared" si="6"/>
         <v>825</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>152</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>130</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>16</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>250</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
         <v>90</v>
       </c>
-      <c r="P19">
+      <c r="P20">
         <v>90</v>
       </c>
-      <c r="R19">
+      <c r="R20">
         <v>240</v>
       </c>
-      <c r="S19">
+      <c r="S20">
         <v>52.8</v>
       </c>
-      <c r="T19">
+      <c r="T20">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="2"/>
+      <c r="U20">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="W19">
-        <f t="shared" ref="W19:W25" si="5">V19*50000/16</f>
+      <c r="W20">
+        <f t="shared" ref="W20:W26" si="7">V20*50000/16</f>
         <v>50000</v>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Y19">
-        <f t="shared" ref="Y19:Y25" si="6">X19*300/16</f>
+      <c r="Y20">
+        <f t="shared" ref="Y20:Y26" si="8">X20*300/16</f>
         <v>131.25</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>131</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>16</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>250</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
         <v>90</v>
       </c>
-      <c r="P20">
+      <c r="P21">
         <v>69</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <v>400</v>
       </c>
-      <c r="S20">
+      <c r="S21">
         <v>52.8</v>
       </c>
-      <c r="T20">
+      <c r="T21">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="2"/>
+      <c r="U21">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W20">
-        <f t="shared" si="5"/>
+      <c r="W21">
+        <f t="shared" si="7"/>
         <v>62500</v>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Y20">
-        <f t="shared" si="6"/>
+      <c r="Y21">
+        <f t="shared" si="8"/>
         <v>206.25</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>132</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>16</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>250</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
         <v>90</v>
       </c>
-      <c r="P21">
+      <c r="P22">
         <v>34</v>
       </c>
-      <c r="R21">
+      <c r="R22">
         <v>560</v>
       </c>
-      <c r="S21">
+      <c r="S22">
         <v>52.8</v>
       </c>
-      <c r="T21">
+      <c r="T22">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="2"/>
+      <c r="U22">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="W21">
-        <f t="shared" si="5"/>
+      <c r="W22">
+        <f t="shared" si="7"/>
         <v>71875</v>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="Y21">
-        <f t="shared" si="6"/>
+      <c r="Y22">
+        <f t="shared" si="8"/>
         <v>262.5</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>133</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>16</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>250</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
         <v>90</v>
       </c>
-      <c r="P22">
+      <c r="P23">
         <v>28</v>
       </c>
-      <c r="R22">
+      <c r="R23">
         <v>640</v>
       </c>
-      <c r="S22">
+      <c r="S23">
         <v>52.8</v>
       </c>
-      <c r="T22">
+      <c r="T23">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U22">
-        <f t="shared" si="2"/>
+      <c r="U23">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="W22">
-        <f t="shared" si="5"/>
+      <c r="W23">
+        <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Y22">
-        <f t="shared" si="6"/>
+      <c r="Y23">
+        <f t="shared" si="8"/>
         <v>281.25</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>135</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>16</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>250</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
         <v>90</v>
       </c>
-      <c r="P23">
+      <c r="P24">
         <v>20</v>
       </c>
-      <c r="R23">
+      <c r="R24">
         <v>720</v>
       </c>
-      <c r="S23">
+      <c r="S24">
         <v>52.8</v>
       </c>
-      <c r="T23">
+      <c r="T24">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U23">
-        <f t="shared" si="2"/>
+      <c r="U24">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="W23">
-        <f t="shared" si="5"/>
+      <c r="W24">
+        <f t="shared" si="7"/>
         <v>78125</v>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Y23">
-        <f t="shared" si="6"/>
+      <c r="Y24">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>139</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>16</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>250</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
         <v>90</v>
       </c>
-      <c r="P24">
+      <c r="P25">
         <v>40</v>
       </c>
-      <c r="R24">
+      <c r="R25">
         <v>240</v>
       </c>
-      <c r="S24">
+      <c r="S25">
         <v>52.8</v>
       </c>
-      <c r="T24">
+      <c r="T25">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U24">
-        <f t="shared" si="2"/>
+      <c r="U25">
+        <f t="shared" si="4"/>
         <v>60.540480000000002</v>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="W24">
-        <f t="shared" si="5"/>
+      <c r="W25">
+        <f t="shared" si="7"/>
         <v>46875</v>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Y24">
-        <f t="shared" si="6"/>
+      <c r="Y25">
+        <f t="shared" si="8"/>
         <v>112.5</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>159</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>5</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>350</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>3535</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L26" t="s">
         <v>90</v>
       </c>
-      <c r="P25">
+      <c r="P26">
         <v>40</v>
       </c>
-      <c r="R25">
+      <c r="R26">
         <v>400</v>
       </c>
-      <c r="S25">
+      <c r="S26">
         <v>57.7</v>
       </c>
-      <c r="T25">
+      <c r="T26">
         <v>0.11799999999999999</v>
       </c>
-      <c r="U25">
-        <f t="shared" ref="U25:U31" si="7">S25*T25*9.8</f>
+      <c r="U26">
+        <f t="shared" ref="U26:U32" si="9">S26*T26*9.8</f>
         <v>66.724280000000007</v>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="W25">
-        <f t="shared" si="5"/>
+      <c r="W26">
+        <f t="shared" si="7"/>
         <v>281250</v>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="Y25">
-        <f t="shared" si="6"/>
+      <c r="Y26">
+        <f t="shared" si="8"/>
         <v>1406.25</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>130</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>5</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>350</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>3535</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L27" t="s">
         <v>90</v>
       </c>
-      <c r="P26">
+      <c r="P27">
         <v>90</v>
       </c>
-      <c r="R26">
+      <c r="R27">
         <v>240</v>
       </c>
-      <c r="S26">
+      <c r="S27">
         <v>57.7</v>
       </c>
-      <c r="T26">
+      <c r="T27">
         <v>0.11799999999999999</v>
       </c>
-      <c r="U26">
-        <f t="shared" si="7"/>
+      <c r="U27">
+        <f t="shared" si="9"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="W26">
-        <f t="shared" ref="W26:W31" si="8">V26*50000/16</f>
+      <c r="W27">
+        <f t="shared" ref="W27:W32" si="10">V27*50000/16</f>
         <v>271875</v>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="Y26">
-        <f t="shared" ref="Y26:Y31" si="9">X26*300/16</f>
+      <c r="Y27">
+        <f t="shared" ref="Y27:Y32" si="11">X27*300/16</f>
         <v>1350</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>131</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>5</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>350</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>3535</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L28" t="s">
         <v>90</v>
       </c>
-      <c r="P27">
+      <c r="P28">
         <v>60</v>
       </c>
-      <c r="R27">
+      <c r="R28">
         <v>400</v>
       </c>
-      <c r="S27">
+      <c r="S28">
         <v>57.7</v>
       </c>
-      <c r="T27">
+      <c r="T28">
         <v>0.11799999999999999</v>
       </c>
-      <c r="U27">
-        <f t="shared" si="7"/>
+      <c r="U28">
+        <f t="shared" si="9"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="W27">
-        <f t="shared" si="8"/>
+      <c r="W28">
+        <f t="shared" si="10"/>
         <v>284375</v>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="Y27">
+      <c r="Y28">
+        <f t="shared" si="11"/>
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>350</v>
+      </c>
+      <c r="K29">
+        <v>3535</v>
+      </c>
+      <c r="L29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29">
+        <v>33</v>
+      </c>
+      <c r="R29">
+        <v>560</v>
+      </c>
+      <c r="S29">
+        <v>57.7</v>
+      </c>
+      <c r="T29">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="9"/>
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28">
-        <v>5</v>
-      </c>
-      <c r="J28">
-        <v>350</v>
-      </c>
-      <c r="K28">
-        <v>3535</v>
-      </c>
-      <c r="L28" t="s">
-        <v>90</v>
-      </c>
-      <c r="P28">
-        <v>33</v>
-      </c>
-      <c r="R28">
-        <v>560</v>
-      </c>
-      <c r="S28">
-        <v>57.7</v>
-      </c>
-      <c r="T28">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="7"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V28">
+      <c r="V29">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="W28">
-        <f t="shared" si="8"/>
+      <c r="W29">
+        <f t="shared" si="10"/>
         <v>293750</v>
       </c>
-      <c r="X28">
+      <c r="X29">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="Y28">
+      <c r="Y29">
+        <f t="shared" si="11"/>
+        <v>1481.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>350</v>
+      </c>
+      <c r="K30">
+        <v>3535</v>
+      </c>
+      <c r="L30" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30">
+        <v>26</v>
+      </c>
+      <c r="R30">
+        <v>640</v>
+      </c>
+      <c r="S30">
+        <v>57.7</v>
+      </c>
+      <c r="T30">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="9"/>
-        <v>1481.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>350</v>
-      </c>
-      <c r="K29">
-        <v>3535</v>
-      </c>
-      <c r="L29" t="s">
-        <v>90</v>
-      </c>
-      <c r="P29">
-        <v>26</v>
-      </c>
-      <c r="R29">
-        <v>640</v>
-      </c>
-      <c r="S29">
-        <v>57.7</v>
-      </c>
-      <c r="T29">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="7"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="W29">
-        <f t="shared" si="8"/>
+      <c r="W30">
+        <f t="shared" si="10"/>
         <v>296875</v>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="Y29">
+      <c r="Y30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>350</v>
+      </c>
+      <c r="K31">
+        <v>3535</v>
+      </c>
+      <c r="L31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31">
+        <v>26</v>
+      </c>
+      <c r="R31">
+        <v>720</v>
+      </c>
+      <c r="S31">
+        <v>57.7</v>
+      </c>
+      <c r="T31">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>350</v>
-      </c>
-      <c r="K30">
-        <v>3535</v>
-      </c>
-      <c r="L30" t="s">
-        <v>90</v>
-      </c>
-      <c r="P30">
-        <v>26</v>
-      </c>
-      <c r="R30">
-        <v>720</v>
-      </c>
-      <c r="S30">
-        <v>57.7</v>
-      </c>
-      <c r="T30">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="7"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="W30">
-        <f t="shared" si="8"/>
+      <c r="W31">
+        <f t="shared" si="10"/>
         <v>303125</v>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="Y30">
+      <c r="Y31">
+        <f t="shared" si="11"/>
+        <v>1537.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>350</v>
+      </c>
+      <c r="K32">
+        <v>3535</v>
+      </c>
+      <c r="L32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32">
+        <v>48</v>
+      </c>
+      <c r="R32">
+        <v>240</v>
+      </c>
+      <c r="S32">
+        <v>57.7</v>
+      </c>
+      <c r="T32">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="9"/>
-        <v>1537.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>139</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>350</v>
-      </c>
-      <c r="K31">
-        <v>3535</v>
-      </c>
-      <c r="L31" t="s">
-        <v>90</v>
-      </c>
-      <c r="P31">
-        <v>48</v>
-      </c>
-      <c r="R31">
-        <v>240</v>
-      </c>
-      <c r="S31">
-        <v>57.7</v>
-      </c>
-      <c r="T31">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="7"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="W31">
-        <f t="shared" si="8"/>
+      <c r="W32">
+        <f t="shared" si="10"/>
         <v>268750</v>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="Y31">
-        <f t="shared" si="9"/>
+      <c r="Y32">
+        <f t="shared" si="11"/>
         <v>1331.25</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>152</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>130</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>5</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>350</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
         <v>90</v>
       </c>
-      <c r="P32">
+      <c r="P33">
         <v>90</v>
       </c>
-      <c r="R32">
+      <c r="R33">
         <v>240</v>
       </c>
-      <c r="S32">
+      <c r="S33">
         <v>57.7</v>
       </c>
-      <c r="T32">
+      <c r="T33">
         <v>0.11799999999999999</v>
       </c>
-      <c r="U32">
-        <f t="shared" ref="U32:U37" si="10">S32*T32*9.8</f>
+      <c r="U33">
+        <f t="shared" ref="U33:U38" si="12">S33*T33*9.8</f>
         <v>66.724280000000007</v>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="W32">
-        <f t="shared" ref="W32:W37" si="11">V32*50000/16</f>
+      <c r="W33">
+        <f t="shared" ref="W33:W38" si="13">V33*50000/16</f>
         <v>87500</v>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Y32">
-        <f t="shared" ref="Y32:Y37" si="12">X32*300/16</f>
+      <c r="Y33">
+        <f t="shared" ref="Y33:Y38" si="14">X33*300/16</f>
         <v>243.75</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>131</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>5</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>350</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
         <v>90</v>
       </c>
-      <c r="P33">
+      <c r="P34">
         <v>60</v>
       </c>
-      <c r="R33">
+      <c r="R34">
         <v>400</v>
       </c>
-      <c r="S33">
+      <c r="S34">
         <v>57.7</v>
       </c>
-      <c r="T33">
+      <c r="T34">
         <v>0.11799999999999999</v>
       </c>
-      <c r="U33">
-        <f t="shared" si="10"/>
+      <c r="U34">
+        <f t="shared" si="12"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="W33">
-        <f t="shared" si="11"/>
+      <c r="W34">
+        <f t="shared" si="13"/>
         <v>100000</v>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="Y33">
+      <c r="Y34">
+        <f t="shared" si="14"/>
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>350</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35">
+        <v>33</v>
+      </c>
+      <c r="R35">
+        <v>560</v>
+      </c>
+      <c r="S35">
+        <v>57.7</v>
+      </c>
+      <c r="T35">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="12"/>
-        <v>318.75</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>350</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>90</v>
-      </c>
-      <c r="P34">
-        <v>33</v>
-      </c>
-      <c r="R34">
-        <v>560</v>
-      </c>
-      <c r="S34">
-        <v>57.7</v>
-      </c>
-      <c r="T34">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="10"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="W34">
-        <f t="shared" si="11"/>
+      <c r="W35">
+        <f t="shared" si="13"/>
         <v>106250</v>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="Y34">
+      <c r="Y35">
+        <f t="shared" si="14"/>
+        <v>356.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>350</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36">
+        <v>26</v>
+      </c>
+      <c r="R36">
+        <v>640</v>
+      </c>
+      <c r="S36">
+        <v>57.7</v>
+      </c>
+      <c r="T36">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U36">
         <f t="shared" si="12"/>
-        <v>356.25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>133</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
-      <c r="J35">
-        <v>350</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>90</v>
-      </c>
-      <c r="P35">
-        <v>26</v>
-      </c>
-      <c r="R35">
-        <v>640</v>
-      </c>
-      <c r="S35">
-        <v>57.7</v>
-      </c>
-      <c r="T35">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="10"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="W35">
-        <f t="shared" si="11"/>
+      <c r="W36">
+        <f t="shared" si="13"/>
         <v>112500</v>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="Y35">
+      <c r="Y36">
+        <f t="shared" si="14"/>
+        <v>393.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>350</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37">
+        <v>26</v>
+      </c>
+      <c r="R37">
+        <v>720</v>
+      </c>
+      <c r="S37">
+        <v>57.7</v>
+      </c>
+      <c r="T37">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="12"/>
-        <v>393.75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I36">
-        <v>5</v>
-      </c>
-      <c r="J36">
-        <v>350</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>90</v>
-      </c>
-      <c r="P36">
-        <v>26</v>
-      </c>
-      <c r="R36">
-        <v>720</v>
-      </c>
-      <c r="S36">
-        <v>57.7</v>
-      </c>
-      <c r="T36">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="10"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="W36">
-        <f t="shared" si="11"/>
+      <c r="W37">
+        <f t="shared" si="13"/>
         <v>115625</v>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="Y36">
+      <c r="Y37">
+        <f t="shared" si="14"/>
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>350</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38">
+        <v>48</v>
+      </c>
+      <c r="R38">
+        <v>240</v>
+      </c>
+      <c r="S38">
+        <v>57.7</v>
+      </c>
+      <c r="T38">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="12"/>
-        <v>412.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="I37">
-        <v>5</v>
-      </c>
-      <c r="J37">
-        <v>350</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>90</v>
-      </c>
-      <c r="P37">
-        <v>48</v>
-      </c>
-      <c r="R37">
-        <v>240</v>
-      </c>
-      <c r="S37">
-        <v>57.7</v>
-      </c>
-      <c r="T37">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="10"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V37">
+      <c r="V38">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="W37">
-        <f t="shared" si="11"/>
+      <c r="W38">
+        <f t="shared" si="13"/>
         <v>84375</v>
       </c>
-      <c r="X37">
+      <c r="X38">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="Y37">
-        <f t="shared" si="12"/>
+      <c r="Y38">
+        <f t="shared" si="14"/>
         <v>225</v>
       </c>
     </row>
@@ -6373,10 +6461,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:W5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6642,6 +6730,49 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6">
+        <v>1971</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>60</v>
+      </c>
+      <c r="Q6">
+        <v>16</v>
+      </c>
+      <c r="R6">
+        <v>185</v>
+      </c>
+      <c r="S6">
+        <v>20.6</v>
+      </c>
+      <c r="U6">
+        <f>MEDIAN(0,255,ROUND(S6/20+SQRT(J6)/40+SQRT(P6)/2+(SQRT(R6)-SQRT(185)),0))</f>
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <f>MEDIAN(0,255,ROUND(SQRT(J6)/200+SQRT(P6)/2+(SQRT(R6)-SQRT(185))^3,0))</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9632EB3E-A36B-41D3-A81A-BD6F5F529364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949ABE5A-EA21-494B-8023-DF6F257780AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="216">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -830,6 +830,78 @@
   </si>
   <si>
     <t>C62</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYZ25K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRZ25K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>syz25k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srz25k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>syz25b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYZ25B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRZ25B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srz25b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HXD1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hxd1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df4d0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4D-0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4D-3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4D-4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df4d3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df4d4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nx17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1168,14 +1240,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="8.6640625" style="1"/>
     <col min="29" max="30" width="8.6640625" style="2"/>
   </cols>
@@ -1335,7 +1408,7 @@
         <v>165625</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T19" si="0">MEDIAN(0, 255, ROUND(SQRT(K2)/100+SQRT(L2)+P2+40/J2-2,0))</f>
+        <f t="shared" ref="T2:T22" si="0">MEDIAN(0, 255, ROUND(SQRT(K2)/100+SQRT(L2)+P2+40/J2-2,0))</f>
         <v>39</v>
       </c>
       <c r="U2">
@@ -1383,19 +1456,19 @@
         <v>1934</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O29" si="1">M3-N3</f>
+        <f t="shared" ref="O3:O32" si="1">M3-N3</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q29" si="2">O3*P3*9.8</f>
+        <f t="shared" ref="Q3:Q32" si="2">O3*P3*9.8</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R29" si="3">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
+        <f t="shared" ref="R3:R32" si="3">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S29" si="4">R3*50000/16</f>
+        <f t="shared" ref="S3:S32" si="4">R3*50000/16</f>
         <v>62500</v>
       </c>
       <c r="T3" t="e">
@@ -1403,15 +1476,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U3" t="e">
-        <f t="shared" ref="U3:U29" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
+        <f t="shared" ref="U3:U32" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V29" si="6">W3+X3+Y3</f>
+        <f t="shared" ref="V3:V32" si="6">W3+X3+Y3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="2" t="e">
-        <f t="shared" ref="AC3:AC29" si="7">AVERAGE(Z3:AB3)</f>
+        <f t="shared" ref="AC3:AC32" si="7">AVERAGE(Z3:AB3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1789,163 +1862,217 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
       <c r="F10">
-        <v>1976</v>
+        <v>1997</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>145</v>
+      </c>
+      <c r="L10">
+        <v>4000</v>
+      </c>
+      <c r="M10">
+        <v>138</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="P10">
+        <v>0.224</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="Q10:Q12" si="10">O10*P10*9.8</f>
+        <v>302.93760000000003</v>
       </c>
       <c r="R10">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" ref="R10:R12" si="11">MEDIAN(255, ROUND((M10/10+SQRT(K10)/20+SQRT(L10)+P10+20-J10), 0), 0)</f>
+        <v>84</v>
       </c>
       <c r="S10">
-        <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="S10:S12" si="12">R10*50000/16</f>
+        <v>262500</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10:T12" si="13">MEDIAN(0, 255, ROUND(SQRT(K10)/100+SQRT(L10)+P10+40/J10-2,0))</f>
+        <v>64</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10:U12" si="14">IF(E10="Steam", T10*350/16*12, IF(E10="Diesel", T10*325/16*12,  T10*300/16*12))</f>
+        <v>15600</v>
       </c>
       <c r="V10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="V10:V12" si="15">W10+X10+Y10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11">
-        <v>1974</v>
+        <v>1999</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>170</v>
+      </c>
+      <c r="L11">
+        <v>4000</v>
+      </c>
+      <c r="M11">
+        <v>138</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="P11">
+        <v>0.224</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>302.93760000000003</v>
       </c>
       <c r="R11">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>84</v>
       </c>
       <c r="S11">
-        <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>262500</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="14"/>
+        <v>15600</v>
       </c>
       <c r="V11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12">
-        <v>1992</v>
+        <v>1998</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>4000</v>
+      </c>
+      <c r="M12">
+        <v>138</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="P12">
+        <v>0.35499999999999998</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>480.10199999999998</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>84</v>
       </c>
       <c r="S12">
-        <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>262500</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="13"/>
+        <v>65</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="14"/>
+        <v>15843.75</v>
       </c>
       <c r="V12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
+      </c>
+      <c r="F13">
+        <v>1976</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
@@ -1982,19 +2109,19 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14">
-        <v>2005</v>
+        <v>1974</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
@@ -2031,28 +2158,31 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
       </c>
       <c r="F15">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="G15">
         <v>30</v>
       </c>
-      <c r="H15" t="s">
-        <v>91</v>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>35</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <v>170</v>
@@ -2068,76 +2198,49 @@
         <v>138</v>
       </c>
       <c r="P15">
-        <v>0.14299999999999999</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="Q15">
         <f t="shared" si="2"/>
-        <v>193.39320000000001</v>
+        <v>244.78440000000001</v>
       </c>
       <c r="R15">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S15">
         <f t="shared" si="4"/>
-        <v>290625</v>
+        <v>278125</v>
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U15">
-        <f t="shared" ref="U15" si="10">IF(E15="Steam", T15*350/16*12, IF(E15="Diesel", T15*325/16*12,  T15*300/16*12))</f>
-        <v>16818.75</v>
+        <f t="shared" si="5"/>
+        <v>16331.25</v>
       </c>
       <c r="V15">
-        <f t="shared" ref="V15" si="11">W15+X15+Y15</f>
-        <v>11</v>
-      </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
-      <c r="X15">
-        <v>7</v>
-      </c>
-      <c r="Y15">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AC15" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>93</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16">
-        <v>1958</v>
+        <v>51</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
@@ -2174,19 +2277,19 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17">
-        <v>1979</v>
+        <v>2005</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
@@ -2223,68 +2326,113 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18">
-        <v>1989</v>
+        <v>2003</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>170</v>
+      </c>
+      <c r="L18">
+        <v>4133</v>
+      </c>
+      <c r="M18">
+        <v>138</v>
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="P18">
+        <v>0.14299999999999999</v>
       </c>
       <c r="Q18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>193.39320000000001</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="S18">
         <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>290625</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18" si="16">IF(E18="Steam", T18*350/16*12, IF(E18="Diesel", T18*325/16*12,  T18*300/16*12))</f>
+        <v>16818.75</v>
       </c>
       <c r="V18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="2" t="e">
+        <f t="shared" ref="V18" si="17">W18+X18+Y18</f>
+        <v>11</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC18" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
         <v>52</v>
       </c>
       <c r="F19">
-        <v>1995</v>
+        <v>1958</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
@@ -2321,37 +2469,37 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20">
-        <v>6144</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
       </c>
       <c r="F20">
-        <v>2010</v>
+        <v>1978</v>
       </c>
       <c r="G20">
         <v>30</v>
       </c>
-      <c r="H20" t="s">
-        <v>91</v>
+      <c r="H20">
+        <v>60</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L20">
-        <v>9655</v>
+        <v>5914</v>
       </c>
       <c r="M20">
         <v>138</v>
@@ -2361,76 +2509,52 @@
         <v>138</v>
       </c>
       <c r="P20">
-        <v>0.38450000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="Q20">
         <f t="shared" si="2"/>
-        <v>519.99779999999998</v>
+        <v>469.28280000000001</v>
       </c>
       <c r="R20">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="S20">
         <f t="shared" si="4"/>
-        <v>396875</v>
+        <v>318750</v>
       </c>
       <c r="T20">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K20)/100+SQRT(L20)+P20+40/J20-2,0))</f>
-        <v>103</v>
+        <f t="shared" si="0"/>
+        <v>79</v>
       </c>
       <c r="U20">
         <f t="shared" si="5"/>
-        <v>23175</v>
+        <v>17775</v>
       </c>
       <c r="V20">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>8</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>93</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>52</v>
       </c>
       <c r="F21">
-        <v>2012</v>
+        <v>1989</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
@@ -2449,7 +2573,7 @@
         <v>62500</v>
       </c>
       <c r="T21" t="e">
-        <f t="shared" ref="T21:T29" si="12">MEDIAN(0, 255, ROUND(SQRT(K21)/100+SQRT(L21)+P21+40/J21-2,0))</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U21" t="e">
@@ -2467,166 +2591,190 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22">
-        <v>6145</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
         <v>52</v>
       </c>
       <c r="F22">
-        <v>2012</v>
+        <v>1994</v>
       </c>
       <c r="G22">
         <v>30</v>
       </c>
-      <c r="H22" t="s">
-        <v>91</v>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>170</v>
       </c>
       <c r="L22">
-        <v>9655</v>
+        <v>4894</v>
       </c>
       <c r="M22">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="P22">
-        <v>0.34</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="Q22">
         <f t="shared" si="2"/>
-        <v>419.83200000000005</v>
+        <v>209.56320000000002</v>
       </c>
       <c r="R22">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="S22">
         <f t="shared" si="4"/>
-        <v>393750</v>
+        <v>281250</v>
       </c>
       <c r="T22">
-        <f t="shared" si="12"/>
-        <v>103</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="U22">
         <f t="shared" si="5"/>
-        <v>23175</v>
+        <v>16200</v>
       </c>
       <c r="V22">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23">
+        <v>6144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23">
+        <v>2010</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>120</v>
+      </c>
+      <c r="L23">
+        <v>9655</v>
+      </c>
+      <c r="M23">
+        <v>138</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="P23">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>519.99779999999998</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>396875</v>
+      </c>
+      <c r="T23">
+        <f>MEDIAN(0, 255, ROUND(SQRT(K23)/100+SQRT(L23)+P23+40/J23-2,0))</f>
+        <v>103</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="5"/>
+        <v>23175</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="W22">
+      <c r="W23">
         <v>1</v>
       </c>
-      <c r="X22">
+      <c r="X23">
         <v>8</v>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <v>1</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z23" s="1">
         <v>1</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA23" s="1">
         <v>1</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB23" s="1">
         <v>1</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AC23" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD22" s="2" t="s">
+      <c r="AD23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AE23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
         <v>52</v>
       </c>
-      <c r="F23">
-        <v>2009</v>
-      </c>
-      <c r="G23">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23">
-        <v>6</v>
-      </c>
-      <c r="K23">
-        <v>120</v>
-      </c>
-      <c r="L23">
-        <v>13052</v>
-      </c>
-      <c r="M23">
-        <v>150</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="P23">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="2"/>
-        <v>569.625</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="4"/>
-        <v>450000</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="12"/>
-        <v>119</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="5"/>
-        <v>26775</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>2012</v>
+      </c>
       <c r="O24">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2644,7 +2792,7 @@
         <v>62500</v>
       </c>
       <c r="T24" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="T24:T32" si="18">MEDIAN(0, 255, ROUND(SQRT(K24)/100+SQRT(L24)+P24+40/J24-2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" t="e">
@@ -2661,63 +2809,156 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25">
+        <v>6145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25">
+        <v>2012</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>170</v>
+      </c>
+      <c r="L25">
+        <v>9655</v>
+      </c>
+      <c r="M25">
+        <v>126</v>
+      </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="P25">
+        <v>0.34</v>
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>419.83200000000005</v>
       </c>
       <c r="R25">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="S25">
         <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T25" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" t="e">
+        <v>393750</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="18"/>
+        <v>103</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>23175</v>
       </c>
       <c r="V25">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>8</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26">
+        <v>2009</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>120</v>
+      </c>
+      <c r="L26">
+        <v>13052</v>
+      </c>
+      <c r="M26">
+        <v>150</v>
+      </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="P26">
+        <v>0.38750000000000001</v>
       </c>
       <c r="Q26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>569.625</v>
       </c>
       <c r="R26">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="S26">
         <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T26" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" t="e">
+        <v>450000</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="18"/>
+        <v>119</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>26775</v>
       </c>
       <c r="V26">
         <f t="shared" si="6"/>
@@ -2729,29 +2970,62 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27">
+        <v>2006</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>120</v>
+      </c>
+      <c r="L27">
+        <v>13052</v>
+      </c>
+      <c r="M27">
+        <v>184</v>
+      </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="P27">
+        <v>0.42099999999999999</v>
       </c>
       <c r="Q27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>759.1472</v>
       </c>
       <c r="R27">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S27">
         <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T27" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" t="e">
+        <v>456250</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="18"/>
+        <v>118</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>26550</v>
       </c>
       <c r="V27">
         <f t="shared" si="6"/>
@@ -2780,7 +3054,7 @@
         <v>62500</v>
       </c>
       <c r="T28" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" t="e">
@@ -2814,7 +3088,7 @@
         <v>62500</v>
       </c>
       <c r="T29" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" t="e">
@@ -2826,6 +3100,108 @@
         <v>0</v>
       </c>
       <c r="AC29" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="T30" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="T31" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="T32" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -4781,10 +5157,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4961,7 +5337,7 @@
         <v>45.3</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q31" si="0">MEDIAN(0,255,ROUND(P3/20+SQRT(H3)/40+SQRT(M3)/2+(SQRT(O3)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Q3:Q35" si="0">MEDIAN(0,255,ROUND(P3/20+SQRT(H3)/40+SQRT(M3)/2+(SQRT(O3)-SQRT(185)), 0))</f>
         <v>9</v>
       </c>
       <c r="R3">
@@ -4969,11 +5345,11 @@
         <v>28125</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S31" si="2">MEDIAN(0,255,ROUND(SQRT(H3)/200+SQRT(M3)/2+(SQRT(O3)-SQRT(185)),0))</f>
+        <f t="shared" ref="S3:S35" si="2">MEDIAN(0,255,ROUND(SQRT(H3)/200+SQRT(M3)/2+(SQRT(O3)-SQRT(185)),0))</f>
         <v>6</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T31" si="3">S3*300/16*12</f>
+        <f t="shared" ref="T3:T35" si="3">S3*300/16*12</f>
         <v>1350</v>
       </c>
     </row>
@@ -5181,7 +5557,7 @@
         <v>9</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R31" si="4">Q7*50000/16</f>
+        <f t="shared" ref="R7:R35" si="4">Q7*50000/16</f>
         <v>28125</v>
       </c>
       <c r="S7">
@@ -5732,16 +6108,13 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="F18">
         <v>30</v>
@@ -5750,232 +6123,235 @@
         <v>91</v>
       </c>
       <c r="H18">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I18" t="s">
         <v>90</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="N18">
+        <v>24</v>
+      </c>
+      <c r="O18">
+        <v>200</v>
+      </c>
+      <c r="P18">
+        <v>52.1</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:Q19" si="9">MEDIAN(0,255,ROUND(P18/20+SQRT(H18)/40+SQRT(M18)/2+(SQRT(O18)-SQRT(185)), 0))</f>
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18:R19" si="10">Q18*50000/16</f>
+        <v>31250</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:S19" si="11">MEDIAN(0,255,ROUND(SQRT(H18)/200+SQRT(M18)/2+(SQRT(O18)-SQRT(185)),0))</f>
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:T19" si="12">S18*300/16*12</f>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19">
+        <v>1999</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19">
+        <v>108</v>
+      </c>
+      <c r="N19">
+        <v>24</v>
+      </c>
+      <c r="O19">
+        <v>240</v>
+      </c>
+      <c r="P19">
+        <v>51.4</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>31250</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="12"/>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20">
+        <v>1991</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20">
+        <v>120</v>
+      </c>
+      <c r="I20" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>16</v>
       </c>
-      <c r="O18">
+      <c r="O20">
         <v>185</v>
       </c>
-      <c r="P18">
+      <c r="P20">
         <v>60</v>
       </c>
-      <c r="Q18">
+      <c r="Q20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R18">
+      <c r="R20">
         <f t="shared" si="4"/>
         <v>9375</v>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>155</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>156</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>155</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>1996</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" t="s">
         <v>91</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>140</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I21" t="s">
         <v>90</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>16</v>
       </c>
-      <c r="O19">
+      <c r="O21">
         <v>185</v>
       </c>
-      <c r="P19">
+      <c r="P21">
         <v>62</v>
       </c>
-      <c r="Q19">
+      <c r="Q21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R19">
+      <c r="R21">
         <f t="shared" si="4"/>
         <v>9375</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20">
-        <v>2002</v>
-      </c>
-      <c r="F20">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20">
-        <v>160</v>
-      </c>
-      <c r="I20" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20">
-        <v>92</v>
-      </c>
-      <c r="N20">
-        <v>12</v>
-      </c>
-      <c r="O20">
-        <v>200</v>
-      </c>
-      <c r="P20">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="4"/>
-        <v>25000</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="3"/>
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21">
-        <v>1991</v>
-      </c>
-      <c r="F21">
-        <v>30</v>
-      </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-      <c r="H21">
-        <v>120</v>
-      </c>
-      <c r="I21" t="s">
-        <v>90</v>
-      </c>
-      <c r="M21">
-        <v>128</v>
-      </c>
-      <c r="N21">
-        <v>16</v>
-      </c>
-      <c r="O21">
-        <v>144</v>
-      </c>
-      <c r="P21">
-        <v>44.7</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="4"/>
-        <v>21875</v>
-      </c>
       <c r="S21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>157</v>
       </c>
       <c r="E22">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="F22">
         <v>30</v>
       </c>
-      <c r="G22">
-        <v>30</v>
+      <c r="G22" t="s">
+        <v>91</v>
       </c>
       <c r="H22">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="M22">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="N22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O22">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="P22">
-        <v>50.2</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
@@ -5996,10 +6372,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E23">
         <v>1991</v>
@@ -6017,40 +6393,40 @@
         <v>90</v>
       </c>
       <c r="M23">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="N23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O23">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="P23">
-        <v>47</v>
+        <v>44.7</v>
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R23">
         <f t="shared" si="4"/>
-        <v>31250</v>
+        <v>21875</v>
       </c>
       <c r="S23">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T23">
         <f t="shared" si="3"/>
-        <v>1575</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E24">
         <v>1991</v>
@@ -6068,49 +6444,49 @@
         <v>90</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="N24">
+        <v>16</v>
+      </c>
+      <c r="O24">
+        <v>192</v>
+      </c>
+      <c r="P24">
+        <v>50.2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
         <v>8</v>
-      </c>
-      <c r="O24">
-        <v>480</v>
-      </c>
-      <c r="P24">
-        <v>51.5</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>14</v>
       </c>
       <c r="R24">
         <f t="shared" si="4"/>
-        <v>43750</v>
+        <v>25000</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T24">
         <f t="shared" si="3"/>
-        <v>2475</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E25">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="F25">
         <v>30</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>120</v>
@@ -6119,49 +6495,49 @@
         <v>90</v>
       </c>
       <c r="M25">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="N25">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O25">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="P25">
-        <v>42.5</v>
+        <v>47</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <f t="shared" si="4"/>
-        <v>18750</v>
+        <v>31250</v>
       </c>
       <c r="S25">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E26">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="F26">
         <v>30</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>120</v>
@@ -6170,49 +6546,49 @@
         <v>90</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="N26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O26">
-        <v>288</v>
+        <v>480</v>
       </c>
       <c r="P26">
-        <v>45</v>
+        <v>51.5</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R26">
         <f t="shared" si="4"/>
-        <v>31250</v>
+        <v>43750</v>
       </c>
       <c r="S26">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T26">
         <f t="shared" si="3"/>
-        <v>1575</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E27">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="F27">
         <v>30</v>
       </c>
-      <c r="G27">
-        <v>10</v>
+      <c r="G27" t="s">
+        <v>91</v>
       </c>
       <c r="H27">
         <v>120</v>
@@ -6221,49 +6597,49 @@
         <v>90</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="N27">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="O27">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="P27">
-        <v>51.2</v>
+        <v>52.2</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" ref="Q27:Q28" si="13">MEDIAN(0,255,ROUND(P27/20+SQRT(H27)/40+SQRT(M27)/2+(SQRT(O27)-SQRT(185)), 0))</f>
+        <v>10</v>
       </c>
       <c r="R27">
-        <f t="shared" si="4"/>
-        <v>43750</v>
+        <f t="shared" ref="R27:R28" si="14">Q27*50000/16</f>
+        <v>31250</v>
       </c>
       <c r="S27">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" ref="S27:S28" si="15">MEDIAN(0,255,ROUND(SQRT(H27)/200+SQRT(M27)/2+(SQRT(O27)-SQRT(185)),0))</f>
+        <v>7</v>
       </c>
       <c r="T27">
-        <f t="shared" si="3"/>
-        <v>2475</v>
+        <f t="shared" ref="T27:T28" si="16">S27*300/16*12</f>
+        <v>1575</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E28">
-        <v>1959</v>
+        <v>1991</v>
       </c>
       <c r="F28">
         <v>30</v>
       </c>
-      <c r="G28">
-        <v>35</v>
+      <c r="G28" t="s">
+        <v>91</v>
       </c>
       <c r="H28">
         <v>120</v>
@@ -6272,75 +6648,75 @@
         <v>90</v>
       </c>
       <c r="M28">
+        <v>108</v>
+      </c>
+      <c r="N28">
+        <v>24</v>
+      </c>
+      <c r="O28">
+        <v>240</v>
+      </c>
+      <c r="P28">
+        <v>51.9</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="14"/>
+        <v>31250</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="16"/>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29">
+        <v>1988</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>120</v>
+      </c>
+      <c r="I29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29">
         <v>118</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>16</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>144</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>42.5</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <f t="shared" si="4"/>
         <v>18750</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29">
-        <v>1976</v>
-      </c>
-      <c r="F29">
-        <v>30</v>
-      </c>
-      <c r="G29">
-        <v>22</v>
-      </c>
-      <c r="H29">
-        <v>120</v>
-      </c>
-      <c r="I29" t="s">
-        <v>90</v>
-      </c>
-      <c r="M29">
-        <v>64</v>
-      </c>
-      <c r="N29">
-        <v>16</v>
-      </c>
-      <c r="O29">
-        <v>192</v>
-      </c>
-      <c r="P29">
-        <v>46</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="4"/>
-        <v>21875</v>
       </c>
       <c r="S29">
         <f t="shared" si="2"/>
@@ -6353,19 +6729,19 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E30">
-        <v>1959</v>
+        <v>1988</v>
       </c>
       <c r="F30">
         <v>30</v>
       </c>
       <c r="G30">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <v>120</v>
@@ -6374,49 +6750,49 @@
         <v>90</v>
       </c>
       <c r="M30">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>12</v>
       </c>
       <c r="O30">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="P30">
         <v>45</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R30">
         <f t="shared" si="4"/>
-        <v>28125</v>
+        <v>31250</v>
       </c>
       <c r="S30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T30">
         <f t="shared" si="3"/>
-        <v>1350</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E31">
-        <v>1959</v>
+        <v>1988</v>
       </c>
       <c r="F31">
         <v>30</v>
       </c>
       <c r="G31">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>120</v>
@@ -6431,24 +6807,228 @@
         <v>8</v>
       </c>
       <c r="O31">
-        <v>384</v>
+        <v>480</v>
       </c>
       <c r="P31">
-        <v>47</v>
+        <v>51.2</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R31">
         <f t="shared" si="4"/>
-        <v>34375</v>
+        <v>43750</v>
       </c>
       <c r="S31">
         <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32">
+        <v>1959</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>35</v>
+      </c>
+      <c r="H32">
+        <v>120</v>
+      </c>
+      <c r="I32" t="s">
+        <v>90</v>
+      </c>
+      <c r="M32">
+        <v>118</v>
+      </c>
+      <c r="N32">
+        <v>16</v>
+      </c>
+      <c r="O32">
+        <v>144</v>
+      </c>
+      <c r="P32">
+        <v>42.5</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="4"/>
+        <v>18750</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33">
+        <v>1976</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>120</v>
+      </c>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M33">
+        <v>64</v>
+      </c>
+      <c r="N33">
+        <v>16</v>
+      </c>
+      <c r="O33">
+        <v>192</v>
+      </c>
+      <c r="P33">
+        <v>46</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="4"/>
+        <v>21875</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34">
+        <v>1959</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <v>35</v>
+      </c>
+      <c r="H34">
+        <v>120</v>
+      </c>
+      <c r="I34" t="s">
+        <v>90</v>
+      </c>
+      <c r="M34">
+        <v>77</v>
+      </c>
+      <c r="N34">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>240</v>
+      </c>
+      <c r="P34">
+        <v>45</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T31">
+      <c r="R34">
+        <f t="shared" si="4"/>
+        <v>28125</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35">
+        <v>1959</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>35</v>
+      </c>
+      <c r="H35">
+        <v>120</v>
+      </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+      <c r="M35">
+        <v>32</v>
+      </c>
+      <c r="N35">
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>384</v>
+      </c>
+      <c r="P35">
+        <v>47</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="4"/>
+        <v>34375</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="3"/>
         <v>2025</v>
       </c>
@@ -6461,10 +7041,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6773,6 +7353,46 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7">
+        <v>1998</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>60</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>185</v>
+      </c>
+      <c r="S7">
+        <v>22.1</v>
+      </c>
+      <c r="U7">
+        <f>MEDIAN(0,255,ROUND(S7/20+SQRT(J7)/40+SQRT(P7)/2+(SQRT(R7)-SQRT(185)),0))</f>
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <f>MEDIAN(0,255,ROUND(SQRT(J7)/200+SQRT(P7)/2+(SQRT(R7)-SQRT(185))^3,0))</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949ABE5A-EA21-494B-8023-DF6F257780AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CFEFC8-44F3-4D63-AE10-F41D634ACA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="246">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -833,38 +833,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SYZ25K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRZ25K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>syz25k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>srz25k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>syz25b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYZ25B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRZ25B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>srz25b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HXD1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -902,6 +870,158 @@
   </si>
   <si>
     <t>nx17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYZ25BLD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRZ25BLD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srz25bld</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>syz25bld</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>syz25kld</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srz25kld</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRZ25KLD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYZ25KLD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYZ25BHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRZ25BHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srz25bhd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>syz25bhd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYW25BHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>syw25bhd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRW25BHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srw25bhd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYZ25KHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRZ25KHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYW25KHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRW25KHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>syz25khd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srz25khd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>syw25khd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srw25khd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCA25KHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sca25khd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df5kz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF5-KZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJ2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nj2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GN70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gn70</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1240,10 +1360,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1408,7 +1529,7 @@
         <v>165625</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T22" si="0">MEDIAN(0, 255, ROUND(SQRT(K2)/100+SQRT(L2)+P2+40/J2-2,0))</f>
+        <f t="shared" ref="T2:T24" si="0">MEDIAN(0, 255, ROUND(SQRT(K2)/100+SQRT(L2)+P2+40/J2-2,0))</f>
         <v>39</v>
       </c>
       <c r="U2">
@@ -1456,19 +1577,19 @@
         <v>1934</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O32" si="1">M3-N3</f>
+        <f t="shared" ref="O3:O34" si="1">M3-N3</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q32" si="2">O3*P3*9.8</f>
+        <f t="shared" ref="Q3:Q34" si="2">O3*P3*9.8</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R32" si="3">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
+        <f t="shared" ref="R3:R34" si="3">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S32" si="4">R3*50000/16</f>
+        <f t="shared" ref="S3:S34" si="4">R3*50000/16</f>
         <v>62500</v>
       </c>
       <c r="T3" t="e">
@@ -1476,15 +1597,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U3" t="e">
-        <f t="shared" ref="U3:U32" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
+        <f t="shared" ref="U3:U34" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V32" si="6">W3+X3+Y3</f>
+        <f t="shared" ref="V3:V34" si="6">W3+X3+Y3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="2" t="e">
-        <f t="shared" ref="AC3:AC32" si="7">AVERAGE(Z3:AB3)</f>
+        <f t="shared" ref="AC3:AC34" si="7">AVERAGE(Z3:AB3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1862,10 +1983,10 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -1928,10 +2049,10 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -1994,10 +2115,10 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -2060,13 +2181,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -2109,116 +2230,112 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14">
+        <v>1984</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>80</v>
+      </c>
+      <c r="L14">
+        <v>1414</v>
+      </c>
+      <c r="M14">
+        <v>138</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14" si="16">M14-N14</f>
+        <v>138</v>
+      </c>
+      <c r="P14">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14" si="17">O14*P14*9.8</f>
+        <v>435.47280000000001</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14" si="18">MEDIAN(255, ROUND((M14/10+SQRT(K14)/20+SQRT(L14)+P14+20-J14), 0), 0)</f>
+        <v>56</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ref="S14" si="19">R14*50000/16</f>
+        <v>175000</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ref="T14" si="20">MEDIAN(0, 255, ROUND(SQRT(K14)/100+SQRT(L14)+P14+40/J14-2,0))</f>
+        <v>39</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14" si="21">IF(E14="Steam", T14*350/16*12, IF(E14="Diesel", T14*325/16*12,  T14*300/16*12))</f>
+        <v>9506.25</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ref="V14" si="22">W14+X14+Y14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15">
         <v>1974</v>
       </c>
-      <c r="O14">
+      <c r="O15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q14">
+      <c r="Q15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R14">
+      <c r="R15">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f t="shared" si="4"/>
         <v>62500</v>
       </c>
-      <c r="T14" t="e">
+      <c r="T15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" t="e">
+      <c r="U15" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>1992</v>
-      </c>
-      <c r="G15">
-        <v>30</v>
-      </c>
-      <c r="H15">
-        <v>50</v>
-      </c>
-      <c r="I15">
-        <v>35</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>170</v>
-      </c>
-      <c r="L15">
-        <v>4133</v>
-      </c>
-      <c r="M15">
-        <v>138</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="P15">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>244.78440000000001</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="4"/>
-        <v>278125</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="5"/>
-        <v>16331.25</v>
       </c>
       <c r="V15">
         <f t="shared" si="6"/>
@@ -2231,40 +2348,67 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
       </c>
+      <c r="F16">
+        <v>1992</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>35</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>170</v>
+      </c>
+      <c r="L16">
+        <v>4133</v>
+      </c>
+      <c r="M16">
+        <v>138</v>
+      </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="P16">
+        <v>0.18099999999999999</v>
       </c>
       <c r="Q16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>244.78440000000001</v>
       </c>
       <c r="R16">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="S16">
         <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" t="e">
+        <v>278125</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>16331.25</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
@@ -2277,19 +2421,16 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
-      </c>
-      <c r="F17">
-        <v>2005</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
@@ -2326,19 +2467,19 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
       </c>
       <c r="F18">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="G18">
         <v>30</v>
@@ -2347,92 +2488,64 @@
         <v>91</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="L18">
-        <v>4133</v>
+        <v>3480</v>
       </c>
       <c r="M18">
         <v>138</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O18" si="23">M18-N18</f>
         <v>138</v>
       </c>
       <c r="P18">
-        <v>0.14299999999999999</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
-        <v>193.39320000000001</v>
+        <f t="shared" ref="Q18" si="24">O18*P18*9.8</f>
+        <v>534.19800000000009</v>
       </c>
       <c r="R18">
-        <f t="shared" si="3"/>
-        <v>93</v>
+        <f t="shared" ref="R18" si="25">MEDIAN(255, ROUND((M18/10+SQRT(K18)/20+SQRT(L18)+P18+20-J18), 0), 0)</f>
+        <v>86</v>
       </c>
       <c r="S18">
-        <f t="shared" si="4"/>
-        <v>290625</v>
+        <f t="shared" ref="S18" si="26">R18*50000/16</f>
+        <v>268750</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <f t="shared" ref="T18" si="27">MEDIAN(0, 255, ROUND(SQRT(K18)/100+SQRT(L18)+P18+40/J18-2,0))</f>
+        <v>62</v>
       </c>
       <c r="U18">
-        <f t="shared" ref="U18" si="16">IF(E18="Steam", T18*350/16*12, IF(E18="Diesel", T18*325/16*12,  T18*300/16*12))</f>
-        <v>16818.75</v>
+        <f t="shared" ref="U18" si="28">IF(E18="Steam", T18*350/16*12, IF(E18="Diesel", T18*325/16*12,  T18*300/16*12))</f>
+        <v>15112.5</v>
       </c>
       <c r="V18">
-        <f t="shared" ref="V18" si="17">W18+X18+Y18</f>
-        <v>11</v>
-      </c>
-      <c r="W18">
-        <v>2</v>
-      </c>
-      <c r="X18">
-        <v>7</v>
-      </c>
-      <c r="Y18">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AC18" s="2">
-        <f t="shared" si="7"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>93</v>
+        <f t="shared" ref="V18" si="29">W18+X18+Y18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19">
-        <v>1958</v>
+        <v>2005</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
@@ -2469,37 +2582,34 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20">
-        <v>1978</v>
+        <v>2003</v>
       </c>
       <c r="G20">
         <v>30</v>
       </c>
-      <c r="H20">
-        <v>60</v>
-      </c>
-      <c r="I20">
-        <v>30</v>
+      <c r="H20" t="s">
+        <v>91</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="L20">
-        <v>5914</v>
+        <v>4133</v>
       </c>
       <c r="M20">
         <v>138</v>
@@ -2509,52 +2619,76 @@
         <v>138</v>
       </c>
       <c r="P20">
-        <v>0.34699999999999998</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="Q20">
         <f t="shared" si="2"/>
-        <v>469.28280000000001</v>
+        <v>193.39320000000001</v>
       </c>
       <c r="R20">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="S20">
         <f t="shared" si="4"/>
-        <v>318750</v>
+        <v>290625</v>
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="U20">
-        <f t="shared" si="5"/>
-        <v>17775</v>
+        <f t="shared" ref="U20" si="30">IF(E20="Steam", T20*350/16*12, IF(E20="Diesel", T20*325/16*12,  T20*300/16*12))</f>
+        <v>16818.75</v>
       </c>
       <c r="V20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="2" t="e">
+        <f t="shared" ref="V20" si="31">W20+X20+Y20</f>
+        <v>11</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>7</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC20" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
         <v>52</v>
       </c>
       <c r="F21">
-        <v>1989</v>
+        <v>1958</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
@@ -2591,25 +2725,25 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
         <v>52</v>
       </c>
       <c r="F22">
-        <v>1994</v>
+        <v>1978</v>
       </c>
       <c r="G22">
         <v>30</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I22">
         <v>30</v>
@@ -2618,40 +2752,40 @@
         <v>10</v>
       </c>
       <c r="K22">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="L22">
-        <v>4894</v>
+        <v>5914</v>
       </c>
       <c r="M22">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="P22">
-        <v>0.24299999999999999</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="Q22">
         <f t="shared" si="2"/>
-        <v>209.56320000000002</v>
+        <v>469.28280000000001</v>
       </c>
       <c r="R22">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="S22">
         <f t="shared" si="4"/>
-        <v>281250</v>
+        <v>318750</v>
       </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="U22">
         <f t="shared" si="5"/>
-        <v>16200</v>
+        <v>17775</v>
       </c>
       <c r="V22">
         <f t="shared" si="6"/>
@@ -2664,140 +2798,140 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23">
-        <v>6144</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
         <v>52</v>
       </c>
       <c r="F23">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="G23">
         <v>30</v>
       </c>
-      <c r="H23" t="s">
-        <v>91</v>
+      <c r="H23">
+        <v>60</v>
+      </c>
+      <c r="I23">
+        <v>35</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K23">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L23">
-        <v>9655</v>
+        <v>8702</v>
       </c>
       <c r="M23">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="P23">
-        <v>0.38450000000000001</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
-        <v>519.99779999999998</v>
+        <v>627.5136</v>
       </c>
       <c r="R23">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="S23">
         <f t="shared" si="4"/>
-        <v>396875</v>
+        <v>353125</v>
       </c>
       <c r="T23">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K23)/100+SQRT(L23)+P23+40/J23-2,0))</f>
-        <v>103</v>
+        <f t="shared" si="0"/>
+        <v>94</v>
       </c>
       <c r="U23">
         <f t="shared" si="5"/>
-        <v>23175</v>
+        <v>21150</v>
       </c>
       <c r="V23">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>8</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>93</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
         <v>52</v>
       </c>
       <c r="F24">
-        <v>2012</v>
+        <v>1994</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>170</v>
+      </c>
+      <c r="L24">
+        <v>4894</v>
+      </c>
+      <c r="M24">
+        <v>88</v>
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="P24">
+        <v>0.24299999999999999</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>209.56320000000002</v>
       </c>
       <c r="R24">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T24" t="e">
-        <f t="shared" ref="T24:T32" si="18">MEDIAN(0, 255, ROUND(SQRT(K24)/100+SQRT(L24)+P24+40/J24-2,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" t="e">
+        <v>281250</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>16200</v>
       </c>
       <c r="V24">
         <f t="shared" si="6"/>
@@ -2810,22 +2944,22 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="C25">
-        <v>6145</v>
+        <v>6144</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
         <v>52</v>
       </c>
       <c r="F25">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G25">
         <v>30</v>
@@ -2837,35 +2971,35 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="L25">
         <v>9655</v>
       </c>
       <c r="M25">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P25">
-        <v>0.34</v>
+        <v>0.38450000000000001</v>
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
-        <v>419.83200000000005</v>
+        <v>519.99779999999998</v>
       </c>
       <c r="R25">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S25">
         <f t="shared" si="4"/>
-        <v>393750</v>
+        <v>396875</v>
       </c>
       <c r="T25">
-        <f t="shared" si="18"/>
+        <f>MEDIAN(0, 255, ROUND(SQRT(K25)/100+SQRT(L25)+P25+40/J25-2,0))</f>
         <v>103</v>
       </c>
       <c r="U25">
@@ -2907,58 +3041,43 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
       </c>
       <c r="E26" t="s">
         <v>52</v>
       </c>
       <c r="F26">
-        <v>2009</v>
-      </c>
-      <c r="G26">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-      <c r="K26">
-        <v>120</v>
-      </c>
-      <c r="L26">
-        <v>13052</v>
-      </c>
-      <c r="M26">
-        <v>150</v>
+        <v>2012</v>
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="P26">
-        <v>0.38750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <f t="shared" si="2"/>
-        <v>569.625</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="S26">
         <f t="shared" si="4"/>
-        <v>450000</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="18"/>
-        <v>119</v>
-      </c>
-      <c r="U26">
+        <v>62500</v>
+      </c>
+      <c r="T26" t="e">
+        <f t="shared" ref="T26:T34" si="32">MEDIAN(0, 255, ROUND(SQRT(K26)/100+SQRT(L26)+P26+40/J26-2,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" t="e">
         <f t="shared" si="5"/>
-        <v>26775</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V26">
         <f t="shared" si="6"/>
@@ -2971,16 +3090,22 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>141</v>
+      </c>
+      <c r="C27">
+        <v>6145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
       </c>
       <c r="E27" t="s">
         <v>52</v>
       </c>
       <c r="F27">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="G27">
         <v>30</v>
@@ -2989,77 +3114,131 @@
         <v>91</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K27">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="L27">
-        <v>13052</v>
+        <v>9655</v>
       </c>
       <c r="M27">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="P27">
-        <v>0.42099999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="Q27">
         <f t="shared" si="2"/>
-        <v>759.1472</v>
+        <v>419.83200000000005</v>
       </c>
       <c r="R27">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="S27">
         <f t="shared" si="4"/>
-        <v>456250</v>
+        <v>393750</v>
       </c>
       <c r="T27">
-        <f t="shared" si="18"/>
-        <v>118</v>
+        <f t="shared" si="32"/>
+        <v>103</v>
       </c>
       <c r="U27">
         <f t="shared" si="5"/>
-        <v>26550</v>
+        <v>23175</v>
       </c>
       <c r="V27">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28">
+        <v>2009</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>120</v>
+      </c>
+      <c r="L28">
+        <v>13052</v>
+      </c>
+      <c r="M28">
+        <v>150</v>
+      </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="P28">
+        <v>0.38750000000000001</v>
       </c>
       <c r="Q28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>569.625</v>
       </c>
       <c r="R28">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="S28">
         <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T28" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" t="e">
+        <v>450000</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="32"/>
+        <v>119</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>26775</v>
       </c>
       <c r="V28">
         <f t="shared" si="6"/>
@@ -3071,29 +3250,62 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29">
+        <v>2006</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>120</v>
+      </c>
+      <c r="L29">
+        <v>13052</v>
+      </c>
+      <c r="M29">
+        <v>184</v>
+      </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="P29">
+        <v>0.42099999999999999</v>
       </c>
       <c r="Q29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>759.1472</v>
       </c>
       <c r="R29">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S29">
         <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T29" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" t="e">
+        <v>456250</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="32"/>
+        <v>118</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>26550</v>
       </c>
       <c r="V29">
         <f t="shared" si="6"/>
@@ -3122,7 +3334,7 @@
         <v>62500</v>
       </c>
       <c r="T30" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" t="e">
@@ -3156,7 +3368,7 @@
         <v>62500</v>
       </c>
       <c r="T31" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" t="e">
@@ -3190,7 +3402,7 @@
         <v>62500</v>
       </c>
       <c r="T32" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" t="e">
@@ -3202,6 +3414,74 @@
         <v>0</v>
       </c>
       <c r="AC32" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="15:29" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="T33" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="15:29" x14ac:dyDescent="0.3">
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="T34" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -5157,10 +5437,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5337,7 +5617,7 @@
         <v>45.3</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q35" si="0">MEDIAN(0,255,ROUND(P3/20+SQRT(H3)/40+SQRT(M3)/2+(SQRT(O3)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Q3:Q44" si="0">MEDIAN(0,255,ROUND(P3/20+SQRT(H3)/40+SQRT(M3)/2+(SQRT(O3)-SQRT(185)), 0))</f>
         <v>9</v>
       </c>
       <c r="R3">
@@ -5345,11 +5625,11 @@
         <v>28125</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S35" si="2">MEDIAN(0,255,ROUND(SQRT(H3)/200+SQRT(M3)/2+(SQRT(O3)-SQRT(185)),0))</f>
+        <f t="shared" ref="S3:S44" si="2">MEDIAN(0,255,ROUND(SQRT(H3)/200+SQRT(M3)/2+(SQRT(O3)-SQRT(185)),0))</f>
         <v>6</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T35" si="3">S3*300/16*12</f>
+        <f t="shared" ref="T3:T44" si="3">S3*300/16*12</f>
         <v>1350</v>
       </c>
     </row>
@@ -5382,7 +5662,7 @@
         <v>66</v>
       </c>
       <c r="N4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O4">
         <v>360</v>
@@ -5436,7 +5716,7 @@
         <v>36</v>
       </c>
       <c r="N5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O5">
         <v>480</v>
@@ -5557,7 +5837,7 @@
         <v>9</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R35" si="4">Q7*50000/16</f>
+        <f t="shared" ref="R7:R44" si="4">Q7*50000/16</f>
         <v>28125</v>
       </c>
       <c r="S7">
@@ -5598,7 +5878,7 @@
         <v>66</v>
       </c>
       <c r="N8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O8">
         <v>360</v>
@@ -5652,7 +5932,7 @@
         <v>36</v>
       </c>
       <c r="N9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O9">
         <v>480</v>
@@ -6027,7 +6307,7 @@
         <v>66</v>
       </c>
       <c r="N16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O16">
         <v>360</v>
@@ -6081,7 +6361,7 @@
         <v>36</v>
       </c>
       <c r="N17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O17">
         <v>480</v>
@@ -6108,10 +6388,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E18">
         <v>1999</v>
@@ -6159,10 +6439,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E19">
         <v>1999</v>
@@ -6210,16 +6490,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="E20">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -6228,520 +6505,523 @@
         <v>91</v>
       </c>
       <c r="H20">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s">
         <v>90</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="N20">
         <v>16</v>
       </c>
       <c r="O20">
+        <v>200</v>
+      </c>
+      <c r="P20">
+        <v>52.1</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20:Q23" si="13">MEDIAN(0,255,ROUND(P20/20+SQRT(H20)/40+SQRT(M20)/2+(SQRT(O20)-SQRT(185)), 0))</f>
+        <v>10</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ref="R20:R23" si="14">Q20*50000/16</f>
+        <v>31250</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ref="S20:S23" si="15">MEDIAN(0,255,ROUND(SQRT(H20)/200+SQRT(M20)/2+(SQRT(O20)-SQRT(185)),0))</f>
+        <v>7</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20:T23" si="16">S20*300/16*12</f>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21">
+        <v>1999</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21">
+        <v>140</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21">
+        <v>108</v>
+      </c>
+      <c r="N21">
+        <v>16</v>
+      </c>
+      <c r="O21">
+        <v>240</v>
+      </c>
+      <c r="P21">
+        <v>51.4</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="14"/>
+        <v>31250</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="16"/>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22">
+        <v>1999</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22">
+        <v>140</v>
+      </c>
+      <c r="I22" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22">
+        <v>80</v>
+      </c>
+      <c r="N22">
+        <v>16</v>
+      </c>
+      <c r="O22">
+        <v>360</v>
+      </c>
+      <c r="P22">
+        <v>52</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="14"/>
+        <v>40625</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="16"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23">
+        <v>1999</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23">
+        <v>50</v>
+      </c>
+      <c r="N23">
+        <v>16</v>
+      </c>
+      <c r="O23">
+        <v>480</v>
+      </c>
+      <c r="P23">
+        <v>54.3</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="14"/>
+        <v>46875</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="16"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24">
+        <v>1999</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24">
+        <v>140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24">
+        <v>72</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>200</v>
+      </c>
+      <c r="P24">
+        <v>53.1</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24" si="17">MEDIAN(0,255,ROUND(P24/20+SQRT(H24)/40+SQRT(M24)/2+(SQRT(O24)-SQRT(185)), 0))</f>
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ref="R24" si="18">Q24*50000/16</f>
+        <v>25000</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ref="S24" si="19">MEDIAN(0,255,ROUND(SQRT(H24)/200+SQRT(M24)/2+(SQRT(O24)-SQRT(185)),0))</f>
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ref="T24" si="20">S24*300/16*12</f>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25">
+        <v>1991</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25">
+        <v>120</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>16</v>
+      </c>
+      <c r="O25">
         <v>185</v>
       </c>
-      <c r="P20">
+      <c r="P25">
         <v>60</v>
       </c>
-      <c r="Q20">
+      <c r="Q25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R20">
+      <c r="R25">
         <f t="shared" si="4"/>
         <v>9375</v>
       </c>
-      <c r="S20">
+      <c r="S25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T20">
+      <c r="T25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>155</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>156</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D26" t="s">
         <v>155</v>
       </c>
-      <c r="E21">
+      <c r="E26">
         <v>1996</v>
       </c>
-      <c r="F21">
+      <c r="F26">
         <v>30</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G26" t="s">
         <v>91</v>
       </c>
-      <c r="H21">
+      <c r="H26">
         <v>140</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I26" t="s">
         <v>90</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
         <v>16</v>
       </c>
-      <c r="O21">
+      <c r="O26">
         <v>185</v>
       </c>
-      <c r="P21">
+      <c r="P26">
         <v>62</v>
       </c>
-      <c r="Q21">
+      <c r="Q26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R21">
+      <c r="R26">
         <f t="shared" si="4"/>
         <v>9375</v>
       </c>
-      <c r="S21">
+      <c r="S26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T21">
+      <c r="T26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>157</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>158</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D27" t="s">
         <v>157</v>
       </c>
-      <c r="E22">
+      <c r="E27">
         <v>2002</v>
       </c>
-      <c r="F22">
+      <c r="F27">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G27" t="s">
         <v>91</v>
       </c>
-      <c r="H22">
+      <c r="H27">
         <v>160</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I27" t="s">
         <v>113</v>
       </c>
-      <c r="M22">
+      <c r="M27">
         <v>92</v>
       </c>
-      <c r="N22">
+      <c r="N27">
         <v>12</v>
       </c>
-      <c r="O22">
+      <c r="O27">
         <v>200</v>
       </c>
-      <c r="P22">
+      <c r="P27">
         <v>39.299999999999997</v>
       </c>
-      <c r="Q22">
+      <c r="Q27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R22">
+      <c r="R27">
         <f t="shared" si="4"/>
         <v>25000</v>
       </c>
-      <c r="S22">
+      <c r="S27">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="T22">
+      <c r="T27">
         <f t="shared" si="3"/>
         <v>1125</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>169</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>178</v>
       </c>
-      <c r="E23">
+      <c r="E28">
         <v>1991</v>
       </c>
-      <c r="F23">
+      <c r="F28">
         <v>30</v>
       </c>
-      <c r="G23">
+      <c r="G28">
         <v>30</v>
       </c>
-      <c r="H23">
+      <c r="H28">
         <v>120</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I28" t="s">
         <v>90</v>
       </c>
-      <c r="M23">
+      <c r="M28">
         <v>128</v>
       </c>
-      <c r="N23">
+      <c r="N28">
         <v>16</v>
       </c>
-      <c r="O23">
+      <c r="O28">
         <v>144</v>
       </c>
-      <c r="P23">
+      <c r="P28">
         <v>44.7</v>
       </c>
-      <c r="Q23">
+      <c r="Q28">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="R23">
+      <c r="R28">
         <f t="shared" si="4"/>
         <v>21875</v>
       </c>
-      <c r="S23">
+      <c r="S28">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T23">
+      <c r="T28">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>170</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>176</v>
       </c>
-      <c r="E24">
+      <c r="E29">
         <v>1991</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <v>30</v>
       </c>
-      <c r="G24">
+      <c r="G29">
         <v>30</v>
       </c>
-      <c r="H24">
+      <c r="H29">
         <v>120</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I29" t="s">
         <v>90</v>
       </c>
-      <c r="M24">
+      <c r="M29">
         <v>80</v>
       </c>
-      <c r="N24">
+      <c r="N29">
         <v>16</v>
       </c>
-      <c r="O24">
+      <c r="O29">
         <v>192</v>
       </c>
-      <c r="P24">
+      <c r="P29">
         <v>50.2</v>
       </c>
-      <c r="Q24">
+      <c r="Q29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R24">
+      <c r="R29">
         <f t="shared" si="4"/>
         <v>25000</v>
       </c>
-      <c r="S24">
+      <c r="S29">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="T24">
+      <c r="T29">
         <f t="shared" si="3"/>
         <v>1125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25">
-        <v>1991</v>
-      </c>
-      <c r="F25">
-        <v>30</v>
-      </c>
-      <c r="G25">
-        <v>30</v>
-      </c>
-      <c r="H25">
-        <v>120</v>
-      </c>
-      <c r="I25" t="s">
-        <v>90</v>
-      </c>
-      <c r="M25">
-        <v>66</v>
-      </c>
-      <c r="N25">
-        <v>12</v>
-      </c>
-      <c r="O25">
-        <v>288</v>
-      </c>
-      <c r="P25">
-        <v>47</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="4"/>
-        <v>31250</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="3"/>
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26">
-        <v>1991</v>
-      </c>
-      <c r="F26">
-        <v>30</v>
-      </c>
-      <c r="G26">
-        <v>30</v>
-      </c>
-      <c r="H26">
-        <v>120</v>
-      </c>
-      <c r="I26" t="s">
-        <v>90</v>
-      </c>
-      <c r="M26">
-        <v>36</v>
-      </c>
-      <c r="N26">
-        <v>8</v>
-      </c>
-      <c r="O26">
-        <v>480</v>
-      </c>
-      <c r="P26">
-        <v>51.5</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="4"/>
-        <v>43750</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="3"/>
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27">
-        <v>1991</v>
-      </c>
-      <c r="F27">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27">
-        <v>120</v>
-      </c>
-      <c r="I27" t="s">
-        <v>90</v>
-      </c>
-      <c r="M27">
-        <v>176</v>
-      </c>
-      <c r="N27">
-        <v>24</v>
-      </c>
-      <c r="O27">
-        <v>200</v>
-      </c>
-      <c r="P27">
-        <v>52.2</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" ref="Q27:Q28" si="13">MEDIAN(0,255,ROUND(P27/20+SQRT(H27)/40+SQRT(M27)/2+(SQRT(O27)-SQRT(185)), 0))</f>
-        <v>10</v>
-      </c>
-      <c r="R27">
-        <f t="shared" ref="R27:R28" si="14">Q27*50000/16</f>
-        <v>31250</v>
-      </c>
-      <c r="S27">
-        <f t="shared" ref="S27:S28" si="15">MEDIAN(0,255,ROUND(SQRT(H27)/200+SQRT(M27)/2+(SQRT(O27)-SQRT(185)),0))</f>
-        <v>7</v>
-      </c>
-      <c r="T27">
-        <f t="shared" ref="T27:T28" si="16">S27*300/16*12</f>
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>204</v>
-      </c>
-      <c r="B28" t="s">
-        <v>205</v>
-      </c>
-      <c r="E28">
-        <v>1991</v>
-      </c>
-      <c r="F28">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28">
-        <v>120</v>
-      </c>
-      <c r="I28" t="s">
-        <v>90</v>
-      </c>
-      <c r="M28">
-        <v>108</v>
-      </c>
-      <c r="N28">
-        <v>24</v>
-      </c>
-      <c r="O28">
-        <v>240</v>
-      </c>
-      <c r="P28">
-        <v>51.9</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="14"/>
-        <v>31250</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="16"/>
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29">
-        <v>1988</v>
-      </c>
-      <c r="F29">
-        <v>30</v>
-      </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>120</v>
-      </c>
-      <c r="I29" t="s">
-        <v>90</v>
-      </c>
-      <c r="M29">
-        <v>118</v>
-      </c>
-      <c r="N29">
-        <v>16</v>
-      </c>
-      <c r="O29">
-        <v>144</v>
-      </c>
-      <c r="P29">
-        <v>42.5</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="4"/>
-        <v>18750</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-    </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E30">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="F30">
         <v>30</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>120</v>
@@ -6750,16 +7030,16 @@
         <v>90</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O30">
         <v>288</v>
       </c>
       <c r="P30">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
@@ -6780,19 +7060,19 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E31">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="F31">
         <v>30</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>120</v>
@@ -6801,16 +7081,16 @@
         <v>90</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O31">
         <v>480</v>
       </c>
       <c r="P31">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
@@ -6831,19 +7111,19 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E32">
-        <v>1959</v>
+        <v>1991</v>
       </c>
       <c r="F32">
         <v>30</v>
       </c>
-      <c r="G32">
-        <v>35</v>
+      <c r="G32" t="s">
+        <v>91</v>
       </c>
       <c r="H32">
         <v>120</v>
@@ -6852,183 +7132,642 @@
         <v>90</v>
       </c>
       <c r="M32">
+        <v>176</v>
+      </c>
+      <c r="N32">
+        <v>24</v>
+      </c>
+      <c r="O32">
+        <v>200</v>
+      </c>
+      <c r="P32">
+        <v>52.2</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q33" si="21">MEDIAN(0,255,ROUND(P32/20+SQRT(H32)/40+SQRT(M32)/2+(SQRT(O32)-SQRT(185)), 0))</f>
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ref="R32:R33" si="22">Q32*50000/16</f>
+        <v>31250</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ref="S32:S33" si="23">MEDIAN(0,255,ROUND(SQRT(H32)/200+SQRT(M32)/2+(SQRT(O32)-SQRT(185)),0))</f>
+        <v>7</v>
+      </c>
+      <c r="T32">
+        <f t="shared" ref="T32:T33" si="24">S32*300/16*12</f>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33">
+        <v>1991</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33">
+        <v>120</v>
+      </c>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M33">
+        <v>108</v>
+      </c>
+      <c r="N33">
+        <v>24</v>
+      </c>
+      <c r="O33">
+        <v>240</v>
+      </c>
+      <c r="P33">
+        <v>51.9</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="22"/>
+        <v>31250</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="24"/>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34">
+        <v>1994</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34">
+        <v>140</v>
+      </c>
+      <c r="I34" t="s">
+        <v>90</v>
+      </c>
+      <c r="M34">
+        <v>176</v>
+      </c>
+      <c r="N34">
+        <v>16</v>
+      </c>
+      <c r="O34">
+        <v>200</v>
+      </c>
+      <c r="P34">
+        <v>52.2</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q37" si="25">MEDIAN(0,255,ROUND(P34/20+SQRT(H34)/40+SQRT(M34)/2+(SQRT(O34)-SQRT(185)), 0))</f>
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34:R37" si="26">Q34*50000/16</f>
+        <v>31250</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ref="S34:S37" si="27">MEDIAN(0,255,ROUND(SQRT(H34)/200+SQRT(M34)/2+(SQRT(O34)-SQRT(185)),0))</f>
+        <v>7</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34:T37" si="28">S34*300/16*12</f>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35">
+        <v>1994</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+      <c r="M35">
+        <v>108</v>
+      </c>
+      <c r="N35">
+        <v>16</v>
+      </c>
+      <c r="O35">
+        <v>240</v>
+      </c>
+      <c r="P35">
+        <v>51.9</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="26"/>
+        <v>31250</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="28"/>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36">
+        <v>1994</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36">
+        <v>140</v>
+      </c>
+      <c r="I36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M36">
+        <v>80</v>
+      </c>
+      <c r="N36">
+        <v>16</v>
+      </c>
+      <c r="O36">
+        <v>360</v>
+      </c>
+      <c r="P36">
+        <v>53.6</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="26"/>
+        <v>40625</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="28"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37">
+        <v>1994</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37">
+        <v>140</v>
+      </c>
+      <c r="I37" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37">
+        <v>50</v>
+      </c>
+      <c r="N37">
+        <v>16</v>
+      </c>
+      <c r="O37">
+        <v>480</v>
+      </c>
+      <c r="P37">
+        <v>56</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="26"/>
+        <v>46875</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="28"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38">
+        <v>1988</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>120</v>
+      </c>
+      <c r="I38" t="s">
+        <v>90</v>
+      </c>
+      <c r="M38">
         <v>118</v>
       </c>
-      <c r="N32">
+      <c r="N38">
         <v>16</v>
       </c>
-      <c r="O32">
+      <c r="O38">
         <v>144</v>
       </c>
-      <c r="P32">
+      <c r="P38">
         <v>42.5</v>
       </c>
-      <c r="Q32">
+      <c r="Q38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R32">
+      <c r="R38">
         <f t="shared" si="4"/>
         <v>18750</v>
       </c>
-      <c r="S32">
+      <c r="S38">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T32">
+      <c r="T38">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39">
+        <v>1988</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>120</v>
+      </c>
+      <c r="I39" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39">
+        <v>60</v>
+      </c>
+      <c r="N39">
+        <v>16</v>
+      </c>
+      <c r="O39">
+        <v>288</v>
+      </c>
+      <c r="P39">
+        <v>45</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="4"/>
+        <v>31250</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40">
+        <v>1988</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>120</v>
+      </c>
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40">
+        <v>32</v>
+      </c>
+      <c r="N40">
+        <v>16</v>
+      </c>
+      <c r="O40">
+        <v>480</v>
+      </c>
+      <c r="P40">
+        <v>51.2</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="4"/>
+        <v>43750</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41">
+        <v>1959</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <v>120</v>
+      </c>
+      <c r="I41" t="s">
+        <v>90</v>
+      </c>
+      <c r="M41">
+        <v>118</v>
+      </c>
+      <c r="N41">
+        <v>16</v>
+      </c>
+      <c r="O41">
+        <v>144</v>
+      </c>
+      <c r="P41">
+        <v>42.5</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="4"/>
+        <v>18750</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>187</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B42" t="s">
         <v>190</v>
       </c>
-      <c r="E33">
+      <c r="E42">
         <v>1976</v>
       </c>
-      <c r="F33">
+      <c r="F42">
         <v>30</v>
       </c>
-      <c r="G33">
+      <c r="G42">
         <v>22</v>
       </c>
-      <c r="H33">
+      <c r="H42">
         <v>120</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I42" t="s">
         <v>90</v>
       </c>
-      <c r="M33">
+      <c r="M42">
         <v>64</v>
       </c>
-      <c r="N33">
+      <c r="N42">
         <v>16</v>
       </c>
-      <c r="O33">
+      <c r="O42">
         <v>192</v>
       </c>
-      <c r="P33">
+      <c r="P42">
         <v>46</v>
       </c>
-      <c r="Q33">
+      <c r="Q42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="R33">
+      <c r="R42">
         <f t="shared" si="4"/>
         <v>21875</v>
       </c>
-      <c r="S33">
+      <c r="S42">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T33">
+      <c r="T42">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>188</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B43" t="s">
         <v>191</v>
       </c>
-      <c r="E34">
+      <c r="E43">
         <v>1959</v>
       </c>
-      <c r="F34">
+      <c r="F43">
         <v>30</v>
       </c>
-      <c r="G34">
+      <c r="G43">
         <v>35</v>
       </c>
-      <c r="H34">
+      <c r="H43">
         <v>120</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I43" t="s">
         <v>90</v>
       </c>
-      <c r="M34">
+      <c r="M43">
         <v>77</v>
       </c>
-      <c r="N34">
-        <v>12</v>
-      </c>
-      <c r="O34">
+      <c r="N43">
+        <v>16</v>
+      </c>
+      <c r="O43">
         <v>240</v>
       </c>
-      <c r="P34">
+      <c r="P43">
         <v>45</v>
       </c>
-      <c r="Q34">
+      <c r="Q43">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="R34">
+      <c r="R43">
         <f t="shared" si="4"/>
         <v>28125</v>
       </c>
-      <c r="S34">
+      <c r="S43">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T34">
+      <c r="T43">
         <f t="shared" si="3"/>
         <v>1350</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>189</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B44" t="s">
         <v>192</v>
       </c>
-      <c r="E35">
+      <c r="E44">
         <v>1959</v>
       </c>
-      <c r="F35">
+      <c r="F44">
         <v>30</v>
       </c>
-      <c r="G35">
+      <c r="G44">
         <v>35</v>
       </c>
-      <c r="H35">
+      <c r="H44">
         <v>120</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I44" t="s">
         <v>90</v>
       </c>
-      <c r="M35">
+      <c r="M44">
         <v>32</v>
       </c>
-      <c r="N35">
-        <v>8</v>
-      </c>
-      <c r="O35">
+      <c r="N44">
+        <v>16</v>
+      </c>
+      <c r="O44">
         <v>384</v>
       </c>
-      <c r="P35">
+      <c r="P44">
         <v>47</v>
       </c>
-      <c r="Q35">
+      <c r="Q44">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="R35">
+      <c r="R44">
         <f t="shared" si="4"/>
         <v>34375</v>
       </c>
-      <c r="S35">
+      <c r="S44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T35">
+      <c r="T44">
         <f t="shared" si="3"/>
         <v>2025</v>
       </c>
@@ -7041,10 +7780,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7179,11 +7918,11 @@
         <v>22.5</v>
       </c>
       <c r="U2">
-        <f>MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
+        <f t="shared" ref="U2:U11" si="0">MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
         <v>5</v>
       </c>
       <c r="W2">
-        <f>MEDIAN(0,255,ROUND(SQRT(J2)/200+SQRT(P2)/2+(SQRT(R2)-SQRT(185))^3,0))</f>
+        <f t="shared" ref="W2:W11" si="1">MEDIAN(0,255,ROUND(SQRT(J2)/200+SQRT(P2)/2+(SQRT(R2)-SQRT(185))^3,0))</f>
         <v>4</v>
       </c>
     </row>
@@ -7219,11 +7958,11 @@
         <v>24</v>
       </c>
       <c r="U3">
-        <f>MEDIAN(0,255,ROUND(S3/20+SQRT(J3)/40+SQRT(P3)/2+(SQRT(R3)-SQRT(185)),0))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="W3">
-        <f>MEDIAN(0,255,ROUND(SQRT(J3)/200+SQRT(P3)/2+(SQRT(R3)-SQRT(185))^3,0))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -7262,11 +8001,11 @@
         <v>20.6</v>
       </c>
       <c r="U4">
-        <f>MEDIAN(0,255,ROUND(S4/20+SQRT(J4)/40+SQRT(P4)/2+(SQRT(R4)-SQRT(185)),0))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="W4">
-        <f>MEDIAN(0,255,ROUND(SQRT(J4)/200+SQRT(P4)/2+(SQRT(R4)-SQRT(185))^3,0))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -7302,11 +8041,11 @@
         <v>22.2</v>
       </c>
       <c r="U5">
-        <f>MEDIAN(0,255,ROUND(S5/20+SQRT(J5)/40+SQRT(P5)/2+(SQRT(R5)-SQRT(185)),0))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="W5">
-        <f>MEDIAN(0,255,ROUND(SQRT(J5)/200+SQRT(P5)/2+(SQRT(R5)-SQRT(185))^3,0))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -7345,20 +8084,20 @@
         <v>20.6</v>
       </c>
       <c r="U6">
-        <f>MEDIAN(0,255,ROUND(S6/20+SQRT(J6)/40+SQRT(P6)/2+(SQRT(R6)-SQRT(185)),0))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="W6">
-        <f>MEDIAN(0,255,ROUND(SQRT(J6)/200+SQRT(P6)/2+(SQRT(R6)-SQRT(185))^3,0))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F7">
         <v>1998</v>
@@ -7385,11 +8124,174 @@
         <v>22.1</v>
       </c>
       <c r="U7">
-        <f>MEDIAN(0,255,ROUND(S7/20+SQRT(J7)/40+SQRT(P7)/2+(SQRT(R7)-SQRT(185)),0))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="W7">
-        <f>MEDIAN(0,255,ROUND(SQRT(J7)/200+SQRT(P7)/2+(SQRT(R7)-SQRT(185))^3,0))</f>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8">
+        <v>1958</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="P8">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>185</v>
+      </c>
+      <c r="S8">
+        <v>18</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9">
+        <v>2005</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9">
+        <v>120</v>
+      </c>
+      <c r="P9">
+        <v>70</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <v>185</v>
+      </c>
+      <c r="S9">
+        <v>23.8</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10">
+        <v>2003</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10">
+        <v>120</v>
+      </c>
+      <c r="P10">
+        <v>70</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+      <c r="R10">
+        <v>185</v>
+      </c>
+      <c r="S10">
+        <v>24.5</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11">
+        <v>2005</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="P11">
+        <v>70</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>185</v>
+      </c>
+      <c r="S11">
+        <v>23.4</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CFEFC8-44F3-4D63-AE10-F41D634ACA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F40E2F-F233-4F14-8C21-32CE0A297DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="258">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -569,10 +569,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1022,6 +1018,58 @@
   </si>
   <si>
     <t>gn70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH2A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ze</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH2C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR200J-B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH3A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDJ3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJJ1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1983,10 +2031,10 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -2049,10 +2097,10 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -2115,10 +2163,10 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -2181,13 +2229,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" t="s">
         <v>234</v>
-      </c>
-      <c r="D13" t="s">
-        <v>235</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -2467,13 +2515,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
         <v>236</v>
       </c>
-      <c r="B18" t="s">
-        <v>237</v>
-      </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -2582,13 +2630,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s">
         <v>153</v>
       </c>
-      <c r="B20" t="s">
-        <v>154</v>
-      </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -3090,16 +3138,16 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
         <v>140</v>
-      </c>
-      <c r="B27" t="s">
-        <v>141</v>
       </c>
       <c r="C27">
         <v>6145</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
         <v>52</v>
@@ -3187,7 +3235,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E28" t="s">
         <v>52</v>
@@ -3251,10 +3299,10 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s">
         <v>198</v>
-      </c>
-      <c r="B29" t="s">
-        <v>199</v>
       </c>
       <c r="E29" t="s">
         <v>52</v>
@@ -3494,16 +3542,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3535,72 +3583,75 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="L1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
         <v>129</v>
@@ -3621,48 +3672,52 @@
         <v>160</v>
       </c>
       <c r="K2">
+        <f t="shared" ref="K2:K11" si="0">ROUND(L2/0.73549875,0)</f>
         <v>7614</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>5600</v>
+      </c>
+      <c r="M2" t="s">
         <v>90</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>185</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>78</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.314</v>
       </c>
-      <c r="U2">
-        <f>S2*T2*9.8</f>
+      <c r="V2">
+        <f>T2*U2*9.8</f>
         <v>240.02160000000003</v>
       </c>
-      <c r="V2">
-        <f t="shared" ref="V2:V38" si="0">MAX(1, INT(S2/10+SQRT(J2)/20+SQRT(K2)+T2+SQRT(P2)/2+SQRT(R2)-SQRT(185)+20-I2))</f>
+      <c r="W2">
+        <f t="shared" ref="W2:W33" si="1">MAX(1, INT(T2/10+SQRT(J2)/20+SQRT(K2)+U2+SQRT(Q2)/2+SQRT(S2)-SQRT(185)+20-I2))</f>
         <v>96</v>
       </c>
-      <c r="W2">
-        <f>V2*50000/16</f>
+      <c r="X2">
+        <f>W2*50000/16</f>
         <v>300000</v>
       </c>
-      <c r="X2">
-        <f t="shared" ref="X2:X38" si="1">MAX(1, ROUND((SQRT(J2)/100+SQRT(K2)+T2+(40/I2-2)+SQRT(P2)/2+SQRT(R2)-SQRT(185)), 0))</f>
+      <c r="Y2">
+        <f t="shared" ref="Y2:Y33" si="2">MAX(1, ROUND((SQRT(J2)/100+SQRT(K2)+U2+(40/I2-2)+SQRT(Q2)/2+SQRT(S2)-SQRT(185)), 0))</f>
         <v>88</v>
       </c>
-      <c r="Y2">
-        <f>X2*300/16</f>
+      <c r="Z2">
+        <f>Y2*300/16</f>
         <v>1650</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I3">
         <v>20</v>
       </c>
@@ -3670,45 +3725,49 @@
         <v>160</v>
       </c>
       <c r="K3">
-        <v>15227</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>15228</v>
+      </c>
+      <c r="L3">
+        <v>11200</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>185</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>156</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.314</v>
       </c>
-      <c r="U3">
-        <f>S3*T3*9.8</f>
+      <c r="V3">
+        <f>T3*U3*9.8</f>
         <v>480.04320000000007</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3" si="2">MAX(1, INT(S3/10+SQRT(J3)/20+SQRT(K3)+T3+SQRT(P3)/2+SQRT(R3)-SQRT(185)+20-I3))</f>
+      <c r="W3">
+        <f t="shared" ref="W3" si="3">MAX(1, INT(T3/10+SQRT(J3)/20+SQRT(K3)+U3+SQRT(Q3)/2+SQRT(S3)-SQRT(185)+20-I3))</f>
         <v>139</v>
       </c>
-      <c r="W3">
-        <f>V3*50000/16</f>
+      <c r="X3">
+        <f>W3*50000/16</f>
         <v>434375</v>
       </c>
-      <c r="X3">
-        <f t="shared" ref="X3" si="3">MAX(1, ROUND((SQRT(J3)/100+SQRT(K3)+T3+(40/I3-2)+SQRT(P3)/2+SQRT(R3)-SQRT(185)), 0))</f>
+      <c r="Y3">
+        <f t="shared" ref="Y3" si="4">MAX(1, ROUND((SQRT(J3)/100+SQRT(K3)+U3+(40/I3-2)+SQRT(Q3)/2+SQRT(S3)-SQRT(185)), 0))</f>
         <v>124</v>
       </c>
-      <c r="Y3">
-        <f>X3*300/16</f>
+      <c r="Z3">
+        <f>Y3*300/16</f>
         <v>2325</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>130</v>
       </c>
@@ -3719,45 +3778,49 @@
         <v>160</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>90</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>98</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>240</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>56</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <f t="shared" ref="U4:U25" si="4">S4*T4*9.8</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="V4:V22" si="5">T4*U4*9.8</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W19" si="5">V4*50000/16</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X17" si="6">W4*50000/16</f>
         <v>40625</v>
       </c>
-      <c r="X4">
-        <f t="shared" si="1"/>
+      <c r="Y4">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Y4">
-        <f t="shared" ref="Y4:Y19" si="6">X4*300/16</f>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z17" si="7">Y4*300/16</f>
         <v>131.25</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -3768,1030 +3831,1114 @@
         <v>160</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>90</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>71</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>400</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>56</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="7"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>160</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="S6">
+        <v>640</v>
+      </c>
+      <c r="T6">
+        <v>56</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>62500</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="7"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>160</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7">
+        <v>22</v>
+      </c>
+      <c r="S7">
+        <v>720</v>
+      </c>
+      <c r="T7">
+        <v>56</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>65625</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="W5">
+      <c r="Z7">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>160</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8">
+        <v>46</v>
+      </c>
+      <c r="S8">
+        <v>240</v>
+      </c>
+      <c r="T8">
+        <v>56</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="5"/>
-        <v>50000</v>
-      </c>
-      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Y5">
+      <c r="X8">
         <f t="shared" si="6"/>
+        <v>34375</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="7"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>160</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9">
+        <v>66</v>
+      </c>
+      <c r="S9">
+        <v>480</v>
+      </c>
+      <c r="T9">
+        <v>56</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="6"/>
+        <v>56250</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>160</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10">
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <v>640</v>
+      </c>
+      <c r="T10">
+        <v>56</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="6"/>
+        <v>65625</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="7"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>160</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11">
+        <v>16</v>
+      </c>
+      <c r="S11">
+        <v>800</v>
+      </c>
+      <c r="T11">
+        <v>56</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="6"/>
+        <v>68750</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="7"/>
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>250</v>
+      </c>
+      <c r="K12">
+        <f>ROUND(L12/0.73549875,0)</f>
+        <v>1496</v>
+      </c>
+      <c r="L12">
+        <v>1100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12">
+        <v>56</v>
+      </c>
+      <c r="S12">
+        <v>400</v>
+      </c>
+      <c r="T12">
+        <v>52.8</v>
+      </c>
+      <c r="U12">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="6"/>
+        <v>184375</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="7"/>
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>250</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K78" si="8">ROUND(L13/0.73549875,0)</f>
+        <v>1496</v>
+      </c>
+      <c r="L13">
+        <v>1100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13">
+        <v>90</v>
+      </c>
+      <c r="S13">
+        <v>240</v>
+      </c>
+      <c r="T13">
+        <v>52.8</v>
+      </c>
+      <c r="U13">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="5"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="6"/>
+        <v>171875</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="7"/>
+        <v>862.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>250</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>1496</v>
+      </c>
+      <c r="L14">
+        <v>1100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14">
+        <v>69</v>
+      </c>
+      <c r="S14">
+        <v>400</v>
+      </c>
+      <c r="T14">
+        <v>52.8</v>
+      </c>
+      <c r="U14">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="5"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="6"/>
+        <v>184375</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="7"/>
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>250</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>1496</v>
+      </c>
+      <c r="L15">
+        <v>1100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15">
+        <v>28</v>
+      </c>
+      <c r="S15">
+        <v>640</v>
+      </c>
+      <c r="T15">
+        <v>52.8</v>
+      </c>
+      <c r="U15">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="5"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="6"/>
+        <v>196875</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="7"/>
+        <v>1012.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>250</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>1496</v>
+      </c>
+      <c r="L16">
+        <v>1100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16">
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <v>720</v>
+      </c>
+      <c r="T16">
+        <v>52.8</v>
+      </c>
+      <c r="U16">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="5"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="7"/>
+        <v>1031.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>250</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>1496</v>
+      </c>
+      <c r="L17">
+        <v>1100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17">
+        <v>40</v>
+      </c>
+      <c r="S17">
+        <v>240</v>
+      </c>
+      <c r="T17">
+        <v>52.8</v>
+      </c>
+      <c r="U17">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="5"/>
+        <v>60.540480000000002</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>165625</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="7"/>
+        <v>843.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>250</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18">
+        <v>90</v>
+      </c>
+      <c r="S18">
+        <v>240</v>
+      </c>
+      <c r="T18">
+        <v>52.8</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:X23" si="9">W18*50000/16</f>
+        <v>50000</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ref="Z18:Z23" si="10">Y18*300/16</f>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>250</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19">
+        <v>69</v>
+      </c>
+      <c r="S19">
+        <v>400</v>
+      </c>
+      <c r="T19">
+        <v>52.8</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="9"/>
+        <v>62500</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="10"/>
         <v>206.25</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>132</v>
       </c>
-      <c r="I6">
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>250</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20">
+        <v>28</v>
+      </c>
+      <c r="S20">
+        <v>640</v>
+      </c>
+      <c r="T20">
+        <v>52.8</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="9"/>
+        <v>75000</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="10"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <v>250</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q21">
         <v>20</v>
       </c>
-      <c r="J6">
-        <v>160</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="S21">
+        <v>720</v>
+      </c>
+      <c r="T21">
+        <v>52.8</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="9"/>
+        <v>78125</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>250</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
         <v>90</v>
       </c>
-      <c r="P6">
-        <v>36</v>
-      </c>
-      <c r="R6">
-        <v>560</v>
-      </c>
-      <c r="S6">
-        <v>56</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="W6">
+      <c r="Q22">
+        <v>40</v>
+      </c>
+      <c r="S22">
+        <v>240</v>
+      </c>
+      <c r="T22">
+        <v>52.8</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="5"/>
-        <v>59375</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="6"/>
-        <v>243.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I7">
-        <v>20</v>
-      </c>
-      <c r="J7">
-        <v>160</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7">
-        <v>30</v>
-      </c>
-      <c r="R7">
-        <v>640</v>
-      </c>
-      <c r="S7">
-        <v>56</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="5"/>
-        <v>62500</v>
-      </c>
-      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Y7">
-        <f t="shared" si="6"/>
-        <v>281.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8">
-        <v>20</v>
-      </c>
-      <c r="J8">
-        <v>160</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="X22">
+        <f t="shared" si="9"/>
+        <v>46875</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="10"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>350</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>3447</v>
+      </c>
+      <c r="L23">
+        <v>2535</v>
+      </c>
+      <c r="M23" t="s">
         <v>90</v>
       </c>
-      <c r="P8">
-        <v>22</v>
-      </c>
-      <c r="R8">
-        <v>720</v>
-      </c>
-      <c r="S8">
-        <v>56</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="5"/>
-        <v>65625</v>
-      </c>
-      <c r="X8">
+      <c r="Q23">
+        <v>40</v>
+      </c>
+      <c r="S23">
+        <v>400</v>
+      </c>
+      <c r="T23">
+        <v>57.7</v>
+      </c>
+      <c r="U23">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ref="V23:V28" si="11">T23*U23*9.8</f>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>160</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
         <v>90</v>
       </c>
-      <c r="P9">
-        <v>46</v>
-      </c>
-      <c r="R9">
+      <c r="X23">
+        <f t="shared" si="9"/>
+        <v>281250</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="10"/>
+        <v>1406.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>350</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>3447</v>
+      </c>
+      <c r="L24">
+        <v>2535</v>
+      </c>
+      <c r="M24" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24">
+        <v>90</v>
+      </c>
+      <c r="S24">
         <v>240</v>
       </c>
-      <c r="S9">
-        <v>56</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="5"/>
-        <v>34375</v>
-      </c>
-      <c r="X9">
+      <c r="T24">
+        <v>57.7</v>
+      </c>
+      <c r="U24">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="11"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X28" si="12">W24*50000/16</f>
+        <v>271875</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" ref="Z24:Z28" si="13">Y24*300/16</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25">
         <v>5</v>
       </c>
-      <c r="Y9">
-        <f t="shared" si="6"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10">
-        <v>160</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="J25">
+        <v>350</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>3447</v>
+      </c>
+      <c r="L25">
+        <v>2535</v>
+      </c>
+      <c r="M25" t="s">
         <v>90</v>
       </c>
-      <c r="P10">
-        <v>66</v>
-      </c>
-      <c r="R10">
-        <v>480</v>
-      </c>
-      <c r="S10">
-        <v>56</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="5"/>
-        <v>56250</v>
-      </c>
-      <c r="X10">
+      <c r="Q25">
+        <v>60</v>
+      </c>
+      <c r="S25">
+        <v>400</v>
+      </c>
+      <c r="T25">
+        <v>57.7</v>
+      </c>
+      <c r="U25">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="11"/>
+        <v>66.724280000000007</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="6"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11">
-        <v>20</v>
-      </c>
-      <c r="J11">
-        <v>160</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
         <v>90</v>
       </c>
-      <c r="P11">
-        <v>40</v>
-      </c>
-      <c r="R11">
-        <v>640</v>
-      </c>
-      <c r="S11">
-        <v>56</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="5"/>
-        <v>65625</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="6"/>
-        <v>281.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12">
-        <v>160</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P12">
-        <v>16</v>
-      </c>
-      <c r="R12">
-        <v>800</v>
-      </c>
-      <c r="S12">
-        <v>56</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="5"/>
-        <v>68750</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="6"/>
-        <v>318.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13">
-        <v>16</v>
-      </c>
-      <c r="J13">
-        <v>250</v>
-      </c>
-      <c r="K13">
-        <v>1495</v>
-      </c>
-      <c r="L13" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13">
-        <v>56</v>
-      </c>
-      <c r="R13">
-        <v>400</v>
-      </c>
-      <c r="S13">
-        <v>52.8</v>
-      </c>
-      <c r="T13">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="5"/>
-        <v>181250</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="6"/>
-        <v>937.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14">
-        <v>16</v>
-      </c>
-      <c r="J14">
-        <v>250</v>
-      </c>
-      <c r="K14">
-        <v>1495</v>
-      </c>
-      <c r="L14" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14">
-        <v>90</v>
-      </c>
-      <c r="R14">
-        <v>240</v>
-      </c>
-      <c r="S14">
-        <v>52.8</v>
-      </c>
-      <c r="T14">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="5"/>
-        <v>171875</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="6"/>
-        <v>862.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>250</v>
-      </c>
-      <c r="K15">
-        <v>1495</v>
-      </c>
-      <c r="L15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15">
-        <v>69</v>
-      </c>
-      <c r="R15">
-        <v>400</v>
-      </c>
-      <c r="S15">
-        <v>52.8</v>
-      </c>
-      <c r="T15">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="5"/>
-        <v>184375</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="6"/>
-        <v>937.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="X25">
+        <f t="shared" si="12"/>
+        <v>281250</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="13"/>
+        <v>1406.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>132</v>
-      </c>
-      <c r="I16">
-        <v>16</v>
-      </c>
-      <c r="J16">
-        <v>250</v>
-      </c>
-      <c r="K16">
-        <v>1495</v>
-      </c>
-      <c r="L16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16">
-        <v>34</v>
-      </c>
-      <c r="R16">
-        <v>560</v>
-      </c>
-      <c r="S16">
-        <v>52.8</v>
-      </c>
-      <c r="T16">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="5"/>
-        <v>190625</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="6"/>
-        <v>975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17">
-        <v>16</v>
-      </c>
-      <c r="J17">
-        <v>250</v>
-      </c>
-      <c r="K17">
-        <v>1495</v>
-      </c>
-      <c r="L17" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17">
-        <v>28</v>
-      </c>
-      <c r="R17">
-        <v>640</v>
-      </c>
-      <c r="S17">
-        <v>52.8</v>
-      </c>
-      <c r="T17">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="5"/>
-        <v>196875</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="6"/>
-        <v>1012.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18">
-        <v>16</v>
-      </c>
-      <c r="J18">
-        <v>250</v>
-      </c>
-      <c r="K18">
-        <v>1495</v>
-      </c>
-      <c r="L18" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18">
-        <v>20</v>
-      </c>
-      <c r="R18">
-        <v>720</v>
-      </c>
-      <c r="S18">
-        <v>52.8</v>
-      </c>
-      <c r="T18">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="6"/>
-        <v>1031.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19">
-        <v>16</v>
-      </c>
-      <c r="J19">
-        <v>250</v>
-      </c>
-      <c r="K19">
-        <v>1495</v>
-      </c>
-      <c r="L19" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19">
-        <v>40</v>
-      </c>
-      <c r="R19">
-        <v>240</v>
-      </c>
-      <c r="S19">
-        <v>52.8</v>
-      </c>
-      <c r="T19">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="5"/>
-        <v>165625</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="6"/>
-        <v>825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20">
-        <v>16</v>
-      </c>
-      <c r="J20">
-        <v>250</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20">
-        <v>90</v>
-      </c>
-      <c r="R20">
-        <v>240</v>
-      </c>
-      <c r="S20">
-        <v>52.8</v>
-      </c>
-      <c r="T20">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="W20">
-        <f t="shared" ref="W20:W26" si="7">V20*50000/16</f>
-        <v>50000</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" ref="Y20:Y26" si="8">X20*300/16</f>
-        <v>131.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21">
-        <v>16</v>
-      </c>
-      <c r="J21">
-        <v>250</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>90</v>
-      </c>
-      <c r="P21">
-        <v>69</v>
-      </c>
-      <c r="R21">
-        <v>400</v>
-      </c>
-      <c r="S21">
-        <v>52.8</v>
-      </c>
-      <c r="T21">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="7"/>
-        <v>62500</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="8"/>
-        <v>206.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22">
-        <v>16</v>
-      </c>
-      <c r="J22">
-        <v>250</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>90</v>
-      </c>
-      <c r="P22">
-        <v>34</v>
-      </c>
-      <c r="R22">
-        <v>560</v>
-      </c>
-      <c r="S22">
-        <v>52.8</v>
-      </c>
-      <c r="T22">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="7"/>
-        <v>71875</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="8"/>
-        <v>262.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="I23">
-        <v>16</v>
-      </c>
-      <c r="J23">
-        <v>250</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>90</v>
-      </c>
-      <c r="P23">
-        <v>28</v>
-      </c>
-      <c r="R23">
-        <v>640</v>
-      </c>
-      <c r="S23">
-        <v>52.8</v>
-      </c>
-      <c r="T23">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="7"/>
-        <v>75000</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="8"/>
-        <v>281.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24">
-        <v>16</v>
-      </c>
-      <c r="J24">
-        <v>250</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>90</v>
-      </c>
-      <c r="P24">
-        <v>20</v>
-      </c>
-      <c r="R24">
-        <v>720</v>
-      </c>
-      <c r="S24">
-        <v>52.8</v>
-      </c>
-      <c r="T24">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="7"/>
-        <v>78125</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="8"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>139</v>
-      </c>
-      <c r="I25">
-        <v>16</v>
-      </c>
-      <c r="J25">
-        <v>250</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>90</v>
-      </c>
-      <c r="P25">
-        <v>40</v>
-      </c>
-      <c r="R25">
-        <v>240</v>
-      </c>
-      <c r="S25">
-        <v>52.8</v>
-      </c>
-      <c r="T25">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="4"/>
-        <v>60.540480000000002</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="7"/>
-        <v>46875</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="8"/>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>159</v>
       </c>
       <c r="I26">
         <v>5</v>
@@ -4800,47 +4947,51 @@
         <v>350</v>
       </c>
       <c r="K26">
-        <v>3535</v>
-      </c>
-      <c r="L26" t="s">
+        <f t="shared" si="8"/>
+        <v>3447</v>
+      </c>
+      <c r="L26">
+        <v>2535</v>
+      </c>
+      <c r="M26" t="s">
         <v>90</v>
       </c>
-      <c r="P26">
-        <v>40</v>
-      </c>
-      <c r="R26">
-        <v>400</v>
+      <c r="Q26">
+        <v>26</v>
       </c>
       <c r="S26">
+        <v>640</v>
+      </c>
+      <c r="T26">
         <v>57.7</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.11799999999999999</v>
       </c>
-      <c r="U26">
-        <f t="shared" ref="U26:U32" si="9">S26*T26*9.8</f>
+      <c r="V26">
+        <f t="shared" si="11"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V26">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
       <c r="W26">
-        <f t="shared" si="7"/>
-        <v>281250</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="X26">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>293750</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="8"/>
-        <v>1406.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="13"/>
+        <v>1481.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I27">
         <v>5</v>
@@ -4849,47 +5000,51 @@
         <v>350</v>
       </c>
       <c r="K27">
-        <v>3535</v>
-      </c>
-      <c r="L27" t="s">
+        <f t="shared" si="8"/>
+        <v>3447</v>
+      </c>
+      <c r="L27">
+        <v>2535</v>
+      </c>
+      <c r="M27" t="s">
         <v>90</v>
       </c>
-      <c r="P27">
-        <v>90</v>
-      </c>
-      <c r="R27">
-        <v>240</v>
+      <c r="Q27">
+        <v>26</v>
       </c>
       <c r="S27">
+        <v>720</v>
+      </c>
+      <c r="T27">
         <v>57.7</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.11799999999999999</v>
       </c>
-      <c r="U27">
-        <f t="shared" si="9"/>
+      <c r="V27">
+        <f t="shared" si="11"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V27">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
       <c r="W27">
-        <f t="shared" ref="W27:W32" si="10">V27*50000/16</f>
-        <v>271875</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="X27">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f t="shared" si="12"/>
+        <v>300000</v>
       </c>
       <c r="Y27">
-        <f t="shared" ref="Y27:Y32" si="11">X27*300/16</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="13"/>
+        <v>1518.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I28">
         <v>5</v>
@@ -4898,47 +5053,54 @@
         <v>350</v>
       </c>
       <c r="K28">
-        <v>3535</v>
-      </c>
-      <c r="L28" t="s">
+        <f t="shared" si="8"/>
+        <v>3447</v>
+      </c>
+      <c r="L28">
+        <v>2535</v>
+      </c>
+      <c r="M28" t="s">
         <v>90</v>
       </c>
-      <c r="P28">
-        <v>60</v>
-      </c>
-      <c r="R28">
-        <v>400</v>
+      <c r="Q28">
+        <v>48</v>
       </c>
       <c r="S28">
+        <v>240</v>
+      </c>
+      <c r="T28">
         <v>57.7</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.11799999999999999</v>
       </c>
-      <c r="U28">
-        <f t="shared" si="9"/>
+      <c r="V28">
+        <f t="shared" si="11"/>
         <v>66.724280000000007</v>
       </c>
-      <c r="V28">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
       <c r="W28">
-        <f t="shared" si="10"/>
-        <v>284375</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="X28">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <f t="shared" si="12"/>
+        <v>265625</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="11"/>
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="13"/>
+        <v>1312.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I29">
         <v>5</v>
@@ -4947,47 +5109,51 @@
         <v>350</v>
       </c>
       <c r="K29">
-        <v>3535</v>
-      </c>
-      <c r="L29" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
         <v>90</v>
       </c>
-      <c r="P29">
-        <v>33</v>
-      </c>
-      <c r="R29">
-        <v>560</v>
+      <c r="Q29">
+        <v>90</v>
       </c>
       <c r="S29">
+        <v>240</v>
+      </c>
+      <c r="T29">
         <v>57.7</v>
       </c>
-      <c r="T29">
-        <v>0.11799999999999999</v>
-      </c>
       <c r="U29">
-        <f t="shared" si="9"/>
-        <v>66.724280000000007</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <f t="shared" si="0"/>
-        <v>94</v>
+        <f t="shared" ref="V29:V78" si="14">T29*U29*9.8</f>
+        <v>0</v>
       </c>
       <c r="W29">
-        <f t="shared" si="10"/>
-        <v>293750</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="X29">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f t="shared" ref="X29:X33" si="15">W29*50000/16</f>
+        <v>87500</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="11"/>
-        <v>1481.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" ref="Z29:Z33" si="16">Y29*300/16</f>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30">
         <v>5</v>
@@ -4996,47 +5162,51 @@
         <v>350</v>
       </c>
       <c r="K30">
-        <v>3535</v>
-      </c>
-      <c r="L30" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
         <v>90</v>
       </c>
-      <c r="P30">
-        <v>26</v>
-      </c>
-      <c r="R30">
-        <v>640</v>
+      <c r="Q30">
+        <v>60</v>
       </c>
       <c r="S30">
+        <v>400</v>
+      </c>
+      <c r="T30">
         <v>57.7</v>
       </c>
-      <c r="T30">
-        <v>0.11799999999999999</v>
-      </c>
       <c r="U30">
-        <f t="shared" si="9"/>
-        <v>66.724280000000007</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <f t="shared" si="0"/>
-        <v>95</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="10"/>
-        <v>296875</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="X30">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" si="15"/>
+        <v>96875</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="11"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="16"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I31">
         <v>5</v>
@@ -5045,47 +5215,51 @@
         <v>350</v>
       </c>
       <c r="K31">
-        <v>3535</v>
-      </c>
-      <c r="L31" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
         <v>90</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>26</v>
       </c>
-      <c r="R31">
-        <v>720</v>
-      </c>
       <c r="S31">
+        <v>640</v>
+      </c>
+      <c r="T31">
         <v>57.7</v>
       </c>
-      <c r="T31">
-        <v>0.11799999999999999</v>
-      </c>
       <c r="U31">
-        <f t="shared" si="9"/>
-        <v>66.724280000000007</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" si="10"/>
-        <v>303125</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="X31">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <f t="shared" si="15"/>
+        <v>109375</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="11"/>
-        <v>1537.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="16"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I32">
         <v>5</v>
@@ -5094,50 +5268,51 @@
         <v>350</v>
       </c>
       <c r="K32">
-        <v>3535</v>
-      </c>
-      <c r="L32" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
         <v>90</v>
       </c>
-      <c r="P32">
-        <v>48</v>
-      </c>
-      <c r="R32">
-        <v>240</v>
+      <c r="Q32">
+        <v>26</v>
       </c>
       <c r="S32">
+        <v>720</v>
+      </c>
+      <c r="T32">
         <v>57.7</v>
       </c>
-      <c r="T32">
-        <v>0.11799999999999999</v>
-      </c>
       <c r="U32">
-        <f t="shared" si="9"/>
-        <v>66.724280000000007</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <f t="shared" si="0"/>
-        <v>86</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="W32">
-        <f t="shared" si="10"/>
-        <v>268750</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="X32">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f t="shared" si="15"/>
+        <v>115625</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="11"/>
-        <v>1331.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>152</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="16"/>
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I33">
         <v>5</v>
@@ -5146,287 +5321,2296 @@
         <v>350</v>
       </c>
       <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
         <v>90</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
+        <v>48</v>
+      </c>
+      <c r="S33">
+        <v>240</v>
+      </c>
+      <c r="T33">
+        <v>57.7</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="15"/>
+        <v>84375</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>247</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <v>250</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L34">
+        <v>1140</v>
+      </c>
+      <c r="Q34">
+        <v>55</v>
+      </c>
+      <c r="S34">
+        <v>240</v>
+      </c>
+      <c r="T34">
+        <v>47</v>
+      </c>
+      <c r="U34">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="14"/>
+        <v>54.3508</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W78" si="17">MAX(1, INT(T34/10+SQRT(J34)/20+SQRT(K34)+U34+SQRT(Q34)/2+SQRT(S34)-SQRT(185)+20-I34))</f>
+        <v>50</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X78" si="18">W34*50000/16</f>
+        <v>156250</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ref="Y34:Y78" si="19">MAX(1, ROUND((SQRT(J34)/100+SQRT(K34)+U34+(40/I34-2)+SQRT(Q34)/2+SQRT(S34)-SQRT(185)), 0))</f>
+        <v>45</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" ref="Z34:Z78" si="20">Y34*300/16</f>
+        <v>843.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>250</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L35">
+        <v>1140</v>
+      </c>
+      <c r="Q35">
+        <v>100</v>
+      </c>
+      <c r="S35">
+        <v>240</v>
+      </c>
+      <c r="T35">
+        <v>47</v>
+      </c>
+      <c r="U35">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="14"/>
+        <v>54.3508</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="17"/>
+        <v>51</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="18"/>
+        <v>159375</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="19"/>
+        <v>47</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="20"/>
+        <v>881.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>249</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>250</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L36">
+        <v>1140</v>
+      </c>
+      <c r="Q36">
+        <v>78</v>
+      </c>
+      <c r="S36">
+        <v>400</v>
+      </c>
+      <c r="T36">
+        <v>47</v>
+      </c>
+      <c r="U36">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="14"/>
+        <v>54.3508</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="18"/>
+        <v>171875</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="20"/>
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>250</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>250</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L37">
+        <v>1140</v>
+      </c>
+      <c r="Q37">
+        <v>32</v>
+      </c>
+      <c r="S37">
+        <v>640</v>
+      </c>
+      <c r="T37">
+        <v>47</v>
+      </c>
+      <c r="U37">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="14"/>
+        <v>54.3508</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="17"/>
+        <v>59</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="18"/>
+        <v>184375</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="20"/>
+        <v>1012.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>251</v>
+      </c>
+      <c r="I38">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>250</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L38">
+        <v>1140</v>
+      </c>
+      <c r="Q38">
+        <v>24</v>
+      </c>
+      <c r="S38">
+        <v>720</v>
+      </c>
+      <c r="T38">
+        <v>47</v>
+      </c>
+      <c r="U38">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="14"/>
+        <v>54.3508</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="18"/>
+        <v>187500</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="19"/>
+        <v>55</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="20"/>
+        <v>1031.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>252</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>250</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L39">
+        <v>1140</v>
+      </c>
+      <c r="Q39">
+        <v>55</v>
+      </c>
+      <c r="S39">
+        <v>240</v>
+      </c>
+      <c r="T39">
+        <v>47</v>
+      </c>
+      <c r="U39">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="14"/>
+        <v>54.3508</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="18"/>
+        <v>156250</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="20"/>
+        <v>843.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>248</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <v>250</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>100</v>
+      </c>
+      <c r="S40">
+        <v>240</v>
+      </c>
+      <c r="T40">
+        <v>47</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="18"/>
+        <v>37500</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="20"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>249</v>
+      </c>
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <v>250</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>78</v>
+      </c>
+      <c r="S41">
+        <v>400</v>
+      </c>
+      <c r="T41">
+        <v>47</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="18"/>
+        <v>50000</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="20"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>250</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <v>250</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>32</v>
+      </c>
+      <c r="S42">
+        <v>640</v>
+      </c>
+      <c r="T42">
+        <v>47</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="18"/>
+        <v>62500</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="20"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>251</v>
+      </c>
+      <c r="I43">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>250</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>24</v>
+      </c>
+      <c r="S43">
+        <v>720</v>
+      </c>
+      <c r="T43">
+        <v>47</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="18"/>
+        <v>65625</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="20"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>252</v>
+      </c>
+      <c r="I44">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>250</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>55</v>
+      </c>
+      <c r="S44">
+        <v>240</v>
+      </c>
+      <c r="T44">
+        <v>47</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="18"/>
+        <v>34375</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="20"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>253</v>
+      </c>
+      <c r="I45">
+        <v>15</v>
+      </c>
+      <c r="J45">
+        <v>310</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>1886</v>
+      </c>
+      <c r="L45">
+        <v>1387</v>
+      </c>
+      <c r="Q45">
+        <v>55</v>
+      </c>
+      <c r="S45">
+        <v>240</v>
+      </c>
+      <c r="T45">
+        <v>50</v>
+      </c>
+      <c r="U45">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="14"/>
+        <v>40.425000000000004</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="17"/>
+        <v>59</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="18"/>
+        <v>184375</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="20"/>
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>248</v>
+      </c>
+      <c r="I46">
+        <v>15</v>
+      </c>
+      <c r="J46">
+        <v>310</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>1886</v>
+      </c>
+      <c r="L46">
+        <v>1387</v>
+      </c>
+      <c r="Q46">
+        <v>100</v>
+      </c>
+      <c r="S46">
+        <v>240</v>
+      </c>
+      <c r="T46">
+        <v>50</v>
+      </c>
+      <c r="U46">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="14"/>
+        <v>40.425000000000004</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="17"/>
+        <v>61</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="18"/>
+        <v>190625</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="19"/>
+        <v>51</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="20"/>
+        <v>956.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I47">
+        <v>15</v>
+      </c>
+      <c r="J47">
+        <v>310</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>1886</v>
+      </c>
+      <c r="L47">
+        <v>1387</v>
+      </c>
+      <c r="Q47">
+        <v>51</v>
+      </c>
+      <c r="S47">
+        <v>400</v>
+      </c>
+      <c r="T47">
+        <v>50</v>
+      </c>
+      <c r="U47">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="14"/>
+        <v>40.425000000000004</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="17"/>
+        <v>64</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="18"/>
+        <v>200000</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="20"/>
+        <v>1012.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>250</v>
+      </c>
+      <c r="I48">
+        <v>15</v>
+      </c>
+      <c r="J48">
+        <v>310</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>1886</v>
+      </c>
+      <c r="L48">
+        <v>1387</v>
+      </c>
+      <c r="Q48">
+        <v>32</v>
+      </c>
+      <c r="S48">
+        <v>640</v>
+      </c>
+      <c r="T48">
+        <v>50</v>
+      </c>
+      <c r="U48">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="14"/>
+        <v>40.425000000000004</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="17"/>
+        <v>68</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="18"/>
+        <v>212500</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="20"/>
+        <v>1106.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>251</v>
+      </c>
+      <c r="I49">
+        <v>15</v>
+      </c>
+      <c r="J49">
+        <v>310</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="8"/>
+        <v>1886</v>
+      </c>
+      <c r="L49">
+        <v>1387</v>
+      </c>
+      <c r="Q49">
+        <v>24</v>
+      </c>
+      <c r="S49">
+        <v>720</v>
+      </c>
+      <c r="T49">
+        <v>50</v>
+      </c>
+      <c r="U49">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="14"/>
+        <v>40.425000000000004</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="18"/>
+        <v>218750</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="20"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>252</v>
+      </c>
+      <c r="I50">
+        <v>15</v>
+      </c>
+      <c r="J50">
+        <v>310</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="8"/>
+        <v>1886</v>
+      </c>
+      <c r="L50">
+        <v>1387</v>
+      </c>
+      <c r="Q50">
+        <v>55</v>
+      </c>
+      <c r="S50">
+        <v>240</v>
+      </c>
+      <c r="T50">
+        <v>50</v>
+      </c>
+      <c r="U50">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="14"/>
+        <v>40.425000000000004</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="17"/>
+        <v>59</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="18"/>
+        <v>184375</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="20"/>
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+      <c r="I51">
+        <v>15</v>
+      </c>
+      <c r="J51">
+        <v>310</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>100</v>
+      </c>
+      <c r="S51">
+        <v>240</v>
+      </c>
+      <c r="T51">
+        <v>50</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="18"/>
+        <v>53125</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="20"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>249</v>
+      </c>
+      <c r="I52">
+        <v>15</v>
+      </c>
+      <c r="J52">
+        <v>310</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>51</v>
+      </c>
+      <c r="S52">
+        <v>400</v>
+      </c>
+      <c r="T52">
+        <v>50</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="18"/>
+        <v>62500</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="20"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>250</v>
+      </c>
+      <c r="I53">
+        <v>15</v>
+      </c>
+      <c r="J53">
+        <v>310</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>32</v>
+      </c>
+      <c r="S53">
+        <v>640</v>
+      </c>
+      <c r="T53">
+        <v>50</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="18"/>
+        <v>78125</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="20"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="I54">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>310</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>24</v>
+      </c>
+      <c r="S54">
+        <v>720</v>
+      </c>
+      <c r="T54">
+        <v>50</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="18"/>
+        <v>81250</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="20"/>
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>252</v>
+      </c>
+      <c r="I55">
+        <v>15</v>
+      </c>
+      <c r="J55">
+        <v>310</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>60</v>
+      </c>
+      <c r="S55">
+        <v>240</v>
+      </c>
+      <c r="T55">
+        <v>50</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="18"/>
+        <v>50000</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="20"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>254</v>
+      </c>
+      <c r="I56">
+        <v>15</v>
+      </c>
+      <c r="J56">
+        <v>160</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="8"/>
+        <v>7614</v>
+      </c>
+      <c r="L56">
+        <v>5600</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>185</v>
+      </c>
+      <c r="T56">
+        <v>78</v>
+      </c>
+      <c r="U56">
+        <v>0.314</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="14"/>
+        <v>240.02160000000003</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="17"/>
+        <v>101</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="18"/>
+        <v>315625</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="19"/>
+        <v>88</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="20"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>248</v>
+      </c>
+      <c r="I57">
+        <v>15</v>
+      </c>
+      <c r="J57">
+        <v>160</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>98</v>
+      </c>
+      <c r="S57">
+        <v>240</v>
+      </c>
+      <c r="T57">
+        <v>53</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="18"/>
+        <v>53125</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="20"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>249</v>
+      </c>
+      <c r="I58">
+        <v>15</v>
+      </c>
+      <c r="J58">
+        <v>160</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>72</v>
+      </c>
+      <c r="S58">
+        <v>400</v>
+      </c>
+      <c r="T58">
+        <v>53</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="18"/>
+        <v>65625</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="20"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>250</v>
+      </c>
+      <c r="I59">
+        <v>15</v>
+      </c>
+      <c r="J59">
+        <v>160</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>24</v>
+      </c>
+      <c r="S59">
+        <v>640</v>
+      </c>
+      <c r="T59">
+        <v>53</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="18"/>
+        <v>78125</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="20"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>251</v>
+      </c>
+      <c r="I60">
+        <v>15</v>
+      </c>
+      <c r="J60">
+        <v>160</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>18</v>
+      </c>
+      <c r="S60">
+        <v>720</v>
+      </c>
+      <c r="T60">
+        <v>53</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="18"/>
+        <v>81250</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="20"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>252</v>
+      </c>
+      <c r="I61">
+        <v>15</v>
+      </c>
+      <c r="J61">
+        <v>160</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>76</v>
+      </c>
+      <c r="S61">
+        <v>240</v>
+      </c>
+      <c r="T61">
+        <v>53</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="18"/>
+        <v>53125</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="20"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>255</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="J62">
+        <v>250</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="8"/>
+        <v>1740</v>
+      </c>
+      <c r="L62">
+        <v>1280</v>
+      </c>
+      <c r="Q62">
         <v>90</v>
       </c>
-      <c r="R33">
+      <c r="S62">
         <v>240</v>
       </c>
-      <c r="S33">
-        <v>57.7</v>
-      </c>
-      <c r="T33">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U33">
-        <f t="shared" ref="U33:U38" si="12">S33*T33*9.8</f>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="0"/>
+      <c r="T62">
+        <v>55</v>
+      </c>
+      <c r="U62">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="14"/>
+        <v>75.460000000000022</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="17"/>
+        <v>66</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="18"/>
+        <v>206250</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="19"/>
+        <v>52</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="20"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>248</v>
+      </c>
+      <c r="I63">
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <v>250</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="8"/>
+        <v>1740</v>
+      </c>
+      <c r="L63">
+        <v>1280</v>
+      </c>
+      <c r="Q63">
+        <v>90</v>
+      </c>
+      <c r="S63">
+        <v>240</v>
+      </c>
+      <c r="T63">
+        <v>55</v>
+      </c>
+      <c r="U63">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="14"/>
+        <v>75.460000000000022</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="17"/>
+        <v>66</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="18"/>
+        <v>206250</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="19"/>
+        <v>52</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="20"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>249</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>250</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="8"/>
+        <v>1740</v>
+      </c>
+      <c r="L64">
+        <v>1280</v>
+      </c>
+      <c r="Q64">
+        <v>72</v>
+      </c>
+      <c r="S64">
+        <v>400</v>
+      </c>
+      <c r="T64">
+        <v>55</v>
+      </c>
+      <c r="U64">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="14"/>
+        <v>75.460000000000022</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="18"/>
+        <v>218750</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="19"/>
+        <v>56</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="20"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>250</v>
+      </c>
+      <c r="I65">
+        <v>8</v>
+      </c>
+      <c r="J65">
+        <v>250</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="8"/>
+        <v>1740</v>
+      </c>
+      <c r="L65">
+        <v>1280</v>
+      </c>
+      <c r="Q65">
+        <v>32</v>
+      </c>
+      <c r="S65">
+        <v>640</v>
+      </c>
+      <c r="T65">
+        <v>55</v>
+      </c>
+      <c r="U65">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="14"/>
+        <v>75.460000000000022</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="17"/>
+        <v>74</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="18"/>
+        <v>231250</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="20"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>251</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <v>250</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="8"/>
+        <v>1740</v>
+      </c>
+      <c r="L66">
+        <v>1280</v>
+      </c>
+      <c r="Q66">
+        <v>18</v>
+      </c>
+      <c r="S66">
+        <v>720</v>
+      </c>
+      <c r="T66">
+        <v>55</v>
+      </c>
+      <c r="U66">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="14"/>
+        <v>75.460000000000022</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="18"/>
+        <v>234375</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="20"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>252</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="J67">
+        <v>250</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="8"/>
+        <v>1740</v>
+      </c>
+      <c r="L67">
+        <v>1280</v>
+      </c>
+      <c r="Q67">
+        <v>63</v>
+      </c>
+      <c r="S67">
+        <v>240</v>
+      </c>
+      <c r="T67">
+        <v>55</v>
+      </c>
+      <c r="U67">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="14"/>
+        <v>75.460000000000022</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="17"/>
+        <v>66</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="18"/>
+        <v>206250</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="19"/>
+        <v>51</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="20"/>
+        <v>956.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>248</v>
+      </c>
+      <c r="I68">
+        <v>8</v>
+      </c>
+      <c r="J68">
+        <v>250</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>90</v>
+      </c>
+      <c r="S68">
+        <v>240</v>
+      </c>
+      <c r="T68">
+        <v>55</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="18"/>
+        <v>75000</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="20"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>249</v>
+      </c>
+      <c r="I69">
+        <v>8</v>
+      </c>
+      <c r="J69">
+        <v>250</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>72</v>
+      </c>
+      <c r="S69">
+        <v>400</v>
+      </c>
+      <c r="T69">
+        <v>55</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
-      <c r="W33">
-        <f t="shared" ref="W33:W38" si="13">V33*50000/16</f>
+      <c r="X69">
+        <f t="shared" si="18"/>
         <v>87500</v>
       </c>
-      <c r="X33">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" ref="Y33:Y38" si="14">X33*300/16</f>
-        <v>243.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>350</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>90</v>
-      </c>
-      <c r="P34">
-        <v>60</v>
-      </c>
-      <c r="R34">
-        <v>400</v>
-      </c>
-      <c r="S34">
-        <v>57.7</v>
-      </c>
-      <c r="T34">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="12"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="0"/>
+      <c r="Y69">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="20"/>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>250</v>
+      </c>
+      <c r="I70">
+        <v>8</v>
+      </c>
+      <c r="J70">
+        <v>250</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
         <v>32</v>
       </c>
-      <c r="W34">
-        <f t="shared" si="13"/>
+      <c r="S70">
+        <v>640</v>
+      </c>
+      <c r="T70">
+        <v>55</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="17"/>
+        <v>32</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="18"/>
         <v>100000</v>
       </c>
-      <c r="X34">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="Y34">
+      <c r="Y70">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="20"/>
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>251</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71">
+        <v>250</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>18</v>
+      </c>
+      <c r="S71">
+        <v>720</v>
+      </c>
+      <c r="T71">
+        <v>55</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
         <f t="shared" si="14"/>
-        <v>318.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>132</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
-      <c r="J35">
-        <v>350</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>90</v>
-      </c>
-      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
-      <c r="R35">
-        <v>560</v>
-      </c>
-      <c r="S35">
-        <v>57.7</v>
-      </c>
-      <c r="T35">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="12"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="13"/>
-        <v>106250</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="1"/>
+      <c r="X71">
+        <f t="shared" si="18"/>
+        <v>103125</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
-      <c r="Y35">
+      <c r="Z71">
+        <f t="shared" si="20"/>
+        <v>356.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>252</v>
+      </c>
+      <c r="I72">
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <v>250</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>63</v>
+      </c>
+      <c r="S72">
+        <v>240</v>
+      </c>
+      <c r="T72">
+        <v>55</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
         <f t="shared" si="14"/>
-        <v>356.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
-      <c r="I36">
-        <v>5</v>
-      </c>
-      <c r="J36">
-        <v>350</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>90</v>
-      </c>
-      <c r="P36">
-        <v>26</v>
-      </c>
-      <c r="R36">
-        <v>640</v>
-      </c>
-      <c r="S36">
-        <v>57.7</v>
-      </c>
-      <c r="T36">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="12"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="13"/>
-        <v>112500</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="18"/>
+        <v>75000</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="20"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>256</v>
+      </c>
+      <c r="I73">
+        <v>6</v>
+      </c>
+      <c r="J73">
+        <v>160</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>2882</v>
+      </c>
+      <c r="L73">
+        <v>2120</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>185</v>
+      </c>
+      <c r="T73">
+        <v>126</v>
+      </c>
+      <c r="U73">
+        <v>0.152</v>
+      </c>
+      <c r="V73">
         <f t="shared" si="14"/>
-        <v>393.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>135</v>
-      </c>
-      <c r="I37">
-        <v>5</v>
-      </c>
-      <c r="J37">
-        <v>350</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>90</v>
-      </c>
-      <c r="P37">
-        <v>26</v>
-      </c>
-      <c r="R37">
-        <v>720</v>
-      </c>
-      <c r="S37">
-        <v>57.7</v>
-      </c>
-      <c r="T37">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="12"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="13"/>
-        <v>115625</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="1"/>
+        <v>187.68960000000001</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="17"/>
+        <v>81</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="18"/>
+        <v>253125</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="20"/>
+        <v>1106.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>248</v>
+      </c>
+      <c r="I74">
+        <v>6</v>
+      </c>
+      <c r="J74">
+        <v>160</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>114</v>
+      </c>
+      <c r="S74">
+        <v>200</v>
+      </c>
+      <c r="T74">
+        <v>49</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="18"/>
+        <v>78125</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="20"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>249</v>
+      </c>
+      <c r="I75">
+        <v>6</v>
+      </c>
+      <c r="J75">
+        <v>160</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>64</v>
+      </c>
+      <c r="S75">
+        <v>360</v>
+      </c>
+      <c r="T75">
+        <v>49</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="18"/>
+        <v>87500</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="20"/>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>252</v>
+      </c>
+      <c r="I76">
+        <v>6</v>
+      </c>
+      <c r="J76">
+        <v>160</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>32</v>
+      </c>
+      <c r="S76">
+        <v>200</v>
+      </c>
+      <c r="T76">
+        <v>49</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
-      <c r="Y37">
+      <c r="X76">
+        <f t="shared" si="18"/>
+        <v>68750</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="20"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>257</v>
+      </c>
+      <c r="I77">
+        <v>24</v>
+      </c>
+      <c r="J77">
+        <v>200</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="8"/>
+        <v>6526</v>
+      </c>
+      <c r="L77">
+        <v>4800</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>185</v>
+      </c>
+      <c r="T77">
+        <v>78</v>
+      </c>
+      <c r="U77">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="V77">
         <f t="shared" si="14"/>
-        <v>412.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>139</v>
-      </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="J38">
-        <v>350</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>90</v>
-      </c>
-      <c r="P38">
-        <v>48</v>
-      </c>
-      <c r="R38">
+        <v>210.97440000000003</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="17"/>
+        <v>85</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="18"/>
+        <v>265625</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="20"/>
+        <v>1518.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>249</v>
+      </c>
+      <c r="I78">
+        <v>24</v>
+      </c>
+      <c r="J78">
+        <v>200</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>78</v>
+      </c>
+      <c r="S78">
         <v>240</v>
       </c>
-      <c r="S38">
-        <v>57.7</v>
-      </c>
-      <c r="T38">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="12"/>
-        <v>66.724280000000007</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="13"/>
-        <v>84375</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="Y38">
+      <c r="T78">
+        <v>44</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
         <f t="shared" si="14"/>
-        <v>225</v>
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="18"/>
+        <v>21875</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="20"/>
+        <v>112.5</v>
       </c>
     </row>
   </sheetData>
@@ -5749,7 +7933,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6">
         <v>2002</v>
@@ -5803,7 +7987,7 @@
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7">
         <v>2002</v>
@@ -5857,7 +8041,7 @@
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8">
         <v>2002</v>
@@ -5911,7 +8095,7 @@
         <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9">
         <v>2002</v>
@@ -5959,13 +8143,13 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
         <v>160</v>
       </c>
-      <c r="B10" t="s">
-        <v>161</v>
-      </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10">
         <v>2002</v>
@@ -6121,10 +8305,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
         <v>167</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
       </c>
       <c r="E13">
         <v>2002</v>
@@ -6388,10 +8572,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18">
         <v>1999</v>
@@ -6439,10 +8623,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19">
         <v>1999</v>
@@ -6490,10 +8674,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20">
         <v>1999</v>
@@ -6541,10 +8725,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21">
         <v>1999</v>
@@ -6592,10 +8776,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22">
         <v>1999</v>
@@ -6643,10 +8827,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23">
         <v>1999</v>
@@ -6694,10 +8878,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
         <v>232</v>
-      </c>
-      <c r="B24" t="s">
-        <v>233</v>
       </c>
       <c r="E24">
         <v>1999</v>
@@ -6745,13 +8929,13 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
         <v>142</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>143</v>
-      </c>
-      <c r="D25" t="s">
-        <v>144</v>
       </c>
       <c r="E25">
         <v>1991</v>
@@ -6799,13 +8983,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
         <v>155</v>
       </c>
-      <c r="B26" t="s">
-        <v>156</v>
-      </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26">
         <v>1996</v>
@@ -6853,13 +9037,13 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
         <v>157</v>
       </c>
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27">
         <v>2002</v>
@@ -6907,10 +9091,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28">
         <v>1991</v>
@@ -6958,10 +9142,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E29">
         <v>1991</v>
@@ -7009,10 +9193,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E30">
         <v>1991</v>
@@ -7060,10 +9244,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E31">
         <v>1991</v>
@@ -7111,10 +9295,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E32">
         <v>1991</v>
@@ -7162,10 +9346,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s">
         <v>209</v>
-      </c>
-      <c r="B33" t="s">
-        <v>210</v>
       </c>
       <c r="E33">
         <v>1991</v>
@@ -7213,10 +9397,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34">
         <v>1994</v>
@@ -7264,10 +9448,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" t="s">
         <v>217</v>
-      </c>
-      <c r="B35" t="s">
-        <v>218</v>
       </c>
       <c r="E35">
         <v>1994</v>
@@ -7315,10 +9499,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" t="s">
         <v>220</v>
-      </c>
-      <c r="B36" t="s">
-        <v>221</v>
       </c>
       <c r="E36">
         <v>1994</v>
@@ -7366,10 +9550,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" t="s">
         <v>222</v>
-      </c>
-      <c r="B37" t="s">
-        <v>223</v>
       </c>
       <c r="E37">
         <v>1994</v>
@@ -7417,10 +9601,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
         <v>173</v>
-      </c>
-      <c r="B38" t="s">
-        <v>174</v>
       </c>
       <c r="E38">
         <v>1988</v>
@@ -7468,10 +9652,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" t="s">
         <v>179</v>
-      </c>
-      <c r="B39" t="s">
-        <v>180</v>
       </c>
       <c r="E39">
         <v>1988</v>
@@ -7519,10 +9703,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
         <v>184</v>
-      </c>
-      <c r="B40" t="s">
-        <v>185</v>
       </c>
       <c r="E40">
         <v>1988</v>
@@ -7570,10 +9754,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E41">
         <v>1959</v>
@@ -7621,10 +9805,10 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E42">
         <v>1976</v>
@@ -7672,10 +9856,10 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43">
         <v>1959</v>
@@ -7723,10 +9907,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E44">
         <v>1959</v>
@@ -7782,7 +9966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -7882,10 +10066,10 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
         <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
       </c>
       <c r="F2">
         <v>1987</v>
@@ -7900,10 +10084,10 @@
         <v>100</v>
       </c>
       <c r="L2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" t="s">
         <v>147</v>
-      </c>
-      <c r="M2" t="s">
-        <v>148</v>
       </c>
       <c r="P2">
         <v>61</v>
@@ -7928,10 +10112,10 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
         <v>149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
       </c>
       <c r="F3">
         <v>1980</v>
@@ -7968,10 +10152,10 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
         <v>182</v>
-      </c>
-      <c r="B4" t="s">
-        <v>183</v>
       </c>
       <c r="F4">
         <v>1958</v>
@@ -7986,7 +10170,7 @@
         <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P4">
         <v>52</v>
@@ -8011,10 +10195,10 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
         <v>193</v>
-      </c>
-      <c r="B5" t="s">
-        <v>194</v>
       </c>
       <c r="F5">
         <v>1965</v>
@@ -8051,10 +10235,10 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6">
         <v>1971</v>
@@ -8094,10 +10278,10 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
         <v>206</v>
-      </c>
-      <c r="B7" t="s">
-        <v>207</v>
       </c>
       <c r="F7">
         <v>1998</v>
@@ -8134,10 +10318,10 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
         <v>238</v>
-      </c>
-      <c r="B8" t="s">
-        <v>239</v>
       </c>
       <c r="F8">
         <v>1958</v>
@@ -8177,10 +10361,10 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F9">
         <v>2005</v>
@@ -8217,10 +10401,10 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10">
         <v>2003</v>
@@ -8257,10 +10441,10 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F11">
         <v>2005</v>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F40E2F-F233-4F14-8C21-32CE0A297DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A338FD4B-4F1C-4AB2-BE22-37C56C1B78DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3544,9 +3544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6468,7 +6468,7 @@
         <v>254</v>
       </c>
       <c r="I56">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J56">
         <v>160</v>
@@ -6498,19 +6498,19 @@
       </c>
       <c r="W56">
         <f t="shared" si="17"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="X56">
         <f t="shared" si="18"/>
-        <v>315625</v>
+        <v>325000</v>
       </c>
       <c r="Y56">
         <f t="shared" si="19"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z56">
         <f t="shared" si="20"/>
-        <v>1650</v>
+        <v>1668.75</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
@@ -6518,7 +6518,7 @@
         <v>248</v>
       </c>
       <c r="I57">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J57">
         <v>160</v>
@@ -6548,11 +6548,11 @@
       </c>
       <c r="W57">
         <f t="shared" si="17"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X57">
         <f t="shared" si="18"/>
-        <v>53125</v>
+        <v>62500</v>
       </c>
       <c r="Y57">
         <f t="shared" si="19"/>
@@ -6568,7 +6568,7 @@
         <v>249</v>
       </c>
       <c r="I58">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J58">
         <v>160</v>
@@ -6598,19 +6598,19 @@
       </c>
       <c r="W58">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X58">
         <f t="shared" si="18"/>
-        <v>65625</v>
+        <v>75000</v>
       </c>
       <c r="Y58">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z58">
         <f t="shared" si="20"/>
-        <v>206.25</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
@@ -6618,7 +6618,7 @@
         <v>250</v>
       </c>
       <c r="I59">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J59">
         <v>160</v>
@@ -6648,19 +6648,19 @@
       </c>
       <c r="W59">
         <f t="shared" si="17"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X59">
         <f t="shared" si="18"/>
-        <v>78125</v>
+        <v>87500</v>
       </c>
       <c r="Y59">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z59">
         <f t="shared" si="20"/>
-        <v>281.25</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
@@ -6668,7 +6668,7 @@
         <v>251</v>
       </c>
       <c r="I60">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J60">
         <v>160</v>
@@ -6698,19 +6698,19 @@
       </c>
       <c r="W60">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X60">
         <f t="shared" si="18"/>
-        <v>81250</v>
+        <v>90625</v>
       </c>
       <c r="Y60">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z60">
         <f t="shared" si="20"/>
-        <v>300</v>
+        <v>318.75</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
@@ -6718,7 +6718,7 @@
         <v>252</v>
       </c>
       <c r="I61">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J61">
         <v>160</v>
@@ -6748,19 +6748,19 @@
       </c>
       <c r="W61">
         <f t="shared" si="17"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X61">
         <f t="shared" si="18"/>
-        <v>53125</v>
+        <v>62500</v>
       </c>
       <c r="Y61">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z61">
         <f t="shared" si="20"/>
-        <v>131.25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
@@ -6781,10 +6781,10 @@
         <v>1280</v>
       </c>
       <c r="Q62">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="S62">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="T62">
         <v>55</v>
@@ -6798,19 +6798,19 @@
       </c>
       <c r="W62">
         <f t="shared" si="17"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="X62">
         <f t="shared" si="18"/>
-        <v>206250</v>
+        <v>218750</v>
       </c>
       <c r="Y62">
         <f t="shared" si="19"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z62">
         <f t="shared" si="20"/>
-        <v>975</v>
+        <v>1031.25</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
@@ -6981,7 +6981,7 @@
         <v>1280</v>
       </c>
       <c r="Q66">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="S66">
         <v>720</v>
@@ -7006,11 +7006,11 @@
       </c>
       <c r="Y66">
         <f t="shared" si="19"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z66">
         <f t="shared" si="20"/>
-        <v>1125</v>
+        <v>1143.75</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="S71">
         <v>720</v>
@@ -7434,7 +7434,7 @@
         <v>64</v>
       </c>
       <c r="S75">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="T75">
         <v>49</v>
@@ -7448,19 +7448,19 @@
       </c>
       <c r="W75">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X75">
         <f t="shared" si="18"/>
-        <v>87500</v>
+        <v>90625</v>
       </c>
       <c r="Y75">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z75">
         <f t="shared" si="20"/>
-        <v>262.5</v>
+        <v>281.25</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
@@ -7623,7 +7623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A338FD4B-4F1C-4AB2-BE22-37C56C1B78DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FD828D-7D0F-4F03-8B96-BE8E45899AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="279">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1071,6 +1071,69 @@
   <si>
     <t>DJJ1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS4G</t>
+  </si>
+  <si>
+    <t>ss4g</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>wuwu</t>
+  </si>
+  <si>
+    <t>SS5</t>
+  </si>
+  <si>
+    <t>ss5</t>
+  </si>
+  <si>
+    <t>SS6</t>
+  </si>
+  <si>
+    <t>ss6</t>
+  </si>
+  <si>
+    <t>SS6B</t>
+  </si>
+  <si>
+    <t>ss6b</t>
+  </si>
+  <si>
+    <t>SS7</t>
+  </si>
+  <si>
+    <t>ss7</t>
+  </si>
+  <si>
+    <t>EMB190</t>
+  </si>
+  <si>
+    <t>SS7B</t>
+  </si>
+  <si>
+    <t>ss7b</t>
+  </si>
+  <si>
+    <t>SS7C</t>
+  </si>
+  <si>
+    <t>ss7c</t>
+  </si>
+  <si>
+    <t>机供</t>
+  </si>
+  <si>
+    <t>SS7E</t>
+  </si>
+  <si>
+    <t>ss7e</t>
   </si>
 </sst>
 </file>
@@ -1408,11 +1471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3365,173 +3428,667 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30">
+        <v>1993</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>8702</v>
+      </c>
+      <c r="M30">
+        <v>184</v>
+      </c>
       <c r="O30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="P30">
+        <v>0.34799999999999998</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>627.5136</v>
       </c>
       <c r="R30">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="S30">
-        <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T30" t="e">
-        <f t="shared" si="32"/>
+        <v>390625</v>
+      </c>
+      <c r="T30">
+        <v>97</v>
+      </c>
+      <c r="U30">
+        <v>21825</v>
+      </c>
+      <c r="V30">
+        <v>8</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" t="e">
-        <f t="shared" si="5"/>
+      <c r="AD30" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31">
+        <v>1990</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>25</v>
+      </c>
+      <c r="I31">
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <v>16</v>
+      </c>
+      <c r="K31">
+        <v>140</v>
+      </c>
+      <c r="L31">
+        <v>4351</v>
+      </c>
+      <c r="M31">
+        <v>86</v>
+      </c>
+      <c r="O31">
+        <v>86</v>
+      </c>
+      <c r="P31">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="Q31">
+        <v>235.14120000000005</v>
+      </c>
+      <c r="R31">
+        <v>79</v>
+      </c>
+      <c r="S31">
+        <v>246875</v>
+      </c>
+      <c r="T31">
+        <v>67</v>
+      </c>
+      <c r="U31">
+        <v>15075</v>
+      </c>
+      <c r="V31">
+        <v>10</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="V30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="2" t="e">
-        <f t="shared" si="7"/>
+      <c r="AD31" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32">
+        <v>1991</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>60</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>6526</v>
+      </c>
+      <c r="M32">
+        <v>138</v>
+      </c>
+      <c r="O32">
+        <v>138</v>
+      </c>
+      <c r="P32">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Q32">
+        <v>485.51160000000004</v>
+      </c>
+      <c r="R32">
+        <v>105</v>
+      </c>
+      <c r="S32">
+        <v>328125</v>
+      </c>
+      <c r="T32">
+        <v>83</v>
+      </c>
+      <c r="U32">
+        <v>18675</v>
+      </c>
+      <c r="V32">
+        <v>10</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>6</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="O31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T31" t="e">
-        <f t="shared" si="32"/>
+      <c r="AD32" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E33" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33">
+        <v>1993</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>60</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>6526</v>
+      </c>
+      <c r="M33">
+        <v>138</v>
+      </c>
+      <c r="O33">
+        <v>138</v>
+      </c>
+      <c r="P33">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Q33">
+        <v>485.51160000000004</v>
+      </c>
+      <c r="R33">
+        <v>107</v>
+      </c>
+      <c r="S33">
+        <v>334375</v>
+      </c>
+      <c r="T33">
+        <v>84</v>
+      </c>
+      <c r="U33">
+        <v>18900</v>
+      </c>
+      <c r="V33">
+        <v>10</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <v>6</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="U31" t="e">
-        <f t="shared" si="5"/>
+      <c r="AD33" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34">
+        <v>1992</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>60</v>
+      </c>
+      <c r="I34">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>6526</v>
+      </c>
+      <c r="M34">
+        <v>138</v>
+      </c>
+      <c r="O34">
+        <v>138</v>
+      </c>
+      <c r="P34">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Q34">
+        <v>485.51160000000004</v>
+      </c>
+      <c r="R34">
+        <v>99</v>
+      </c>
+      <c r="S34">
+        <v>309375</v>
+      </c>
+      <c r="T34">
+        <v>82</v>
+      </c>
+      <c r="U34">
+        <v>18450</v>
+      </c>
+      <c r="V34">
+        <v>10</v>
+      </c>
+      <c r="W34">
+        <v>2</v>
+      </c>
+      <c r="X34">
+        <v>6</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="V31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="2" t="e">
-        <f t="shared" si="7"/>
+      <c r="AD34" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35">
+        <v>1997</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <v>60</v>
+      </c>
+      <c r="I35">
+        <v>50</v>
+      </c>
+      <c r="J35">
+        <v>16</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35">
+        <v>6526</v>
+      </c>
+      <c r="M35">
+        <v>150</v>
+      </c>
+      <c r="O35">
+        <v>150</v>
+      </c>
+      <c r="P35">
+        <v>0.33</v>
+      </c>
+      <c r="Q35">
+        <v>485.1</v>
+      </c>
+      <c r="R35">
+        <v>101</v>
+      </c>
+      <c r="S35">
+        <v>315625</v>
+      </c>
+      <c r="T35">
+        <v>82</v>
+      </c>
+      <c r="U35">
+        <v>18450</v>
+      </c>
+      <c r="V35">
+        <v>10</v>
+      </c>
+      <c r="W35">
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="O32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T32" t="e">
-        <f t="shared" si="32"/>
+      <c r="AD35" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36">
+        <v>1998</v>
+      </c>
+      <c r="G36">
+        <v>30</v>
+      </c>
+      <c r="H36">
+        <v>60</v>
+      </c>
+      <c r="I36">
+        <v>30</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>120</v>
+      </c>
+      <c r="L36">
+        <v>6526</v>
+      </c>
+      <c r="M36">
+        <v>132</v>
+      </c>
+      <c r="O36">
+        <v>132</v>
+      </c>
+      <c r="P36">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="Q36">
+        <v>311.75760000000002</v>
+      </c>
+      <c r="R36">
+        <v>105</v>
+      </c>
+      <c r="S36">
+        <v>328125</v>
+      </c>
+      <c r="T36">
+        <v>83</v>
+      </c>
+      <c r="U36">
+        <v>18675</v>
+      </c>
+      <c r="V36">
+        <v>10</v>
+      </c>
+      <c r="W36">
+        <v>2</v>
+      </c>
+      <c r="X36">
+        <v>6</v>
+      </c>
+      <c r="Y36">
+        <v>2</v>
+      </c>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="U32" t="e">
-        <f t="shared" si="5"/>
+      <c r="AD36" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" t="s">
+        <v>277</v>
+      </c>
+      <c r="E37" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37">
+        <v>2001</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>160</v>
+      </c>
+      <c r="L37">
+        <v>6526</v>
+      </c>
+      <c r="M37">
+        <v>126</v>
+      </c>
+      <c r="O37">
+        <v>126</v>
+      </c>
+      <c r="P37">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Q37">
+        <v>244.49040000000002</v>
+      </c>
+      <c r="R37">
+        <v>108</v>
+      </c>
+      <c r="S37">
+        <v>337500</v>
+      </c>
+      <c r="T37">
+        <v>86</v>
+      </c>
+      <c r="U37">
+        <v>19350</v>
+      </c>
+      <c r="V37">
+        <v>10</v>
+      </c>
+      <c r="W37">
+        <v>2</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>2</v>
+      </c>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="V32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="15:29" x14ac:dyDescent="0.3">
-      <c r="O33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T33" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="15:29" x14ac:dyDescent="0.3">
-      <c r="O34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T34" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U34" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="AD37" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3544,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FD828D-7D0F-4F03-8B96-BE8E45899AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C58CBE-8928-4BA0-9FFC-E71EF4C03163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="296">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1134,6 +1134,74 @@
   </si>
   <si>
     <t>ss7e</t>
+  </si>
+  <si>
+    <t>XL25B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl25b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD25T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kd25t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH380B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ze</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH3C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH1A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSQ5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsq5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1473,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
@@ -1688,19 +1756,19 @@
         <v>1934</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O34" si="1">M3-N3</f>
+        <f t="shared" ref="O3:O29" si="1">M3-N3</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q34" si="2">O3*P3*9.8</f>
+        <f t="shared" ref="Q3:Q29" si="2">O3*P3*9.8</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R34" si="3">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
+        <f t="shared" ref="R3:R29" si="3">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S34" si="4">R3*50000/16</f>
+        <f t="shared" ref="S3:S29" si="4">R3*50000/16</f>
         <v>62500</v>
       </c>
       <c r="T3" t="e">
@@ -1708,15 +1776,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U3" t="e">
-        <f t="shared" ref="U3:U34" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
+        <f t="shared" ref="U3:U29" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V34" si="6">W3+X3+Y3</f>
+        <f t="shared" ref="V3:V29" si="6">W3+X3+Y3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="2" t="e">
-        <f t="shared" ref="AC3:AC34" si="7">AVERAGE(Z3:AB3)</f>
+        <f t="shared" ref="AC3:AC29" si="7">AVERAGE(Z3:AB3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3183,7 +3251,7 @@
         <v>62500</v>
       </c>
       <c r="T26" t="e">
-        <f t="shared" ref="T26:T34" si="32">MEDIAN(0, 255, ROUND(SQRT(K26)/100+SQRT(L26)+P26+40/J26-2,0))</f>
+        <f t="shared" ref="T26:T29" si="32">MEDIAN(0, 255, ROUND(SQRT(K26)/100+SQRT(L26)+P26+40/J26-2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" t="e">
@@ -4099,11 +4167,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S76" sqref="S76"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4812,7 +4880,7 @@
         <v>250</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K78" si="8">ROUND(L13/0.73549875,0)</f>
+        <f t="shared" ref="K13:K111" si="8">ROUND(L13/0.73549875,0)</f>
         <v>1496</v>
       </c>
       <c r="L13">
@@ -5688,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <f t="shared" ref="V29:V78" si="14">T29*U29*9.8</f>
+        <f t="shared" ref="V29:V111" si="14">T29*U29*9.8</f>
         <v>0</v>
       </c>
       <c r="W29">
@@ -5954,19 +6022,19 @@
         <v>54.3508</v>
       </c>
       <c r="W34">
-        <f t="shared" ref="W34:W78" si="17">MAX(1, INT(T34/10+SQRT(J34)/20+SQRT(K34)+U34+SQRT(Q34)/2+SQRT(S34)-SQRT(185)+20-I34))</f>
+        <f t="shared" ref="W34:W80" si="17">MAX(1, INT(T34/10+SQRT(J34)/20+SQRT(K34)+U34+SQRT(Q34)/2+SQRT(S34)-SQRT(185)+20-I34))</f>
         <v>50</v>
       </c>
       <c r="X34">
-        <f t="shared" ref="X34:X78" si="18">W34*50000/16</f>
+        <f t="shared" ref="X34:X80" si="18">W34*50000/16</f>
         <v>156250</v>
       </c>
       <c r="Y34">
-        <f t="shared" ref="Y34:Y78" si="19">MAX(1, ROUND((SQRT(J34)/100+SQRT(K34)+U34+(40/I34-2)+SQRT(Q34)/2+SQRT(S34)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Y34:Y80" si="19">MAX(1, ROUND((SQRT(J34)/100+SQRT(K34)+U34+(40/I34-2)+SQRT(Q34)/2+SQRT(S34)-SQRT(185)), 0))</f>
         <v>45</v>
       </c>
       <c r="Z34">
-        <f t="shared" ref="Z34:Z78" si="20">Y34*300/16</f>
+        <f t="shared" ref="Z34:Z80" si="20">Y34*300/16</f>
         <v>843.75</v>
       </c>
     </row>
@@ -8168,6 +8236,1665 @@
       <c r="Z78">
         <f t="shared" si="20"/>
         <v>112.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>284</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>310</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="8"/>
+        <v>3127</v>
+      </c>
+      <c r="L79">
+        <v>2300</v>
+      </c>
+      <c r="Q79">
+        <v>36</v>
+      </c>
+      <c r="S79">
+        <v>400</v>
+      </c>
+      <c r="T79">
+        <v>56</v>
+      </c>
+      <c r="U79">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="14"/>
+        <v>64.209600000000009</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="17"/>
+        <v>86</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="18"/>
+        <v>268750</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="19"/>
+        <v>72</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="20"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>285</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="J80">
+        <v>310</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="8"/>
+        <v>3127</v>
+      </c>
+      <c r="L80">
+        <v>2300</v>
+      </c>
+      <c r="Q80">
+        <v>85</v>
+      </c>
+      <c r="S80">
+        <v>240</v>
+      </c>
+      <c r="T80">
+        <v>56</v>
+      </c>
+      <c r="U80">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="14"/>
+        <v>64.209600000000009</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="17"/>
+        <v>84</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="18"/>
+        <v>262500</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="19"/>
+        <v>69</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="20"/>
+        <v>1293.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>286</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>310</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="8"/>
+        <v>3127</v>
+      </c>
+      <c r="L81">
+        <v>2300</v>
+      </c>
+      <c r="Q81">
+        <v>50</v>
+      </c>
+      <c r="S81">
+        <v>400</v>
+      </c>
+      <c r="T81">
+        <v>56</v>
+      </c>
+      <c r="U81">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="14"/>
+        <v>64.209600000000009</v>
+      </c>
+      <c r="W81">
+        <f t="shared" ref="W81:W111" si="21">MAX(1, INT(T81/10+SQRT(J81)/20+SQRT(K81)+U81+SQRT(Q81)/2+SQRT(S81)-SQRT(185)+20-I81))</f>
+        <v>87</v>
+      </c>
+      <c r="X81">
+        <f t="shared" ref="X81:X111" si="22">W81*50000/16</f>
+        <v>271875</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" ref="Y81:Y111" si="23">MAX(1, ROUND((SQRT(J81)/100+SQRT(K81)+U81+(40/I81-2)+SQRT(Q81)/2+SQRT(S81)-SQRT(185)), 0))</f>
+        <v>72</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" ref="Z81:Z111" si="24">Y81*300/16</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>287</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>310</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="8"/>
+        <v>3127</v>
+      </c>
+      <c r="L82">
+        <v>2300</v>
+      </c>
+      <c r="Q82">
+        <v>36</v>
+      </c>
+      <c r="S82">
+        <v>640</v>
+      </c>
+      <c r="T82">
+        <v>56</v>
+      </c>
+      <c r="U82">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="14"/>
+        <v>64.209600000000009</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="21"/>
+        <v>92</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="22"/>
+        <v>287500</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="23"/>
+        <v>77</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="24"/>
+        <v>1443.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>288</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+      <c r="J83">
+        <v>310</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="8"/>
+        <v>3127</v>
+      </c>
+      <c r="L83">
+        <v>2300</v>
+      </c>
+      <c r="Q83">
+        <v>24</v>
+      </c>
+      <c r="S83">
+        <v>720</v>
+      </c>
+      <c r="T83">
+        <v>56</v>
+      </c>
+      <c r="U83">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="14"/>
+        <v>64.209600000000009</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="21"/>
+        <v>93</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="22"/>
+        <v>290625</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="23"/>
+        <v>78</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="24"/>
+        <v>1462.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>289</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+      <c r="J84">
+        <v>310</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="8"/>
+        <v>3127</v>
+      </c>
+      <c r="L84">
+        <v>2300</v>
+      </c>
+      <c r="Q84">
+        <v>63</v>
+      </c>
+      <c r="S84">
+        <v>240</v>
+      </c>
+      <c r="T84">
+        <v>56</v>
+      </c>
+      <c r="U84">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="14"/>
+        <v>64.209600000000009</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="21"/>
+        <v>83</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="22"/>
+        <v>259375</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="23"/>
+        <v>68</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="24"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" t="s">
+        <v>285</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+      <c r="J85">
+        <v>310</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>85</v>
+      </c>
+      <c r="S85">
+        <v>240</v>
+      </c>
+      <c r="T85">
+        <v>56</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="22"/>
+        <v>84375</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="24"/>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>286</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="J86">
+        <v>310</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>50</v>
+      </c>
+      <c r="S86">
+        <v>400</v>
+      </c>
+      <c r="T86">
+        <v>56</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="21"/>
+        <v>31</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="22"/>
+        <v>96875</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="24"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>287</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="J87">
+        <v>310</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>36</v>
+      </c>
+      <c r="S87">
+        <v>640</v>
+      </c>
+      <c r="T87">
+        <v>56</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="21"/>
+        <v>36</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="22"/>
+        <v>112500</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="24"/>
+        <v>393.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>288</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+      <c r="J88">
+        <v>310</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>24</v>
+      </c>
+      <c r="S88">
+        <v>720</v>
+      </c>
+      <c r="T88">
+        <v>56</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="21"/>
+        <v>37</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="22"/>
+        <v>115625</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="24"/>
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>289</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="J89">
+        <v>310</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>63</v>
+      </c>
+      <c r="S89">
+        <v>240</v>
+      </c>
+      <c r="T89">
+        <v>56</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="22"/>
+        <v>84375</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="24"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>290</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
+      <c r="J90">
+        <v>310</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="8"/>
+        <v>2991</v>
+      </c>
+      <c r="L90">
+        <v>2200</v>
+      </c>
+      <c r="Q90">
+        <v>72</v>
+      </c>
+      <c r="S90">
+        <v>240</v>
+      </c>
+      <c r="T90">
+        <v>54</v>
+      </c>
+      <c r="U90">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="14"/>
+        <v>75.1464</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="21"/>
+        <v>77</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="22"/>
+        <v>240625</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="23"/>
+        <v>63</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="24"/>
+        <v>1181.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>285</v>
+      </c>
+      <c r="I91">
+        <v>10</v>
+      </c>
+      <c r="J91">
+        <v>310</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="8"/>
+        <v>2991</v>
+      </c>
+      <c r="L91">
+        <v>2200</v>
+      </c>
+      <c r="Q91">
+        <v>80</v>
+      </c>
+      <c r="S91">
+        <v>240</v>
+      </c>
+      <c r="T91">
+        <v>54</v>
+      </c>
+      <c r="U91">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="14"/>
+        <v>75.1464</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="21"/>
+        <v>77</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="22"/>
+        <v>240625</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="23"/>
+        <v>63</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="24"/>
+        <v>1181.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>286</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+      <c r="J92">
+        <v>310</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="8"/>
+        <v>2991</v>
+      </c>
+      <c r="L92">
+        <v>2200</v>
+      </c>
+      <c r="Q92">
+        <v>50</v>
+      </c>
+      <c r="S92">
+        <v>400</v>
+      </c>
+      <c r="T92">
+        <v>54</v>
+      </c>
+      <c r="U92">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="14"/>
+        <v>75.1464</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="21"/>
+        <v>81</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="22"/>
+        <v>253125</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="23"/>
+        <v>67</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="24"/>
+        <v>1256.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>287</v>
+      </c>
+      <c r="I93">
+        <v>10</v>
+      </c>
+      <c r="J93">
+        <v>310</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="8"/>
+        <v>2991</v>
+      </c>
+      <c r="L93">
+        <v>2200</v>
+      </c>
+      <c r="Q93">
+        <v>42</v>
+      </c>
+      <c r="S93">
+        <v>640</v>
+      </c>
+      <c r="T93">
+        <v>54</v>
+      </c>
+      <c r="U93">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="14"/>
+        <v>75.1464</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="21"/>
+        <v>86</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="22"/>
+        <v>268750</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="23"/>
+        <v>72</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="24"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>288</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
+      <c r="J94">
+        <v>310</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="8"/>
+        <v>2991</v>
+      </c>
+      <c r="L94">
+        <v>2200</v>
+      </c>
+      <c r="Q94">
+        <v>30</v>
+      </c>
+      <c r="S94">
+        <v>720</v>
+      </c>
+      <c r="T94">
+        <v>54</v>
+      </c>
+      <c r="U94">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="14"/>
+        <v>75.1464</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="21"/>
+        <v>87</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="22"/>
+        <v>271875</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="23"/>
+        <v>73</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="24"/>
+        <v>1368.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>289</v>
+      </c>
+      <c r="I95">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>310</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="8"/>
+        <v>2991</v>
+      </c>
+      <c r="L95">
+        <v>2200</v>
+      </c>
+      <c r="Q95">
+        <v>50</v>
+      </c>
+      <c r="S95">
+        <v>240</v>
+      </c>
+      <c r="T95">
+        <v>54</v>
+      </c>
+      <c r="U95">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="14"/>
+        <v>75.1464</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="22"/>
+        <v>237500</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="23"/>
+        <v>62</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="24"/>
+        <v>1162.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" t="s">
+        <v>285</v>
+      </c>
+      <c r="I96">
+        <v>10</v>
+      </c>
+      <c r="J96">
+        <v>310</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>80</v>
+      </c>
+      <c r="S96">
+        <v>240</v>
+      </c>
+      <c r="T96">
+        <v>54</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="21"/>
+        <v>22</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="22"/>
+        <v>68750</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="24"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>286</v>
+      </c>
+      <c r="I97">
+        <v>10</v>
+      </c>
+      <c r="J97">
+        <v>310</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>50</v>
+      </c>
+      <c r="S97">
+        <v>400</v>
+      </c>
+      <c r="T97">
+        <v>54</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="21"/>
+        <v>26</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="22"/>
+        <v>81250</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="24"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>287</v>
+      </c>
+      <c r="I98">
+        <v>10</v>
+      </c>
+      <c r="J98">
+        <v>310</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>42</v>
+      </c>
+      <c r="S98">
+        <v>640</v>
+      </c>
+      <c r="T98">
+        <v>54</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="21"/>
+        <v>31</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="22"/>
+        <v>96875</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="24"/>
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>288</v>
+      </c>
+      <c r="I99">
+        <v>10</v>
+      </c>
+      <c r="J99">
+        <v>310</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>30</v>
+      </c>
+      <c r="S99">
+        <v>720</v>
+      </c>
+      <c r="T99">
+        <v>54</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="21"/>
+        <v>32</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="22"/>
+        <v>100000</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="24"/>
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>289</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+      <c r="J100">
+        <v>310</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>50</v>
+      </c>
+      <c r="S100">
+        <v>240</v>
+      </c>
+      <c r="T100">
+        <v>54</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="21"/>
+        <v>21</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="22"/>
+        <v>65625</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="24"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>291</v>
+      </c>
+      <c r="I101">
+        <v>12</v>
+      </c>
+      <c r="J101">
+        <v>250</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="L101">
+        <v>1060</v>
+      </c>
+      <c r="Q101">
+        <v>72</v>
+      </c>
+      <c r="S101">
+        <v>400</v>
+      </c>
+      <c r="T101">
+        <v>54</v>
+      </c>
+      <c r="U101">
+        <v>0.12</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="14"/>
+        <v>63.503999999999998</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="21"/>
+        <v>62</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="22"/>
+        <v>193750</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="24"/>
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>285</v>
+      </c>
+      <c r="I102">
+        <v>12</v>
+      </c>
+      <c r="J102">
+        <v>250</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="L102">
+        <v>1060</v>
+      </c>
+      <c r="Q102">
+        <v>101</v>
+      </c>
+      <c r="S102">
+        <v>240</v>
+      </c>
+      <c r="T102">
+        <v>54</v>
+      </c>
+      <c r="U102">
+        <v>0.12</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="14"/>
+        <v>63.503999999999998</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="22"/>
+        <v>184375</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="23"/>
+        <v>46</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="24"/>
+        <v>862.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>286</v>
+      </c>
+      <c r="I103">
+        <v>12</v>
+      </c>
+      <c r="J103">
+        <v>250</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="L103">
+        <v>1060</v>
+      </c>
+      <c r="Q103">
+        <v>84</v>
+      </c>
+      <c r="S103">
+        <v>400</v>
+      </c>
+      <c r="T103">
+        <v>54</v>
+      </c>
+      <c r="U103">
+        <v>0.12</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="14"/>
+        <v>63.503999999999998</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="21"/>
+        <v>63</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="22"/>
+        <v>196875</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" si="23"/>
+        <v>51</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="24"/>
+        <v>956.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>287</v>
+      </c>
+      <c r="I104">
+        <v>12</v>
+      </c>
+      <c r="J104">
+        <v>250</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="L104">
+        <v>1060</v>
+      </c>
+      <c r="Q104">
+        <v>42</v>
+      </c>
+      <c r="S104">
+        <v>640</v>
+      </c>
+      <c r="T104">
+        <v>54</v>
+      </c>
+      <c r="U104">
+        <v>0.12</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="14"/>
+        <v>63.503999999999998</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="22"/>
+        <v>209375</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="23"/>
+        <v>55</v>
+      </c>
+      <c r="Z104">
+        <f t="shared" si="24"/>
+        <v>1031.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+      <c r="I105">
+        <v>12</v>
+      </c>
+      <c r="J105">
+        <v>250</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="L105">
+        <v>1060</v>
+      </c>
+      <c r="Q105">
+        <v>24</v>
+      </c>
+      <c r="S105">
+        <v>720</v>
+      </c>
+      <c r="T105">
+        <v>54</v>
+      </c>
+      <c r="U105">
+        <v>0.12</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="14"/>
+        <v>63.503999999999998</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="22"/>
+        <v>209375</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="23"/>
+        <v>55</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" si="24"/>
+        <v>1031.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>289</v>
+      </c>
+      <c r="I106">
+        <v>12</v>
+      </c>
+      <c r="J106">
+        <v>250</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="L106">
+        <v>1060</v>
+      </c>
+      <c r="Q106">
+        <v>72</v>
+      </c>
+      <c r="S106">
+        <v>240</v>
+      </c>
+      <c r="T106">
+        <v>54</v>
+      </c>
+      <c r="U106">
+        <v>0.12</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="14"/>
+        <v>63.503999999999998</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="22"/>
+        <v>181250</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="23"/>
+        <v>46</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" si="24"/>
+        <v>862.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" t="s">
+        <v>285</v>
+      </c>
+      <c r="I107">
+        <v>12</v>
+      </c>
+      <c r="J107">
+        <v>250</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>101</v>
+      </c>
+      <c r="S107">
+        <v>240</v>
+      </c>
+      <c r="T107">
+        <v>54</v>
+      </c>
+      <c r="U107">
+        <v>0.12</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="14"/>
+        <v>63.503999999999998</v>
+      </c>
+      <c r="W107">
+        <f t="shared" si="21"/>
+        <v>21</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="22"/>
+        <v>65625</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" si="24"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>286</v>
+      </c>
+      <c r="I108">
+        <v>12</v>
+      </c>
+      <c r="J108">
+        <v>250</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>84</v>
+      </c>
+      <c r="S108">
+        <v>400</v>
+      </c>
+      <c r="T108">
+        <v>54</v>
+      </c>
+      <c r="U108">
+        <v>0.12</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="14"/>
+        <v>63.503999999999998</v>
+      </c>
+      <c r="W108">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="X108">
+        <f t="shared" si="22"/>
+        <v>78125</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" si="24"/>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>287</v>
+      </c>
+      <c r="I109">
+        <v>12</v>
+      </c>
+      <c r="J109">
+        <v>250</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>42</v>
+      </c>
+      <c r="S109">
+        <v>640</v>
+      </c>
+      <c r="T109">
+        <v>54</v>
+      </c>
+      <c r="U109">
+        <v>0.12</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="14"/>
+        <v>63.503999999999998</v>
+      </c>
+      <c r="W109">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="X109">
+        <f t="shared" si="22"/>
+        <v>90625</v>
+      </c>
+      <c r="Y109">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="Z109">
+        <f t="shared" si="24"/>
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>288</v>
+      </c>
+      <c r="I110">
+        <v>12</v>
+      </c>
+      <c r="J110">
+        <v>250</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>24</v>
+      </c>
+      <c r="S110">
+        <v>720</v>
+      </c>
+      <c r="T110">
+        <v>54</v>
+      </c>
+      <c r="U110">
+        <v>0.12</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="14"/>
+        <v>63.503999999999998</v>
+      </c>
+      <c r="W110">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="X110">
+        <f t="shared" si="22"/>
+        <v>90625</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="Z110">
+        <f t="shared" si="24"/>
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>289</v>
+      </c>
+      <c r="I111">
+        <v>12</v>
+      </c>
+      <c r="J111">
+        <v>250</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>72</v>
+      </c>
+      <c r="S111">
+        <v>240</v>
+      </c>
+      <c r="T111">
+        <v>54</v>
+      </c>
+      <c r="U111">
+        <v>0.12</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="14"/>
+        <v>63.503999999999998</v>
+      </c>
+      <c r="W111">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="X111">
+        <f t="shared" si="22"/>
+        <v>62500</v>
+      </c>
+      <c r="Y111">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="Z111">
+        <f t="shared" si="24"/>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -8178,10 +9905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="L25" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8358,7 +10085,7 @@
         <v>45.3</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q44" si="0">MEDIAN(0,255,ROUND(P3/20+SQRT(H3)/40+SQRT(M3)/2+(SQRT(O3)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Q3:Q47" si="0">MEDIAN(0,255,ROUND(P3/20+SQRT(H3)/40+SQRT(M3)/2+(SQRT(O3)-SQRT(185)), 0))</f>
         <v>9</v>
       </c>
       <c r="R3">
@@ -8366,11 +10093,11 @@
         <v>28125</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S44" si="2">MEDIAN(0,255,ROUND(SQRT(H3)/200+SQRT(M3)/2+(SQRT(O3)-SQRT(185)),0))</f>
+        <f t="shared" ref="S3:S47" si="2">MEDIAN(0,255,ROUND(SQRT(H3)/200+SQRT(M3)/2+(SQRT(O3)-SQRT(185)),0))</f>
         <v>6</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T44" si="3">S3*300/16*12</f>
+        <f t="shared" ref="T3:T47" si="3">S3*300/16*12</f>
         <v>1350</v>
       </c>
     </row>
@@ -8578,7 +10305,7 @@
         <v>9</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R44" si="4">Q7*50000/16</f>
+        <f t="shared" ref="R7:R47" si="4">Q7*50000/16</f>
         <v>28125</v>
       </c>
       <c r="S7">
@@ -10511,6 +12238,159 @@
       <c r="T44">
         <f t="shared" si="3"/>
         <v>2025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E45">
+        <v>1991</v>
+      </c>
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45">
+        <v>120</v>
+      </c>
+      <c r="I45" t="s">
+        <v>113</v>
+      </c>
+      <c r="M45">
+        <v>68</v>
+      </c>
+      <c r="N45">
+        <v>12</v>
+      </c>
+      <c r="O45">
+        <v>200</v>
+      </c>
+      <c r="P45">
+        <v>44.2</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="4"/>
+        <v>21875</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46" t="s">
+        <v>282</v>
+      </c>
+      <c r="E46">
+        <v>2002</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
+        <v>283</v>
+      </c>
+      <c r="H46">
+        <v>160</v>
+      </c>
+      <c r="I46" t="s">
+        <v>90</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>16</v>
+      </c>
+      <c r="O46">
+        <v>185</v>
+      </c>
+      <c r="P46">
+        <v>85.8</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="4"/>
+        <v>15625</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+      <c r="E47">
+        <v>1959</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>35</v>
+      </c>
+      <c r="H47">
+        <v>120</v>
+      </c>
+      <c r="I47" t="s">
+        <v>113</v>
+      </c>
+      <c r="M47">
+        <v>68</v>
+      </c>
+      <c r="N47">
+        <v>12</v>
+      </c>
+      <c r="O47">
+        <v>200</v>
+      </c>
+      <c r="P47">
+        <v>43</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="4"/>
+        <v>21875</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="3"/>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -10521,10 +12401,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10659,11 +12539,11 @@
         <v>22.5</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U11" si="0">MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
+        <f t="shared" ref="U2:U12" si="0">MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
         <v>5</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W11" si="1">MEDIAN(0,255,ROUND(SQRT(J2)/200+SQRT(P2)/2+(SQRT(R2)-SQRT(185))^3,0))</f>
+        <f t="shared" ref="W2:W11" si="1">MEDIAN(0,255,ROUND(SQRT(J2)/200+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
         <v>4</v>
       </c>
     </row>
@@ -11034,6 +12914,46 @@
       <c r="W11">
         <f t="shared" si="1"/>
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12">
+        <v>2006</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J12">
+        <v>120</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>400</v>
+      </c>
+      <c r="S12">
+        <v>37</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="W12">
+        <f>MEDIAN(0,255,ROUND(SQRT(J12)/200+SQRT(P12)/2+(SQRT(R12)-SQRT(185)),0))</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C58CBE-8928-4BA0-9FFC-E71EF4C03163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9675C8E5-4570-4586-AA7E-37387B4A3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="351">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1201,6 +1201,185 @@
   </si>
   <si>
     <t>jsq5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RZ225Z</t>
+  </si>
+  <si>
+    <t>rz225z</t>
+  </si>
+  <si>
+    <t>CC_PASSENGERS</t>
+  </si>
+  <si>
+    <t>RZ125Z</t>
+  </si>
+  <si>
+    <t>rz125z</t>
+  </si>
+  <si>
+    <t>RZT25Z</t>
+  </si>
+  <si>
+    <t>rzt25z</t>
+  </si>
+  <si>
+    <t>CA25Z</t>
+  </si>
+  <si>
+    <t>ca25z</t>
+  </si>
+  <si>
+    <t>KD25Z</t>
+  </si>
+  <si>
+    <t>kd25z</t>
+  </si>
+  <si>
+    <t>RZXL25Z</t>
+  </si>
+  <si>
+    <t>rzxl25z</t>
+  </si>
+  <si>
+    <t>CC_MAIL</t>
+  </si>
+  <si>
+    <t>SRZ225Z</t>
+  </si>
+  <si>
+    <t>srz225z</t>
+  </si>
+  <si>
+    <t>SRZ125Z</t>
+  </si>
+  <si>
+    <t>srz125z</t>
+  </si>
+  <si>
+    <t>SCA25Z</t>
+  </si>
+  <si>
+    <t>sca25z</t>
+  </si>
+  <si>
+    <t>SRZXL25Z</t>
+  </si>
+  <si>
+    <t>srzxl25z</t>
+  </si>
+  <si>
+    <t>Xizi Livery by wuwu
+Guangzhou Livery by Haiyan
+Beijing Livery by DF43110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4BK</t>
+  </si>
+  <si>
+    <t>df4bk</t>
+  </si>
+  <si>
+    <t>DF4B (Dongfeng 4 Diesel Locomotive, Passenger Version)</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>model: Mikhail; alternative livery: DF43110</t>
+  </si>
+  <si>
+    <t>DF4BH</t>
+  </si>
+  <si>
+    <t>df4bh</t>
+  </si>
+  <si>
+    <t>DF4B (Dongfeng 4 Diesel Locomotive, Freight Version)</t>
+  </si>
+  <si>
+    <t>DF7G</t>
+  </si>
+  <si>
+    <t>df7g</t>
+  </si>
+  <si>
+    <t>DF7G (Dongfeng 7G Diesel Locomotive)</t>
+  </si>
+  <si>
+    <t>model: EMB190</t>
+  </si>
+  <si>
+    <t>DF7G-5000</t>
+  </si>
+  <si>
+    <t>df7g5000</t>
+  </si>
+  <si>
+    <t>DF7G-8000</t>
+  </si>
+  <si>
+    <t>df7g8000</t>
+  </si>
+  <si>
+    <t>DFH7</t>
+  </si>
+  <si>
+    <t>dfh7</t>
+  </si>
+  <si>
+    <t>mikhail</t>
+  </si>
+  <si>
+    <t>DFH7B</t>
+  </si>
+  <si>
+    <t>dfh7b</t>
+  </si>
+  <si>
+    <t>HXN5B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hxn5b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuwu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMB190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYW25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRW25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>syw25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srw25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuwu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuwu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1254,10 +1433,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,18 +1724,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF37"/>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.6640625" style="1"/>
-    <col min="29" max="30" width="8.6640625" style="2"/>
+    <col min="26" max="28" width="8.58203125" style="1"/>
+    <col min="29" max="30" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
@@ -1708,7 +1893,7 @@
         <v>165625</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T24" si="0">MEDIAN(0, 255, ROUND(SQRT(K2)/100+SQRT(L2)+P2+40/J2-2,0))</f>
+        <f t="shared" ref="T2:T32" si="0">MEDIAN(0, 255, ROUND(SQRT(K2)/100+SQRT(L2)+P2+40/J2-2,0))</f>
         <v>39</v>
       </c>
       <c r="U2">
@@ -1756,19 +1941,19 @@
         <v>1934</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O29" si="1">M3-N3</f>
+        <f t="shared" ref="O3:O37" si="1">M3-N3</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q29" si="2">O3*P3*9.8</f>
+        <f t="shared" ref="Q3:Q45" si="2">O3*P3*9.8</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R29" si="3">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
+        <f t="shared" ref="R3:R37" si="3">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S29" si="4">R3*50000/16</f>
+        <f t="shared" ref="S3:S37" si="4">R3*50000/16</f>
         <v>62500</v>
       </c>
       <c r="T3" t="e">
@@ -1776,15 +1961,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U3" t="e">
-        <f t="shared" ref="U3:U29" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
+        <f t="shared" ref="U3:U37" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V29" si="6">W3+X3+Y3</f>
+        <f t="shared" ref="V3:V37" si="6">W3+X3+Y3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="2" t="e">
-        <f t="shared" ref="AC3:AC29" si="7">AVERAGE(Z3:AB3)</f>
+        <f t="shared" ref="AC3:AC37" si="7">AVERAGE(Z3:AB3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2855,68 +3040,104 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>319</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="F21">
-        <v>1958</v>
+        <v>1969</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="K21">
+        <v>120</v>
+      </c>
+      <c r="L21">
+        <v>2610</v>
+      </c>
+      <c r="M21">
+        <v>138</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="P21">
+        <v>0.24199999999999999</v>
       </c>
       <c r="Q21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>327.28080000000006</v>
       </c>
       <c r="R21">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" ref="R21:R45" si="32">MEDIAN(255, ROUND((M21/10+SQRT(K21)/20+SQRT(L21)+P21+20-J21), 0), 0)</f>
+        <v>72</v>
       </c>
       <c r="S21">
-        <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T21" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="S21:S45" si="33">R21*50000/16</f>
+        <v>225000</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ref="T21:T45" si="34">MEDIAN(0, 255, ROUND(SQRT(K21)/100+SQRT(L21)+P21+40/J21-2,0))</f>
+        <v>52</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ref="U21:U45" si="35">IF(E21="Steam", T21*350/16*12, IF(E21="Diesel", T21*325/16*12,  T21*300/16*12))</f>
+        <v>12675</v>
+      </c>
+      <c r="V21">
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>8</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="U21" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="AD21" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="F22">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="G22">
         <v>30</v>
@@ -2925,80 +3146,101 @@
         <v>60</v>
       </c>
       <c r="I22">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K22">
         <v>100</v>
       </c>
       <c r="L22">
-        <v>5914</v>
+        <v>2610</v>
       </c>
       <c r="M22">
         <v>138</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="P22">
-        <v>0.34699999999999998</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="Q22">
         <f t="shared" si="2"/>
-        <v>469.28280000000001</v>
+        <v>412.48199999999997</v>
       </c>
       <c r="R22">
-        <f t="shared" si="3"/>
-        <v>102</v>
+        <f t="shared" si="32"/>
+        <v>72</v>
       </c>
       <c r="S22">
-        <f t="shared" si="4"/>
-        <v>318750</v>
+        <f t="shared" si="33"/>
+        <v>225000</v>
       </c>
       <c r="T22">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <f t="shared" si="34"/>
+        <v>52</v>
       </c>
       <c r="U22">
-        <f t="shared" si="5"/>
-        <v>17775</v>
+        <f t="shared" si="35"/>
+        <v>12675</v>
       </c>
       <c r="V22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>8</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="F23">
-        <v>1985</v>
+        <v>2002</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>60</v>
       </c>
       <c r="I23">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J23">
         <v>20</v>
@@ -3007,484 +3249,470 @@
         <v>100</v>
       </c>
       <c r="L23">
-        <v>8702</v>
+        <v>2189</v>
       </c>
       <c r="M23">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="P23">
-        <v>0.34799999999999998</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
-        <v>627.5136</v>
+        <v>442.23480000000006</v>
       </c>
       <c r="R23">
-        <f t="shared" si="3"/>
-        <v>113</v>
+        <f t="shared" si="32"/>
+        <v>61</v>
       </c>
       <c r="S23">
-        <f t="shared" si="4"/>
-        <v>353125</v>
+        <f t="shared" si="33"/>
+        <v>190625</v>
       </c>
       <c r="T23">
-        <f t="shared" si="0"/>
-        <v>94</v>
+        <f t="shared" si="34"/>
+        <v>47</v>
       </c>
       <c r="U23">
-        <f t="shared" si="5"/>
-        <v>21150</v>
+        <f t="shared" si="35"/>
+        <v>11456.25</v>
       </c>
       <c r="V23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="V23:V27" si="36">W23+X23+Y23</f>
+        <v>9</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="F24">
-        <v>1994</v>
+        <v>2003</v>
       </c>
       <c r="G24">
-        <v>30</v>
-      </c>
-      <c r="H24">
-        <v>50</v>
-      </c>
-      <c r="I24">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>261</v>
       </c>
       <c r="J24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K24">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="L24">
-        <v>4894</v>
+        <v>2039</v>
       </c>
       <c r="M24">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="P24">
-        <v>0.24299999999999999</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>209.56320000000002</v>
+        <v>435.47280000000001</v>
       </c>
       <c r="R24">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <f t="shared" si="32"/>
+        <v>64</v>
       </c>
       <c r="S24">
-        <f t="shared" si="4"/>
-        <v>281250</v>
+        <f t="shared" si="33"/>
+        <v>200000</v>
       </c>
       <c r="T24">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <f t="shared" si="34"/>
+        <v>46</v>
       </c>
       <c r="U24">
-        <f t="shared" si="5"/>
-        <v>16200</v>
+        <f t="shared" si="35"/>
+        <v>11212.5</v>
       </c>
       <c r="V24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" t="s">
+        <v>322</v>
+      </c>
+      <c r="F25">
+        <v>2006</v>
+      </c>
+      <c r="G25">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25">
-        <v>6144</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25">
-        <v>2010</v>
-      </c>
-      <c r="G25">
-        <v>30</v>
-      </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>261</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K25">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L25">
-        <v>9655</v>
+        <v>2175</v>
       </c>
       <c r="M25">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P25">
-        <v>0.38450000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
-        <v>519.99779999999998</v>
+        <v>440.41200000000003</v>
       </c>
       <c r="R25">
-        <f t="shared" si="3"/>
-        <v>127</v>
+        <f t="shared" si="32"/>
+        <v>65</v>
       </c>
       <c r="S25">
-        <f t="shared" si="4"/>
-        <v>396875</v>
+        <f t="shared" si="33"/>
+        <v>203125</v>
       </c>
       <c r="T25">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K25)/100+SQRT(L25)+P25+40/J25-2,0))</f>
-        <v>103</v>
+        <f t="shared" si="34"/>
+        <v>48</v>
       </c>
       <c r="U25">
-        <f t="shared" si="5"/>
-        <v>23175</v>
+        <f t="shared" si="35"/>
+        <v>11700</v>
       </c>
       <c r="V25">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>8</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>92</v>
+        <v>262</v>
       </c>
       <c r="AE25" t="s">
-        <v>93</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="F26">
-        <v>2012</v>
+        <v>1988</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>60</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>80</v>
+      </c>
+      <c r="L26">
+        <v>1080</v>
+      </c>
+      <c r="M26">
+        <v>92</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="P26">
+        <v>0.32900000000000001</v>
       </c>
       <c r="Q26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>296.62640000000005</v>
       </c>
       <c r="R26">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="32"/>
+        <v>39</v>
       </c>
       <c r="S26">
-        <f t="shared" si="4"/>
-        <v>62500</v>
-      </c>
-      <c r="T26" t="e">
-        <f t="shared" ref="T26:T29" si="32">MEDIAN(0, 255, ROUND(SQRT(K26)/100+SQRT(L26)+P26+40/J26-2,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="33"/>
+        <v>121875</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="34"/>
+        <v>33</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="35"/>
+        <v>8043.75</v>
       </c>
       <c r="V26">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27">
-        <v>6145</v>
+        <v>339</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="F27">
-        <v>2012</v>
+        <v>1988</v>
       </c>
       <c r="G27">
         <v>30</v>
       </c>
-      <c r="H27" t="s">
-        <v>91</v>
+      <c r="H27">
+        <v>60</v>
+      </c>
+      <c r="I27">
+        <v>30</v>
       </c>
       <c r="J27">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K27">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L27">
-        <v>9655</v>
+        <v>1080</v>
       </c>
       <c r="M27">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="P27">
-        <v>0.34</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="Q27">
         <f t="shared" si="2"/>
-        <v>419.83200000000005</v>
+        <v>296.62640000000005</v>
       </c>
       <c r="R27">
-        <f t="shared" si="3"/>
-        <v>126</v>
+        <f t="shared" si="32"/>
+        <v>39</v>
       </c>
       <c r="S27">
-        <f t="shared" si="4"/>
-        <v>393750</v>
+        <f t="shared" si="33"/>
+        <v>121875</v>
       </c>
       <c r="T27">
-        <f t="shared" si="32"/>
-        <v>103</v>
+        <f t="shared" si="34"/>
+        <v>33</v>
       </c>
       <c r="U27">
-        <f t="shared" si="5"/>
-        <v>23175</v>
+        <f t="shared" si="35"/>
+        <v>8043.75</v>
       </c>
       <c r="V27">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>8</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>92</v>
+        <v>262</v>
       </c>
       <c r="AE27" t="s">
-        <v>93</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>340</v>
+      </c>
+      <c r="B28" t="s">
+        <v>341</v>
+      </c>
+      <c r="D28" t="s">
+        <v>340</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="F28">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>91</v>
+        <v>342</v>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K28">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L28">
-        <v>13052</v>
+        <v>4800</v>
       </c>
       <c r="M28">
         <v>150</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="P28">
-        <v>0.38750000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="Q28">
         <f t="shared" si="2"/>
-        <v>569.625</v>
+        <v>560.07000000000005</v>
       </c>
       <c r="R28">
-        <f t="shared" si="3"/>
-        <v>144</v>
+        <f t="shared" si="32"/>
+        <v>91</v>
       </c>
       <c r="S28">
-        <f t="shared" si="4"/>
-        <v>450000</v>
+        <f t="shared" si="33"/>
+        <v>284375</v>
       </c>
       <c r="T28">
-        <f t="shared" si="32"/>
-        <v>119</v>
+        <f t="shared" si="34"/>
+        <v>71</v>
       </c>
       <c r="U28">
-        <f t="shared" si="5"/>
-        <v>26775</v>
+        <f t="shared" si="35"/>
+        <v>17306.25</v>
       </c>
       <c r="V28">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="V28" si="37">W28+X28+Y28</f>
+        <v>11</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
       </c>
       <c r="AC28" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AC28" si="38">AVERAGE(Z28:AB28)</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
       </c>
       <c r="E29" t="s">
         <v>52</v>
       </c>
       <c r="F29">
-        <v>2006</v>
-      </c>
-      <c r="G29">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29">
-        <v>8</v>
-      </c>
-      <c r="K29">
-        <v>120</v>
-      </c>
-      <c r="L29">
-        <v>13052</v>
-      </c>
-      <c r="M29">
-        <v>184</v>
+        <v>1958</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>184</v>
-      </c>
-      <c r="P29">
-        <v>0.42099999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <f t="shared" si="2"/>
-        <v>759.1472</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="3"/>
-        <v>146</v>
+        <f t="shared" si="32"/>
+        <v>20</v>
       </c>
       <c r="S29">
-        <f t="shared" si="4"/>
-        <v>456250</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="32"/>
-        <v>118</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="5"/>
-        <v>26550</v>
+        <f t="shared" si="33"/>
+        <v>62500</v>
+      </c>
+      <c r="T29" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V29">
         <f t="shared" si="6"/>
@@ -3497,188 +3725,171 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="F30">
-        <v>1993</v>
+        <v>1978</v>
       </c>
       <c r="G30">
         <v>30</v>
       </c>
-      <c r="H30" t="s">
-        <v>261</v>
+      <c r="H30">
+        <v>60</v>
+      </c>
+      <c r="I30">
+        <v>30</v>
       </c>
       <c r="J30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K30">
         <v>100</v>
       </c>
       <c r="L30">
-        <v>8702</v>
+        <v>5914</v>
       </c>
       <c r="M30">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="O30">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>138</v>
       </c>
       <c r="P30">
-        <v>0.34799999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="Q30">
-        <v>627.5136</v>
+        <f t="shared" si="2"/>
+        <v>469.28280000000001</v>
       </c>
       <c r="R30">
-        <v>125</v>
+        <f t="shared" si="32"/>
+        <v>102</v>
       </c>
       <c r="S30">
-        <v>390625</v>
+        <f t="shared" si="33"/>
+        <v>318750</v>
       </c>
       <c r="T30">
-        <v>97</v>
+        <f t="shared" si="34"/>
+        <v>79</v>
       </c>
       <c r="U30">
-        <v>21825</v>
+        <f t="shared" si="35"/>
+        <v>17775</v>
       </c>
       <c r="V30">
-        <v>8</v>
-      </c>
-      <c r="W30">
-        <v>2</v>
-      </c>
-      <c r="X30">
-        <v>4</v>
-      </c>
-      <c r="Y30">
-        <v>2</v>
-      </c>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AC30" s="2" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="AD30" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="F31">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="G31">
         <v>30</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I31">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J31">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K31">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="L31">
-        <v>4351</v>
+        <v>8702</v>
       </c>
       <c r="M31">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="O31">
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>184</v>
       </c>
       <c r="P31">
-        <v>0.27900000000000003</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="Q31">
-        <v>235.14120000000005</v>
+        <f t="shared" si="2"/>
+        <v>627.5136</v>
       </c>
       <c r="R31">
-        <v>79</v>
+        <f t="shared" si="32"/>
+        <v>113</v>
       </c>
       <c r="S31">
-        <v>246875</v>
+        <f t="shared" si="33"/>
+        <v>353125</v>
       </c>
       <c r="T31">
-        <v>67</v>
+        <f t="shared" si="34"/>
+        <v>94</v>
       </c>
       <c r="U31">
-        <v>15075</v>
+        <f t="shared" si="35"/>
+        <v>21150</v>
       </c>
       <c r="V31">
-        <v>10</v>
-      </c>
-      <c r="W31">
-        <v>2</v>
-      </c>
-      <c r="X31">
-        <v>6</v>
-      </c>
-      <c r="Y31">
-        <v>2</v>
-      </c>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AC31" s="2" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="F32">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="G32">
         <v>30</v>
       </c>
       <c r="H32">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I32">
         <v>30</v>
@@ -3687,475 +3898,1125 @@
         <v>10</v>
       </c>
       <c r="K32">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="L32">
-        <v>6526</v>
+        <v>4894</v>
       </c>
       <c r="M32">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="O32">
-        <v>138</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="P32">
-        <v>0.35899999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="Q32">
-        <v>485.51160000000004</v>
+        <f t="shared" si="2"/>
+        <v>209.56320000000002</v>
       </c>
       <c r="R32">
-        <v>105</v>
+        <f t="shared" si="32"/>
+        <v>90</v>
       </c>
       <c r="S32">
-        <v>328125</v>
+        <f t="shared" si="33"/>
+        <v>281250</v>
       </c>
       <c r="T32">
-        <v>83</v>
+        <f t="shared" si="34"/>
+        <v>72</v>
       </c>
       <c r="U32">
-        <v>18675</v>
+        <f t="shared" si="35"/>
+        <v>16200</v>
       </c>
       <c r="V32">
-        <v>10</v>
-      </c>
-      <c r="W32">
-        <v>2</v>
-      </c>
-      <c r="X32">
-        <v>6</v>
-      </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AC32" s="2" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>76</v>
+      </c>
+      <c r="C33">
+        <v>6144</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="F33">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="G33">
         <v>30</v>
       </c>
-      <c r="H33">
-        <v>60</v>
-      </c>
-      <c r="I33">
-        <v>30</v>
+      <c r="H33" t="s">
+        <v>91</v>
       </c>
       <c r="J33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L33">
-        <v>6526</v>
+        <v>9655</v>
       </c>
       <c r="M33">
         <v>138</v>
       </c>
       <c r="O33">
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="P33">
-        <v>0.35899999999999999</v>
+        <v>0.38450000000000001</v>
       </c>
       <c r="Q33">
-        <v>485.51160000000004</v>
+        <f t="shared" si="2"/>
+        <v>519.99779999999998</v>
       </c>
       <c r="R33">
-        <v>107</v>
+        <f t="shared" si="32"/>
+        <v>127</v>
       </c>
       <c r="S33">
-        <v>334375</v>
+        <f t="shared" si="33"/>
+        <v>396875</v>
       </c>
       <c r="T33">
-        <v>84</v>
+        <f t="shared" si="34"/>
+        <v>103</v>
       </c>
       <c r="U33">
-        <v>18900</v>
+        <f t="shared" si="35"/>
+        <v>23175</v>
       </c>
       <c r="V33">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y33">
-        <v>2</v>
-      </c>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33" s="2" t="e">
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="AE33" t="s">
-        <v>262</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="F34">
-        <v>1992</v>
-      </c>
-      <c r="G34">
-        <v>30</v>
-      </c>
-      <c r="H34">
-        <v>60</v>
-      </c>
-      <c r="I34">
-        <v>30</v>
-      </c>
-      <c r="J34">
-        <v>16</v>
-      </c>
-      <c r="K34">
-        <v>100</v>
-      </c>
-      <c r="L34">
-        <v>6526</v>
-      </c>
-      <c r="M34">
-        <v>138</v>
+        <v>2012</v>
       </c>
       <c r="O34">
-        <v>138</v>
-      </c>
-      <c r="P34">
-        <v>0.35899999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>485.51160000000004</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>99</v>
+        <f t="shared" si="32"/>
+        <v>20</v>
       </c>
       <c r="S34">
-        <v>309375</v>
-      </c>
-      <c r="T34">
-        <v>82</v>
-      </c>
-      <c r="U34">
-        <v>18450</v>
+        <f t="shared" si="33"/>
+        <v>62500</v>
+      </c>
+      <c r="T34" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V34">
-        <v>10</v>
-      </c>
-      <c r="W34">
-        <v>2</v>
-      </c>
-      <c r="X34">
-        <v>6</v>
-      </c>
-      <c r="Y34">
-        <v>2</v>
-      </c>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AC34" s="2" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>140</v>
+      </c>
+      <c r="C35">
+        <v>6145</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="F35">
-        <v>1997</v>
+        <v>2012</v>
       </c>
       <c r="G35">
         <v>30</v>
       </c>
-      <c r="H35">
-        <v>60</v>
-      </c>
-      <c r="I35">
-        <v>50</v>
+      <c r="H35" t="s">
+        <v>91</v>
       </c>
       <c r="J35">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="L35">
-        <v>6526</v>
+        <v>9655</v>
       </c>
       <c r="M35">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="O35">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>126</v>
       </c>
       <c r="P35">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="Q35">
-        <v>485.1</v>
+        <f t="shared" si="2"/>
+        <v>419.83200000000005</v>
       </c>
       <c r="R35">
-        <v>101</v>
+        <f t="shared" si="32"/>
+        <v>126</v>
       </c>
       <c r="S35">
-        <v>315625</v>
+        <f t="shared" si="33"/>
+        <v>393750</v>
       </c>
       <c r="T35">
-        <v>82</v>
+        <f t="shared" si="34"/>
+        <v>103</v>
       </c>
       <c r="U35">
-        <v>18450</v>
+        <f t="shared" si="35"/>
+        <v>23175</v>
       </c>
       <c r="V35">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="W35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y35">
-        <v>2</v>
-      </c>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35" s="2" t="e">
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="AE35" t="s">
-        <v>271</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>274</v>
-      </c>
-      <c r="B36" t="s">
-        <v>275</v>
-      </c>
-      <c r="D36" t="s">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="F36">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="G36">
         <v>30</v>
       </c>
-      <c r="H36">
-        <v>60</v>
-      </c>
-      <c r="I36">
-        <v>30</v>
+      <c r="H36" t="s">
+        <v>91</v>
       </c>
       <c r="J36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K36">
         <v>120</v>
       </c>
       <c r="L36">
-        <v>6526</v>
+        <v>13052</v>
       </c>
       <c r="M36">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="O36">
-        <v>132</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="P36">
-        <v>0.24099999999999999</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Q36">
-        <v>311.75760000000002</v>
+        <f t="shared" si="2"/>
+        <v>569.625</v>
       </c>
       <c r="R36">
-        <v>105</v>
+        <f t="shared" si="32"/>
+        <v>144</v>
       </c>
       <c r="S36">
-        <v>328125</v>
+        <f t="shared" si="33"/>
+        <v>450000</v>
       </c>
       <c r="T36">
-        <v>83</v>
+        <f t="shared" si="34"/>
+        <v>119</v>
       </c>
       <c r="U36">
-        <v>18675</v>
+        <f t="shared" si="35"/>
+        <v>26775</v>
       </c>
       <c r="V36">
-        <v>10</v>
-      </c>
-      <c r="W36">
-        <v>2</v>
-      </c>
-      <c r="X36">
-        <v>6</v>
-      </c>
-      <c r="Y36">
-        <v>2</v>
-      </c>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AC36" s="2" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="AD36" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
-      </c>
-      <c r="D37" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="F37">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="G37">
         <v>30</v>
       </c>
       <c r="H37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>120</v>
+      </c>
+      <c r="L37">
+        <v>13052</v>
+      </c>
+      <c r="M37">
+        <v>184</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="P37">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>759.1472</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="32"/>
+        <v>146</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="33"/>
+        <v>456250</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="34"/>
+        <v>118</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="35"/>
+        <v>26550</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38">
+        <v>1993</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s">
         <v>261</v>
       </c>
-      <c r="J37">
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
+      <c r="L38">
+        <v>8702</v>
+      </c>
+      <c r="M38">
+        <v>184</v>
+      </c>
+      <c r="O38">
+        <v>184</v>
+      </c>
+      <c r="P38">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>627.5136</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="32"/>
+        <v>125</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="33"/>
+        <v>390625</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="34"/>
+        <v>97</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="35"/>
+        <v>21825</v>
+      </c>
+      <c r="V38">
+        <v>8</v>
+      </c>
+      <c r="W38">
+        <v>2</v>
+      </c>
+      <c r="X38">
+        <v>4</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F39">
+        <v>1990</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <v>25</v>
+      </c>
+      <c r="I39">
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <v>16</v>
+      </c>
+      <c r="K39">
+        <v>140</v>
+      </c>
+      <c r="L39">
+        <v>4351</v>
+      </c>
+      <c r="M39">
+        <v>86</v>
+      </c>
+      <c r="O39">
+        <v>86</v>
+      </c>
+      <c r="P39">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>235.14120000000005</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="32"/>
+        <v>79</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="33"/>
+        <v>246875</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="34"/>
+        <v>67</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="35"/>
+        <v>15075</v>
+      </c>
+      <c r="V39">
+        <v>10</v>
+      </c>
+      <c r="W39">
+        <v>2</v>
+      </c>
+      <c r="X39">
         <v>6</v>
       </c>
-      <c r="K37">
+      <c r="Y39">
+        <v>2</v>
+      </c>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>265</v>
+      </c>
+      <c r="B40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40">
+        <v>1991</v>
+      </c>
+      <c r="G40">
+        <v>30</v>
+      </c>
+      <c r="H40">
+        <v>60</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40">
+        <v>6526</v>
+      </c>
+      <c r="M40">
+        <v>138</v>
+      </c>
+      <c r="O40">
+        <v>138</v>
+      </c>
+      <c r="P40">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>485.51160000000004</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="32"/>
+        <v>105</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="33"/>
+        <v>328125</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="34"/>
+        <v>83</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="35"/>
+        <v>18675</v>
+      </c>
+      <c r="V40">
+        <v>10</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <v>6</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41">
+        <v>1993</v>
+      </c>
+      <c r="G41">
+        <v>30</v>
+      </c>
+      <c r="H41">
+        <v>60</v>
+      </c>
+      <c r="I41">
+        <v>30</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41">
+        <v>6526</v>
+      </c>
+      <c r="M41">
+        <v>138</v>
+      </c>
+      <c r="O41">
+        <v>138</v>
+      </c>
+      <c r="P41">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="2"/>
+        <v>485.51160000000004</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="32"/>
+        <v>107</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="33"/>
+        <v>334375</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="34"/>
+        <v>84</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="35"/>
+        <v>18900</v>
+      </c>
+      <c r="V41">
+        <v>10</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>2</v>
+      </c>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42">
+        <v>1992</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="H42">
+        <v>60</v>
+      </c>
+      <c r="I42">
+        <v>30</v>
+      </c>
+      <c r="J42">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="L42">
+        <v>6526</v>
+      </c>
+      <c r="M42">
+        <v>138</v>
+      </c>
+      <c r="O42">
+        <v>138</v>
+      </c>
+      <c r="P42">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>485.51160000000004</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="32"/>
+        <v>99</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="33"/>
+        <v>309375</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="34"/>
+        <v>82</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="35"/>
+        <v>18450</v>
+      </c>
+      <c r="V42">
+        <v>10</v>
+      </c>
+      <c r="W42">
+        <v>2</v>
+      </c>
+      <c r="X42">
+        <v>6</v>
+      </c>
+      <c r="Y42">
+        <v>2</v>
+      </c>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" t="s">
+        <v>273</v>
+      </c>
+      <c r="D43" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43">
+        <v>1997</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <v>60</v>
+      </c>
+      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="J43">
+        <v>16</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+      <c r="L43">
+        <v>6526</v>
+      </c>
+      <c r="M43">
+        <v>150</v>
+      </c>
+      <c r="O43">
+        <v>150</v>
+      </c>
+      <c r="P43">
+        <v>0.33</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="2"/>
+        <v>485.1</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="32"/>
+        <v>101</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="33"/>
+        <v>315625</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="34"/>
+        <v>82</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="35"/>
+        <v>18450</v>
+      </c>
+      <c r="V43">
+        <v>10</v>
+      </c>
+      <c r="W43">
+        <v>2</v>
+      </c>
+      <c r="X43">
+        <v>6</v>
+      </c>
+      <c r="Y43">
+        <v>2</v>
+      </c>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" t="s">
+        <v>274</v>
+      </c>
+      <c r="E44" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44">
+        <v>1998</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="H44">
+        <v>60</v>
+      </c>
+      <c r="I44">
+        <v>30</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>120</v>
+      </c>
+      <c r="L44">
+        <v>6526</v>
+      </c>
+      <c r="M44">
+        <v>132</v>
+      </c>
+      <c r="O44">
+        <v>132</v>
+      </c>
+      <c r="P44">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>311.75760000000002</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="32"/>
+        <v>105</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="33"/>
+        <v>328125</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="34"/>
+        <v>83</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="35"/>
+        <v>18675</v>
+      </c>
+      <c r="V44">
+        <v>10</v>
+      </c>
+      <c r="W44">
+        <v>2</v>
+      </c>
+      <c r="X44">
+        <v>6</v>
+      </c>
+      <c r="Y44">
+        <v>2</v>
+      </c>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45">
+        <v>2001</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
+        <v>261</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
         <v>160</v>
       </c>
-      <c r="L37">
+      <c r="L45">
         <v>6526</v>
       </c>
-      <c r="M37">
+      <c r="M45">
         <v>126</v>
       </c>
-      <c r="O37">
+      <c r="O45">
         <v>126</v>
       </c>
-      <c r="P37">
+      <c r="P45">
         <v>0.19800000000000001</v>
       </c>
-      <c r="Q37">
+      <c r="Q45">
+        <f t="shared" si="2"/>
         <v>244.49040000000002</v>
       </c>
-      <c r="R37">
+      <c r="R45">
+        <f t="shared" si="32"/>
         <v>108</v>
       </c>
-      <c r="S37">
+      <c r="S45">
+        <f t="shared" si="33"/>
         <v>337500</v>
       </c>
-      <c r="T37">
+      <c r="T45">
+        <f t="shared" si="34"/>
         <v>86</v>
       </c>
-      <c r="U37">
+      <c r="U45">
+        <f t="shared" si="35"/>
         <v>19350</v>
       </c>
-      <c r="V37">
+      <c r="V45">
         <v>10</v>
       </c>
-      <c r="W37">
+      <c r="W45">
         <v>2</v>
       </c>
-      <c r="X37">
+      <c r="X45">
         <v>6</v>
       </c>
-      <c r="Y37">
+      <c r="Y45">
         <v>2</v>
       </c>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37" s="2" t="e">
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AD37" s="2" t="s">
+      <c r="AD45" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AE45" t="s">
         <v>271</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AF45" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4169,8 +5030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
@@ -9905,10 +10766,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView topLeftCell="L25" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z48" sqref="Z48:Z57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11628,7 +12490,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -11679,7 +12541,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -11730,7 +12592,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -11781,7 +12643,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -11832,7 +12694,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>221</v>
       </c>
@@ -11883,7 +12745,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -11934,7 +12796,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -11985,7 +12847,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -12036,7 +12898,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -12087,7 +12949,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -12138,7 +13000,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -12189,7 +13051,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -12240,7 +13102,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -12291,7 +13153,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -12342,7 +13204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -12393,7 +13255,706 @@
         <v>1125</v>
       </c>
     </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+      <c r="D48" t="s">
+        <v>296</v>
+      </c>
+      <c r="E48">
+        <v>1993</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <v>140</v>
+      </c>
+      <c r="I48" t="s">
+        <v>298</v>
+      </c>
+      <c r="M48">
+        <v>96</v>
+      </c>
+      <c r="N48">
+        <v>16</v>
+      </c>
+      <c r="O48">
+        <v>240</v>
+      </c>
+      <c r="P48">
+        <v>46.4</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" ref="Q48:Q59" si="29">MEDIAN(0,255,ROUND(P48/20+SQRT(H48)/40+SQRT(M48)/2+(SQRT(O48)-SQRT(185)), 0))</f>
+        <v>9</v>
+      </c>
+      <c r="R48">
+        <f t="shared" ref="R48:R59" si="30">Q48*50000/16</f>
+        <v>28125</v>
+      </c>
+      <c r="S48">
+        <f t="shared" ref="S48:S59" si="31">MEDIAN(0,255,ROUND(SQRT(H48)/200+SQRT(M48)/2+(SQRT(O48)-SQRT(185)),0))</f>
+        <v>7</v>
+      </c>
+      <c r="T48">
+        <f t="shared" ref="T48:T59" si="32">S48*300/16*12</f>
+        <v>1575</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D49" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49">
+        <v>1993</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>140</v>
+      </c>
+      <c r="I49" t="s">
+        <v>298</v>
+      </c>
+      <c r="M49">
+        <v>80</v>
+      </c>
+      <c r="N49">
+        <v>16</v>
+      </c>
+      <c r="O49">
+        <v>320</v>
+      </c>
+      <c r="P49">
+        <v>46.9</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="30"/>
+        <v>34375</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="32"/>
+        <v>2025</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z49" s="4"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50">
+        <v>1993</v>
+      </c>
+      <c r="F50">
+        <v>30</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>140</v>
+      </c>
+      <c r="I50" t="s">
+        <v>298</v>
+      </c>
+      <c r="M50">
+        <v>42</v>
+      </c>
+      <c r="N50">
+        <v>16</v>
+      </c>
+      <c r="O50">
+        <v>400</v>
+      </c>
+      <c r="P50">
+        <v>48</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="30"/>
+        <v>37500</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="32"/>
+        <v>2250</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z50" s="4"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51">
+        <v>1993</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>140</v>
+      </c>
+      <c r="I51" t="s">
+        <v>298</v>
+      </c>
+      <c r="M51">
+        <v>36</v>
+      </c>
+      <c r="N51">
+        <v>16</v>
+      </c>
+      <c r="O51">
+        <v>240</v>
+      </c>
+      <c r="P51">
+        <v>46.3</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="30"/>
+        <v>25000</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="32"/>
+        <v>1125</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z51" s="4"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52" t="s">
+        <v>305</v>
+      </c>
+      <c r="E52">
+        <v>1993</v>
+      </c>
+      <c r="F52">
+        <v>30</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="H52">
+        <v>140</v>
+      </c>
+      <c r="I52" t="s">
+        <v>298</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>16</v>
+      </c>
+      <c r="O52">
+        <v>200</v>
+      </c>
+      <c r="P52">
+        <v>59</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="30"/>
+        <v>12500</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="32"/>
+        <v>225</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z52" s="4"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>307</v>
+      </c>
+      <c r="B53" t="s">
+        <v>308</v>
+      </c>
+      <c r="D53" t="s">
+        <v>307</v>
+      </c>
+      <c r="E53">
+        <v>1993</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>140</v>
+      </c>
+      <c r="I53" t="s">
+        <v>309</v>
+      </c>
+      <c r="M53">
+        <v>71</v>
+      </c>
+      <c r="N53">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <v>200</v>
+      </c>
+      <c r="P53">
+        <v>42</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="30"/>
+        <v>21875</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="32"/>
+        <v>1125</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z53" s="4"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>310</v>
+      </c>
+      <c r="B54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D54" t="s">
+        <v>310</v>
+      </c>
+      <c r="E54">
+        <v>1993</v>
+      </c>
+      <c r="F54">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <v>140</v>
+      </c>
+      <c r="I54" t="s">
+        <v>298</v>
+      </c>
+      <c r="M54">
+        <v>124</v>
+      </c>
+      <c r="N54">
+        <v>16</v>
+      </c>
+      <c r="O54">
+        <v>240</v>
+      </c>
+      <c r="P54">
+        <v>52.7</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="30"/>
+        <v>31250</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="32"/>
+        <v>1800</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z54" s="4"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>312</v>
+      </c>
+      <c r="B55" t="s">
+        <v>313</v>
+      </c>
+      <c r="D55" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55">
+        <v>1993</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>140</v>
+      </c>
+      <c r="I55" t="s">
+        <v>298</v>
+      </c>
+      <c r="M55">
+        <v>108</v>
+      </c>
+      <c r="N55">
+        <v>16</v>
+      </c>
+      <c r="O55">
+        <v>320</v>
+      </c>
+      <c r="P55">
+        <v>53</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="30"/>
+        <v>37500</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="32"/>
+        <v>2250</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z55" s="4"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>314</v>
+      </c>
+      <c r="B56" t="s">
+        <v>315</v>
+      </c>
+      <c r="D56" t="s">
+        <v>314</v>
+      </c>
+      <c r="E56">
+        <v>1993</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>20</v>
+      </c>
+      <c r="H56">
+        <v>140</v>
+      </c>
+      <c r="I56" t="s">
+        <v>298</v>
+      </c>
+      <c r="M56">
+        <v>60</v>
+      </c>
+      <c r="N56">
+        <v>16</v>
+      </c>
+      <c r="O56">
+        <v>240</v>
+      </c>
+      <c r="P56">
+        <v>50.1</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="30"/>
+        <v>28125</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="32"/>
+        <v>1350</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z56" s="4"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>316</v>
+      </c>
+      <c r="B57" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" t="s">
+        <v>316</v>
+      </c>
+      <c r="E57">
+        <v>1993</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>20</v>
+      </c>
+      <c r="H57">
+        <v>140</v>
+      </c>
+      <c r="I57" t="s">
+        <v>309</v>
+      </c>
+      <c r="M57">
+        <v>92</v>
+      </c>
+      <c r="N57">
+        <v>12</v>
+      </c>
+      <c r="O57">
+        <v>200</v>
+      </c>
+      <c r="P57">
+        <v>49.2</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="30"/>
+        <v>25000</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="32"/>
+        <v>1125</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z57" s="4"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>345</v>
+      </c>
+      <c r="B58" t="s">
+        <v>347</v>
+      </c>
+      <c r="E58">
+        <v>2014</v>
+      </c>
+      <c r="F58">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58">
+        <v>140</v>
+      </c>
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+      <c r="M58">
+        <v>80</v>
+      </c>
+      <c r="N58">
+        <v>16</v>
+      </c>
+      <c r="O58">
+        <v>360</v>
+      </c>
+      <c r="P58">
+        <v>53.6</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="30"/>
+        <v>40625</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="32"/>
+        <v>2250</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>346</v>
+      </c>
+      <c r="B59" t="s">
+        <v>348</v>
+      </c>
+      <c r="E59">
+        <v>2014</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59">
+        <v>140</v>
+      </c>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+      <c r="M59">
+        <v>50</v>
+      </c>
+      <c r="N59">
+        <v>16</v>
+      </c>
+      <c r="O59">
+        <v>480</v>
+      </c>
+      <c r="P59">
+        <v>56</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="30"/>
+        <v>46875</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="32"/>
+        <v>2700</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>349</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Z48:Z57"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12403,7 +13964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-0.1.6.146\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9675C8E5-4570-4586-AA7E-37387B4A3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76D7D23-A0AE-4D05-82DD-9FB5C3C8FC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,17 @@
     <sheet name="Coaches" sheetId="3" r:id="rId3"/>
     <sheet name="Wagons" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="365">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1380,6 +1369,56 @@
   </si>
   <si>
     <t>wuwu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4DF</t>
+  </si>
+  <si>
+    <t>DF4D with Locomotive Power Supply</t>
+  </si>
+  <si>
+    <t>DF4C</t>
+  </si>
+  <si>
+    <t>DF4C(Dongfeng 4C/Dongfeng4 4000series Diesel Locomotive)</t>
+  </si>
+  <si>
+    <t>DF8B</t>
+  </si>
+  <si>
+    <t>DF8B(Dongfeng 8B Diesel Locomotive)</t>
+  </si>
+  <si>
+    <t>original:EMB190 baorixile:DF43110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF43110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4D-7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df4d7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df4df</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df4c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df8b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alternative livery:DF4D3110</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1387,7 +1426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1404,6 +1443,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1433,7 +1480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1443,10 +1490,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1724,21 +1781,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF45"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE28" sqref="AE28"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.58203125" style="1"/>
-    <col min="29" max="30" width="8.58203125" style="2"/>
+    <col min="26" max="28" width="8.625" style="1"/>
+    <col min="29" max="30" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1893,7 +1950,7 @@
         <v>165625</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T32" si="0">MEDIAN(0, 255, ROUND(SQRT(K2)/100+SQRT(L2)+P2+40/J2-2,0))</f>
+        <f t="shared" ref="T2:T20" si="0">MEDIAN(0, 255, ROUND(SQRT(K2)/100+SQRT(L2)+P2+40/J2-2,0))</f>
         <v>39</v>
       </c>
       <c r="U2">
@@ -1924,7 +1981,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1949,11 +2006,11 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R37" si="3">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
+        <f t="shared" ref="R3:R20" si="3">MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+P3+20-J3), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S37" si="4">R3*50000/16</f>
+        <f t="shared" ref="S3:S20" si="4">R3*50000/16</f>
         <v>62500</v>
       </c>
       <c r="T3" t="e">
@@ -1961,7 +2018,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U3" t="e">
-        <f t="shared" ref="U3:U37" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
+        <f t="shared" ref="U3:U19" si="5">IF(E3="Steam", T3*350/16*12, IF(E3="Diesel", T3*325/16*12,  T3*300/16*12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V3">
@@ -1973,7 +2030,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2022,7 +2079,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2071,7 +2128,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2120,7 +2177,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2166,7 +2223,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2248,7 +2305,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -2345,7 +2402,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -2410,8 +2467,11 @@
         <f t="shared" ref="V10:V12" si="15">W10+X10+Y10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -2477,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -2542,8 +2602,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -2592,7 +2655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2661,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2710,7 +2773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2783,7 +2846,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2829,7 +2892,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -2895,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2944,7 +3007,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3038,7 +3101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>319</v>
       </c>
@@ -3123,7 +3186,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -3217,7 +3280,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -3300,7 +3363,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>331</v>
       </c>
@@ -3371,7 +3434,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -3442,7 +3505,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -3516,7 +3579,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>338</v>
       </c>
@@ -3590,7 +3653,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -3674,7 +3737,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3723,7 +3786,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3796,7 +3859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3869,7 +3932,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -3942,7 +4005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4039,7 +4102,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4088,7 +4151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -4185,7 +4248,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -4249,7 +4312,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -4316,7 +4379,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -4401,7 +4464,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -4489,7 +4552,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -4577,7 +4640,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -4665,7 +4728,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -4753,7 +4816,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -4841,7 +4904,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -4932,7 +4995,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -5018,6 +5081,322 @@
       </c>
       <c r="AF45" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1999</v>
+      </c>
+      <c r="G46" s="7">
+        <v>30</v>
+      </c>
+      <c r="H46" s="7">
+        <v>60</v>
+      </c>
+      <c r="I46" s="7">
+        <v>30</v>
+      </c>
+      <c r="J46" s="7">
+        <v>16</v>
+      </c>
+      <c r="K46" s="7">
+        <v>120</v>
+      </c>
+      <c r="L46" s="7">
+        <v>3300</v>
+      </c>
+      <c r="M46" s="7">
+        <v>138</v>
+      </c>
+      <c r="N46" s="6"/>
+      <c r="O46" s="7">
+        <v>138</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0.27876367899999999</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>377</v>
+      </c>
+      <c r="R46" s="7">
+        <v>76</v>
+      </c>
+      <c r="S46" s="7">
+        <v>237500</v>
+      </c>
+      <c r="T46" s="7">
+        <v>58</v>
+      </c>
+      <c r="U46" s="7">
+        <v>14137.5</v>
+      </c>
+      <c r="V46" s="7">
+        <v>10</v>
+      </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
+      <c r="X46">
+        <v>6</v>
+      </c>
+      <c r="Y46">
+        <v>2</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1985</v>
+      </c>
+      <c r="G47" s="7">
+        <v>30</v>
+      </c>
+      <c r="H47" s="7">
+        <v>60</v>
+      </c>
+      <c r="I47" s="7">
+        <v>30</v>
+      </c>
+      <c r="J47" s="7">
+        <v>16</v>
+      </c>
+      <c r="K47" s="7">
+        <v>100</v>
+      </c>
+      <c r="L47" s="7">
+        <v>3600</v>
+      </c>
+      <c r="M47" s="7">
+        <v>138</v>
+      </c>
+      <c r="N47" s="6"/>
+      <c r="O47" s="7">
+        <v>138</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0.32534753</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>440</v>
+      </c>
+      <c r="R47" s="7">
+        <v>81</v>
+      </c>
+      <c r="S47" s="7">
+        <v>253125</v>
+      </c>
+      <c r="T47" s="7">
+        <v>61</v>
+      </c>
+      <c r="U47" s="7">
+        <v>14868.75</v>
+      </c>
+      <c r="V47" s="7">
+        <v>10</v>
+      </c>
+      <c r="W47">
+        <v>2</v>
+      </c>
+      <c r="X47">
+        <v>6</v>
+      </c>
+      <c r="Y47">
+        <v>2</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1997.6</v>
+      </c>
+      <c r="G48" s="7">
+        <v>30</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="7">
+        <v>14</v>
+      </c>
+      <c r="K48" s="7">
+        <v>100</v>
+      </c>
+      <c r="L48" s="7">
+        <v>4214</v>
+      </c>
+      <c r="M48" s="7">
+        <v>143.5</v>
+      </c>
+      <c r="N48" s="6"/>
+      <c r="O48" s="7">
+        <v>143.5</v>
+      </c>
+      <c r="P48" s="7">
+        <v>0.34132119700000002</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>480</v>
+      </c>
+      <c r="R48" s="7">
+        <v>86</v>
+      </c>
+      <c r="S48" s="7">
+        <v>268750</v>
+      </c>
+      <c r="T48" s="7">
+        <v>66</v>
+      </c>
+      <c r="U48" s="7">
+        <v>16087.5</v>
+      </c>
+      <c r="V48" s="7">
+        <v>10</v>
+      </c>
+      <c r="W48">
+        <v>2</v>
+      </c>
+      <c r="X48">
+        <v>6</v>
+      </c>
+      <c r="Y48">
+        <v>2</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>359</v>
+      </c>
+      <c r="B49" t="s">
+        <v>360</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49">
+        <v>1998</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="H49">
+        <v>50</v>
+      </c>
+      <c r="I49">
+        <v>35</v>
+      </c>
+      <c r="J49">
+        <v>14</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49">
+        <v>4000</v>
+      </c>
+      <c r="M49">
+        <v>138</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ref="O49" si="39">M49-N49</f>
+        <v>138</v>
+      </c>
+      <c r="P49">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" ref="Q49" si="40">O49*P49*9.8</f>
+        <v>480.10199999999998</v>
+      </c>
+      <c r="R49">
+        <f t="shared" ref="R49" si="41">MEDIAN(255, ROUND((M49/10+SQRT(K49)/20+SQRT(L49)+P49+20-J49), 0), 0)</f>
+        <v>84</v>
+      </c>
+      <c r="S49">
+        <f t="shared" ref="S49" si="42">R49*50000/16</f>
+        <v>262500</v>
+      </c>
+      <c r="T49">
+        <f t="shared" ref="T49" si="43">MEDIAN(0, 255, ROUND(SQRT(K49)/100+SQRT(L49)+P49+40/J49-2,0))</f>
+        <v>65</v>
+      </c>
+      <c r="U49">
+        <f t="shared" ref="U49" si="44">IF(E49="Steam", T49*350/16*12, IF(E49="Diesel", T49*325/16*12,  T49*300/16*12))</f>
+        <v>15843.75</v>
+      </c>
+      <c r="V49">
+        <f t="shared" ref="V49" si="45">W49+X49+Y49</f>
+        <v>10</v>
+      </c>
+      <c r="W49">
+        <v>2</v>
+      </c>
+      <c r="X49">
+        <v>6</v>
+      </c>
+      <c r="Y49">
+        <v>2</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE49" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5035,9 +5414,9 @@
       <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5135,7 +5514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -5203,7 +5582,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="I3">
         <v>20</v>
       </c>
@@ -5253,7 +5632,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>130</v>
       </c>
@@ -5306,7 +5685,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -5359,7 +5738,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>132</v>
       </c>
@@ -5412,7 +5791,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -5465,7 +5844,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>138</v>
       </c>
@@ -5518,7 +5897,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -5571,7 +5950,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -5624,7 +6003,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -5677,7 +6056,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -5730,7 +6109,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -5783,7 +6162,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>131</v>
       </c>
@@ -5836,7 +6215,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>132</v>
       </c>
@@ -5889,7 +6268,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>134</v>
       </c>
@@ -5942,7 +6321,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -5995,7 +6374,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -6051,7 +6430,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -6104,7 +6483,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -6157,7 +6536,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -6210,7 +6589,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>138</v>
       </c>
@@ -6263,7 +6642,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -6316,7 +6695,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>130</v>
       </c>
@@ -6369,7 +6748,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>131</v>
       </c>
@@ -6422,7 +6801,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>132</v>
       </c>
@@ -6475,7 +6854,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>134</v>
       </c>
@@ -6528,7 +6907,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -6581,7 +6960,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -6637,7 +7016,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>131</v>
       </c>
@@ -6690,7 +7069,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>132</v>
       </c>
@@ -6743,7 +7122,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -6796,7 +7175,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>138</v>
       </c>
@@ -6849,7 +7228,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -6899,7 +7278,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>248</v>
       </c>
@@ -6949,7 +7328,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>249</v>
       </c>
@@ -6999,7 +7378,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>250</v>
       </c>
@@ -7049,7 +7428,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>251</v>
       </c>
@@ -7099,7 +7478,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>252</v>
       </c>
@@ -7149,7 +7528,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>248</v>
       </c>
@@ -7199,7 +7578,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>249</v>
       </c>
@@ -7249,7 +7628,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>250</v>
       </c>
@@ -7299,7 +7678,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>251</v>
       </c>
@@ -7349,7 +7728,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -7399,7 +7778,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -7449,7 +7828,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>248</v>
       </c>
@@ -7499,7 +7878,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>249</v>
       </c>
@@ -7549,7 +7928,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>250</v>
       </c>
@@ -7599,7 +7978,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>251</v>
       </c>
@@ -7649,7 +8028,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -7699,7 +8078,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>248</v>
       </c>
@@ -7749,7 +8128,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>249</v>
       </c>
@@ -7799,7 +8178,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>250</v>
       </c>
@@ -7849,7 +8228,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>251</v>
       </c>
@@ -7899,7 +8278,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>252</v>
       </c>
@@ -7949,7 +8328,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -7999,7 +8378,7 @@
         <v>1668.75</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>248</v>
       </c>
@@ -8049,7 +8428,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>249</v>
       </c>
@@ -8099,7 +8478,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>250</v>
       </c>
@@ -8149,7 +8528,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>251</v>
       </c>
@@ -8199,7 +8578,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>252</v>
       </c>
@@ -8249,7 +8628,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -8299,7 +8678,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>248</v>
       </c>
@@ -8349,7 +8728,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>249</v>
       </c>
@@ -8399,7 +8778,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>250</v>
       </c>
@@ -8449,7 +8828,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>251</v>
       </c>
@@ -8499,7 +8878,7 @@
         <v>1143.75</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -8549,7 +8928,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>248</v>
       </c>
@@ -8599,7 +8978,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>249</v>
       </c>
@@ -8649,7 +9028,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>250</v>
       </c>
@@ -8699,7 +9078,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>251</v>
       </c>
@@ -8749,7 +9128,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>252</v>
       </c>
@@ -8799,7 +9178,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -8849,7 +9228,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>248</v>
       </c>
@@ -8899,7 +9278,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>249</v>
       </c>
@@ -8949,7 +9328,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>252</v>
       </c>
@@ -8999,7 +9378,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -9049,7 +9428,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>249</v>
       </c>
@@ -9099,7 +9478,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>284</v>
       </c>
@@ -9149,7 +9528,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>285</v>
       </c>
@@ -9199,7 +9578,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>286</v>
       </c>
@@ -9249,7 +9628,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>287</v>
       </c>
@@ -9299,7 +9678,7 @@
         <v>1443.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>288</v>
       </c>
@@ -9349,7 +9728,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>289</v>
       </c>
@@ -9399,7 +9778,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -9452,7 +9831,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>286</v>
       </c>
@@ -9502,7 +9881,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>287</v>
       </c>
@@ -9552,7 +9931,7 @@
         <v>393.75</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>288</v>
       </c>
@@ -9602,7 +9981,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>289</v>
       </c>
@@ -9652,7 +10031,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -9702,7 +10081,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>285</v>
       </c>
@@ -9752,7 +10131,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>286</v>
       </c>
@@ -9802,7 +10181,7 @@
         <v>1256.25</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>287</v>
       </c>
@@ -9852,7 +10231,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>288</v>
       </c>
@@ -9902,7 +10281,7 @@
         <v>1368.75</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>289</v>
       </c>
@@ -9952,7 +10331,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -10005,7 +10384,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>286</v>
       </c>
@@ -10055,7 +10434,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>287</v>
       </c>
@@ -10105,7 +10484,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>288</v>
       </c>
@@ -10155,7 +10534,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>289</v>
       </c>
@@ -10205,7 +10584,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -10255,7 +10634,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>285</v>
       </c>
@@ -10305,7 +10684,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>286</v>
       </c>
@@ -10355,7 +10734,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>287</v>
       </c>
@@ -10405,7 +10784,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>288</v>
       </c>
@@ -10455,7 +10834,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>289</v>
       </c>
@@ -10505,7 +10884,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>151</v>
       </c>
@@ -10558,7 +10937,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>286</v>
       </c>
@@ -10608,7 +10987,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>287</v>
       </c>
@@ -10658,7 +11037,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>288</v>
       </c>
@@ -10708,7 +11087,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>289</v>
       </c>
@@ -10768,14 +11147,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z48" sqref="Z48:Z57"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10855,7 +11234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -10909,7 +11288,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -10963,7 +11342,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -11017,7 +11396,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -11071,7 +11450,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -11125,7 +11504,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -11179,7 +11558,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -11233,7 +11612,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -11287,7 +11666,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -11341,7 +11720,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -11395,7 +11774,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -11449,7 +11828,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -11500,7 +11879,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -11554,7 +11933,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -11608,7 +11987,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -11662,7 +12041,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -11716,7 +12095,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -11767,7 +12146,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -11818,7 +12197,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -11869,7 +12248,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -11920,7 +12299,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -11971,7 +12350,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -12022,7 +12401,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -12073,7 +12452,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -12127,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -12181,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -12235,7 +12614,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -12286,7 +12665,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -12337,7 +12716,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -12388,7 +12767,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -12439,7 +12818,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -12490,7 +12869,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -12541,7 +12920,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -12592,7 +12971,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -12643,7 +13022,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -12694,7 +13073,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>221</v>
       </c>
@@ -12745,7 +13124,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -12796,7 +13175,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -12847,7 +13226,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -12898,7 +13277,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -12949,7 +13328,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -13000,7 +13379,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -13051,7 +13430,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -13102,7 +13481,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -13153,7 +13532,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -13204,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -13255,7 +13634,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -13315,7 +13694,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -13373,7 +13752,7 @@
       </c>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>301</v>
       </c>
@@ -13431,7 +13810,7 @@
       </c>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>303</v>
       </c>
@@ -13489,7 +13868,7 @@
       </c>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>305</v>
       </c>
@@ -13547,7 +13926,7 @@
       </c>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -13605,7 +13984,7 @@
       </c>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -13663,7 +14042,7 @@
       </c>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -13721,7 +14100,7 @@
       </c>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>314</v>
       </c>
@@ -13779,7 +14158,7 @@
       </c>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -13837,7 +14216,7 @@
       </c>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>345</v>
       </c>
@@ -13894,7 +14273,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>346</v>
       </c>
@@ -13968,9 +14347,9 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14062,7 +14441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -14108,7 +14487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -14148,7 +14527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -14191,7 +14570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -14231,7 +14610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -14274,7 +14653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -14314,7 +14693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -14357,7 +14736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -14397,7 +14776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -14437,7 +14816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>241</v>
       </c>
@@ -14477,7 +14856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>294</v>
       </c>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-0.1.6.146\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-Github\China-Set-Trains-main (4)\China-Set-Trains-main\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76D7D23-A0AE-4D05-82DD-9FB5C3C8FC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D086BD-6865-4E25-9065-03931AF1244D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="366">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1419,6 +1419,10 @@
   </si>
   <si>
     <t>alternative livery:DF4D3110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4B3110</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1484,12 +1488,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1499,7 +1497,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1783,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
@@ -5084,66 +5088,66 @@
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="5">
         <v>1999</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="5">
         <v>30</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="5">
         <v>60</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="5">
         <v>30</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="5">
         <v>16</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="5">
         <v>120</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="5">
         <v>3300</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="5">
         <v>138</v>
       </c>
-      <c r="N46" s="6"/>
-      <c r="O46" s="7">
+      <c r="N46" s="4"/>
+      <c r="O46" s="5">
         <v>138</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="5">
         <v>0.27876367899999999</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="5">
         <v>377</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="5">
         <v>76</v>
       </c>
-      <c r="S46" s="7">
+      <c r="S46" s="5">
         <v>237500</v>
       </c>
-      <c r="T46" s="7">
+      <c r="T46" s="5">
         <v>58</v>
       </c>
-      <c r="U46" s="7">
+      <c r="U46" s="5">
         <v>14137.5</v>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="5">
         <v>10</v>
       </c>
       <c r="W46">
@@ -5163,66 +5167,66 @@
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="5">
         <v>1985</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="5">
         <v>30</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="5">
         <v>60</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="5">
         <v>30</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="5">
         <v>16</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="5">
         <v>100</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="5">
         <v>3600</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="5">
         <v>138</v>
       </c>
-      <c r="N47" s="6"/>
-      <c r="O47" s="7">
+      <c r="N47" s="4"/>
+      <c r="O47" s="5">
         <v>138</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="5">
         <v>0.32534753</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="5">
         <v>440</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="5">
         <v>81</v>
       </c>
-      <c r="S47" s="7">
+      <c r="S47" s="5">
         <v>253125</v>
       </c>
-      <c r="T47" s="7">
+      <c r="T47" s="5">
         <v>61</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="5">
         <v>14868.75</v>
       </c>
-      <c r="V47" s="7">
+      <c r="V47" s="5">
         <v>10</v>
       </c>
       <c r="W47">
@@ -5242,64 +5246,64 @@
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="5">
         <v>1997.6</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="5">
         <v>30</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="7">
+      <c r="I48" s="6"/>
+      <c r="J48" s="5">
         <v>14</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="5">
         <v>100</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="5">
         <v>4214</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="5">
         <v>143.5</v>
       </c>
-      <c r="N48" s="6"/>
-      <c r="O48" s="7">
+      <c r="N48" s="4"/>
+      <c r="O48" s="5">
         <v>143.5</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="5">
         <v>0.34132119700000002</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="5">
         <v>480</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R48" s="5">
         <v>86</v>
       </c>
-      <c r="S48" s="7">
+      <c r="S48" s="5">
         <v>268750</v>
       </c>
-      <c r="T48" s="7">
+      <c r="T48" s="5">
         <v>66</v>
       </c>
-      <c r="U48" s="7">
+      <c r="U48" s="5">
         <v>16087.5</v>
       </c>
-      <c r="V48" s="7">
+      <c r="V48" s="5">
         <v>10</v>
       </c>
       <c r="W48">
@@ -13690,7 +13694,7 @@
       <c r="Y48" t="s">
         <v>350</v>
       </c>
-      <c r="Z48" s="3" t="s">
+      <c r="Z48" s="7" t="s">
         <v>318</v>
       </c>
     </row>
@@ -13750,7 +13754,7 @@
       <c r="Y49" t="s">
         <v>350</v>
       </c>
-      <c r="Z49" s="4"/>
+      <c r="Z49" s="8"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -13808,7 +13812,7 @@
       <c r="Y50" t="s">
         <v>350</v>
       </c>
-      <c r="Z50" s="4"/>
+      <c r="Z50" s="8"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -13866,7 +13870,7 @@
       <c r="Y51" t="s">
         <v>350</v>
       </c>
-      <c r="Z51" s="4"/>
+      <c r="Z51" s="8"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -13924,7 +13928,7 @@
       <c r="Y52" t="s">
         <v>350</v>
       </c>
-      <c r="Z52" s="4"/>
+      <c r="Z52" s="8"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -13982,7 +13986,7 @@
       <c r="Y53" t="s">
         <v>350</v>
       </c>
-      <c r="Z53" s="4"/>
+      <c r="Z53" s="8"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -14040,7 +14044,7 @@
       <c r="Y54" t="s">
         <v>350</v>
       </c>
-      <c r="Z54" s="4"/>
+      <c r="Z54" s="8"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -14098,7 +14102,7 @@
       <c r="Y55" t="s">
         <v>350</v>
       </c>
-      <c r="Z55" s="4"/>
+      <c r="Z55" s="8"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -14156,7 +14160,7 @@
       <c r="Y56" t="s">
         <v>350</v>
       </c>
-      <c r="Z56" s="4"/>
+      <c r="Z56" s="8"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -14214,7 +14218,7 @@
       <c r="Y57" t="s">
         <v>350</v>
       </c>
-      <c r="Z57" s="4"/>
+      <c r="Z57" s="8"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -14343,8 +14347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14526,6 +14530,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="AD3" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-Github\China-Set-Trains-main (4)\China-Set-Trains-main\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-site\China-Set-Trains-230207\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D086BD-6865-4E25-9065-03931AF1244D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21AF65D-A774-49FA-95E1-33E37A01E42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="392">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1423,6 +1423,110 @@
   </si>
   <si>
     <t>DF4B3110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSQ6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsq6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW19K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW19T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw19k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw19t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>haiyan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UZ22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uz22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_MAIL, GOOD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz22aircon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ22AIRCON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RZ22AIRCON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rz22aircon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YW22AIRCON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yw22aircon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW22AIRCON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw22aircon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA23AIRCON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca23aircon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA23</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1788,8 +1892,8 @@
   <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5413,7 +5517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
     </sheetView>
@@ -11149,11 +11253,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13676,19 +13780,19 @@
         <v>46.4</v>
       </c>
       <c r="Q48">
-        <f t="shared" ref="Q48:Q59" si="29">MEDIAN(0,255,ROUND(P48/20+SQRT(H48)/40+SQRT(M48)/2+(SQRT(O48)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Q48:Q62" si="29">MEDIAN(0,255,ROUND(P48/20+SQRT(H48)/40+SQRT(M48)/2+(SQRT(O48)-SQRT(185)), 0))</f>
         <v>9</v>
       </c>
       <c r="R48">
-        <f t="shared" ref="R48:R59" si="30">Q48*50000/16</f>
+        <f t="shared" ref="R48:R62" si="30">Q48*50000/16</f>
         <v>28125</v>
       </c>
       <c r="S48">
-        <f t="shared" ref="S48:S59" si="31">MEDIAN(0,255,ROUND(SQRT(H48)/200+SQRT(M48)/2+(SQRT(O48)-SQRT(185)),0))</f>
+        <f t="shared" ref="S48:S62" si="31">MEDIAN(0,255,ROUND(SQRT(H48)/200+SQRT(M48)/2+(SQRT(O48)-SQRT(185)),0))</f>
         <v>7</v>
       </c>
       <c r="T48">
-        <f t="shared" ref="T48:T59" si="32">S48*300/16*12</f>
+        <f t="shared" ref="T48:T62" si="32">S48*300/16*12</f>
         <v>1575</v>
       </c>
       <c r="Y48" t="s">
@@ -14332,6 +14436,576 @@
       </c>
       <c r="Z59" t="s">
         <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>370</v>
+      </c>
+      <c r="B60" t="s">
+        <v>372</v>
+      </c>
+      <c r="E60">
+        <v>1997</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60">
+        <v>160</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+      <c r="M60">
+        <v>16</v>
+      </c>
+      <c r="N60">
+        <v>16</v>
+      </c>
+      <c r="O60">
+        <v>640</v>
+      </c>
+      <c r="P60">
+        <v>50</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="30"/>
+        <v>53125</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="31"/>
+        <v>14</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="32"/>
+        <v>3150</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>371</v>
+      </c>
+      <c r="B61" t="s">
+        <v>373</v>
+      </c>
+      <c r="E61">
+        <v>2007.5</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61">
+        <v>160</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+      <c r="M61">
+        <v>16</v>
+      </c>
+      <c r="N61">
+        <v>16</v>
+      </c>
+      <c r="O61">
+        <v>640</v>
+      </c>
+      <c r="P61">
+        <v>54</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="30"/>
+        <v>53125</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="31"/>
+        <v>14</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="32"/>
+        <v>3150</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>375</v>
+      </c>
+      <c r="B62" t="s">
+        <v>376</v>
+      </c>
+      <c r="E62">
+        <v>1959</v>
+      </c>
+      <c r="F62">
+        <v>30</v>
+      </c>
+      <c r="G62">
+        <v>35</v>
+      </c>
+      <c r="H62">
+        <v>120</v>
+      </c>
+      <c r="I62" t="s">
+        <v>377</v>
+      </c>
+      <c r="M62">
+        <v>68</v>
+      </c>
+      <c r="N62">
+        <v>12</v>
+      </c>
+      <c r="O62">
+        <v>200</v>
+      </c>
+      <c r="P62">
+        <v>43</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="30"/>
+        <v>21875</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="32"/>
+        <v>1125</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>379</v>
+      </c>
+      <c r="B63" t="s">
+        <v>378</v>
+      </c>
+      <c r="E63">
+        <v>1985</v>
+      </c>
+      <c r="F63">
+        <v>30</v>
+      </c>
+      <c r="G63">
+        <v>35</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+      <c r="M63">
+        <v>118</v>
+      </c>
+      <c r="N63">
+        <v>16</v>
+      </c>
+      <c r="O63">
+        <v>200</v>
+      </c>
+      <c r="P63">
+        <v>42.5</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ref="Q63:Q69" si="33">MEDIAN(0,255,ROUND(P63/20+SQRT(H63)/40+SQRT(M63)/2+(SQRT(O63)-SQRT(185)), 0))</f>
+        <v>8</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ref="R63:R69" si="34">Q63*50000/16</f>
+        <v>25000</v>
+      </c>
+      <c r="S63">
+        <f t="shared" ref="S63:S69" si="35">MEDIAN(0,255,ROUND(SQRT(H63)/200+SQRT(M63)/2+(SQRT(O63)-SQRT(185)),0))</f>
+        <v>6</v>
+      </c>
+      <c r="T63">
+        <f t="shared" ref="T63:T69" si="36">S63*300/16*12</f>
+        <v>1350</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B64" t="s">
+        <v>381</v>
+      </c>
+      <c r="E64">
+        <v>1985</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>35</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+      <c r="M64">
+        <v>64</v>
+      </c>
+      <c r="N64">
+        <v>16</v>
+      </c>
+      <c r="O64">
+        <v>240</v>
+      </c>
+      <c r="P64">
+        <v>46</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="34"/>
+        <v>25000</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="36"/>
+        <v>1350</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>382</v>
+      </c>
+      <c r="B65" t="s">
+        <v>383</v>
+      </c>
+      <c r="E65">
+        <v>1985</v>
+      </c>
+      <c r="F65">
+        <v>30</v>
+      </c>
+      <c r="G65">
+        <v>35</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+      <c r="M65">
+        <v>60</v>
+      </c>
+      <c r="N65">
+        <v>16</v>
+      </c>
+      <c r="O65">
+        <v>360</v>
+      </c>
+      <c r="P65">
+        <v>45</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="33"/>
+        <v>12</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="34"/>
+        <v>37500</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="36"/>
+        <v>2025</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>385</v>
+      </c>
+      <c r="E66">
+        <v>1985</v>
+      </c>
+      <c r="F66">
+        <v>30</v>
+      </c>
+      <c r="G66">
+        <v>35</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
+      </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M66">
+        <v>32</v>
+      </c>
+      <c r="N66">
+        <v>16</v>
+      </c>
+      <c r="O66">
+        <v>480</v>
+      </c>
+      <c r="P66">
+        <v>47</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="34"/>
+        <v>43750</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="36"/>
+        <v>2475</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>388</v>
+      </c>
+      <c r="B67" t="s">
+        <v>389</v>
+      </c>
+      <c r="E67">
+        <v>1985</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <v>35</v>
+      </c>
+      <c r="H67">
+        <v>100</v>
+      </c>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+      <c r="M67">
+        <v>48</v>
+      </c>
+      <c r="N67">
+        <v>8</v>
+      </c>
+      <c r="O67">
+        <v>200</v>
+      </c>
+      <c r="P67">
+        <v>45</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="34"/>
+        <v>21875</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="36"/>
+        <v>900</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>391</v>
+      </c>
+      <c r="B68" t="s">
+        <v>390</v>
+      </c>
+      <c r="E68">
+        <v>1963</v>
+      </c>
+      <c r="F68">
+        <v>30</v>
+      </c>
+      <c r="G68">
+        <v>35</v>
+      </c>
+      <c r="H68">
+        <v>120</v>
+      </c>
+      <c r="I68" t="s">
+        <v>90</v>
+      </c>
+      <c r="M68">
+        <v>48</v>
+      </c>
+      <c r="N68">
+        <v>8</v>
+      </c>
+      <c r="O68">
+        <v>144</v>
+      </c>
+      <c r="P68">
+        <v>45</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="34"/>
+        <v>12500</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="36"/>
+        <v>450</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>386</v>
+      </c>
+      <c r="B69" t="s">
+        <v>387</v>
+      </c>
+      <c r="E69">
+        <v>1985</v>
+      </c>
+      <c r="F69">
+        <v>30</v>
+      </c>
+      <c r="G69">
+        <v>35</v>
+      </c>
+      <c r="H69">
+        <v>120</v>
+      </c>
+      <c r="I69" t="s">
+        <v>90</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>16</v>
+      </c>
+      <c r="O69">
+        <v>185</v>
+      </c>
+      <c r="P69">
+        <v>60</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="34"/>
+        <v>9375</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -14345,10 +15019,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14483,7 +15157,7 @@
         <v>22.5</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U12" si="0">MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
+        <f t="shared" ref="U2:U14" si="0">MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
         <v>5</v>
       </c>
       <c r="W2">
@@ -14901,6 +15575,89 @@
       <c r="W12">
         <f>MEDIAN(0,255,ROUND(SQRT(J12)/200+SQRT(P12)/2+(SQRT(R12)-SQRT(185)),0))</f>
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F13">
+        <v>2008</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13">
+        <v>120</v>
+      </c>
+      <c r="P13">
+        <v>22</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>400</v>
+      </c>
+      <c r="S13">
+        <v>37</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <f>MEDIAN(0,255,ROUND(SQRT(J13)/200+SQRT(P13)/2+(SQRT(R13)-SQRT(185)),0))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14">
+        <v>1980</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>45</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>800</v>
+      </c>
+      <c r="S14">
+        <v>34</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W14">
+        <f>MEDIAN(0,255,ROUND(SQRT(J14)/200+SQRT(P14)/2+(SQRT(R14)-SQRT(185)),0))</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,23 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-site\China-Set-Trains-230207\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21AF65D-A774-49FA-95E1-33E37A01E42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4C339-F8E3-4739-A59D-84B13F55F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
     <sheet name="MU" sheetId="2" r:id="rId2"/>
-    <sheet name="Coaches" sheetId="3" r:id="rId3"/>
-    <sheet name="Wagons" sheetId="4" r:id="rId4"/>
+    <sheet name="Wagons" sheetId="4" r:id="rId3"/>
+    <sheet name="Coaches" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1610,8 +1621,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1892,18 +1903,18 @@
   <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.625" style="1"/>
-    <col min="29" max="30" width="8.625" style="2"/>
+    <col min="26" max="28" width="8.58203125" style="1"/>
+    <col min="29" max="30" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +2009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2089,7 +2100,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2138,7 +2149,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2187,7 +2198,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2236,7 +2247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2285,7 +2296,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2331,7 +2342,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2413,7 +2424,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -2510,7 +2521,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -2579,7 +2590,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -2645,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -2714,7 +2725,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -2763,7 +2774,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2832,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2881,7 +2892,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2954,7 +2965,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3000,7 +3011,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3066,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3115,7 +3126,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3209,7 +3220,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>319</v>
       </c>
@@ -3294,7 +3305,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -3388,7 +3399,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -3471,7 +3482,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>331</v>
       </c>
@@ -3542,7 +3553,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -3613,7 +3624,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -3687,7 +3698,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>338</v>
       </c>
@@ -3761,7 +3772,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -3845,7 +3856,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3894,7 +3905,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3967,7 +3978,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4040,7 +4051,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4113,7 +4124,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4210,7 +4221,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4259,7 +4270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -4356,7 +4367,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -4420,7 +4431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -4487,7 +4498,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -4572,7 +4583,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -4660,7 +4671,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -4748,7 +4759,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -4836,7 +4847,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -4924,7 +4935,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -5012,7 +5023,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -5103,7 +5114,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -5191,7 +5202,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>351</v>
       </c>
@@ -5270,7 +5281,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>353</v>
       </c>
@@ -5349,7 +5360,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>355</v>
       </c>
@@ -5426,7 +5437,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>359</v>
       </c>
@@ -5517,14 +5528,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5622,7 +5633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -5690,7 +5701,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I3">
         <v>20</v>
       </c>
@@ -5740,7 +5751,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>130</v>
       </c>
@@ -5793,7 +5804,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -5846,7 +5857,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>132</v>
       </c>
@@ -5899,7 +5910,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -5952,7 +5963,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>138</v>
       </c>
@@ -6005,7 +6016,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -6058,7 +6069,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -6111,7 +6122,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -6164,7 +6175,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -6217,7 +6228,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -6270,7 +6281,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>131</v>
       </c>
@@ -6323,7 +6334,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>132</v>
       </c>
@@ -6376,7 +6387,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>134</v>
       </c>
@@ -6429,7 +6440,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -6482,7 +6493,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -6538,7 +6549,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -6591,7 +6602,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -6644,7 +6655,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -6697,7 +6708,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>138</v>
       </c>
@@ -6750,7 +6761,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -6803,7 +6814,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>130</v>
       </c>
@@ -6856,7 +6867,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>131</v>
       </c>
@@ -6909,7 +6920,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>132</v>
       </c>
@@ -6962,7 +6973,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>134</v>
       </c>
@@ -7015,7 +7026,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -7068,7 +7079,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -7124,7 +7135,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>131</v>
       </c>
@@ -7177,7 +7188,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>132</v>
       </c>
@@ -7230,7 +7241,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -7283,7 +7294,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>138</v>
       </c>
@@ -7336,7 +7347,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -7386,7 +7397,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>248</v>
       </c>
@@ -7436,7 +7447,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>249</v>
       </c>
@@ -7486,7 +7497,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>250</v>
       </c>
@@ -7536,7 +7547,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>251</v>
       </c>
@@ -7586,7 +7597,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>252</v>
       </c>
@@ -7636,7 +7647,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>248</v>
       </c>
@@ -7686,7 +7697,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>249</v>
       </c>
@@ -7736,7 +7747,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>250</v>
       </c>
@@ -7786,7 +7797,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>251</v>
       </c>
@@ -7836,7 +7847,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -7886,7 +7897,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -7936,7 +7947,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>248</v>
       </c>
@@ -7986,7 +7997,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>249</v>
       </c>
@@ -8036,7 +8047,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>250</v>
       </c>
@@ -8086,7 +8097,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>251</v>
       </c>
@@ -8136,7 +8147,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -8186,7 +8197,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>248</v>
       </c>
@@ -8236,7 +8247,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>249</v>
       </c>
@@ -8286,7 +8297,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>250</v>
       </c>
@@ -8336,7 +8347,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>251</v>
       </c>
@@ -8386,7 +8397,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>252</v>
       </c>
@@ -8436,7 +8447,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -8486,7 +8497,7 @@
         <v>1668.75</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>248</v>
       </c>
@@ -8536,7 +8547,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>249</v>
       </c>
@@ -8586,7 +8597,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>250</v>
       </c>
@@ -8636,7 +8647,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>251</v>
       </c>
@@ -8686,7 +8697,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>252</v>
       </c>
@@ -8736,7 +8747,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -8786,7 +8797,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>248</v>
       </c>
@@ -8836,7 +8847,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>249</v>
       </c>
@@ -8886,7 +8897,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>250</v>
       </c>
@@ -8936,7 +8947,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>251</v>
       </c>
@@ -8986,7 +8997,7 @@
         <v>1143.75</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -9036,7 +9047,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>248</v>
       </c>
@@ -9086,7 +9097,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>249</v>
       </c>
@@ -9136,7 +9147,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>250</v>
       </c>
@@ -9186,7 +9197,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>251</v>
       </c>
@@ -9236,7 +9247,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>252</v>
       </c>
@@ -9286,7 +9297,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -9336,7 +9347,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>248</v>
       </c>
@@ -9386,7 +9397,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>249</v>
       </c>
@@ -9436,7 +9447,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>252</v>
       </c>
@@ -9486,7 +9497,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -9536,7 +9547,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>249</v>
       </c>
@@ -9586,7 +9597,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>284</v>
       </c>
@@ -9636,7 +9647,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>285</v>
       </c>
@@ -9686,7 +9697,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>286</v>
       </c>
@@ -9736,7 +9747,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>287</v>
       </c>
@@ -9786,7 +9797,7 @@
         <v>1443.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>288</v>
       </c>
@@ -9836,7 +9847,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>289</v>
       </c>
@@ -9886,7 +9897,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -9939,7 +9950,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>286</v>
       </c>
@@ -9989,7 +10000,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>287</v>
       </c>
@@ -10039,7 +10050,7 @@
         <v>393.75</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>288</v>
       </c>
@@ -10089,7 +10100,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>289</v>
       </c>
@@ -10139,7 +10150,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -10189,7 +10200,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>285</v>
       </c>
@@ -10239,7 +10250,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>286</v>
       </c>
@@ -10289,7 +10300,7 @@
         <v>1256.25</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>287</v>
       </c>
@@ -10339,7 +10350,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>288</v>
       </c>
@@ -10389,7 +10400,7 @@
         <v>1368.75</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>289</v>
       </c>
@@ -10439,7 +10450,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -10492,7 +10503,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>286</v>
       </c>
@@ -10542,7 +10553,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>287</v>
       </c>
@@ -10592,7 +10603,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>288</v>
       </c>
@@ -10642,7 +10653,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>289</v>
       </c>
@@ -10692,7 +10703,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -10742,7 +10753,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>285</v>
       </c>
@@ -10792,7 +10803,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>286</v>
       </c>
@@ -10842,7 +10853,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>287</v>
       </c>
@@ -10892,7 +10903,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>288</v>
       </c>
@@ -10942,7 +10953,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>289</v>
       </c>
@@ -10992,7 +11003,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>151</v>
       </c>
@@ -11045,7 +11056,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>286</v>
       </c>
@@ -11095,7 +11106,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>287</v>
       </c>
@@ -11145,7 +11156,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>288</v>
       </c>
@@ -11195,7 +11206,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>289</v>
       </c>
@@ -11252,17 +11263,666 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
+  <dimension ref="A1:AD14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2">
+        <v>1987</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2">
+        <v>61</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>185</v>
+      </c>
+      <c r="S2">
+        <v>22.5</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:U14" si="0">MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2:W11" si="1">MEDIAN(0,255,ROUND(SQRT(J2)/200+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3">
+        <v>1980</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>12</v>
+      </c>
+      <c r="R3">
+        <v>185</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4">
+        <v>1958</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>180</v>
+      </c>
+      <c r="P4">
+        <v>52</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>185</v>
+      </c>
+      <c r="S4">
+        <v>20.6</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5">
+        <v>1965</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>60</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <v>185</v>
+      </c>
+      <c r="S5">
+        <v>22.2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6">
+        <v>1971</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>60</v>
+      </c>
+      <c r="Q6">
+        <v>16</v>
+      </c>
+      <c r="R6">
+        <v>185</v>
+      </c>
+      <c r="S6">
+        <v>20.6</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7">
+        <v>1998</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>60</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>185</v>
+      </c>
+      <c r="S7">
+        <v>22.1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8">
+        <v>1958</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="P8">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>185</v>
+      </c>
+      <c r="S8">
+        <v>18</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9">
+        <v>2005</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9">
+        <v>120</v>
+      </c>
+      <c r="P9">
+        <v>70</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <v>185</v>
+      </c>
+      <c r="S9">
+        <v>23.8</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10">
+        <v>2003</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10">
+        <v>120</v>
+      </c>
+      <c r="P10">
+        <v>70</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+      <c r="R10">
+        <v>185</v>
+      </c>
+      <c r="S10">
+        <v>24.5</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11">
+        <v>2005</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="P11">
+        <v>70</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>185</v>
+      </c>
+      <c r="S11">
+        <v>23.4</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12">
+        <v>2006</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J12">
+        <v>120</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>400</v>
+      </c>
+      <c r="S12">
+        <v>37</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="W12">
+        <f>MEDIAN(0,255,ROUND(SQRT(J12)/200+SQRT(P12)/2+(SQRT(R12)-SQRT(185)),0))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F13">
+        <v>2008</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13">
+        <v>120</v>
+      </c>
+      <c r="P13">
+        <v>22</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>400</v>
+      </c>
+      <c r="S13">
+        <v>37</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <f>MEDIAN(0,255,ROUND(SQRT(J13)/200+SQRT(P13)/2+(SQRT(R13)-SQRT(185)),0))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14">
+        <v>1980</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>45</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>800</v>
+      </c>
+      <c r="S14">
+        <v>34</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W14">
+        <f>MEDIAN(0,255,ROUND(SQRT(J14)/200+SQRT(P14)/2+(SQRT(R14)-SQRT(185)),0))</f>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomLeft" activeCell="Z60" sqref="Z60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11342,7 +12002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -11396,7 +12056,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -11450,7 +12110,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -11504,7 +12164,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -11558,7 +12218,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -11612,7 +12272,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -11666,7 +12326,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -11720,7 +12380,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -11774,7 +12434,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -11828,7 +12488,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -11882,7 +12542,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -11936,7 +12596,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -11987,7 +12647,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -12041,7 +12701,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -12095,7 +12755,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -12149,7 +12809,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -12203,7 +12863,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -12254,7 +12914,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -12305,7 +12965,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -12356,7 +13016,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -12407,7 +13067,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -12458,7 +13118,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -12509,7 +13169,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -12560,7 +13220,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -12614,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -12668,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -12722,7 +13382,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -12773,7 +13433,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -12824,7 +13484,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -12875,7 +13535,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -12926,7 +13586,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -12977,7 +13637,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -13028,7 +13688,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -13079,7 +13739,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -13130,7 +13790,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -13181,7 +13841,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>221</v>
       </c>
@@ -13232,7 +13892,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -13283,7 +13943,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -13334,7 +13994,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -13385,7 +14045,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -13436,7 +14096,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -13487,7 +14147,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -13538,7 +14198,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -13589,7 +14249,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -13640,7 +14300,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -13691,7 +14351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -13742,7 +14402,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -13802,7 +14462,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -13860,7 +14520,7 @@
       </c>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>301</v>
       </c>
@@ -13918,7 +14578,7 @@
       </c>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>303</v>
       </c>
@@ -13976,7 +14636,7 @@
       </c>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>305</v>
       </c>
@@ -14034,7 +14694,7 @@
       </c>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -14092,7 +14752,7 @@
       </c>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -14150,7 +14810,7 @@
       </c>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -14208,7 +14868,7 @@
       </c>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>314</v>
       </c>
@@ -14266,7 +14926,7 @@
       </c>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -14324,7 +14984,7 @@
       </c>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>345</v>
       </c>
@@ -14381,7 +15041,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>346</v>
       </c>
@@ -14438,7 +15098,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>370</v>
       </c>
@@ -14495,7 +15155,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>371</v>
       </c>
@@ -14552,7 +15212,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -14609,7 +15269,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -14666,7 +15326,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>380</v>
       </c>
@@ -14723,7 +15383,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -14780,7 +15440,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>384</v>
       </c>
@@ -14837,7 +15497,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>388</v>
       </c>
@@ -14894,7 +15554,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -14951,7 +15611,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>386</v>
       </c>
@@ -15015,653 +15675,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2">
-        <v>1987</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="L2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2">
-        <v>61</v>
-      </c>
-      <c r="Q2">
-        <v>16</v>
-      </c>
-      <c r="R2">
-        <v>185</v>
-      </c>
-      <c r="S2">
-        <v>22.5</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U14" si="0">MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
-        <v>5</v>
-      </c>
-      <c r="W2">
-        <f t="shared" ref="W2:W11" si="1">MEDIAN(0,255,ROUND(SQRT(J2)/200+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3">
-        <v>1980</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="P3">
-        <v>60</v>
-      </c>
-      <c r="Q3">
-        <v>12</v>
-      </c>
-      <c r="R3">
-        <v>185</v>
-      </c>
-      <c r="S3">
-        <v>24</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4">
-        <v>1958</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="L4" t="s">
-        <v>180</v>
-      </c>
-      <c r="P4">
-        <v>52</v>
-      </c>
-      <c r="Q4">
-        <v>8</v>
-      </c>
-      <c r="R4">
-        <v>185</v>
-      </c>
-      <c r="S4">
-        <v>20.6</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5">
-        <v>1965</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-      <c r="P5">
-        <v>60</v>
-      </c>
-      <c r="Q5">
-        <v>12</v>
-      </c>
-      <c r="R5">
-        <v>185</v>
-      </c>
-      <c r="S5">
-        <v>22.2</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6">
-        <v>1971</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>25</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="P6">
-        <v>60</v>
-      </c>
-      <c r="Q6">
-        <v>16</v>
-      </c>
-      <c r="R6">
-        <v>185</v>
-      </c>
-      <c r="S6">
-        <v>20.6</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7">
-        <v>1998</v>
-      </c>
-      <c r="G7">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="P7">
-        <v>60</v>
-      </c>
-      <c r="Q7">
-        <v>20</v>
-      </c>
-      <c r="R7">
-        <v>185</v>
-      </c>
-      <c r="S7">
-        <v>22.1</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8">
-        <v>1958</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
-        <v>90</v>
-      </c>
-      <c r="P8">
-        <v>60</v>
-      </c>
-      <c r="Q8">
-        <v>20</v>
-      </c>
-      <c r="R8">
-        <v>185</v>
-      </c>
-      <c r="S8">
-        <v>18</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F9">
-        <v>2005</v>
-      </c>
-      <c r="G9">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9">
-        <v>120</v>
-      </c>
-      <c r="P9">
-        <v>70</v>
-      </c>
-      <c r="Q9">
-        <v>16</v>
-      </c>
-      <c r="R9">
-        <v>185</v>
-      </c>
-      <c r="S9">
-        <v>23.8</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10">
-        <v>2003</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10">
-        <v>120</v>
-      </c>
-      <c r="P10">
-        <v>70</v>
-      </c>
-      <c r="Q10">
-        <v>12</v>
-      </c>
-      <c r="R10">
-        <v>185</v>
-      </c>
-      <c r="S10">
-        <v>24.5</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11">
-        <v>2005</v>
-      </c>
-      <c r="G11">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11">
-        <v>120</v>
-      </c>
-      <c r="P11">
-        <v>70</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-      <c r="R11">
-        <v>185</v>
-      </c>
-      <c r="S11">
-        <v>23.4</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" t="s">
-        <v>295</v>
-      </c>
-      <c r="F12">
-        <v>2006</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>283</v>
-      </c>
-      <c r="J12">
-        <v>120</v>
-      </c>
-      <c r="P12">
-        <v>20</v>
-      </c>
-      <c r="Q12">
-        <v>6</v>
-      </c>
-      <c r="R12">
-        <v>400</v>
-      </c>
-      <c r="S12">
-        <v>37</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="W12">
-        <f>MEDIAN(0,255,ROUND(SQRT(J12)/200+SQRT(P12)/2+(SQRT(R12)-SQRT(185)),0))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B13" t="s">
-        <v>367</v>
-      </c>
-      <c r="F13">
-        <v>2008</v>
-      </c>
-      <c r="G13">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13">
-        <v>120</v>
-      </c>
-      <c r="P13">
-        <v>22</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
-      </c>
-      <c r="R13">
-        <v>400</v>
-      </c>
-      <c r="S13">
-        <v>37</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="W13">
-        <f>MEDIAN(0,255,ROUND(SQRT(J13)/200+SQRT(P13)/2+(SQRT(R13)-SQRT(185)),0))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>368</v>
-      </c>
-      <c r="B14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F14">
-        <v>1980</v>
-      </c>
-      <c r="G14">
-        <v>30</v>
-      </c>
-      <c r="H14">
-        <v>60</v>
-      </c>
-      <c r="I14">
-        <v>30</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="P14">
-        <v>45</v>
-      </c>
-      <c r="Q14">
-        <v>12</v>
-      </c>
-      <c r="R14">
-        <v>800</v>
-      </c>
-      <c r="S14">
-        <v>34</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="W14">
-        <f>MEDIAN(0,255,ROUND(SQRT(J14)/200+SQRT(P14)/2+(SQRT(R14)-SQRT(185)),0))</f>
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-site\China-Set-Trains-230215\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4C339-F8E3-4739-A59D-84B13F55F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12442D9-BF5A-46C8-924E-3BE0CC015F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,17 @@
     <sheet name="Wagons" sheetId="4" r:id="rId3"/>
     <sheet name="Coaches" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="399">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1538,6 +1527,34 @@
   </si>
   <si>
     <t>CA23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS3B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss3b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunjuzhensun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>l70</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1621,8 +1638,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1900,21 +1917,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.58203125" style="1"/>
-    <col min="29" max="30" width="8.58203125" style="2"/>
+    <col min="26" max="28" width="8.625" style="1"/>
+    <col min="29" max="30" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2100,7 +2117,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2149,7 +2166,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2198,7 +2215,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2247,7 +2264,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2296,7 +2313,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2342,7 +2359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2424,7 +2441,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -2521,7 +2538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -2590,7 +2607,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -2656,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -2725,7 +2742,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -2774,7 +2791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2843,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2892,7 +2909,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2965,7 +2982,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3011,7 +3028,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3077,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3126,7 +3143,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3220,7 +3237,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>319</v>
       </c>
@@ -3305,7 +3322,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -3399,7 +3416,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -3482,7 +3499,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>331</v>
       </c>
@@ -3553,7 +3570,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -3624,7 +3641,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -3698,7 +3715,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>338</v>
       </c>
@@ -3772,7 +3789,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -3856,7 +3873,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3905,7 +3922,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3978,7 +3995,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4051,7 +4068,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4124,7 +4141,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4221,7 +4238,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4270,7 +4287,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -4367,7 +4384,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -4431,7 +4448,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -4498,7 +4515,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -4583,7 +4600,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -4671,7 +4688,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -4759,7 +4776,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -4847,7 +4864,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -4935,7 +4952,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -5023,7 +5040,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -5114,7 +5131,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -5202,7 +5219,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>351</v>
       </c>
@@ -5281,7 +5298,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>353</v>
       </c>
@@ -5360,7 +5377,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>355</v>
       </c>
@@ -5437,7 +5454,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>359</v>
       </c>
@@ -5483,19 +5500,19 @@
         <v>480.10199999999998</v>
       </c>
       <c r="R49">
-        <f t="shared" ref="R49" si="41">MEDIAN(255, ROUND((M49/10+SQRT(K49)/20+SQRT(L49)+P49+20-J49), 0), 0)</f>
+        <f t="shared" ref="R49:R50" si="41">MEDIAN(255, ROUND((M49/10+SQRT(K49)/20+SQRT(L49)+P49+20-J49), 0), 0)</f>
         <v>84</v>
       </c>
       <c r="S49">
-        <f t="shared" ref="S49" si="42">R49*50000/16</f>
+        <f t="shared" ref="S49:S50" si="42">R49*50000/16</f>
         <v>262500</v>
       </c>
       <c r="T49">
-        <f t="shared" ref="T49" si="43">MEDIAN(0, 255, ROUND(SQRT(K49)/100+SQRT(L49)+P49+40/J49-2,0))</f>
+        <f t="shared" ref="T49:T50" si="43">MEDIAN(0, 255, ROUND(SQRT(K49)/100+SQRT(L49)+P49+40/J49-2,0))</f>
         <v>65</v>
       </c>
       <c r="U49">
-        <f t="shared" ref="U49" si="44">IF(E49="Steam", T49*350/16*12, IF(E49="Diesel", T49*325/16*12,  T49*300/16*12))</f>
+        <f t="shared" ref="U49:U50" si="44">IF(E49="Steam", T49*350/16*12, IF(E49="Diesel", T49*325/16*12,  T49*300/16*12))</f>
         <v>15843.75</v>
       </c>
       <c r="V49">
@@ -5516,6 +5533,85 @@
       </c>
       <c r="AE49" s="2" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E50" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G50" s="5">
+        <v>30</v>
+      </c>
+      <c r="H50">
+        <v>60</v>
+      </c>
+      <c r="I50">
+        <v>30</v>
+      </c>
+      <c r="J50" s="5">
+        <v>10</v>
+      </c>
+      <c r="K50" s="5">
+        <v>100</v>
+      </c>
+      <c r="L50" s="5">
+        <v>11828</v>
+      </c>
+      <c r="M50" s="5">
+        <v>276</v>
+      </c>
+      <c r="O50" s="5">
+        <v>276</v>
+      </c>
+      <c r="P50">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="Q50">
+        <f>2*Q30</f>
+        <v>938.56560000000002</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="41"/>
+        <v>147</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="42"/>
+        <v>459375</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="43"/>
+        <v>111</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="44"/>
+        <v>24975</v>
+      </c>
+      <c r="V50" s="5">
+        <v>10</v>
+      </c>
+      <c r="W50">
+        <v>2</v>
+      </c>
+      <c r="X50">
+        <v>6</v>
+      </c>
+      <c r="Y50">
+        <v>2</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5533,9 +5629,9 @@
       <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5633,7 +5729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -5701,7 +5797,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="I3">
         <v>20</v>
       </c>
@@ -5751,7 +5847,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>130</v>
       </c>
@@ -5804,7 +5900,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -5857,7 +5953,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>132</v>
       </c>
@@ -5910,7 +6006,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -5963,7 +6059,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>138</v>
       </c>
@@ -6016,7 +6112,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -6069,7 +6165,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -6122,7 +6218,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -6175,7 +6271,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -6228,7 +6324,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -6281,7 +6377,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>131</v>
       </c>
@@ -6334,7 +6430,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>132</v>
       </c>
@@ -6387,7 +6483,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>134</v>
       </c>
@@ -6440,7 +6536,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -6493,7 +6589,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -6549,7 +6645,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -6602,7 +6698,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -6655,7 +6751,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -6708,7 +6804,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>138</v>
       </c>
@@ -6761,7 +6857,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -6814,7 +6910,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>130</v>
       </c>
@@ -6867,7 +6963,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>131</v>
       </c>
@@ -6920,7 +7016,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>132</v>
       </c>
@@ -6973,7 +7069,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>134</v>
       </c>
@@ -7026,7 +7122,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -7079,7 +7175,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -7135,7 +7231,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>131</v>
       </c>
@@ -7188,7 +7284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>132</v>
       </c>
@@ -7241,7 +7337,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -7294,7 +7390,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>138</v>
       </c>
@@ -7347,7 +7443,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -7397,7 +7493,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>248</v>
       </c>
@@ -7447,7 +7543,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>249</v>
       </c>
@@ -7497,7 +7593,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>250</v>
       </c>
@@ -7547,7 +7643,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>251</v>
       </c>
@@ -7597,7 +7693,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>252</v>
       </c>
@@ -7647,7 +7743,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>248</v>
       </c>
@@ -7697,7 +7793,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>249</v>
       </c>
@@ -7747,7 +7843,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>250</v>
       </c>
@@ -7797,7 +7893,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>251</v>
       </c>
@@ -7847,7 +7943,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -7897,7 +7993,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -7947,7 +8043,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>248</v>
       </c>
@@ -7997,7 +8093,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>249</v>
       </c>
@@ -8047,7 +8143,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>250</v>
       </c>
@@ -8097,7 +8193,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>251</v>
       </c>
@@ -8147,7 +8243,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -8197,7 +8293,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>248</v>
       </c>
@@ -8247,7 +8343,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>249</v>
       </c>
@@ -8297,7 +8393,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>250</v>
       </c>
@@ -8347,7 +8443,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>251</v>
       </c>
@@ -8397,7 +8493,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>252</v>
       </c>
@@ -8447,7 +8543,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -8497,7 +8593,7 @@
         <v>1668.75</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>248</v>
       </c>
@@ -8547,7 +8643,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>249</v>
       </c>
@@ -8597,7 +8693,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>250</v>
       </c>
@@ -8647,7 +8743,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>251</v>
       </c>
@@ -8697,7 +8793,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>252</v>
       </c>
@@ -8747,7 +8843,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -8797,7 +8893,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>248</v>
       </c>
@@ -8847,7 +8943,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>249</v>
       </c>
@@ -8897,7 +8993,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>250</v>
       </c>
@@ -8947,7 +9043,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>251</v>
       </c>
@@ -8997,7 +9093,7 @@
         <v>1143.75</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -9047,7 +9143,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>248</v>
       </c>
@@ -9097,7 +9193,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>249</v>
       </c>
@@ -9147,7 +9243,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>250</v>
       </c>
@@ -9197,7 +9293,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>251</v>
       </c>
@@ -9247,7 +9343,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>252</v>
       </c>
@@ -9297,7 +9393,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -9347,7 +9443,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>248</v>
       </c>
@@ -9397,7 +9493,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>249</v>
       </c>
@@ -9447,7 +9543,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>252</v>
       </c>
@@ -9497,7 +9593,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -9547,7 +9643,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>249</v>
       </c>
@@ -9597,7 +9693,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>284</v>
       </c>
@@ -9647,7 +9743,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>285</v>
       </c>
@@ -9697,7 +9793,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>286</v>
       </c>
@@ -9747,7 +9843,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>287</v>
       </c>
@@ -9797,7 +9893,7 @@
         <v>1443.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>288</v>
       </c>
@@ -9847,7 +9943,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>289</v>
       </c>
@@ -9897,7 +9993,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -9950,7 +10046,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>286</v>
       </c>
@@ -10000,7 +10096,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>287</v>
       </c>
@@ -10050,7 +10146,7 @@
         <v>393.75</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>288</v>
       </c>
@@ -10100,7 +10196,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>289</v>
       </c>
@@ -10150,7 +10246,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -10200,7 +10296,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>285</v>
       </c>
@@ -10250,7 +10346,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>286</v>
       </c>
@@ -10300,7 +10396,7 @@
         <v>1256.25</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>287</v>
       </c>
@@ -10350,7 +10446,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>288</v>
       </c>
@@ -10400,7 +10496,7 @@
         <v>1368.75</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>289</v>
       </c>
@@ -10450,7 +10546,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -10503,7 +10599,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>286</v>
       </c>
@@ -10553,7 +10649,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>287</v>
       </c>
@@ -10603,7 +10699,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>288</v>
       </c>
@@ -10653,7 +10749,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>289</v>
       </c>
@@ -10703,7 +10799,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -10753,7 +10849,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>285</v>
       </c>
@@ -10803,7 +10899,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>286</v>
       </c>
@@ -10853,7 +10949,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>287</v>
       </c>
@@ -10903,7 +10999,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>288</v>
       </c>
@@ -10953,7 +11049,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>289</v>
       </c>
@@ -11003,7 +11099,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>151</v>
       </c>
@@ -11056,7 +11152,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>286</v>
       </c>
@@ -11106,7 +11202,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>287</v>
       </c>
@@ -11156,7 +11252,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>288</v>
       </c>
@@ -11206,7 +11302,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>289</v>
       </c>
@@ -11264,15 +11360,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11364,7 +11460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -11402,7 +11498,7 @@
         <v>22.5</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U14" si="0">MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
+        <f t="shared" ref="U2:U16" si="0">MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
         <v>5</v>
       </c>
       <c r="W2">
@@ -11410,7 +11506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -11453,7 +11549,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -11496,7 +11592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -11536,7 +11632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -11579,7 +11675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -11619,7 +11715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -11662,7 +11758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -11702,7 +11798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -11742,7 +11838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>241</v>
       </c>
@@ -11782,7 +11878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -11822,7 +11918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -11862,7 +11958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -11903,6 +11999,92 @@
       <c r="W14">
         <f>MEDIAN(0,255,ROUND(SQRT(J14)/200+SQRT(P14)/2+(SQRT(R14)-SQRT(185)),0))</f>
         <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B15" t="s">
+        <v>393</v>
+      </c>
+      <c r="F15">
+        <v>1986</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15">
+        <v>120</v>
+      </c>
+      <c r="P15">
+        <v>184</v>
+      </c>
+      <c r="Q15">
+        <v>48</v>
+      </c>
+      <c r="R15">
+        <v>1600</v>
+      </c>
+      <c r="S15">
+        <v>184</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="W15">
+        <f>MEDIAN(0,255,ROUND(SQRT(J15)/200+SQRT(P15)/2+(SQRT(R15)-SQRT(185)),0))</f>
+        <v>33</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" t="s">
+        <v>398</v>
+      </c>
+      <c r="F16">
+        <v>2010</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16">
+        <v>120</v>
+      </c>
+      <c r="P16">
+        <v>70</v>
+      </c>
+      <c r="Q16">
+        <v>24</v>
+      </c>
+      <c r="R16">
+        <v>185</v>
+      </c>
+      <c r="S16">
+        <v>23</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <f>MEDIAN(0,255,ROUND(SQRT(J16)/200+SQRT(P16)/2+(SQRT(R16)-SQRT(185)),0))</f>
+        <v>4</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -11915,14 +12097,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z60" sqref="Z60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12002,7 +12184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -12056,7 +12238,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -12110,7 +12292,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -12164,7 +12346,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -12218,7 +12400,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -12272,7 +12454,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -12326,7 +12508,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -12380,7 +12562,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -12434,7 +12616,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -12488,7 +12670,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -12542,7 +12724,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -12596,7 +12778,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -12647,7 +12829,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -12701,7 +12883,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -12755,7 +12937,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -12809,7 +12991,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -12863,7 +13045,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -12914,7 +13096,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -12965,7 +13147,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -13016,7 +13198,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -13067,7 +13249,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -13118,7 +13300,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -13169,7 +13351,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -13220,7 +13402,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -13274,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -13328,7 +13510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -13382,7 +13564,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -13433,7 +13615,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -13484,7 +13666,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -13535,7 +13717,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -13586,7 +13768,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -13637,7 +13819,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -13688,7 +13870,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -13739,7 +13921,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -13790,7 +13972,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -13841,7 +14023,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>221</v>
       </c>
@@ -13892,7 +14074,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -13943,7 +14125,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -13994,7 +14176,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -14045,7 +14227,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -14096,7 +14278,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -14147,7 +14329,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -14198,7 +14380,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -14249,7 +14431,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -14300,7 +14482,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -14351,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -14402,7 +14584,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -14462,7 +14644,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -14520,7 +14702,7 @@
       </c>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>301</v>
       </c>
@@ -14578,7 +14760,7 @@
       </c>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>303</v>
       </c>
@@ -14636,7 +14818,7 @@
       </c>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>305</v>
       </c>
@@ -14694,7 +14876,7 @@
       </c>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -14752,7 +14934,7 @@
       </c>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -14810,7 +14992,7 @@
       </c>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -14868,7 +15050,7 @@
       </c>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>314</v>
       </c>
@@ -14926,7 +15108,7 @@
       </c>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -14984,7 +15166,7 @@
       </c>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>345</v>
       </c>
@@ -15041,7 +15223,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>346</v>
       </c>
@@ -15098,7 +15280,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>370</v>
       </c>
@@ -15155,7 +15337,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>371</v>
       </c>
@@ -15212,7 +15394,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -15269,7 +15451,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -15326,7 +15508,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>380</v>
       </c>
@@ -15383,7 +15565,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -15440,7 +15622,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>384</v>
       </c>
@@ -15497,7 +15679,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>388</v>
       </c>
@@ -15554,7 +15736,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -15611,7 +15793,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>386</v>
       </c>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-site\China-Set-Trains-230215\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-site\China-Set-Trains-240301\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12442D9-BF5A-46C8-924E-3BE0CC015F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9337625A-F4C0-49E1-B98D-25A9B26A8FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="401">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1555,6 +1555,14 @@
   </si>
   <si>
     <t>l70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX70A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nx70a</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11360,10 +11368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11498,7 +11506,7 @@
         <v>22.5</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U16" si="0">MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
+        <f t="shared" ref="U2:U17" si="0">MEDIAN(0,255,ROUND(S2/20+SQRT(J2)/40+SQRT(P2)/2+(SQRT(R2)-SQRT(185)),0))</f>
         <v>5</v>
       </c>
       <c r="W2">
@@ -12085,6 +12093,46 @@
       </c>
       <c r="AD16" t="s">
         <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F17">
+        <v>2010</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17">
+        <v>120</v>
+      </c>
+      <c r="P17">
+        <v>70</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>185</v>
+      </c>
+      <c r="S17">
+        <v>23.8</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <f>MEDIAN(0,255,ROUND(SQRT(J17)/200+SQRT(P17)/2+(SQRT(R17)-SQRT(185)),0))</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-site\China-Set-Trains-240301\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9337625A-F4C0-49E1-B98D-25A9B26A8FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F757FA-FC75-4DCB-8FE0-88486FC436A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="Wagons" sheetId="4" r:id="rId3"/>
     <sheet name="Coaches" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="421">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1563,6 +1574,86 @@
   </si>
   <si>
     <t>nx70a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH1E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH2G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH380CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*52</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH6A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH6A2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH6A-A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH6F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype guangshen guangzhu tianfu tianfu-green zhengjiao zhuji zhusanjiao-blue zhusanjiao-orange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-car section only</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingtong jinshan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangqing guangzhu tianfu tianfu-green</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foshan jinshan xiaoyong</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1646,8 +1737,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1927,19 +2018,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S51" sqref="S51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.625" style="1"/>
-    <col min="29" max="30" width="8.625" style="2"/>
+    <col min="26" max="28" width="8.58203125" style="1"/>
+    <col min="29" max="30" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2125,7 +2216,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2174,7 +2265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2223,7 +2314,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2272,7 +2363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2321,7 +2412,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2367,7 +2458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2449,7 +2540,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -2546,7 +2637,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -2615,7 +2706,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -2681,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -2750,7 +2841,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -2799,7 +2890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2868,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2917,7 +3008,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2990,7 +3081,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3036,7 +3127,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3102,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3151,7 +3242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3245,7 +3336,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>319</v>
       </c>
@@ -3330,7 +3421,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -3424,7 +3515,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -3507,7 +3598,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>331</v>
       </c>
@@ -3578,7 +3669,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -3649,7 +3740,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -3723,7 +3814,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>338</v>
       </c>
@@ -3797,7 +3888,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -3881,7 +3972,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3930,7 +4021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4003,7 +4094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4076,7 +4167,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4149,7 +4240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4246,7 +4337,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4262,29 +4353,50 @@
       <c r="F34">
         <v>2012</v>
       </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>170</v>
+      </c>
+      <c r="L34">
+        <v>9655</v>
+      </c>
+      <c r="M34">
+        <v>126</v>
+      </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="P34">
+        <v>0.34</v>
       </c>
       <c r="Q34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>419.83200000000005</v>
       </c>
       <c r="R34">
         <f t="shared" si="32"/>
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="S34">
         <f t="shared" si="33"/>
-        <v>62500</v>
-      </c>
-      <c r="T34" t="e">
+        <v>393750</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U34" t="e">
+        <v>103</v>
+      </c>
+      <c r="U34">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>23175</v>
       </c>
       <c r="V34">
         <f t="shared" si="6"/>
@@ -4295,7 +4407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -4392,7 +4504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -4456,7 +4568,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -4523,7 +4635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -4608,7 +4720,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -4696,7 +4808,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -4784,7 +4896,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -4872,7 +4984,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -4960,7 +5072,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -5048,7 +5160,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -5139,7 +5251,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -5227,7 +5339,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>351</v>
       </c>
@@ -5306,7 +5418,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>353</v>
       </c>
@@ -5385,7 +5497,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>355</v>
       </c>
@@ -5462,7 +5574,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>359</v>
       </c>
@@ -5543,7 +5655,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>394</v>
       </c>
@@ -5630,16 +5742,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AF111"/>
+  <dimension ref="A1:AF156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S121" sqref="S121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5737,7 +5849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -5805,7 +5917,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I3">
         <v>20</v>
       </c>
@@ -5855,7 +5967,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>130</v>
       </c>
@@ -5908,7 +6020,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -5961,7 +6073,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>132</v>
       </c>
@@ -6014,7 +6126,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -6067,7 +6179,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>138</v>
       </c>
@@ -6120,7 +6232,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -6173,7 +6285,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -6226,7 +6338,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -6279,7 +6391,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -6332,7 +6444,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -6343,7 +6455,7 @@
         <v>250</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K111" si="8">ROUND(L13/0.73549875,0)</f>
+        <f t="shared" ref="K13:K156" si="8">ROUND(L13/0.73549875,0)</f>
         <v>1496</v>
       </c>
       <c r="L13">
@@ -6385,7 +6497,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>131</v>
       </c>
@@ -6438,7 +6550,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>132</v>
       </c>
@@ -6491,7 +6603,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>134</v>
       </c>
@@ -6544,7 +6656,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -6597,7 +6709,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -6653,7 +6765,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -6706,7 +6818,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -6759,7 +6871,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -6812,7 +6924,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>138</v>
       </c>
@@ -6865,7 +6977,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -6918,7 +7030,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>130</v>
       </c>
@@ -6971,7 +7083,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>131</v>
       </c>
@@ -7024,7 +7136,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>132</v>
       </c>
@@ -7077,7 +7189,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>134</v>
       </c>
@@ -7130,7 +7242,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -7183,7 +7295,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -7219,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <f t="shared" ref="V29:V111" si="14">T29*U29*9.8</f>
+        <f t="shared" ref="V29:V156" si="14">T29*U29*9.8</f>
         <v>0</v>
       </c>
       <c r="W29">
@@ -7239,7 +7351,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>131</v>
       </c>
@@ -7292,7 +7404,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>132</v>
       </c>
@@ -7345,7 +7457,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -7398,7 +7510,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>138</v>
       </c>
@@ -7451,7 +7563,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -7501,7 +7613,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>248</v>
       </c>
@@ -7551,7 +7663,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>249</v>
       </c>
@@ -7601,7 +7713,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>250</v>
       </c>
@@ -7651,7 +7763,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>251</v>
       </c>
@@ -7701,7 +7813,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>252</v>
       </c>
@@ -7751,7 +7863,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>248</v>
       </c>
@@ -7801,7 +7913,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>249</v>
       </c>
@@ -7851,7 +7963,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>250</v>
       </c>
@@ -7901,7 +8013,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>251</v>
       </c>
@@ -7951,7 +8063,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -8001,7 +8113,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -8051,7 +8163,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>248</v>
       </c>
@@ -8101,7 +8213,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>249</v>
       </c>
@@ -8151,7 +8263,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>250</v>
       </c>
@@ -8201,7 +8313,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>251</v>
       </c>
@@ -8251,7 +8363,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -8301,7 +8413,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>248</v>
       </c>
@@ -8351,7 +8463,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>249</v>
       </c>
@@ -8401,7 +8513,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>250</v>
       </c>
@@ -8451,7 +8563,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>251</v>
       </c>
@@ -8501,7 +8613,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>252</v>
       </c>
@@ -8551,7 +8663,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -8601,7 +8713,7 @@
         <v>1668.75</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>248</v>
       </c>
@@ -8651,7 +8763,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>249</v>
       </c>
@@ -8701,7 +8813,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>250</v>
       </c>
@@ -8751,7 +8863,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>251</v>
       </c>
@@ -8801,7 +8913,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>252</v>
       </c>
@@ -8851,7 +8963,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -8901,7 +9013,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>248</v>
       </c>
@@ -8951,7 +9063,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>249</v>
       </c>
@@ -9001,7 +9113,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>250</v>
       </c>
@@ -9051,7 +9163,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>251</v>
       </c>
@@ -9101,7 +9213,7 @@
         <v>1143.75</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -9151,7 +9263,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>248</v>
       </c>
@@ -9201,7 +9313,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>249</v>
       </c>
@@ -9251,7 +9363,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>250</v>
       </c>
@@ -9301,7 +9413,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>251</v>
       </c>
@@ -9351,7 +9463,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>252</v>
       </c>
@@ -9401,7 +9513,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -9451,7 +9563,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>248</v>
       </c>
@@ -9501,7 +9613,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>249</v>
       </c>
@@ -9551,7 +9663,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>252</v>
       </c>
@@ -9601,7 +9713,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -9651,7 +9763,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>249</v>
       </c>
@@ -9701,7 +9813,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>284</v>
       </c>
@@ -9751,7 +9863,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>285</v>
       </c>
@@ -9801,7 +9913,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>286</v>
       </c>
@@ -9835,23 +9947,23 @@
         <v>64.209600000000009</v>
       </c>
       <c r="W81">
-        <f t="shared" ref="W81:W111" si="21">MAX(1, INT(T81/10+SQRT(J81)/20+SQRT(K81)+U81+SQRT(Q81)/2+SQRT(S81)-SQRT(185)+20-I81))</f>
+        <f t="shared" ref="W81:W156" si="21">MAX(1, INT(T81/10+SQRT(J81)/20+SQRT(K81)+U81+SQRT(Q81)/2+SQRT(S81)-SQRT(185)+20-I81))</f>
         <v>87</v>
       </c>
       <c r="X81">
-        <f t="shared" ref="X81:X111" si="22">W81*50000/16</f>
+        <f t="shared" ref="X81:X156" si="22">W81*50000/16</f>
         <v>271875</v>
       </c>
       <c r="Y81">
-        <f t="shared" ref="Y81:Y111" si="23">MAX(1, ROUND((SQRT(J81)/100+SQRT(K81)+U81+(40/I81-2)+SQRT(Q81)/2+SQRT(S81)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Y81:Y156" si="23">MAX(1, ROUND((SQRT(J81)/100+SQRT(K81)+U81+(40/I81-2)+SQRT(Q81)/2+SQRT(S81)-SQRT(185)), 0))</f>
         <v>72</v>
       </c>
       <c r="Z81">
-        <f t="shared" ref="Z81:Z111" si="24">Y81*300/16</f>
+        <f t="shared" ref="Z81:Z156" si="24">Y81*300/16</f>
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>287</v>
       </c>
@@ -9901,7 +10013,7 @@
         <v>1443.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>288</v>
       </c>
@@ -9951,7 +10063,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>289</v>
       </c>
@@ -10001,7 +10113,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -10054,7 +10166,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>286</v>
       </c>
@@ -10104,7 +10216,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>287</v>
       </c>
@@ -10154,7 +10266,7 @@
         <v>393.75</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>288</v>
       </c>
@@ -10204,7 +10316,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>289</v>
       </c>
@@ -10254,7 +10366,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -10304,7 +10416,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>285</v>
       </c>
@@ -10354,7 +10466,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>286</v>
       </c>
@@ -10404,7 +10516,7 @@
         <v>1256.25</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>287</v>
       </c>
@@ -10454,7 +10566,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>288</v>
       </c>
@@ -10504,7 +10616,7 @@
         <v>1368.75</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>289</v>
       </c>
@@ -10554,7 +10666,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -10607,7 +10719,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>286</v>
       </c>
@@ -10657,7 +10769,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>287</v>
       </c>
@@ -10707,7 +10819,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>288</v>
       </c>
@@ -10757,7 +10869,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>289</v>
       </c>
@@ -10807,7 +10919,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -10857,7 +10969,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>285</v>
       </c>
@@ -10907,7 +11019,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>286</v>
       </c>
@@ -10957,7 +11069,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>287</v>
       </c>
@@ -11007,7 +11119,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>288</v>
       </c>
@@ -11057,7 +11169,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>289</v>
       </c>
@@ -11107,7 +11219,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>151</v>
       </c>
@@ -11137,11 +11249,11 @@
         <v>54</v>
       </c>
       <c r="U107">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="V107">
         <f t="shared" si="14"/>
-        <v>63.503999999999998</v>
+        <v>0</v>
       </c>
       <c r="W107">
         <f t="shared" si="21"/>
@@ -11153,14 +11265,14 @@
       </c>
       <c r="Y107">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z107">
         <f t="shared" si="24"/>
-        <v>168.75</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>286</v>
       </c>
@@ -11187,11 +11299,11 @@
         <v>54</v>
       </c>
       <c r="U108">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="V108">
         <f t="shared" si="14"/>
-        <v>63.503999999999998</v>
+        <v>0</v>
       </c>
       <c r="W108">
         <f t="shared" si="21"/>
@@ -11203,14 +11315,14 @@
       </c>
       <c r="Y108">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z108">
         <f t="shared" si="24"/>
-        <v>243.75</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>287</v>
       </c>
@@ -11237,11 +11349,11 @@
         <v>54</v>
       </c>
       <c r="U109">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="V109">
         <f t="shared" si="14"/>
-        <v>63.503999999999998</v>
+        <v>0</v>
       </c>
       <c r="W109">
         <f t="shared" si="21"/>
@@ -11253,14 +11365,14 @@
       </c>
       <c r="Y109">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z109">
         <f t="shared" si="24"/>
-        <v>318.75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>288</v>
       </c>
@@ -11287,11 +11399,11 @@
         <v>54</v>
       </c>
       <c r="U110">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="V110">
         <f t="shared" si="14"/>
-        <v>63.503999999999998</v>
+        <v>0</v>
       </c>
       <c r="W110">
         <f t="shared" si="21"/>
@@ -11310,7 +11422,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>289</v>
       </c>
@@ -11337,11 +11449,11 @@
         <v>54</v>
       </c>
       <c r="U111">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="V111">
         <f t="shared" si="14"/>
-        <v>63.503999999999998</v>
+        <v>0</v>
       </c>
       <c r="W111">
         <f t="shared" si="21"/>
@@ -11358,6 +11470,2334 @@
       <c r="Z111">
         <f t="shared" si="24"/>
         <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>401</v>
+      </c>
+      <c r="G112">
+        <v>2009</v>
+      </c>
+      <c r="I112">
+        <v>8</v>
+      </c>
+      <c r="J112">
+        <v>250</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="L112">
+        <v>1060</v>
+      </c>
+      <c r="Q112">
+        <v>61</v>
+      </c>
+      <c r="S112">
+        <v>240</v>
+      </c>
+      <c r="T112">
+        <v>55.5</v>
+      </c>
+      <c r="U112">
+        <v>0.12</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="14"/>
+        <v>65.268000000000001</v>
+      </c>
+      <c r="W112">
+        <f t="shared" si="21"/>
+        <v>62</v>
+      </c>
+      <c r="X112">
+        <f t="shared" si="22"/>
+        <v>193750</v>
+      </c>
+      <c r="Y112">
+        <f t="shared" si="23"/>
+        <v>47</v>
+      </c>
+      <c r="Z112">
+        <f t="shared" si="24"/>
+        <v>881.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+      <c r="I113">
+        <v>8</v>
+      </c>
+      <c r="J113">
+        <v>250</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="L113">
+        <v>1060</v>
+      </c>
+      <c r="Q113">
+        <v>93</v>
+      </c>
+      <c r="S113">
+        <v>240</v>
+      </c>
+      <c r="T113">
+        <v>55.5</v>
+      </c>
+      <c r="U113">
+        <v>0.12</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="14"/>
+        <v>65.268000000000001</v>
+      </c>
+      <c r="W113">
+        <f t="shared" si="21"/>
+        <v>63</v>
+      </c>
+      <c r="X113">
+        <f t="shared" si="22"/>
+        <v>196875</v>
+      </c>
+      <c r="Y113">
+        <f t="shared" si="23"/>
+        <v>48</v>
+      </c>
+      <c r="Z113">
+        <f t="shared" si="24"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>402</v>
+      </c>
+      <c r="I114">
+        <v>8</v>
+      </c>
+      <c r="J114">
+        <v>250</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="L114">
+        <v>1060</v>
+      </c>
+      <c r="P114" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q114">
+        <v>40</v>
+      </c>
+      <c r="S114">
+        <v>640</v>
+      </c>
+      <c r="T114">
+        <v>55.5</v>
+      </c>
+      <c r="U114">
+        <v>0.12</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="14"/>
+        <v>65.268000000000001</v>
+      </c>
+      <c r="W114">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="X114">
+        <f t="shared" si="22"/>
+        <v>221875</v>
+      </c>
+      <c r="Y114">
+        <f t="shared" si="23"/>
+        <v>56</v>
+      </c>
+      <c r="Z114">
+        <f t="shared" si="24"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>137</v>
+      </c>
+      <c r="I115">
+        <v>8</v>
+      </c>
+      <c r="J115">
+        <v>250</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="L115">
+        <v>1060</v>
+      </c>
+      <c r="P115" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q115">
+        <v>16</v>
+      </c>
+      <c r="S115">
+        <v>800</v>
+      </c>
+      <c r="T115">
+        <v>55.5</v>
+      </c>
+      <c r="U115">
+        <v>0.12</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="14"/>
+        <v>65.268000000000001</v>
+      </c>
+      <c r="W115">
+        <f t="shared" si="21"/>
+        <v>73</v>
+      </c>
+      <c r="X115">
+        <f t="shared" si="22"/>
+        <v>228125</v>
+      </c>
+      <c r="Y115">
+        <f t="shared" si="23"/>
+        <v>58</v>
+      </c>
+      <c r="Z115">
+        <f t="shared" si="24"/>
+        <v>1087.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>138</v>
+      </c>
+      <c r="I116">
+        <v>8</v>
+      </c>
+      <c r="J116">
+        <v>250</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="L116">
+        <v>1060</v>
+      </c>
+      <c r="P116" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q116">
+        <v>58</v>
+      </c>
+      <c r="S116">
+        <v>240</v>
+      </c>
+      <c r="T116">
+        <v>55.5</v>
+      </c>
+      <c r="U116">
+        <v>0.12</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="14"/>
+        <v>65.268000000000001</v>
+      </c>
+      <c r="W116">
+        <f t="shared" si="21"/>
+        <v>62</v>
+      </c>
+      <c r="X116">
+        <f t="shared" si="22"/>
+        <v>193750</v>
+      </c>
+      <c r="Y116">
+        <f t="shared" si="23"/>
+        <v>47</v>
+      </c>
+      <c r="Z116">
+        <f t="shared" si="24"/>
+        <v>881.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" t="s">
+        <v>130</v>
+      </c>
+      <c r="I117">
+        <v>8</v>
+      </c>
+      <c r="J117">
+        <v>250</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>93</v>
+      </c>
+      <c r="S117">
+        <v>240</v>
+      </c>
+      <c r="T117">
+        <v>55.5</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="X117">
+        <f t="shared" si="22"/>
+        <v>78125</v>
+      </c>
+      <c r="Y117">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="Z117">
+        <f t="shared" si="24"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>402</v>
+      </c>
+      <c r="I118">
+        <v>8</v>
+      </c>
+      <c r="J118">
+        <v>250</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>60</v>
+      </c>
+      <c r="S118">
+        <v>640</v>
+      </c>
+      <c r="T118">
+        <v>55.5</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <f t="shared" si="21"/>
+        <v>33</v>
+      </c>
+      <c r="X118">
+        <f t="shared" si="22"/>
+        <v>103125</v>
+      </c>
+      <c r="Y118">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+      <c r="Z118">
+        <f t="shared" si="24"/>
+        <v>356.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+      <c r="I119">
+        <v>8</v>
+      </c>
+      <c r="J119">
+        <v>250</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>16</v>
+      </c>
+      <c r="S119">
+        <v>800</v>
+      </c>
+      <c r="T119">
+        <v>55.5</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <f t="shared" si="21"/>
+        <v>35</v>
+      </c>
+      <c r="X119">
+        <f t="shared" si="22"/>
+        <v>109375</v>
+      </c>
+      <c r="Y119">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="Z119">
+        <f t="shared" si="24"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>138</v>
+      </c>
+      <c r="I120">
+        <v>8</v>
+      </c>
+      <c r="J120">
+        <v>250</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>58</v>
+      </c>
+      <c r="S120">
+        <v>240</v>
+      </c>
+      <c r="T120">
+        <v>55.5</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="X120">
+        <f t="shared" si="22"/>
+        <v>75000</v>
+      </c>
+      <c r="Y120">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="Z120">
+        <f t="shared" si="24"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>405</v>
+      </c>
+      <c r="G121">
+        <v>2014</v>
+      </c>
+      <c r="I121">
+        <v>12</v>
+      </c>
+      <c r="J121">
+        <v>250</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L121">
+        <v>1140</v>
+      </c>
+      <c r="Q121">
+        <v>48</v>
+      </c>
+      <c r="S121">
+        <v>400</v>
+      </c>
+      <c r="T121">
+        <v>49</v>
+      </c>
+      <c r="U121">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="14"/>
+        <v>67.228000000000009</v>
+      </c>
+      <c r="W121">
+        <f t="shared" si="21"/>
+        <v>63</v>
+      </c>
+      <c r="X121">
+        <f t="shared" si="22"/>
+        <v>196875</v>
+      </c>
+      <c r="Y121">
+        <f t="shared" si="23"/>
+        <v>51</v>
+      </c>
+      <c r="Z121">
+        <f t="shared" si="24"/>
+        <v>956.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>130</v>
+      </c>
+      <c r="I122">
+        <v>12</v>
+      </c>
+      <c r="J122">
+        <v>250</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L122">
+        <v>1140</v>
+      </c>
+      <c r="P122">
+        <v>65</v>
+      </c>
+      <c r="Q122">
+        <v>90</v>
+      </c>
+      <c r="S122">
+        <v>240</v>
+      </c>
+      <c r="T122">
+        <v>49</v>
+      </c>
+      <c r="U122">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="14"/>
+        <v>67.228000000000009</v>
+      </c>
+      <c r="W122">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="X122">
+        <f t="shared" si="22"/>
+        <v>184375</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" si="23"/>
+        <v>48</v>
+      </c>
+      <c r="Z122">
+        <f t="shared" si="24"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+      <c r="I123">
+        <v>12</v>
+      </c>
+      <c r="J123">
+        <v>250</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L123">
+        <v>1140</v>
+      </c>
+      <c r="Q123">
+        <v>64</v>
+      </c>
+      <c r="S123">
+        <v>400</v>
+      </c>
+      <c r="T123">
+        <v>49</v>
+      </c>
+      <c r="U123">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="14"/>
+        <v>67.228000000000009</v>
+      </c>
+      <c r="W123">
+        <f t="shared" si="21"/>
+        <v>63</v>
+      </c>
+      <c r="X123">
+        <f t="shared" si="22"/>
+        <v>196875</v>
+      </c>
+      <c r="Y123">
+        <f t="shared" si="23"/>
+        <v>51</v>
+      </c>
+      <c r="Z123">
+        <f t="shared" si="24"/>
+        <v>956.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>132</v>
+      </c>
+      <c r="I124">
+        <v>12</v>
+      </c>
+      <c r="J124">
+        <v>250</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L124">
+        <v>1140</v>
+      </c>
+      <c r="P124" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q124">
+        <v>32</v>
+      </c>
+      <c r="S124">
+        <v>640</v>
+      </c>
+      <c r="T124">
+        <v>49</v>
+      </c>
+      <c r="U124">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="14"/>
+        <v>67.228000000000009</v>
+      </c>
+      <c r="W124">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="X124">
+        <f t="shared" si="22"/>
+        <v>209375</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" si="23"/>
+        <v>56</v>
+      </c>
+      <c r="Z124">
+        <f t="shared" si="24"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>134</v>
+      </c>
+      <c r="I125">
+        <v>12</v>
+      </c>
+      <c r="J125">
+        <v>250</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L125">
+        <v>1140</v>
+      </c>
+      <c r="P125" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q125">
+        <v>24</v>
+      </c>
+      <c r="S125">
+        <v>720</v>
+      </c>
+      <c r="T125">
+        <v>49</v>
+      </c>
+      <c r="U125">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V125">
+        <f t="shared" si="14"/>
+        <v>67.228000000000009</v>
+      </c>
+      <c r="W125">
+        <f t="shared" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="X125">
+        <f t="shared" si="22"/>
+        <v>212500</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" si="23"/>
+        <v>57</v>
+      </c>
+      <c r="Z125">
+        <f t="shared" si="24"/>
+        <v>1068.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>138</v>
+      </c>
+      <c r="I126">
+        <v>12</v>
+      </c>
+      <c r="J126">
+        <v>250</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="L126">
+        <v>1140</v>
+      </c>
+      <c r="P126" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q126">
+        <v>63</v>
+      </c>
+      <c r="S126">
+        <v>240</v>
+      </c>
+      <c r="T126">
+        <v>49</v>
+      </c>
+      <c r="U126">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V126">
+        <f t="shared" si="14"/>
+        <v>67.228000000000009</v>
+      </c>
+      <c r="W126">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="X126">
+        <f t="shared" si="22"/>
+        <v>184375</v>
+      </c>
+      <c r="Y126">
+        <f t="shared" si="23"/>
+        <v>47</v>
+      </c>
+      <c r="Z126">
+        <f t="shared" si="24"/>
+        <v>881.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="I127">
+        <v>12</v>
+      </c>
+      <c r="J127">
+        <v>250</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>90</v>
+      </c>
+      <c r="S127">
+        <v>240</v>
+      </c>
+      <c r="T127">
+        <v>49</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="X127">
+        <f t="shared" si="22"/>
+        <v>62500</v>
+      </c>
+      <c r="Y127">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="Z127">
+        <f t="shared" si="24"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="I128">
+        <v>12</v>
+      </c>
+      <c r="J128">
+        <v>250</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>64</v>
+      </c>
+      <c r="S128">
+        <v>400</v>
+      </c>
+      <c r="T128">
+        <v>49</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="X128">
+        <f t="shared" si="22"/>
+        <v>75000</v>
+      </c>
+      <c r="Y128">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="Z128">
+        <f t="shared" si="24"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="I129">
+        <v>12</v>
+      </c>
+      <c r="J129">
+        <v>250</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>32</v>
+      </c>
+      <c r="S129">
+        <v>640</v>
+      </c>
+      <c r="T129">
+        <v>49</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <f t="shared" si="21"/>
+        <v>28</v>
+      </c>
+      <c r="X129">
+        <f t="shared" si="22"/>
+        <v>87500</v>
+      </c>
+      <c r="Y129">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="Z129">
+        <f t="shared" si="24"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="I130">
+        <v>12</v>
+      </c>
+      <c r="J130">
+        <v>250</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>24</v>
+      </c>
+      <c r="S130">
+        <v>720</v>
+      </c>
+      <c r="T130">
+        <v>49</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="X130">
+        <f t="shared" si="22"/>
+        <v>90625</v>
+      </c>
+      <c r="Y130">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="Z130">
+        <f t="shared" si="24"/>
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>138</v>
+      </c>
+      <c r="I131">
+        <v>12</v>
+      </c>
+      <c r="J131">
+        <v>250</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>63</v>
+      </c>
+      <c r="S131">
+        <v>240</v>
+      </c>
+      <c r="T131">
+        <v>49</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="X131">
+        <f t="shared" si="22"/>
+        <v>59375</v>
+      </c>
+      <c r="Y131">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="Z131">
+        <f t="shared" si="24"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>406</v>
+      </c>
+      <c r="G132">
+        <v>2012</v>
+      </c>
+      <c r="I132">
+        <v>5</v>
+      </c>
+      <c r="J132">
+        <v>310</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="8"/>
+        <v>3263</v>
+      </c>
+      <c r="L132">
+        <v>2400</v>
+      </c>
+      <c r="Q132">
+        <v>40</v>
+      </c>
+      <c r="S132">
+        <v>240</v>
+      </c>
+      <c r="T132">
+        <v>56.5</v>
+      </c>
+      <c r="U132">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V132">
+        <f t="shared" si="14"/>
+        <v>64.782900000000012</v>
+      </c>
+      <c r="W132">
+        <f t="shared" si="21"/>
+        <v>83</v>
+      </c>
+      <c r="X132">
+        <f t="shared" si="22"/>
+        <v>259375</v>
+      </c>
+      <c r="Y132">
+        <f t="shared" si="23"/>
+        <v>68</v>
+      </c>
+      <c r="Z132">
+        <f t="shared" si="24"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>130</v>
+      </c>
+      <c r="I133">
+        <v>5</v>
+      </c>
+      <c r="J133">
+        <v>310</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="8"/>
+        <v>3263</v>
+      </c>
+      <c r="L133">
+        <v>2400</v>
+      </c>
+      <c r="P133" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q133">
+        <v>80</v>
+      </c>
+      <c r="S133">
+        <v>240</v>
+      </c>
+      <c r="T133">
+        <v>56.5</v>
+      </c>
+      <c r="U133">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V133">
+        <f t="shared" si="14"/>
+        <v>64.782900000000012</v>
+      </c>
+      <c r="W133">
+        <f t="shared" si="21"/>
+        <v>85</v>
+      </c>
+      <c r="X133">
+        <f t="shared" si="22"/>
+        <v>265625</v>
+      </c>
+      <c r="Y133">
+        <f t="shared" si="23"/>
+        <v>70</v>
+      </c>
+      <c r="Z133">
+        <f t="shared" si="24"/>
+        <v>1312.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>131</v>
+      </c>
+      <c r="I134">
+        <v>5</v>
+      </c>
+      <c r="J134">
+        <v>310</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="8"/>
+        <v>3263</v>
+      </c>
+      <c r="L134">
+        <v>2400</v>
+      </c>
+      <c r="Q134">
+        <v>56</v>
+      </c>
+      <c r="S134">
+        <v>400</v>
+      </c>
+      <c r="T134">
+        <v>56.5</v>
+      </c>
+      <c r="U134">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V134">
+        <f t="shared" si="14"/>
+        <v>64.782900000000012</v>
+      </c>
+      <c r="W134">
+        <f t="shared" si="21"/>
+        <v>88</v>
+      </c>
+      <c r="X134">
+        <f t="shared" si="22"/>
+        <v>275000</v>
+      </c>
+      <c r="Y134">
+        <f t="shared" si="23"/>
+        <v>74</v>
+      </c>
+      <c r="Z134">
+        <f t="shared" si="24"/>
+        <v>1387.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>132</v>
+      </c>
+      <c r="I135">
+        <v>5</v>
+      </c>
+      <c r="J135">
+        <v>310</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="8"/>
+        <v>3263</v>
+      </c>
+      <c r="L135">
+        <v>2400</v>
+      </c>
+      <c r="P135" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q135">
+        <v>24</v>
+      </c>
+      <c r="S135">
+        <v>640</v>
+      </c>
+      <c r="T135">
+        <v>56.5</v>
+      </c>
+      <c r="U135">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V135">
+        <f t="shared" si="14"/>
+        <v>64.782900000000012</v>
+      </c>
+      <c r="W135">
+        <f t="shared" si="21"/>
+        <v>92</v>
+      </c>
+      <c r="X135">
+        <f t="shared" si="22"/>
+        <v>287500</v>
+      </c>
+      <c r="Y135">
+        <f t="shared" si="23"/>
+        <v>78</v>
+      </c>
+      <c r="Z135">
+        <f t="shared" si="24"/>
+        <v>1462.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+      <c r="I136">
+        <v>5</v>
+      </c>
+      <c r="J136">
+        <v>310</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="8"/>
+        <v>3263</v>
+      </c>
+      <c r="L136">
+        <v>2400</v>
+      </c>
+      <c r="P136" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q136">
+        <v>18</v>
+      </c>
+      <c r="S136">
+        <v>720</v>
+      </c>
+      <c r="T136">
+        <v>56.5</v>
+      </c>
+      <c r="U136">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V136">
+        <f t="shared" si="14"/>
+        <v>64.782900000000012</v>
+      </c>
+      <c r="W136">
+        <f t="shared" si="21"/>
+        <v>94</v>
+      </c>
+      <c r="X136">
+        <f t="shared" si="22"/>
+        <v>293750</v>
+      </c>
+      <c r="Y136">
+        <f t="shared" si="23"/>
+        <v>79</v>
+      </c>
+      <c r="Z136">
+        <f t="shared" si="24"/>
+        <v>1481.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+      <c r="I137">
+        <v>5</v>
+      </c>
+      <c r="J137">
+        <v>310</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="8"/>
+        <v>3263</v>
+      </c>
+      <c r="L137">
+        <v>2400</v>
+      </c>
+      <c r="P137" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q137">
+        <v>38</v>
+      </c>
+      <c r="S137">
+        <v>240</v>
+      </c>
+      <c r="T137">
+        <v>56.5</v>
+      </c>
+      <c r="U137">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="14"/>
+        <v>64.782900000000012</v>
+      </c>
+      <c r="W137">
+        <f t="shared" si="21"/>
+        <v>83</v>
+      </c>
+      <c r="X137">
+        <f t="shared" si="22"/>
+        <v>259375</v>
+      </c>
+      <c r="Y137">
+        <f t="shared" si="23"/>
+        <v>68</v>
+      </c>
+      <c r="Z137">
+        <f t="shared" si="24"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" t="s">
+        <v>130</v>
+      </c>
+      <c r="I138">
+        <v>5</v>
+      </c>
+      <c r="J138">
+        <v>310</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>80</v>
+      </c>
+      <c r="S138">
+        <v>240</v>
+      </c>
+      <c r="T138">
+        <v>56.5</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X138">
+        <f t="shared" si="22"/>
+        <v>84375</v>
+      </c>
+      <c r="Y138">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="Z138">
+        <f t="shared" si="24"/>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>131</v>
+      </c>
+      <c r="I139">
+        <v>5</v>
+      </c>
+      <c r="J139">
+        <v>310</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>56</v>
+      </c>
+      <c r="S139">
+        <v>400</v>
+      </c>
+      <c r="T139">
+        <v>56.5</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <f t="shared" si="21"/>
+        <v>31</v>
+      </c>
+      <c r="X139">
+        <f t="shared" si="22"/>
+        <v>96875</v>
+      </c>
+      <c r="Y139">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="Z139">
+        <f t="shared" si="24"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>132</v>
+      </c>
+      <c r="I140">
+        <v>5</v>
+      </c>
+      <c r="J140">
+        <v>310</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>24</v>
+      </c>
+      <c r="S140">
+        <v>640</v>
+      </c>
+      <c r="T140">
+        <v>56.5</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <f t="shared" si="21"/>
+        <v>35</v>
+      </c>
+      <c r="X140">
+        <f t="shared" si="22"/>
+        <v>109375</v>
+      </c>
+      <c r="Y140">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="Z140">
+        <f t="shared" si="24"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>134</v>
+      </c>
+      <c r="I141">
+        <v>5</v>
+      </c>
+      <c r="J141">
+        <v>310</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>18</v>
+      </c>
+      <c r="S141">
+        <v>720</v>
+      </c>
+      <c r="T141">
+        <v>56.5</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <f t="shared" si="21"/>
+        <v>36</v>
+      </c>
+      <c r="X141">
+        <f t="shared" si="22"/>
+        <v>112500</v>
+      </c>
+      <c r="Y141">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="Z141">
+        <f t="shared" si="24"/>
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>138</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+      <c r="J142">
+        <v>310</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>38</v>
+      </c>
+      <c r="S142">
+        <v>240</v>
+      </c>
+      <c r="T142">
+        <v>56.5</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <f t="shared" si="21"/>
+        <v>26</v>
+      </c>
+      <c r="X142">
+        <f t="shared" si="22"/>
+        <v>81250</v>
+      </c>
+      <c r="Y142">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="Z142">
+        <f t="shared" si="24"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>413</v>
+      </c>
+      <c r="D143" t="s">
+        <v>416</v>
+      </c>
+      <c r="I143">
+        <v>8</v>
+      </c>
+      <c r="J143">
+        <v>200</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="8"/>
+        <v>1482</v>
+      </c>
+      <c r="L143">
+        <v>1090</v>
+      </c>
+      <c r="Q143">
+        <v>48</v>
+      </c>
+      <c r="S143">
+        <v>400</v>
+      </c>
+      <c r="T143">
+        <v>48</v>
+      </c>
+      <c r="U143">
+        <v>0.16</v>
+      </c>
+      <c r="V143">
+        <f t="shared" si="14"/>
+        <v>75.263999999999996</v>
+      </c>
+      <c r="W143">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="X143">
+        <f t="shared" si="22"/>
+        <v>206250</v>
+      </c>
+      <c r="Y143">
+        <f t="shared" si="23"/>
+        <v>52</v>
+      </c>
+      <c r="Z143">
+        <f t="shared" si="24"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>130</v>
+      </c>
+      <c r="I144">
+        <v>8</v>
+      </c>
+      <c r="J144">
+        <v>200</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="8"/>
+        <v>1482</v>
+      </c>
+      <c r="L144">
+        <v>1090</v>
+      </c>
+      <c r="Q144">
+        <v>201</v>
+      </c>
+      <c r="S144">
+        <v>160</v>
+      </c>
+      <c r="T144">
+        <v>48</v>
+      </c>
+      <c r="U144">
+        <v>0.16</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="14"/>
+        <v>75.263999999999996</v>
+      </c>
+      <c r="W144">
+        <f t="shared" si="21"/>
+        <v>62</v>
+      </c>
+      <c r="X144">
+        <f t="shared" si="22"/>
+        <v>193750</v>
+      </c>
+      <c r="Y144">
+        <f t="shared" si="23"/>
+        <v>48</v>
+      </c>
+      <c r="Z144">
+        <f t="shared" si="24"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>131</v>
+      </c>
+      <c r="I145">
+        <v>8</v>
+      </c>
+      <c r="J145">
+        <v>200</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="8"/>
+        <v>1482</v>
+      </c>
+      <c r="L145">
+        <v>1090</v>
+      </c>
+      <c r="Q145">
+        <v>60</v>
+      </c>
+      <c r="S145">
+        <v>400</v>
+      </c>
+      <c r="T145">
+        <v>48</v>
+      </c>
+      <c r="U145">
+        <v>0.16</v>
+      </c>
+      <c r="V145">
+        <f t="shared" si="14"/>
+        <v>75.263999999999996</v>
+      </c>
+      <c r="W145">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="X145">
+        <f t="shared" si="22"/>
+        <v>206250</v>
+      </c>
+      <c r="Y145">
+        <f t="shared" si="23"/>
+        <v>52</v>
+      </c>
+      <c r="Z145">
+        <f t="shared" si="24"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="s">
+        <v>130</v>
+      </c>
+      <c r="I146">
+        <v>8</v>
+      </c>
+      <c r="J146">
+        <v>200</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>201</v>
+      </c>
+      <c r="S146">
+        <v>160</v>
+      </c>
+      <c r="T146">
+        <v>48</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="X146">
+        <f t="shared" si="22"/>
+        <v>71875</v>
+      </c>
+      <c r="Y146">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="Z146">
+        <f t="shared" si="24"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147">
+        <v>8</v>
+      </c>
+      <c r="J147">
+        <v>200</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>60</v>
+      </c>
+      <c r="S147">
+        <v>400</v>
+      </c>
+      <c r="T147">
+        <v>48</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X147">
+        <f t="shared" si="22"/>
+        <v>84375</v>
+      </c>
+      <c r="Y147">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="Z147">
+        <f t="shared" si="24"/>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>412</v>
+      </c>
+      <c r="D148" t="s">
+        <v>418</v>
+      </c>
+      <c r="I148">
+        <v>8</v>
+      </c>
+      <c r="J148">
+        <v>200</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="8"/>
+        <v>1482</v>
+      </c>
+      <c r="L148">
+        <v>1090</v>
+      </c>
+      <c r="Q148">
+        <v>150</v>
+      </c>
+      <c r="S148">
+        <v>160</v>
+      </c>
+      <c r="T148">
+        <v>48</v>
+      </c>
+      <c r="U148">
+        <v>0.16</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="14"/>
+        <v>75.263999999999996</v>
+      </c>
+      <c r="W148">
+        <f t="shared" si="21"/>
+        <v>61</v>
+      </c>
+      <c r="X148">
+        <f t="shared" si="22"/>
+        <v>190625</v>
+      </c>
+      <c r="Y148">
+        <f t="shared" si="23"/>
+        <v>47</v>
+      </c>
+      <c r="Z148">
+        <f t="shared" si="24"/>
+        <v>881.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>130</v>
+      </c>
+      <c r="I149">
+        <v>8</v>
+      </c>
+      <c r="J149">
+        <v>200</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="8"/>
+        <v>1482</v>
+      </c>
+      <c r="L149">
+        <v>1090</v>
+      </c>
+      <c r="Q149">
+        <v>201</v>
+      </c>
+      <c r="S149">
+        <v>160</v>
+      </c>
+      <c r="T149">
+        <v>48</v>
+      </c>
+      <c r="U149">
+        <v>0.16</v>
+      </c>
+      <c r="V149">
+        <f t="shared" si="14"/>
+        <v>75.263999999999996</v>
+      </c>
+      <c r="W149">
+        <f t="shared" si="21"/>
+        <v>62</v>
+      </c>
+      <c r="X149">
+        <f t="shared" si="22"/>
+        <v>193750</v>
+      </c>
+      <c r="Y149">
+        <f t="shared" si="23"/>
+        <v>48</v>
+      </c>
+      <c r="Z149">
+        <f t="shared" si="24"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>130</v>
+      </c>
+      <c r="I150">
+        <v>8</v>
+      </c>
+      <c r="J150">
+        <v>200</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>201</v>
+      </c>
+      <c r="S150">
+        <v>160</v>
+      </c>
+      <c r="T150">
+        <v>48</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="X150">
+        <f t="shared" si="22"/>
+        <v>71875</v>
+      </c>
+      <c r="Y150">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="Z150">
+        <f t="shared" si="24"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>414</v>
+      </c>
+      <c r="B151" t="s">
+        <v>417</v>
+      </c>
+      <c r="D151" t="s">
+        <v>419</v>
+      </c>
+      <c r="I151">
+        <v>6</v>
+      </c>
+      <c r="J151">
+        <v>200</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="8"/>
+        <v>1822</v>
+      </c>
+      <c r="L151">
+        <v>1340</v>
+      </c>
+      <c r="Q151">
+        <v>150</v>
+      </c>
+      <c r="S151">
+        <v>160</v>
+      </c>
+      <c r="T151">
+        <v>48</v>
+      </c>
+      <c r="U151">
+        <v>0.16</v>
+      </c>
+      <c r="V151">
+        <f t="shared" si="14"/>
+        <v>75.263999999999996</v>
+      </c>
+      <c r="W151">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="X151">
+        <f t="shared" si="22"/>
+        <v>209375</v>
+      </c>
+      <c r="Y151">
+        <f t="shared" si="23"/>
+        <v>53</v>
+      </c>
+      <c r="Z151">
+        <f t="shared" si="24"/>
+        <v>993.75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>130</v>
+      </c>
+      <c r="I152">
+        <v>6</v>
+      </c>
+      <c r="J152">
+        <v>200</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="8"/>
+        <v>1822</v>
+      </c>
+      <c r="L152">
+        <v>1340</v>
+      </c>
+      <c r="Q152">
+        <v>201</v>
+      </c>
+      <c r="S152">
+        <v>160</v>
+      </c>
+      <c r="T152">
+        <v>48</v>
+      </c>
+      <c r="U152">
+        <v>0.16</v>
+      </c>
+      <c r="V152">
+        <f t="shared" si="14"/>
+        <v>75.263999999999996</v>
+      </c>
+      <c r="W152">
+        <f t="shared" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="X152">
+        <f t="shared" si="22"/>
+        <v>212500</v>
+      </c>
+      <c r="Y152">
+        <f t="shared" si="23"/>
+        <v>54</v>
+      </c>
+      <c r="Z152">
+        <f t="shared" si="24"/>
+        <v>1012.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>130</v>
+      </c>
+      <c r="I153">
+        <v>6</v>
+      </c>
+      <c r="J153">
+        <v>200</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>201</v>
+      </c>
+      <c r="S153">
+        <v>160</v>
+      </c>
+      <c r="T153">
+        <v>48</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W153">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="X153">
+        <f t="shared" si="22"/>
+        <v>78125</v>
+      </c>
+      <c r="Y153">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="Z153">
+        <f t="shared" si="24"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>415</v>
+      </c>
+      <c r="D154" t="s">
+        <v>420</v>
+      </c>
+      <c r="I154">
+        <v>6</v>
+      </c>
+      <c r="J154">
+        <v>160</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="8"/>
+        <v>1665</v>
+      </c>
+      <c r="L154">
+        <v>1224.5</v>
+      </c>
+      <c r="Q154">
+        <v>216</v>
+      </c>
+      <c r="S154">
+        <v>120</v>
+      </c>
+      <c r="T154">
+        <v>48</v>
+      </c>
+      <c r="U154">
+        <v>0.2</v>
+      </c>
+      <c r="V154">
+        <f t="shared" si="14"/>
+        <v>94.080000000000027</v>
+      </c>
+      <c r="W154">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="X154">
+        <f t="shared" si="22"/>
+        <v>203125</v>
+      </c>
+      <c r="Y154">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="Z154">
+        <f t="shared" si="24"/>
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>130</v>
+      </c>
+      <c r="I155">
+        <v>6</v>
+      </c>
+      <c r="J155">
+        <v>160</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="8"/>
+        <v>1665</v>
+      </c>
+      <c r="L155">
+        <v>1224.5</v>
+      </c>
+      <c r="Q155">
+        <v>281</v>
+      </c>
+      <c r="S155">
+        <v>120</v>
+      </c>
+      <c r="T155">
+        <v>48</v>
+      </c>
+      <c r="U155">
+        <v>0.2</v>
+      </c>
+      <c r="V155">
+        <f t="shared" si="14"/>
+        <v>94.080000000000027</v>
+      </c>
+      <c r="W155">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="X155">
+        <f t="shared" si="22"/>
+        <v>206250</v>
+      </c>
+      <c r="Y155">
+        <f t="shared" si="23"/>
+        <v>52</v>
+      </c>
+      <c r="Z155">
+        <f t="shared" si="24"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" t="s">
+        <v>130</v>
+      </c>
+      <c r="I156">
+        <v>6</v>
+      </c>
+      <c r="J156">
+        <v>160</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>281</v>
+      </c>
+      <c r="S156">
+        <v>120</v>
+      </c>
+      <c r="T156">
+        <v>48</v>
+      </c>
+      <c r="U156">
+        <v>0.2</v>
+      </c>
+      <c r="V156">
+        <f t="shared" si="14"/>
+        <v>94.080000000000027</v>
+      </c>
+      <c r="W156">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="X156">
+        <f t="shared" si="22"/>
+        <v>78125</v>
+      </c>
+      <c r="Y156">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="Z156">
+        <f t="shared" si="24"/>
+        <v>206.25</v>
       </c>
     </row>
   </sheetData>
@@ -11370,13 +13810,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11468,7 +13908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -11514,7 +13954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -11557,7 +13997,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -11600,7 +14040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -11640,7 +14080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -11683,7 +14123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -11723,7 +14163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -11766,7 +14206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -11806,7 +14246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -11846,7 +14286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>241</v>
       </c>
@@ -11886,7 +14326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -11922,11 +14362,11 @@
         <v>11</v>
       </c>
       <c r="W12">
-        <f>MEDIAN(0,255,ROUND(SQRT(J12)/200+SQRT(P12)/2+(SQRT(R12)-SQRT(185)),0))</f>
+        <f t="shared" ref="W12:W17" si="2">MEDIAN(0,255,ROUND(SQRT(J12)/200+SQRT(P12)/2+(SQRT(R12)-SQRT(185)),0))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -11962,11 +14402,11 @@
         <v>11</v>
       </c>
       <c r="W13">
-        <f>MEDIAN(0,255,ROUND(SQRT(J13)/200+SQRT(P13)/2+(SQRT(R13)-SQRT(185)),0))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -12005,11 +14445,11 @@
         <v>20</v>
       </c>
       <c r="W14">
-        <f>MEDIAN(0,255,ROUND(SQRT(J14)/200+SQRT(P14)/2+(SQRT(R14)-SQRT(185)),0))</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>392</v>
       </c>
@@ -12045,14 +14485,14 @@
         <v>43</v>
       </c>
       <c r="W15">
-        <f>MEDIAN(0,255,ROUND(SQRT(J15)/200+SQRT(P15)/2+(SQRT(R15)-SQRT(185)),0))</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="AD15" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>397</v>
       </c>
@@ -12088,14 +14528,14 @@
         <v>6</v>
       </c>
       <c r="W16">
-        <f>MEDIAN(0,255,ROUND(SQRT(J16)/200+SQRT(P16)/2+(SQRT(R16)-SQRT(185)),0))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AD16" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -12131,7 +14571,7 @@
         <v>6</v>
       </c>
       <c r="W17">
-        <f>MEDIAN(0,255,ROUND(SQRT(J17)/200+SQRT(P17)/2+(SQRT(R17)-SQRT(185)),0))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -12150,9 +14590,9 @@
       <selection pane="bottomLeft" activeCell="Z60" sqref="Z60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12232,7 +14672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -12286,7 +14726,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -12340,7 +14780,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -12394,7 +14834,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -12448,7 +14888,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -12502,7 +14942,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -12556,7 +14996,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -12610,7 +15050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -12664,7 +15104,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -12718,7 +15158,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -12772,7 +15212,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -12826,7 +15266,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -12877,7 +15317,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -12931,7 +15371,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -12985,7 +15425,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -13039,7 +15479,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -13093,7 +15533,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -13144,7 +15584,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -13195,7 +15635,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -13246,7 +15686,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -13297,7 +15737,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -13348,7 +15788,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -13399,7 +15839,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -13450,7 +15890,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -13504,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -13558,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -13612,7 +16052,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -13663,7 +16103,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -13714,7 +16154,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -13765,7 +16205,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -13816,7 +16256,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -13867,7 +16307,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -13918,7 +16358,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -13969,7 +16409,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -14020,7 +16460,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -14071,7 +16511,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>221</v>
       </c>
@@ -14122,7 +16562,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -14173,7 +16613,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -14224,7 +16664,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -14275,7 +16715,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -14326,7 +16766,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -14377,7 +16817,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -14428,7 +16868,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -14479,7 +16919,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -14530,7 +16970,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -14581,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -14632,7 +17072,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -14692,7 +17132,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -14750,7 +17190,7 @@
       </c>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>301</v>
       </c>
@@ -14808,7 +17248,7 @@
       </c>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>303</v>
       </c>
@@ -14866,7 +17306,7 @@
       </c>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>305</v>
       </c>
@@ -14924,7 +17364,7 @@
       </c>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -14982,7 +17422,7 @@
       </c>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -15040,7 +17480,7 @@
       </c>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -15098,7 +17538,7 @@
       </c>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>314</v>
       </c>
@@ -15156,7 +17596,7 @@
       </c>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -15214,7 +17654,7 @@
       </c>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>345</v>
       </c>
@@ -15271,7 +17711,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>346</v>
       </c>
@@ -15328,7 +17768,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>370</v>
       </c>
@@ -15385,7 +17825,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>371</v>
       </c>
@@ -15442,7 +17882,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -15499,7 +17939,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -15556,7 +17996,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>380</v>
       </c>
@@ -15613,7 +18053,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -15670,7 +18110,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>384</v>
       </c>
@@ -15727,7 +18167,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>388</v>
       </c>
@@ -15784,7 +18224,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -15841,7 +18281,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>386</v>
       </c>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRF\China-Set\China-Set-Trains\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNS\CNST\local\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F757FA-FC75-4DCB-8FE0-88486FC436A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90DCD15-8A9B-449F-A7B2-9F7B0C5A44EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-860" yWindow="2220" windowWidth="20910" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="422">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1654,6 +1652,10 @@
   </si>
   <si>
     <t>foshan jinshan xiaoyong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR400AF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1737,8 +1739,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2019,7 +2021,7 @@
   <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
@@ -5742,11 +5744,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AF156"/>
+  <dimension ref="A1:AF167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S121" sqref="S121"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W160" sqref="W160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13798,6 +13800,592 @@
       <c r="Z156">
         <f t="shared" si="24"/>
         <v>206.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>421</v>
+      </c>
+      <c r="I157">
+        <v>5</v>
+      </c>
+      <c r="J157">
+        <v>350</v>
+      </c>
+      <c r="K157">
+        <f t="shared" ref="K157:K167" si="25">ROUND(L157/0.73549875,0)</f>
+        <v>3314</v>
+      </c>
+      <c r="L157">
+        <v>2437.5</v>
+      </c>
+      <c r="M157" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q157">
+        <v>36</v>
+      </c>
+      <c r="S157">
+        <v>400</v>
+      </c>
+      <c r="T157">
+        <v>54</v>
+      </c>
+      <c r="U157">
+        <v>0.127</v>
+      </c>
+      <c r="V157">
+        <f t="shared" ref="V157:V167" si="26">T157*U157*9.8</f>
+        <v>67.208400000000012</v>
+      </c>
+      <c r="W157">
+        <f t="shared" ref="W157:W167" si="27">MAX(1, INT(T157/10+SQRT(J157)/20+SQRT(K157)+U157+SQRT(Q157)/2+SQRT(S157)-SQRT(185)+20-I157))</f>
+        <v>88</v>
+      </c>
+      <c r="X157">
+        <f t="shared" ref="X157:X167" si="28">W157*50000/16</f>
+        <v>275000</v>
+      </c>
+      <c r="Y157">
+        <f t="shared" ref="Y157:Y167" si="29">MAX(1, ROUND((SQRT(J157)/100+SQRT(K157)+U157+(40/I157-2)+SQRT(Q157)/2+SQRT(S157)-SQRT(185)), 0))</f>
+        <v>73</v>
+      </c>
+      <c r="Z157">
+        <f t="shared" ref="Z157:Z167" si="30">Y157*300/16</f>
+        <v>1368.75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>130</v>
+      </c>
+      <c r="I158">
+        <v>5</v>
+      </c>
+      <c r="J158">
+        <v>350</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="25"/>
+        <v>3314</v>
+      </c>
+      <c r="L158">
+        <v>2437.5</v>
+      </c>
+      <c r="M158" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q158">
+        <v>90</v>
+      </c>
+      <c r="S158">
+        <v>240</v>
+      </c>
+      <c r="T158">
+        <v>54</v>
+      </c>
+      <c r="U158">
+        <v>0.127</v>
+      </c>
+      <c r="V158">
+        <f t="shared" si="26"/>
+        <v>67.208400000000012</v>
+      </c>
+      <c r="W158">
+        <f t="shared" si="27"/>
+        <v>85</v>
+      </c>
+      <c r="X158">
+        <f t="shared" si="28"/>
+        <v>265625</v>
+      </c>
+      <c r="Y158">
+        <f t="shared" si="29"/>
+        <v>71</v>
+      </c>
+      <c r="Z158">
+        <f t="shared" si="30"/>
+        <v>1331.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>131</v>
+      </c>
+      <c r="I159">
+        <v>5</v>
+      </c>
+      <c r="J159">
+        <v>350</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="25"/>
+        <v>3314</v>
+      </c>
+      <c r="L159">
+        <v>2437.5</v>
+      </c>
+      <c r="M159" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q159">
+        <v>60</v>
+      </c>
+      <c r="S159">
+        <v>400</v>
+      </c>
+      <c r="T159">
+        <v>54</v>
+      </c>
+      <c r="U159">
+        <v>0.127</v>
+      </c>
+      <c r="V159">
+        <f t="shared" si="26"/>
+        <v>67.208400000000012</v>
+      </c>
+      <c r="W159">
+        <f t="shared" si="27"/>
+        <v>89</v>
+      </c>
+      <c r="X159">
+        <f t="shared" si="28"/>
+        <v>278125</v>
+      </c>
+      <c r="Y159">
+        <f t="shared" si="29"/>
+        <v>74</v>
+      </c>
+      <c r="Z159">
+        <f t="shared" si="30"/>
+        <v>1387.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>132</v>
+      </c>
+      <c r="I160">
+        <v>5</v>
+      </c>
+      <c r="J160">
+        <v>350</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="25"/>
+        <v>3314</v>
+      </c>
+      <c r="L160">
+        <v>2437.5</v>
+      </c>
+      <c r="M160" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q160">
+        <v>36</v>
+      </c>
+      <c r="S160">
+        <v>640</v>
+      </c>
+      <c r="T160">
+        <v>54</v>
+      </c>
+      <c r="U160">
+        <v>0.127</v>
+      </c>
+      <c r="V160">
+        <f t="shared" si="26"/>
+        <v>67.208400000000012</v>
+      </c>
+      <c r="W160">
+        <f t="shared" si="27"/>
+        <v>93</v>
+      </c>
+      <c r="X160">
+        <f t="shared" si="28"/>
+        <v>290625</v>
+      </c>
+      <c r="Y160">
+        <f t="shared" si="29"/>
+        <v>79</v>
+      </c>
+      <c r="Z160">
+        <f t="shared" si="30"/>
+        <v>1481.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>134</v>
+      </c>
+      <c r="I161">
+        <v>5</v>
+      </c>
+      <c r="J161">
+        <v>350</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="25"/>
+        <v>3314</v>
+      </c>
+      <c r="L161">
+        <v>2437.5</v>
+      </c>
+      <c r="M161" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q161">
+        <v>24</v>
+      </c>
+      <c r="S161">
+        <v>720</v>
+      </c>
+      <c r="T161">
+        <v>54</v>
+      </c>
+      <c r="U161">
+        <v>0.127</v>
+      </c>
+      <c r="V161">
+        <f t="shared" si="26"/>
+        <v>67.208400000000012</v>
+      </c>
+      <c r="W161">
+        <f t="shared" si="27"/>
+        <v>94</v>
+      </c>
+      <c r="X161">
+        <f t="shared" si="28"/>
+        <v>293750</v>
+      </c>
+      <c r="Y161">
+        <f t="shared" si="29"/>
+        <v>80</v>
+      </c>
+      <c r="Z161">
+        <f t="shared" si="30"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>138</v>
+      </c>
+      <c r="I162">
+        <v>5</v>
+      </c>
+      <c r="J162">
+        <v>350</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="25"/>
+        <v>3314</v>
+      </c>
+      <c r="L162">
+        <v>2437.5</v>
+      </c>
+      <c r="M162" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q162">
+        <v>63</v>
+      </c>
+      <c r="S162">
+        <v>240</v>
+      </c>
+      <c r="T162">
+        <v>54</v>
+      </c>
+      <c r="U162">
+        <v>0.127</v>
+      </c>
+      <c r="V162">
+        <f t="shared" si="26"/>
+        <v>67.208400000000012</v>
+      </c>
+      <c r="W162">
+        <f t="shared" si="27"/>
+        <v>84</v>
+      </c>
+      <c r="X162">
+        <f t="shared" si="28"/>
+        <v>262500</v>
+      </c>
+      <c r="Y162">
+        <f t="shared" si="29"/>
+        <v>70</v>
+      </c>
+      <c r="Z162">
+        <f t="shared" si="30"/>
+        <v>1312.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>151</v>
+      </c>
+      <c r="B163" t="s">
+        <v>130</v>
+      </c>
+      <c r="I163">
+        <v>5</v>
+      </c>
+      <c r="J163">
+        <v>350</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q163">
+        <v>90</v>
+      </c>
+      <c r="S163">
+        <v>240</v>
+      </c>
+      <c r="T163">
+        <v>54</v>
+      </c>
+      <c r="U163">
+        <v>0</v>
+      </c>
+      <c r="V163">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W163">
+        <f t="shared" si="27"/>
+        <v>27</v>
+      </c>
+      <c r="X163">
+        <f t="shared" si="28"/>
+        <v>84375</v>
+      </c>
+      <c r="Y163">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="Z163">
+        <f t="shared" si="30"/>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>131</v>
+      </c>
+      <c r="I164">
+        <v>5</v>
+      </c>
+      <c r="J164">
+        <v>350</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q164">
+        <v>60</v>
+      </c>
+      <c r="S164">
+        <v>400</v>
+      </c>
+      <c r="T164">
+        <v>54</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W164">
+        <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="X164">
+        <f t="shared" si="28"/>
+        <v>96875</v>
+      </c>
+      <c r="Y164">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+      <c r="Z164">
+        <f t="shared" si="30"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>132</v>
+      </c>
+      <c r="I165">
+        <v>5</v>
+      </c>
+      <c r="J165">
+        <v>350</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q165">
+        <v>36</v>
+      </c>
+      <c r="S165">
+        <v>640</v>
+      </c>
+      <c r="T165">
+        <v>54</v>
+      </c>
+      <c r="U165">
+        <v>0</v>
+      </c>
+      <c r="V165">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W165">
+        <f t="shared" si="27"/>
+        <v>36</v>
+      </c>
+      <c r="X165">
+        <f t="shared" si="28"/>
+        <v>112500</v>
+      </c>
+      <c r="Y165">
+        <f t="shared" si="29"/>
+        <v>21</v>
+      </c>
+      <c r="Z165">
+        <f t="shared" si="30"/>
+        <v>393.75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>134</v>
+      </c>
+      <c r="I166">
+        <v>5</v>
+      </c>
+      <c r="J166">
+        <v>350</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q166">
+        <v>24</v>
+      </c>
+      <c r="S166">
+        <v>720</v>
+      </c>
+      <c r="T166">
+        <v>54</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+      <c r="V166">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W166">
+        <f t="shared" si="27"/>
+        <v>37</v>
+      </c>
+      <c r="X166">
+        <f t="shared" si="28"/>
+        <v>115625</v>
+      </c>
+      <c r="Y166">
+        <f t="shared" si="29"/>
+        <v>22</v>
+      </c>
+      <c r="Z166">
+        <f t="shared" si="30"/>
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>138</v>
+      </c>
+      <c r="I167">
+        <v>5</v>
+      </c>
+      <c r="J167">
+        <v>350</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q167">
+        <v>63</v>
+      </c>
+      <c r="S167">
+        <v>240</v>
+      </c>
+      <c r="T167">
+        <v>54</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W167">
+        <f t="shared" si="27"/>
+        <v>27</v>
+      </c>
+      <c r="X167">
+        <f t="shared" si="28"/>
+        <v>84375</v>
+      </c>
+      <c r="Y167">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="Z167">
+        <f t="shared" si="30"/>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNS\CNST\local\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90DCD15-8A9B-449F-A7B2-9F7B0C5A44EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDFBBC6-D0B3-4C06-A18F-82FB28C56F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-860" yWindow="2220" windowWidth="20910" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="2070" windowWidth="20910" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="422">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5744,11 +5744,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AF167"/>
+  <dimension ref="A1:AF178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W160" sqref="W160"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W169" sqref="W169:W173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13813,7 +13813,7 @@
         <v>350</v>
       </c>
       <c r="K157">
-        <f t="shared" ref="K157:K167" si="25">ROUND(L157/0.73549875,0)</f>
+        <f t="shared" ref="K157:K178" si="25">ROUND(L157/0.73549875,0)</f>
         <v>3314</v>
       </c>
       <c r="L157">
@@ -13835,23 +13835,23 @@
         <v>0.127</v>
       </c>
       <c r="V157">
-        <f t="shared" ref="V157:V167" si="26">T157*U157*9.8</f>
+        <f t="shared" ref="V157:V178" si="26">T157*U157*9.8</f>
         <v>67.208400000000012</v>
       </c>
       <c r="W157">
-        <f t="shared" ref="W157:W167" si="27">MAX(1, INT(T157/10+SQRT(J157)/20+SQRT(K157)+U157+SQRT(Q157)/2+SQRT(S157)-SQRT(185)+20-I157))</f>
+        <f t="shared" ref="W157:W178" si="27">MAX(1, INT(T157/10+SQRT(J157)/20+SQRT(K157)+U157+SQRT(Q157)/2+SQRT(S157)-SQRT(185)+20-I157))</f>
         <v>88</v>
       </c>
       <c r="X157">
-        <f t="shared" ref="X157:X167" si="28">W157*50000/16</f>
+        <f t="shared" ref="X157:X178" si="28">W157*50000/16</f>
         <v>275000</v>
       </c>
       <c r="Y157">
-        <f t="shared" ref="Y157:Y167" si="29">MAX(1, ROUND((SQRT(J157)/100+SQRT(K157)+U157+(40/I157-2)+SQRT(Q157)/2+SQRT(S157)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Y157:Y178" si="29">MAX(1, ROUND((SQRT(J157)/100+SQRT(K157)+U157+(40/I157-2)+SQRT(Q157)/2+SQRT(S157)-SQRT(185)), 0))</f>
         <v>73</v>
       </c>
       <c r="Z157">
-        <f t="shared" ref="Z157:Z167" si="30">Y157*300/16</f>
+        <f t="shared" ref="Z157:Z178" si="30">Y157*300/16</f>
         <v>1368.75</v>
       </c>
     </row>
@@ -14386,6 +14386,559 @@
       <c r="Z167">
         <f t="shared" si="30"/>
         <v>225</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>284</v>
+      </c>
+      <c r="I168">
+        <v>12</v>
+      </c>
+      <c r="J168">
+        <v>310</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="25"/>
+        <v>2067</v>
+      </c>
+      <c r="L168">
+        <v>1520</v>
+      </c>
+      <c r="Q168">
+        <v>36</v>
+      </c>
+      <c r="S168">
+        <v>400</v>
+      </c>
+      <c r="T168">
+        <v>51</v>
+      </c>
+      <c r="U168">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="V168">
+        <f t="shared" si="26"/>
+        <v>41.48340000000001</v>
+      </c>
+      <c r="W168">
+        <f t="shared" si="27"/>
+        <v>68</v>
+      </c>
+      <c r="X168">
+        <f t="shared" si="28"/>
+        <v>212500</v>
+      </c>
+      <c r="Y168">
+        <f t="shared" si="29"/>
+        <v>56</v>
+      </c>
+      <c r="Z168">
+        <f t="shared" si="30"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>130</v>
+      </c>
+      <c r="I169">
+        <v>12</v>
+      </c>
+      <c r="J169">
+        <v>310</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="25"/>
+        <v>2067</v>
+      </c>
+      <c r="L169">
+        <v>1520</v>
+      </c>
+      <c r="Q169">
+        <v>85</v>
+      </c>
+      <c r="S169">
+        <v>240</v>
+      </c>
+      <c r="T169">
+        <v>51</v>
+      </c>
+      <c r="U169">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="V169">
+        <f t="shared" si="26"/>
+        <v>41.48340000000001</v>
+      </c>
+      <c r="W169">
+        <f t="shared" si="27"/>
+        <v>66</v>
+      </c>
+      <c r="X169">
+        <f t="shared" si="28"/>
+        <v>206250</v>
+      </c>
+      <c r="Y169">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="Z169">
+        <f t="shared" si="30"/>
+        <v>1012.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>131</v>
+      </c>
+      <c r="I170">
+        <v>12</v>
+      </c>
+      <c r="J170">
+        <v>310</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="25"/>
+        <v>2067</v>
+      </c>
+      <c r="L170">
+        <v>1520</v>
+      </c>
+      <c r="Q170">
+        <v>56</v>
+      </c>
+      <c r="S170">
+        <v>400</v>
+      </c>
+      <c r="T170">
+        <v>51</v>
+      </c>
+      <c r="U170">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="V170">
+        <f t="shared" si="26"/>
+        <v>41.48340000000001</v>
+      </c>
+      <c r="W170">
+        <f t="shared" si="27"/>
+        <v>69</v>
+      </c>
+      <c r="X170">
+        <f t="shared" si="28"/>
+        <v>215625</v>
+      </c>
+      <c r="Y170">
+        <f t="shared" si="29"/>
+        <v>57</v>
+      </c>
+      <c r="Z170">
+        <f t="shared" si="30"/>
+        <v>1068.75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>132</v>
+      </c>
+      <c r="I171">
+        <v>12</v>
+      </c>
+      <c r="J171">
+        <v>310</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="25"/>
+        <v>2067</v>
+      </c>
+      <c r="L171">
+        <v>1520</v>
+      </c>
+      <c r="Q171">
+        <v>24</v>
+      </c>
+      <c r="S171">
+        <v>640</v>
+      </c>
+      <c r="T171">
+        <v>51</v>
+      </c>
+      <c r="U171">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="V171">
+        <f t="shared" si="26"/>
+        <v>41.48340000000001</v>
+      </c>
+      <c r="W171">
+        <f t="shared" si="27"/>
+        <v>73</v>
+      </c>
+      <c r="X171">
+        <f t="shared" si="28"/>
+        <v>228125</v>
+      </c>
+      <c r="Y171">
+        <f t="shared" si="29"/>
+        <v>61</v>
+      </c>
+      <c r="Z171">
+        <f t="shared" si="30"/>
+        <v>1143.75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>134</v>
+      </c>
+      <c r="I172">
+        <v>12</v>
+      </c>
+      <c r="J172">
+        <v>310</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="25"/>
+        <v>2067</v>
+      </c>
+      <c r="L172">
+        <v>1520</v>
+      </c>
+      <c r="Q172">
+        <v>15</v>
+      </c>
+      <c r="S172">
+        <v>720</v>
+      </c>
+      <c r="T172">
+        <v>51</v>
+      </c>
+      <c r="U172">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="V172">
+        <f t="shared" si="26"/>
+        <v>41.48340000000001</v>
+      </c>
+      <c r="W172">
+        <f t="shared" si="27"/>
+        <v>74</v>
+      </c>
+      <c r="X172">
+        <f t="shared" si="28"/>
+        <v>231250</v>
+      </c>
+      <c r="Y172">
+        <f t="shared" si="29"/>
+        <v>62</v>
+      </c>
+      <c r="Z172">
+        <f t="shared" si="30"/>
+        <v>1162.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>138</v>
+      </c>
+      <c r="I173">
+        <v>12</v>
+      </c>
+      <c r="J173">
+        <v>310</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="25"/>
+        <v>2067</v>
+      </c>
+      <c r="L173">
+        <v>1520</v>
+      </c>
+      <c r="Q173">
+        <v>63</v>
+      </c>
+      <c r="S173">
+        <v>240</v>
+      </c>
+      <c r="T173">
+        <v>51</v>
+      </c>
+      <c r="U173">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="V173">
+        <f t="shared" si="26"/>
+        <v>41.48340000000001</v>
+      </c>
+      <c r="W173">
+        <f t="shared" si="27"/>
+        <v>65</v>
+      </c>
+      <c r="X173">
+        <f t="shared" si="28"/>
+        <v>203125</v>
+      </c>
+      <c r="Y173">
+        <f t="shared" si="29"/>
+        <v>53</v>
+      </c>
+      <c r="Z173">
+        <f t="shared" si="30"/>
+        <v>993.75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>151</v>
+      </c>
+      <c r="B174" t="s">
+        <v>130</v>
+      </c>
+      <c r="I174">
+        <v>12</v>
+      </c>
+      <c r="J174">
+        <v>310</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>85</v>
+      </c>
+      <c r="S174">
+        <v>240</v>
+      </c>
+      <c r="T174">
+        <v>51</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+      <c r="V174">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W174">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="X174">
+        <f t="shared" si="28"/>
+        <v>62500</v>
+      </c>
+      <c r="Y174">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="Z174">
+        <f t="shared" si="30"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>131</v>
+      </c>
+      <c r="I175">
+        <v>12</v>
+      </c>
+      <c r="J175">
+        <v>310</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>56</v>
+      </c>
+      <c r="S175">
+        <v>400</v>
+      </c>
+      <c r="T175">
+        <v>51</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+      <c r="V175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W175">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="X175">
+        <f t="shared" si="28"/>
+        <v>75000</v>
+      </c>
+      <c r="Y175">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="Z175">
+        <f t="shared" si="30"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>132</v>
+      </c>
+      <c r="I176">
+        <v>12</v>
+      </c>
+      <c r="J176">
+        <v>310</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>24</v>
+      </c>
+      <c r="S176">
+        <v>640</v>
+      </c>
+      <c r="T176">
+        <v>51</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W176">
+        <f t="shared" si="27"/>
+        <v>28</v>
+      </c>
+      <c r="X176">
+        <f t="shared" si="28"/>
+        <v>87500</v>
+      </c>
+      <c r="Y176">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+      <c r="Z176">
+        <f t="shared" si="30"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="177" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>134</v>
+      </c>
+      <c r="I177">
+        <v>12</v>
+      </c>
+      <c r="J177">
+        <v>310</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>15</v>
+      </c>
+      <c r="S177">
+        <v>720</v>
+      </c>
+      <c r="T177">
+        <v>51</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <f t="shared" si="27"/>
+        <v>29</v>
+      </c>
+      <c r="X177">
+        <f t="shared" si="28"/>
+        <v>90625</v>
+      </c>
+      <c r="Y177">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+      <c r="Z177">
+        <f t="shared" si="30"/>
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>138</v>
+      </c>
+      <c r="I178">
+        <v>12</v>
+      </c>
+      <c r="J178">
+        <v>310</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>63</v>
+      </c>
+      <c r="S178">
+        <v>240</v>
+      </c>
+      <c r="T178">
+        <v>51</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <f t="shared" si="27"/>
+        <v>19</v>
+      </c>
+      <c r="X178">
+        <f t="shared" si="28"/>
+        <v>59375</v>
+      </c>
+      <c r="Y178">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="Z178">
+        <f t="shared" si="30"/>
+        <v>131.25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNS\CNST\local\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDFBBC6-D0B3-4C06-A18F-82FB28C56F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD17B37-7080-4521-B3EB-DA2C1E8242CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="2070" windowWidth="20910" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="260" windowWidth="20910" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="424">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1656,6 +1656,14 @@
   </si>
   <si>
     <t>CR400AF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR200J-C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRH380A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5744,11 +5752,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AF178"/>
+  <dimension ref="A1:AF187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W169" sqref="W169:W173"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W179" sqref="W179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13813,7 +13821,7 @@
         <v>350</v>
       </c>
       <c r="K157">
-        <f t="shared" ref="K157:K178" si="25">ROUND(L157/0.73549875,0)</f>
+        <f t="shared" ref="K157:K187" si="25">ROUND(L157/0.73549875,0)</f>
         <v>3314</v>
       </c>
       <c r="L157">
@@ -13835,23 +13843,23 @@
         <v>0.127</v>
       </c>
       <c r="V157">
-        <f t="shared" ref="V157:V178" si="26">T157*U157*9.8</f>
+        <f t="shared" ref="V157:V187" si="26">T157*U157*9.8</f>
         <v>67.208400000000012</v>
       </c>
       <c r="W157">
-        <f t="shared" ref="W157:W178" si="27">MAX(1, INT(T157/10+SQRT(J157)/20+SQRT(K157)+U157+SQRT(Q157)/2+SQRT(S157)-SQRT(185)+20-I157))</f>
+        <f t="shared" ref="W157:W187" si="27">MAX(1, INT(T157/10+SQRT(J157)/20+SQRT(K157)+U157+SQRT(Q157)/2+SQRT(S157)-SQRT(185)+20-I157))</f>
         <v>88</v>
       </c>
       <c r="X157">
-        <f t="shared" ref="X157:X178" si="28">W157*50000/16</f>
+        <f t="shared" ref="X157:X187" si="28">W157*50000/16</f>
         <v>275000</v>
       </c>
       <c r="Y157">
-        <f t="shared" ref="Y157:Y178" si="29">MAX(1, ROUND((SQRT(J157)/100+SQRT(K157)+U157+(40/I157-2)+SQRT(Q157)/2+SQRT(S157)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Y157:Y187" si="29">MAX(1, ROUND((SQRT(J157)/100+SQRT(K157)+U157+(40/I157-2)+SQRT(Q157)/2+SQRT(S157)-SQRT(185)), 0))</f>
         <v>73</v>
       </c>
       <c r="Z157">
-        <f t="shared" ref="Z157:Z178" si="30">Y157*300/16</f>
+        <f t="shared" ref="Z157:Z187" si="30">Y157*300/16</f>
         <v>1368.75</v>
       </c>
     </row>
@@ -14390,7 +14398,7 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>284</v>
+        <v>423</v>
       </c>
       <c r="I168">
         <v>12</v>
@@ -14841,7 +14849,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="177" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>134</v>
       </c>
@@ -14891,7 +14899,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>138</v>
       </c>
@@ -14939,6 +14947,468 @@
       <c r="Z178">
         <f t="shared" si="30"/>
         <v>131.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>422</v>
+      </c>
+      <c r="G179">
+        <v>30</v>
+      </c>
+      <c r="I179">
+        <v>8</v>
+      </c>
+      <c r="J179">
+        <v>160</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="25"/>
+        <v>7614</v>
+      </c>
+      <c r="L179">
+        <v>5600</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>185</v>
+      </c>
+      <c r="T179">
+        <v>78</v>
+      </c>
+      <c r="U179">
+        <v>0.314</v>
+      </c>
+      <c r="V179">
+        <f t="shared" si="26"/>
+        <v>240.02160000000003</v>
+      </c>
+      <c r="W179">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="X179">
+        <f t="shared" si="28"/>
+        <v>337500</v>
+      </c>
+      <c r="Y179">
+        <f t="shared" si="29"/>
+        <v>91</v>
+      </c>
+      <c r="Z179">
+        <f t="shared" si="30"/>
+        <v>1706.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>130</v>
+      </c>
+      <c r="I180">
+        <v>8</v>
+      </c>
+      <c r="J180">
+        <v>160</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>95</v>
+      </c>
+      <c r="S180">
+        <v>240</v>
+      </c>
+      <c r="T180">
+        <v>53</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="X180">
+        <f t="shared" si="28"/>
+        <v>75000</v>
+      </c>
+      <c r="Y180">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="Z180">
+        <f t="shared" si="30"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>131</v>
+      </c>
+      <c r="I181">
+        <v>8</v>
+      </c>
+      <c r="J181">
+        <v>160</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>72</v>
+      </c>
+      <c r="S181">
+        <v>400</v>
+      </c>
+      <c r="T181">
+        <v>53</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <f t="shared" si="27"/>
+        <v>28</v>
+      </c>
+      <c r="X181">
+        <f t="shared" si="28"/>
+        <v>87500</v>
+      </c>
+      <c r="Y181">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="Z181">
+        <f t="shared" si="30"/>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>132</v>
+      </c>
+      <c r="I182">
+        <v>8</v>
+      </c>
+      <c r="J182">
+        <v>160</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>24</v>
+      </c>
+      <c r="S182">
+        <v>640</v>
+      </c>
+      <c r="T182">
+        <v>53</v>
+      </c>
+      <c r="U182">
+        <v>0</v>
+      </c>
+      <c r="V182">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W182">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="X182">
+        <f t="shared" si="28"/>
+        <v>100000</v>
+      </c>
+      <c r="Y182">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+      <c r="Z182">
+        <f t="shared" si="30"/>
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>134</v>
+      </c>
+      <c r="I183">
+        <v>8</v>
+      </c>
+      <c r="J183">
+        <v>160</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>18</v>
+      </c>
+      <c r="S183">
+        <v>720</v>
+      </c>
+      <c r="T183">
+        <v>53</v>
+      </c>
+      <c r="U183">
+        <v>0</v>
+      </c>
+      <c r="V183">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W183">
+        <f t="shared" si="27"/>
+        <v>33</v>
+      </c>
+      <c r="X183">
+        <f t="shared" si="28"/>
+        <v>103125</v>
+      </c>
+      <c r="Y183">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="Z183">
+        <f t="shared" si="30"/>
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>138</v>
+      </c>
+      <c r="I184">
+        <v>8</v>
+      </c>
+      <c r="J184">
+        <v>160</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>72</v>
+      </c>
+      <c r="S184">
+        <v>240</v>
+      </c>
+      <c r="T184">
+        <v>53</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W184">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="X184">
+        <f t="shared" si="28"/>
+        <v>75000</v>
+      </c>
+      <c r="Y184">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="Z184">
+        <f t="shared" si="30"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>135</v>
+      </c>
+      <c r="I185">
+        <v>8</v>
+      </c>
+      <c r="J185">
+        <v>160</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q185">
+        <v>66</v>
+      </c>
+      <c r="S185">
+        <v>480</v>
+      </c>
+      <c r="T185">
+        <v>53</v>
+      </c>
+      <c r="U185">
+        <v>0</v>
+      </c>
+      <c r="V185">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W185">
+        <f t="shared" si="27"/>
+        <v>30</v>
+      </c>
+      <c r="X185">
+        <f t="shared" si="28"/>
+        <v>93750</v>
+      </c>
+      <c r="Y185">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
+      <c r="Z185">
+        <f t="shared" si="30"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>136</v>
+      </c>
+      <c r="I186">
+        <v>8</v>
+      </c>
+      <c r="J186">
+        <v>160</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q186">
+        <v>40</v>
+      </c>
+      <c r="S186">
+        <v>640</v>
+      </c>
+      <c r="T186">
+        <v>53</v>
+      </c>
+      <c r="U186">
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W186">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="X186">
+        <f t="shared" si="28"/>
+        <v>100000</v>
+      </c>
+      <c r="Y186">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="Z186">
+        <f t="shared" si="30"/>
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>137</v>
+      </c>
+      <c r="I187">
+        <v>8</v>
+      </c>
+      <c r="J187">
+        <v>160</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q187">
+        <v>16</v>
+      </c>
+      <c r="S187">
+        <v>800</v>
+      </c>
+      <c r="T187">
+        <v>53</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W187">
+        <f t="shared" si="27"/>
+        <v>34</v>
+      </c>
+      <c r="X187">
+        <f t="shared" si="28"/>
+        <v>106250</v>
+      </c>
+      <c r="Y187">
+        <f t="shared" si="29"/>
+        <v>20</v>
+      </c>
+      <c r="Z187">
+        <f t="shared" si="30"/>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNS\CNST\local\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD17B37-7080-4521-B3EB-DA2C1E8242CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F06711-4C5B-4F5C-BF89-07AC9F6FC5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4470" yWindow="260" windowWidth="20910" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5754,9 +5754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AF187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W179" sqref="W179"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K168" sqref="K168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNS\CNST\local\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F06711-4C5B-4F5C-BF89-07AC9F6FC5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7EA0CA-5C52-4C92-A4AC-8676D04F6CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="260" windowWidth="20910" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1810" windowWidth="20910" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="425">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1664,6 +1664,10 @@
   </si>
   <si>
     <t>CRH380A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2026,11 +2030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF50"/>
+  <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2247,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q45" si="2">O3*P3*9.8</f>
+        <f t="shared" ref="Q3:Q51" si="2">O3*P3*9.8</f>
         <v>0</v>
       </c>
       <c r="R3">
@@ -4950,7 +4954,7 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="2"/>
+        <f>O41*P41*9.8</f>
         <v>485.51160000000004</v>
       </c>
       <c r="R41">
@@ -5394,8 +5398,9 @@
       <c r="P46" s="5">
         <v>0.27876367899999999</v>
       </c>
-      <c r="Q46" s="5">
-        <v>377</v>
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>376.99999947960004</v>
       </c>
       <c r="R46" s="5">
         <v>76</v>
@@ -5473,8 +5478,9 @@
       <c r="P47" s="5">
         <v>0.32534753</v>
       </c>
-      <c r="Q47" s="5">
-        <v>440</v>
+      <c r="Q47">
+        <f t="shared" si="2"/>
+        <v>439.99999957200004</v>
       </c>
       <c r="R47" s="5">
         <v>81</v>
@@ -5550,8 +5556,9 @@
       <c r="P48" s="5">
         <v>0.34132119700000002</v>
       </c>
-      <c r="Q48" s="5">
-        <v>480</v>
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>479.99999934110008</v>
       </c>
       <c r="R48" s="5">
         <v>86</v>
@@ -5626,27 +5633,27 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="Q49">
-        <f t="shared" ref="Q49" si="40">O49*P49*9.8</f>
+        <f t="shared" si="2"/>
         <v>480.10199999999998</v>
       </c>
       <c r="R49">
-        <f t="shared" ref="R49:R50" si="41">MEDIAN(255, ROUND((M49/10+SQRT(K49)/20+SQRT(L49)+P49+20-J49), 0), 0)</f>
+        <f t="shared" ref="R49:R51" si="40">MEDIAN(255, ROUND((M49/10+SQRT(K49)/20+SQRT(L49)+P49+20-J49), 0), 0)</f>
         <v>84</v>
       </c>
       <c r="S49">
-        <f t="shared" ref="S49:S50" si="42">R49*50000/16</f>
+        <f t="shared" ref="S49:S51" si="41">R49*50000/16</f>
         <v>262500</v>
       </c>
       <c r="T49">
-        <f t="shared" ref="T49:T50" si="43">MEDIAN(0, 255, ROUND(SQRT(K49)/100+SQRT(L49)+P49+40/J49-2,0))</f>
+        <f t="shared" ref="T49:T51" si="42">MEDIAN(0, 255, ROUND(SQRT(K49)/100+SQRT(L49)+P49+40/J49-2,0))</f>
         <v>65</v>
       </c>
       <c r="U49">
-        <f t="shared" ref="U49:U50" si="44">IF(E49="Steam", T49*350/16*12, IF(E49="Diesel", T49*325/16*12,  T49*300/16*12))</f>
+        <f t="shared" ref="U49:U50" si="43">IF(E49="Steam", T49*350/16*12, IF(E49="Diesel", T49*325/16*12,  T49*300/16*12))</f>
         <v>15843.75</v>
       </c>
       <c r="V49">
-        <f t="shared" ref="V49" si="45">W49+X49+Y49</f>
+        <f t="shared" ref="V49" si="44">W49+X49+Y49</f>
         <v>10</v>
       </c>
       <c r="W49">
@@ -5706,23 +5713,23 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="Q50">
-        <f>2*Q30</f>
+        <f t="shared" si="2"/>
         <v>938.56560000000002</v>
       </c>
       <c r="R50">
+        <f t="shared" si="40"/>
+        <v>147</v>
+      </c>
+      <c r="S50">
         <f t="shared" si="41"/>
-        <v>147</v>
-      </c>
-      <c r="S50">
+        <v>459375</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="42"/>
-        <v>459375</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="43"/>
         <v>111</v>
       </c>
       <c r="U50">
-        <f t="shared" si="44"/>
+        <f>IF(E50="Steam", T50*350/16*12, IF(E50="Diesel", T50*325/16*12,  T50*300/16*12))</f>
         <v>24975</v>
       </c>
       <c r="V50" s="5">
@@ -5743,6 +5750,82 @@
       <c r="AE50" t="s">
         <v>343</v>
       </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E51" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1958</v>
+      </c>
+      <c r="G51" s="5">
+        <v>30</v>
+      </c>
+      <c r="H51">
+        <v>40</v>
+      </c>
+      <c r="I51">
+        <v>30</v>
+      </c>
+      <c r="J51" s="5">
+        <v>16</v>
+      </c>
+      <c r="K51" s="5">
+        <v>100</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1800</v>
+      </c>
+      <c r="M51" s="5">
+        <v>126</v>
+      </c>
+      <c r="O51" s="5">
+        <v>126</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.245</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>302.52600000000001</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="40"/>
+        <v>60</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="41"/>
+        <v>187500</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="42"/>
+        <v>43</v>
+      </c>
+      <c r="U51">
+        <f>IF(E51="Steam", T51*350/16*12, IF(E51="Diesel", T51*325/16*12,  T51*300/16*12))</f>
+        <v>9675</v>
+      </c>
+      <c r="V51" s="5">
+        <v>10</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>6</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R53" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5754,7 +5837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AF187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K168" sqref="K168"/>
     </sheetView>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNS\CNST\local\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7EA0CA-5C52-4C92-A4AC-8676D04F6CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE2CDF-8C8A-4960-91C4-13A6D5ECB9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1810" windowWidth="20910" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="428">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1668,6 +1668,18 @@
   </si>
   <si>
     <t>DF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6Y2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Babel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qipaoxian,Babel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2032,9 +2044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE54" sqref="AE54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2251,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q51" si="2">O3*P3*9.8</f>
+        <f t="shared" ref="Q3:Q52" si="2">O3*P3*9.8</f>
         <v>0</v>
       </c>
       <c r="R3">
@@ -4419,6 +4431,12 @@
       <c r="AC34" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
@@ -5637,19 +5655,19 @@
         <v>480.10199999999998</v>
       </c>
       <c r="R49">
-        <f t="shared" ref="R49:R51" si="40">MEDIAN(255, ROUND((M49/10+SQRT(K49)/20+SQRT(L49)+P49+20-J49), 0), 0)</f>
+        <f t="shared" ref="R49:R52" si="40">MEDIAN(255, ROUND((M49/10+SQRT(K49)/20+SQRT(L49)+P49+20-J49), 0), 0)</f>
         <v>84</v>
       </c>
       <c r="S49">
-        <f t="shared" ref="S49:S51" si="41">R49*50000/16</f>
+        <f t="shared" ref="S49:S52" si="41">R49*50000/16</f>
         <v>262500</v>
       </c>
       <c r="T49">
-        <f t="shared" ref="T49:T51" si="42">MEDIAN(0, 255, ROUND(SQRT(K49)/100+SQRT(L49)+P49+40/J49-2,0))</f>
+        <f t="shared" ref="T49:T52" si="42">MEDIAN(0, 255, ROUND(SQRT(K49)/100+SQRT(L49)+P49+40/J49-2,0))</f>
         <v>65</v>
       </c>
       <c r="U49">
-        <f t="shared" ref="U49:U50" si="43">IF(E49="Steam", T49*350/16*12, IF(E49="Diesel", T49*325/16*12,  T49*300/16*12))</f>
+        <f t="shared" ref="U49" si="43">IF(E49="Steam", T49*350/16*12, IF(E49="Diesel", T49*325/16*12,  T49*300/16*12))</f>
         <v>15843.75</v>
       </c>
       <c r="V49">
@@ -5756,7 +5774,7 @@
         <v>424</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="F51" s="5">
         <v>1958</v>
@@ -5806,23 +5824,102 @@
       </c>
       <c r="U51">
         <f>IF(E51="Steam", T51*350/16*12, IF(E51="Diesel", T51*325/16*12,  T51*300/16*12))</f>
-        <v>9675</v>
+        <v>10481.25</v>
       </c>
       <c r="V51" s="5">
         <v>10</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X51">
+        <v>4</v>
+      </c>
+      <c r="Y51">
+        <v>2</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E52" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1960</v>
+      </c>
+      <c r="G52" s="5">
+        <v>40</v>
+      </c>
+      <c r="H52">
+        <v>60</v>
+      </c>
+      <c r="I52">
+        <v>20</v>
+      </c>
+      <c r="J52" s="5">
+        <v>12</v>
+      </c>
+      <c r="K52" s="5">
+        <v>100</v>
+      </c>
+      <c r="L52" s="5">
+        <v>6282</v>
+      </c>
+      <c r="M52" s="5">
+        <v>138</v>
+      </c>
+      <c r="O52" s="5">
+        <v>138</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0.377</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>509.85480000000007</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="40"/>
+        <v>102</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="41"/>
+        <v>318750</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="42"/>
+        <v>81</v>
+      </c>
+      <c r="U52">
+        <f>IF(E52="Steam", T52*350/16*12, IF(E52="Diesel", T52*325/16*12,  T52*300/16*12))</f>
+        <v>18225</v>
+      </c>
+      <c r="V52" s="5">
+        <v>10</v>
+      </c>
+      <c r="W52">
+        <v>2</v>
+      </c>
+      <c r="X52">
         <v>6</v>
       </c>
-      <c r="Y51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="R52" s="5"/>
+      <c r="Y52">
+        <v>2</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R53" s="5"/>
@@ -5837,12 +5934,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AF187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K168" sqref="K168"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF179" sqref="AF179:AF187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="32" max="32" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -13269,7 +13369,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>131</v>
       </c>
@@ -13319,7 +13419,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -13372,7 +13472,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>131</v>
       </c>
@@ -13422,7 +13522,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>412</v>
       </c>
@@ -13475,7 +13575,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>130</v>
       </c>
@@ -13525,7 +13625,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -13578,7 +13678,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>414</v>
       </c>
@@ -13634,7 +13734,7 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>130</v>
       </c>
@@ -13684,7 +13784,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -13737,7 +13837,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>415</v>
       </c>
@@ -13790,7 +13890,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>130</v>
       </c>
@@ -13840,7 +13940,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -13893,7 +13993,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>421</v>
       </c>
@@ -13945,8 +14045,14 @@
         <f t="shared" ref="Z157:Z187" si="30">Y157*300/16</f>
         <v>1368.75</v>
       </c>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE157" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF157" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>130</v>
       </c>
@@ -13998,8 +14104,14 @@
         <f t="shared" si="30"/>
         <v>1331.25</v>
       </c>
-    </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE158" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>131</v>
       </c>
@@ -14051,8 +14163,14 @@
         <f t="shared" si="30"/>
         <v>1387.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE159" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF159" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>132</v>
       </c>
@@ -14104,8 +14222,14 @@
         <f t="shared" si="30"/>
         <v>1481.25</v>
       </c>
-    </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE160" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF160" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="161" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>134</v>
       </c>
@@ -14157,8 +14281,14 @@
         <f t="shared" si="30"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE161" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="162" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>138</v>
       </c>
@@ -14210,8 +14340,14 @@
         <f t="shared" si="30"/>
         <v>1312.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE162" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF162" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="163" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -14266,8 +14402,14 @@
         <f t="shared" si="30"/>
         <v>243.75</v>
       </c>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE163" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="164" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>131</v>
       </c>
@@ -14319,8 +14461,14 @@
         <f t="shared" si="30"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE164" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="165" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>132</v>
       </c>
@@ -14372,8 +14520,14 @@
         <f t="shared" si="30"/>
         <v>393.75</v>
       </c>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE165" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="166" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>134</v>
       </c>
@@ -14425,8 +14579,14 @@
         <f t="shared" si="30"/>
         <v>412.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE166" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="167" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>138</v>
       </c>
@@ -14478,8 +14638,14 @@
         <f t="shared" si="30"/>
         <v>225</v>
       </c>
-    </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE167" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="168" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>423</v>
       </c>
@@ -14528,8 +14694,14 @@
         <f t="shared" si="30"/>
         <v>1050</v>
       </c>
-    </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE168" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="169" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>130</v>
       </c>
@@ -14578,8 +14750,14 @@
         <f t="shared" si="30"/>
         <v>1012.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE169" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF169" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="170" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>131</v>
       </c>
@@ -14628,8 +14806,14 @@
         <f t="shared" si="30"/>
         <v>1068.75</v>
       </c>
-    </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE170" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF170" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="171" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>132</v>
       </c>
@@ -14678,8 +14862,14 @@
         <f t="shared" si="30"/>
         <v>1143.75</v>
       </c>
-    </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE171" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="172" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>134</v>
       </c>
@@ -14728,8 +14918,14 @@
         <f t="shared" si="30"/>
         <v>1162.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE172" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="173" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>138</v>
       </c>
@@ -14778,8 +14974,14 @@
         <f t="shared" si="30"/>
         <v>993.75</v>
       </c>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE173" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="174" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -14831,8 +15033,14 @@
         <f t="shared" si="30"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE174" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="175" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>131</v>
       </c>
@@ -14881,8 +15089,14 @@
         <f t="shared" si="30"/>
         <v>225</v>
       </c>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE175" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="176" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>132</v>
       </c>
@@ -14931,8 +15145,14 @@
         <f t="shared" si="30"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE176" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="177" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>134</v>
       </c>
@@ -14981,8 +15201,14 @@
         <f t="shared" si="30"/>
         <v>318.75</v>
       </c>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE177" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="178" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>138</v>
       </c>
@@ -15031,8 +15257,14 @@
         <f t="shared" si="30"/>
         <v>131.25</v>
       </c>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE178" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="179" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>422</v>
       </c>
@@ -15084,8 +15316,14 @@
         <f t="shared" si="30"/>
         <v>1706.25</v>
       </c>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE179" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="180" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>130</v>
       </c>
@@ -15134,8 +15372,14 @@
         <f t="shared" si="30"/>
         <v>187.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE180" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="181" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>131</v>
       </c>
@@ -15184,8 +15428,14 @@
         <f t="shared" si="30"/>
         <v>262.5</v>
       </c>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE181" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>132</v>
       </c>
@@ -15234,8 +15484,14 @@
         <f t="shared" si="30"/>
         <v>318.75</v>
       </c>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE182" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="183" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>134</v>
       </c>
@@ -15284,8 +15540,14 @@
         <f t="shared" si="30"/>
         <v>337.5</v>
       </c>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE183" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="184" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>138</v>
       </c>
@@ -15334,8 +15596,14 @@
         <f t="shared" si="30"/>
         <v>168.75</v>
       </c>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE184" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="185" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>135</v>
       </c>
@@ -15387,8 +15655,14 @@
         <f t="shared" si="30"/>
         <v>281.25</v>
       </c>
-    </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE185" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="186" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>136</v>
       </c>
@@ -15440,8 +15714,14 @@
         <f t="shared" si="30"/>
         <v>337.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AE186" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="187" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>137</v>
       </c>
@@ -15492,6 +15772,12 @@
       <c r="Z187">
         <f t="shared" si="30"/>
         <v>375</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -16279,7 +16565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z60" sqref="Z60"/>
     </sheetView>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNS\CNST\local\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE2CDF-8C8A-4960-91C4-13A6D5ECB9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C584FE3D-77B7-4871-826D-A557F1139C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="2250" windowWidth="20910" windowHeight="13290" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="434">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1680,6 +1680,30 @@
   </si>
   <si>
     <t>Qipaoxian,Babel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW25DT-JINLUN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw25dt-jinlun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYZ25DT-JINLUN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRZ25DT-JINLUN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ25DT-JINLUN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YW25DT-JINLUN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2044,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AE54" sqref="AE54"/>
     </sheetView>
   </sheetViews>
@@ -16563,11 +16587,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z60" sqref="Z60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19954,19 +19978,19 @@
         <v>42.5</v>
       </c>
       <c r="Q63">
-        <f t="shared" ref="Q63:Q69" si="33">MEDIAN(0,255,ROUND(P63/20+SQRT(H63)/40+SQRT(M63)/2+(SQRT(O63)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Q63:Q72" si="33">MEDIAN(0,255,ROUND(P63/20+SQRT(H63)/40+SQRT(M63)/2+(SQRT(O63)-SQRT(185)), 0))</f>
         <v>8</v>
       </c>
       <c r="R63">
-        <f t="shared" ref="R63:R69" si="34">Q63*50000/16</f>
+        <f t="shared" ref="R63:R72" si="34">Q63*50000/16</f>
         <v>25000</v>
       </c>
       <c r="S63">
-        <f t="shared" ref="S63:S69" si="35">MEDIAN(0,255,ROUND(SQRT(H63)/200+SQRT(M63)/2+(SQRT(O63)-SQRT(185)),0))</f>
+        <f t="shared" ref="S63:S72" si="35">MEDIAN(0,255,ROUND(SQRT(H63)/200+SQRT(M63)/2+(SQRT(O63)-SQRT(185)),0))</f>
         <v>6</v>
       </c>
       <c r="T63">
-        <f t="shared" ref="T63:T69" si="36">S63*300/16*12</f>
+        <f t="shared" ref="T63:T72" si="36">S63*300/16*12</f>
         <v>1350</v>
       </c>
       <c r="Y63" t="s">
@@ -20316,6 +20340,261 @@
       </c>
       <c r="Z69" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>432</v>
+      </c>
+      <c r="B70" t="s">
+        <v>429</v>
+      </c>
+      <c r="E70">
+        <v>2001</v>
+      </c>
+      <c r="F70">
+        <v>30</v>
+      </c>
+      <c r="G70">
+        <v>15</v>
+      </c>
+      <c r="H70">
+        <v>140</v>
+      </c>
+      <c r="I70" t="s">
+        <v>90</v>
+      </c>
+      <c r="M70">
+        <v>98</v>
+      </c>
+      <c r="N70">
+        <v>16</v>
+      </c>
+      <c r="O70">
+        <v>160</v>
+      </c>
+      <c r="P70">
+        <v>49.2</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" ref="Q70" si="37">MEDIAN(0,255,ROUND(P70/20+SQRT(H70)/40+SQRT(M70)/2+(SQRT(O70)-SQRT(185)), 0))</f>
+        <v>7</v>
+      </c>
+      <c r="R70">
+        <f t="shared" ref="R70" si="38">Q70*50000/16</f>
+        <v>21875</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70" si="39">MEDIAN(0,255,ROUND(SQRT(H70)/200+SQRT(M70)/2+(SQRT(O70)-SQRT(185)),0))</f>
+        <v>4</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70" si="40">S70*300/16*12</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>433</v>
+      </c>
+      <c r="B71" t="s">
+        <v>429</v>
+      </c>
+      <c r="E71">
+        <v>2001</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
+      <c r="G71">
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <v>140</v>
+      </c>
+      <c r="I71" t="s">
+        <v>90</v>
+      </c>
+      <c r="M71">
+        <v>36</v>
+      </c>
+      <c r="N71">
+        <v>16</v>
+      </c>
+      <c r="O71">
+        <v>288</v>
+      </c>
+      <c r="P71">
+        <v>49.2</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" ref="Q71" si="41">MEDIAN(0,255,ROUND(P71/20+SQRT(H71)/40+SQRT(M71)/2+(SQRT(O71)-SQRT(185)), 0))</f>
+        <v>9</v>
+      </c>
+      <c r="R71">
+        <f t="shared" ref="R71" si="42">Q71*50000/16</f>
+        <v>28125</v>
+      </c>
+      <c r="S71">
+        <f t="shared" ref="S71" si="43">MEDIAN(0,255,ROUND(SQRT(H71)/200+SQRT(M71)/2+(SQRT(O71)-SQRT(185)),0))</f>
+        <v>6</v>
+      </c>
+      <c r="T71">
+        <f t="shared" ref="T71" si="44">S71*300/16*12</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>428</v>
+      </c>
+      <c r="B72" t="s">
+        <v>429</v>
+      </c>
+      <c r="E72">
+        <v>2001</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
+      </c>
+      <c r="G72">
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <v>140</v>
+      </c>
+      <c r="I72" t="s">
+        <v>90</v>
+      </c>
+      <c r="M72">
+        <v>36</v>
+      </c>
+      <c r="N72">
+        <v>16</v>
+      </c>
+      <c r="O72">
+        <v>384</v>
+      </c>
+      <c r="P72">
+        <v>49.2</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="33"/>
+        <v>12</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="34"/>
+        <v>37500</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="36"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>430</v>
+      </c>
+      <c r="B73" t="s">
+        <v>429</v>
+      </c>
+      <c r="E73">
+        <v>2001</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
+      </c>
+      <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>140</v>
+      </c>
+      <c r="I73" t="s">
+        <v>90</v>
+      </c>
+      <c r="M73">
+        <v>36</v>
+      </c>
+      <c r="N73">
+        <v>16</v>
+      </c>
+      <c r="O73">
+        <v>160</v>
+      </c>
+      <c r="P73">
+        <v>49.2</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" ref="Q73:Q74" si="45">MEDIAN(0,255,ROUND(P73/20+SQRT(H73)/40+SQRT(M73)/2+(SQRT(O73)-SQRT(185)), 0))</f>
+        <v>5</v>
+      </c>
+      <c r="R73">
+        <f t="shared" ref="R73:R74" si="46">Q73*50000/16</f>
+        <v>15625</v>
+      </c>
+      <c r="S73">
+        <f t="shared" ref="S73:S74" si="47">MEDIAN(0,255,ROUND(SQRT(H73)/200+SQRT(M73)/2+(SQRT(O73)-SQRT(185)),0))</f>
+        <v>2</v>
+      </c>
+      <c r="T73">
+        <f t="shared" ref="T73:T74" si="48">S73*300/16*12</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>431</v>
+      </c>
+      <c r="B74" t="s">
+        <v>429</v>
+      </c>
+      <c r="E74">
+        <v>2001</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74">
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <v>140</v>
+      </c>
+      <c r="I74" t="s">
+        <v>90</v>
+      </c>
+      <c r="M74">
+        <v>36</v>
+      </c>
+      <c r="N74">
+        <v>16</v>
+      </c>
+      <c r="O74">
+        <v>192</v>
+      </c>
+      <c r="P74">
+        <v>49.2</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="46"/>
+        <v>18750</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="48"/>
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNS\CNST\local\China-Set-Trains\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\John Franklin\Documents\GitHub\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C584FE3D-77B7-4871-826D-A557F1139C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD7796-9307-4087-AA9F-B41D7FF85565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2250" windowWidth="20910" windowHeight="13290" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="435">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1704,6 +1704,10 @@
   </si>
   <si>
     <t>YW25DT-JINLUN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NZJ1-Jinlun</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2073,14 +2077,14 @@
       <selection pane="bottomLeft" activeCell="AE54" sqref="AE54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.58203125" style="1"/>
-    <col min="29" max="30" width="8.58203125" style="2"/>
+    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="8.59765625" style="1"/>
+    <col min="29" max="30" width="8.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2266,7 +2270,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2413,7 +2417,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -2687,7 +2691,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -2756,7 +2760,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -2822,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3058,7 +3062,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3131,7 +3135,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3292,7 +3296,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>319</v>
       </c>
@@ -3471,7 +3475,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -3565,7 +3569,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>331</v>
       </c>
@@ -3719,7 +3723,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -3790,7 +3794,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>338</v>
       </c>
@@ -3938,7 +3942,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4071,7 +4075,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4144,7 +4148,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4463,7 +4467,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -4776,7 +4780,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -4864,7 +4868,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -4952,7 +4956,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -5040,7 +5044,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -5128,7 +5132,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -5307,7 +5311,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -5395,7 +5399,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>351</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>353</v>
       </c>
@@ -5555,7 +5559,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>355</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>359</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>394</v>
       </c>
@@ -5793,7 +5797,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>424</v>
       </c>
@@ -5869,7 +5873,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>425</v>
       </c>
@@ -5945,7 +5949,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.4">
       <c r="R53" s="5"/>
     </row>
   </sheetData>
@@ -5956,19 +5960,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AF187"/>
+  <dimension ref="A1:AF190"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF179" sqref="AF179:AF187"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA189" sqref="AA189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="32" max="32" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6066,7 +6070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -6134,7 +6138,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="I3">
         <v>20</v>
       </c>
@@ -6184,7 +6188,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>130</v>
       </c>
@@ -6237,7 +6241,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -6290,7 +6294,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>132</v>
       </c>
@@ -6343,7 +6347,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -6396,7 +6400,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>138</v>
       </c>
@@ -6449,7 +6453,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -6555,7 +6559,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -6608,7 +6612,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -6661,7 +6665,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -6714,7 +6718,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>131</v>
       </c>
@@ -6767,7 +6771,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>132</v>
       </c>
@@ -6820,7 +6824,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>134</v>
       </c>
@@ -6873,7 +6877,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -6926,7 +6930,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -6982,7 +6986,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -7035,7 +7039,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -7088,7 +7092,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -7141,7 +7145,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>138</v>
       </c>
@@ -7194,7 +7198,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -7247,7 +7251,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>130</v>
       </c>
@@ -7300,7 +7304,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>131</v>
       </c>
@@ -7353,7 +7357,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>132</v>
       </c>
@@ -7406,7 +7410,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>134</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -7512,7 +7516,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -7568,7 +7572,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>131</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>132</v>
       </c>
@@ -7674,7 +7678,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -7727,7 +7731,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>138</v>
       </c>
@@ -7780,7 +7784,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -7830,7 +7834,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>248</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>249</v>
       </c>
@@ -7930,7 +7934,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>250</v>
       </c>
@@ -7980,7 +7984,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>251</v>
       </c>
@@ -8030,7 +8034,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>252</v>
       </c>
@@ -8080,7 +8084,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>248</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>249</v>
       </c>
@@ -8180,7 +8184,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>250</v>
       </c>
@@ -8230,7 +8234,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>251</v>
       </c>
@@ -8280,7 +8284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -8330,7 +8334,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -8380,7 +8384,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>248</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>249</v>
       </c>
@@ -8480,7 +8484,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>250</v>
       </c>
@@ -8530,7 +8534,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>251</v>
       </c>
@@ -8580,7 +8584,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>248</v>
       </c>
@@ -8680,7 +8684,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>249</v>
       </c>
@@ -8730,7 +8734,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>250</v>
       </c>
@@ -8780,7 +8784,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>251</v>
       </c>
@@ -8830,7 +8834,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>252</v>
       </c>
@@ -8880,7 +8884,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -8930,7 +8934,7 @@
         <v>1668.75</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>248</v>
       </c>
@@ -8980,7 +8984,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>249</v>
       </c>
@@ -9030,7 +9034,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>250</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>251</v>
       </c>
@@ -9130,7 +9134,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>252</v>
       </c>
@@ -9180,7 +9184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -9230,7 +9234,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>248</v>
       </c>
@@ -9280,7 +9284,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>249</v>
       </c>
@@ -9330,7 +9334,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>250</v>
       </c>
@@ -9380,7 +9384,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>251</v>
       </c>
@@ -9430,7 +9434,7 @@
         <v>1143.75</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -9480,7 +9484,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>248</v>
       </c>
@@ -9530,7 +9534,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>249</v>
       </c>
@@ -9580,7 +9584,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>250</v>
       </c>
@@ -9630,7 +9634,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>251</v>
       </c>
@@ -9680,7 +9684,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>252</v>
       </c>
@@ -9730,7 +9734,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -9780,7 +9784,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>248</v>
       </c>
@@ -9830,7 +9834,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>249</v>
       </c>
@@ -9880,7 +9884,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>252</v>
       </c>
@@ -9930,7 +9934,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>249</v>
       </c>
@@ -10030,7 +10034,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>284</v>
       </c>
@@ -10080,7 +10084,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>285</v>
       </c>
@@ -10130,7 +10134,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>286</v>
       </c>
@@ -10180,7 +10184,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>287</v>
       </c>
@@ -10230,7 +10234,7 @@
         <v>1443.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>288</v>
       </c>
@@ -10280,7 +10284,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
         <v>289</v>
       </c>
@@ -10330,7 +10334,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>286</v>
       </c>
@@ -10433,7 +10437,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>287</v>
       </c>
@@ -10483,7 +10487,7 @@
         <v>393.75</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>288</v>
       </c>
@@ -10533,7 +10537,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>289</v>
       </c>
@@ -10583,7 +10587,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>285</v>
       </c>
@@ -10683,7 +10687,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
         <v>286</v>
       </c>
@@ -10733,7 +10737,7 @@
         <v>1256.25</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
         <v>287</v>
       </c>
@@ -10783,7 +10787,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
         <v>288</v>
       </c>
@@ -10833,7 +10837,7 @@
         <v>1368.75</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>289</v>
       </c>
@@ -10883,7 +10887,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -10936,7 +10940,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
         <v>286</v>
       </c>
@@ -10986,7 +10990,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
         <v>287</v>
       </c>
@@ -11036,7 +11040,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B99" t="s">
         <v>288</v>
       </c>
@@ -11086,7 +11090,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
         <v>289</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -11186,7 +11190,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
         <v>285</v>
       </c>
@@ -11236,7 +11240,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
         <v>286</v>
       </c>
@@ -11286,7 +11290,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B104" t="s">
         <v>287</v>
       </c>
@@ -11336,7 +11340,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B105" t="s">
         <v>288</v>
       </c>
@@ -11386,7 +11390,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B106" t="s">
         <v>289</v>
       </c>
@@ -11436,7 +11440,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>151</v>
       </c>
@@ -11489,7 +11493,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B108" t="s">
         <v>286</v>
       </c>
@@ -11539,7 +11543,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B109" t="s">
         <v>287</v>
       </c>
@@ -11589,7 +11593,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B110" t="s">
         <v>288</v>
       </c>
@@ -11639,7 +11643,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B111" t="s">
         <v>289</v>
       </c>
@@ -11689,7 +11693,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>401</v>
       </c>
@@ -11742,7 +11746,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B113" t="s">
         <v>130</v>
       </c>
@@ -11792,7 +11796,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B114" t="s">
         <v>402</v>
       </c>
@@ -11845,7 +11849,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
         <v>137</v>
       </c>
@@ -11898,7 +11902,7 @@
         <v>1087.5</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
         <v>138</v>
       </c>
@@ -11951,7 +11955,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>151</v>
       </c>
@@ -12004,7 +12008,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B118" t="s">
         <v>402</v>
       </c>
@@ -12054,7 +12058,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
         <v>137</v>
       </c>
@@ -12104,7 +12108,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B120" t="s">
         <v>138</v>
       </c>
@@ -12154,7 +12158,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>405</v>
       </c>
@@ -12207,7 +12211,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B122" t="s">
         <v>130</v>
       </c>
@@ -12260,7 +12264,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B123" t="s">
         <v>131</v>
       </c>
@@ -12310,7 +12314,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B124" t="s">
         <v>132</v>
       </c>
@@ -12363,7 +12367,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B125" t="s">
         <v>134</v>
       </c>
@@ -12416,7 +12420,7 @@
         <v>1068.75</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B126" t="s">
         <v>138</v>
       </c>
@@ -12469,7 +12473,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -12522,7 +12526,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -12572,7 +12576,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -12622,7 +12626,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B130" t="s">
         <v>134</v>
       </c>
@@ -12672,7 +12676,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B131" t="s">
         <v>138</v>
       </c>
@@ -12722,7 +12726,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>406</v>
       </c>
@@ -12775,7 +12779,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B133" t="s">
         <v>130</v>
       </c>
@@ -12828,7 +12832,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B134" t="s">
         <v>131</v>
       </c>
@@ -12878,7 +12882,7 @@
         <v>1387.5</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B135" t="s">
         <v>132</v>
       </c>
@@ -12931,7 +12935,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B136" t="s">
         <v>134</v>
       </c>
@@ -12984,7 +12988,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B137" t="s">
         <v>138</v>
       </c>
@@ -13037,7 +13041,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -13090,7 +13094,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B139" t="s">
         <v>131</v>
       </c>
@@ -13140,7 +13144,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B140" t="s">
         <v>132</v>
       </c>
@@ -13190,7 +13194,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B141" t="s">
         <v>134</v>
       </c>
@@ -13240,7 +13244,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B142" t="s">
         <v>138</v>
       </c>
@@ -13290,7 +13294,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>413</v>
       </c>
@@ -13343,7 +13347,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B144" t="s">
         <v>130</v>
       </c>
@@ -13393,7 +13397,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B145" t="s">
         <v>131</v>
       </c>
@@ -13443,7 +13447,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -13496,7 +13500,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B147" t="s">
         <v>131</v>
       </c>
@@ -13546,7 +13550,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>412</v>
       </c>
@@ -13599,7 +13603,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B149" t="s">
         <v>130</v>
       </c>
@@ -13649,7 +13653,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -13702,7 +13706,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>414</v>
       </c>
@@ -13758,7 +13762,7 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B152" t="s">
         <v>130</v>
       </c>
@@ -13808,7 +13812,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -13861,7 +13865,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>415</v>
       </c>
@@ -13914,7 +13918,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
         <v>130</v>
       </c>
@@ -13964,7 +13968,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -14017,7 +14021,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>421</v>
       </c>
@@ -14028,7 +14032,7 @@
         <v>350</v>
       </c>
       <c r="K157">
-        <f t="shared" ref="K157:K187" si="25">ROUND(L157/0.73549875,0)</f>
+        <f t="shared" ref="K157:K190" si="25">ROUND(L157/0.73549875,0)</f>
         <v>3314</v>
       </c>
       <c r="L157">
@@ -14050,23 +14054,23 @@
         <v>0.127</v>
       </c>
       <c r="V157">
-        <f t="shared" ref="V157:V187" si="26">T157*U157*9.8</f>
+        <f t="shared" ref="V157:V190" si="26">T157*U157*9.8</f>
         <v>67.208400000000012</v>
       </c>
       <c r="W157">
-        <f t="shared" ref="W157:W187" si="27">MAX(1, INT(T157/10+SQRT(J157)/20+SQRT(K157)+U157+SQRT(Q157)/2+SQRT(S157)-SQRT(185)+20-I157))</f>
+        <f t="shared" ref="W157:W190" si="27">MAX(1, INT(T157/10+SQRT(J157)/20+SQRT(K157)+U157+SQRT(Q157)/2+SQRT(S157)-SQRT(185)+20-I157))</f>
         <v>88</v>
       </c>
       <c r="X157">
-        <f t="shared" ref="X157:X187" si="28">W157*50000/16</f>
+        <f t="shared" ref="X157:X190" si="28">W157*50000/16</f>
         <v>275000</v>
       </c>
       <c r="Y157">
-        <f t="shared" ref="Y157:Y187" si="29">MAX(1, ROUND((SQRT(J157)/100+SQRT(K157)+U157+(40/I157-2)+SQRT(Q157)/2+SQRT(S157)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Y157:Y190" si="29">MAX(1, ROUND((SQRT(J157)/100+SQRT(K157)+U157+(40/I157-2)+SQRT(Q157)/2+SQRT(S157)-SQRT(185)), 0))</f>
         <v>73</v>
       </c>
       <c r="Z157">
-        <f t="shared" ref="Z157:Z187" si="30">Y157*300/16</f>
+        <f t="shared" ref="Z157:Z190" si="30">Y157*300/16</f>
         <v>1368.75</v>
       </c>
       <c r="AE157" t="s">
@@ -14076,7 +14080,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B158" t="s">
         <v>130</v>
       </c>
@@ -14135,7 +14139,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B159" t="s">
         <v>131</v>
       </c>
@@ -14194,7 +14198,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B160" t="s">
         <v>132</v>
       </c>
@@ -14253,7 +14257,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B161" t="s">
         <v>134</v>
       </c>
@@ -14312,7 +14316,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B162" t="s">
         <v>138</v>
       </c>
@@ -14371,7 +14375,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -14433,7 +14437,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B164" t="s">
         <v>131</v>
       </c>
@@ -14492,7 +14496,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B165" t="s">
         <v>132</v>
       </c>
@@ -14551,7 +14555,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B166" t="s">
         <v>134</v>
       </c>
@@ -14610,7 +14614,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B167" t="s">
         <v>138</v>
       </c>
@@ -14669,7 +14673,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>423</v>
       </c>
@@ -14725,7 +14729,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B169" t="s">
         <v>130</v>
       </c>
@@ -14781,7 +14785,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B170" t="s">
         <v>131</v>
       </c>
@@ -14837,7 +14841,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B171" t="s">
         <v>132</v>
       </c>
@@ -14893,7 +14897,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B172" t="s">
         <v>134</v>
       </c>
@@ -14949,7 +14953,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B173" t="s">
         <v>138</v>
       </c>
@@ -15005,7 +15009,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -15064,7 +15068,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B175" t="s">
         <v>131</v>
       </c>
@@ -15120,7 +15124,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B176" t="s">
         <v>132</v>
       </c>
@@ -15176,7 +15180,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B177" t="s">
         <v>134</v>
       </c>
@@ -15232,7 +15236,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B178" t="s">
         <v>138</v>
       </c>
@@ -15288,7 +15292,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>422</v>
       </c>
@@ -15347,7 +15351,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B180" t="s">
         <v>130</v>
       </c>
@@ -15403,7 +15407,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B181" t="s">
         <v>131</v>
       </c>
@@ -15459,7 +15463,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B182" t="s">
         <v>132</v>
       </c>
@@ -15515,7 +15519,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B183" t="s">
         <v>134</v>
       </c>
@@ -15571,7 +15575,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B184" t="s">
         <v>138</v>
       </c>
@@ -15627,7 +15631,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B185" t="s">
         <v>135</v>
       </c>
@@ -15686,7 +15690,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B186" t="s">
         <v>136</v>
       </c>
@@ -15745,7 +15749,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B187" t="s">
         <v>137</v>
       </c>
@@ -15802,6 +15806,156 @@
       </c>
       <c r="AF187" t="s">
         <v>426</v>
+      </c>
+    </row>
+    <row r="188" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>434</v>
+      </c>
+      <c r="I188">
+        <v>16</v>
+      </c>
+      <c r="J188">
+        <v>180</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="25"/>
+        <v>2692</v>
+      </c>
+      <c r="L188">
+        <v>1980</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>185</v>
+      </c>
+      <c r="T188">
+        <v>115</v>
+      </c>
+      <c r="U188">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="V188">
+        <f t="shared" si="26"/>
+        <v>150.45450000000002</v>
+      </c>
+      <c r="W188">
+        <f t="shared" si="27"/>
+        <v>68</v>
+      </c>
+      <c r="X188">
+        <f t="shared" si="28"/>
+        <v>212500</v>
+      </c>
+      <c r="Y188">
+        <f t="shared" si="29"/>
+        <v>53</v>
+      </c>
+      <c r="Z188">
+        <f t="shared" si="30"/>
+        <v>993.75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B189" t="s">
+        <v>130</v>
+      </c>
+      <c r="I189">
+        <v>16</v>
+      </c>
+      <c r="J189">
+        <v>180</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>136</v>
+      </c>
+      <c r="S189">
+        <v>200</v>
+      </c>
+      <c r="T189">
+        <v>53</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W189">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="X189">
+        <f t="shared" si="28"/>
+        <v>50000</v>
+      </c>
+      <c r="Y189">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="Z189">
+        <f t="shared" si="30"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B190" t="s">
+        <v>131</v>
+      </c>
+      <c r="I190">
+        <v>16</v>
+      </c>
+      <c r="J190">
+        <v>180</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>108</v>
+      </c>
+      <c r="S190">
+        <v>240</v>
+      </c>
+      <c r="T190">
+        <v>53</v>
+      </c>
+      <c r="U190">
+        <v>0</v>
+      </c>
+      <c r="V190">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W190">
+        <f t="shared" si="27"/>
+        <v>17</v>
+      </c>
+      <c r="X190">
+        <f t="shared" si="28"/>
+        <v>53125</v>
+      </c>
+      <c r="Y190">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="Z190">
+        <f t="shared" si="30"/>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -15818,9 +15972,9 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15912,7 +16066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -15958,7 +16112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -16001,7 +16155,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -16044,7 +16198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -16084,7 +16238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -16127,7 +16281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -16167,7 +16321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -16210,7 +16364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -16250,7 +16404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -16290,7 +16444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>241</v>
       </c>
@@ -16330,7 +16484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -16370,7 +16524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -16410,7 +16564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -16453,7 +16607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>392</v>
       </c>
@@ -16496,7 +16650,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>397</v>
       </c>
@@ -16539,7 +16693,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -16589,14 +16743,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O78" sqref="O78"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16676,7 +16830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -16730,7 +16884,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -16784,7 +16938,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -16838,7 +16992,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -16892,7 +17046,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -16946,7 +17100,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -17000,7 +17154,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -17054,7 +17208,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -17108,7 +17262,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -17162,7 +17316,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -17216,7 +17370,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -17270,7 +17424,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -17321,7 +17475,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -17375,7 +17529,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -17429,7 +17583,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -17483,7 +17637,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -17537,7 +17691,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -17588,7 +17742,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -17639,7 +17793,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -17690,7 +17844,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -17741,7 +17895,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -17792,7 +17946,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -17843,7 +17997,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -17894,7 +18048,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -17948,7 +18102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -18002,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -18056,7 +18210,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -18107,7 +18261,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -18158,7 +18312,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -18209,7 +18363,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -18260,7 +18414,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -18311,7 +18465,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -18362,7 +18516,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -18413,7 +18567,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -18464,7 +18618,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -18515,7 +18669,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>221</v>
       </c>
@@ -18566,7 +18720,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -18617,7 +18771,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -18668,7 +18822,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -18719,7 +18873,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -18770,7 +18924,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -18821,7 +18975,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -18872,7 +19026,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -18923,7 +19077,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -18974,7 +19128,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -19025,7 +19179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -19076,7 +19230,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -19136,7 +19290,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -19194,7 +19348,7 @@
       </c>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>301</v>
       </c>
@@ -19252,7 +19406,7 @@
       </c>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>303</v>
       </c>
@@ -19310,7 +19464,7 @@
       </c>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>305</v>
       </c>
@@ -19368,7 +19522,7 @@
       </c>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -19426,7 +19580,7 @@
       </c>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -19484,7 +19638,7 @@
       </c>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -19542,7 +19696,7 @@
       </c>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>314</v>
       </c>
@@ -19600,7 +19754,7 @@
       </c>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -19658,7 +19812,7 @@
       </c>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>345</v>
       </c>
@@ -19715,7 +19869,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>346</v>
       </c>
@@ -19772,7 +19926,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>370</v>
       </c>
@@ -19829,7 +19983,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>371</v>
       </c>
@@ -19886,7 +20040,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -19943,7 +20097,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -20000,7 +20154,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>380</v>
       </c>
@@ -20057,7 +20211,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -20114,7 +20268,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>384</v>
       </c>
@@ -20171,7 +20325,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>388</v>
       </c>
@@ -20228,7 +20382,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -20285,7 +20439,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>386</v>
       </c>
@@ -20342,7 +20496,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>432</v>
       </c>
@@ -20393,7 +20547,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>433</v>
       </c>
@@ -20444,7 +20598,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>428</v>
       </c>
@@ -20495,7 +20649,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>430</v>
       </c>
@@ -20546,7 +20700,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>431</v>
       </c>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\John Franklin\Documents\GitHub\China-Set-Trains\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-site\China-Set-Trains-240320\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD7796-9307-4087-AA9F-B41D7FF85565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35E46BE-CA63-4772-8C46-068A59698F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -18,26 +18,17 @@
     <sheet name="Wagons" sheetId="4" r:id="rId3"/>
     <sheet name="Coaches" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="437">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1708,6 +1699,14 @@
   </si>
   <si>
     <t>NZJ1-Jinlun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz31</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2077,14 +2076,14 @@
       <selection pane="bottomLeft" activeCell="AE54" sqref="AE54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.59765625" style="1"/>
-    <col min="29" max="30" width="8.59765625" style="2"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="8.625" style="1"/>
+    <col min="29" max="30" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2318,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2466,7 +2465,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -2691,7 +2690,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3062,7 +3061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3247,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>319</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -3569,7 +3568,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>331</v>
       </c>
@@ -3723,7 +3722,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -3794,7 +3793,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>338</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4074,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4148,7 +4147,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4294,7 +4293,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4467,7 +4466,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -4956,7 +4955,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -5399,7 +5398,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>351</v>
       </c>
@@ -5479,7 +5478,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>353</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>355</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>359</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>394</v>
       </c>
@@ -5797,7 +5796,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>424</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>425</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="R53" s="5"/>
     </row>
   </sheetData>
@@ -5962,17 +5961,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AF190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AA189" sqref="AA189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="32" max="32" width="20.33203125" customWidth="1"/>
+    <col min="32" max="32" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -6138,7 +6137,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="I3">
         <v>20</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>130</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>132</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>138</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>131</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>132</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>134</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -7039,7 +7038,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>138</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>130</v>
       </c>
@@ -7304,7 +7303,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>131</v>
       </c>
@@ -7357,7 +7356,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>132</v>
       </c>
@@ -7410,7 +7409,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>134</v>
       </c>
@@ -7463,7 +7462,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -7516,7 +7515,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -7572,7 +7571,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>131</v>
       </c>
@@ -7625,7 +7624,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>132</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -7731,7 +7730,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>138</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>248</v>
       </c>
@@ -7884,7 +7883,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>249</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>250</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>251</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>252</v>
       </c>
@@ -8084,7 +8083,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>248</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>249</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>250</v>
       </c>
@@ -8234,7 +8233,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>251</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>248</v>
       </c>
@@ -8434,7 +8433,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>249</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>250</v>
       </c>
@@ -8534,7 +8533,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>251</v>
       </c>
@@ -8584,7 +8583,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>248</v>
       </c>
@@ -8684,7 +8683,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>249</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>250</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>251</v>
       </c>
@@ -8834,7 +8833,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>252</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -8934,7 +8933,7 @@
         <v>1668.75</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>248</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>249</v>
       </c>
@@ -9034,7 +9033,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>250</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>251</v>
       </c>
@@ -9134,7 +9133,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>252</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -9234,7 +9233,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>248</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>249</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>250</v>
       </c>
@@ -9384,7 +9383,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>251</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>1143.75</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -9484,7 +9483,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>248</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>249</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>250</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>251</v>
       </c>
@@ -9684,7 +9683,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>252</v>
       </c>
@@ -9734,7 +9733,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -9784,7 +9783,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>248</v>
       </c>
@@ -9834,7 +9833,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>249</v>
       </c>
@@ -9884,7 +9883,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>252</v>
       </c>
@@ -9934,7 +9933,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>249</v>
       </c>
@@ -10034,7 +10033,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>284</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>285</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>286</v>
       </c>
@@ -10184,7 +10183,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>287</v>
       </c>
@@ -10234,7 +10233,7 @@
         <v>1443.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>288</v>
       </c>
@@ -10284,7 +10283,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>289</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -10387,7 +10386,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>286</v>
       </c>
@@ -10437,7 +10436,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>287</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>393.75</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>288</v>
       </c>
@@ -10537,7 +10536,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>289</v>
       </c>
@@ -10587,7 +10586,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -10637,7 +10636,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>285</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>286</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>1256.25</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>287</v>
       </c>
@@ -10787,7 +10786,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>288</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>1368.75</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>289</v>
       </c>
@@ -10887,7 +10886,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -10940,7 +10939,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>286</v>
       </c>
@@ -10990,7 +10989,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>287</v>
       </c>
@@ -11040,7 +11039,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>288</v>
       </c>
@@ -11090,7 +11089,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>289</v>
       </c>
@@ -11140,7 +11139,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -11190,7 +11189,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>285</v>
       </c>
@@ -11240,7 +11239,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>286</v>
       </c>
@@ -11290,7 +11289,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>287</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>288</v>
       </c>
@@ -11390,7 +11389,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>289</v>
       </c>
@@ -11440,7 +11439,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>151</v>
       </c>
@@ -11493,7 +11492,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>286</v>
       </c>
@@ -11543,7 +11542,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>287</v>
       </c>
@@ -11593,7 +11592,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>288</v>
       </c>
@@ -11643,7 +11642,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>289</v>
       </c>
@@ -11693,7 +11692,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>401</v>
       </c>
@@ -11746,7 +11745,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>130</v>
       </c>
@@ -11796,7 +11795,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>402</v>
       </c>
@@ -11849,7 +11848,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>137</v>
       </c>
@@ -11902,7 +11901,7 @@
         <v>1087.5</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>138</v>
       </c>
@@ -11955,7 +11954,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>151</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>402</v>
       </c>
@@ -12058,7 +12057,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>137</v>
       </c>
@@ -12108,7 +12107,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>138</v>
       </c>
@@ -12158,7 +12157,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>405</v>
       </c>
@@ -12211,7 +12210,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>130</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>131</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>132</v>
       </c>
@@ -12367,7 +12366,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>134</v>
       </c>
@@ -12420,7 +12419,7 @@
         <v>1068.75</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>138</v>
       </c>
@@ -12473,7 +12472,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -12526,7 +12525,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -12576,7 +12575,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -12626,7 +12625,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>134</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>138</v>
       </c>
@@ -12726,7 +12725,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>406</v>
       </c>
@@ -12779,7 +12778,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>130</v>
       </c>
@@ -12832,7 +12831,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>131</v>
       </c>
@@ -12882,7 +12881,7 @@
         <v>1387.5</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>132</v>
       </c>
@@ -12935,7 +12934,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>134</v>
       </c>
@@ -12988,7 +12987,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>138</v>
       </c>
@@ -13041,7 +13040,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -13094,7 +13093,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>131</v>
       </c>
@@ -13144,7 +13143,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>132</v>
       </c>
@@ -13194,7 +13193,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>134</v>
       </c>
@@ -13244,7 +13243,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>138</v>
       </c>
@@ -13294,7 +13293,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>413</v>
       </c>
@@ -13347,7 +13346,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>130</v>
       </c>
@@ -13397,7 +13396,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>131</v>
       </c>
@@ -13447,7 +13446,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -13500,7 +13499,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>131</v>
       </c>
@@ -13550,7 +13549,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>412</v>
       </c>
@@ -13603,7 +13602,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>130</v>
       </c>
@@ -13653,7 +13652,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -13706,7 +13705,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>414</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>130</v>
       </c>
@@ -13812,7 +13811,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -13865,7 +13864,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>415</v>
       </c>
@@ -13918,7 +13917,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>130</v>
       </c>
@@ -13968,7 +13967,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -14021,7 +14020,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>421</v>
       </c>
@@ -14080,7 +14079,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>130</v>
       </c>
@@ -14139,7 +14138,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>131</v>
       </c>
@@ -14198,7 +14197,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>132</v>
       </c>
@@ -14257,7 +14256,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>134</v>
       </c>
@@ -14316,7 +14315,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>138</v>
       </c>
@@ -14375,7 +14374,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -14437,7 +14436,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>131</v>
       </c>
@@ -14496,7 +14495,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>132</v>
       </c>
@@ -14555,7 +14554,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>134</v>
       </c>
@@ -14614,7 +14613,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>138</v>
       </c>
@@ -14673,7 +14672,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>423</v>
       </c>
@@ -14729,7 +14728,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>130</v>
       </c>
@@ -14785,7 +14784,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>131</v>
       </c>
@@ -14841,7 +14840,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>132</v>
       </c>
@@ -14897,7 +14896,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>134</v>
       </c>
@@ -14953,7 +14952,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>138</v>
       </c>
@@ -15009,7 +15008,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -15068,7 +15067,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>131</v>
       </c>
@@ -15124,7 +15123,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>132</v>
       </c>
@@ -15180,7 +15179,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>134</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>138</v>
       </c>
@@ -15292,7 +15291,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>422</v>
       </c>
@@ -15351,7 +15350,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>130</v>
       </c>
@@ -15407,7 +15406,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>131</v>
       </c>
@@ -15463,7 +15462,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>132</v>
       </c>
@@ -15519,7 +15518,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>134</v>
       </c>
@@ -15575,7 +15574,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>138</v>
       </c>
@@ -15631,7 +15630,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>135</v>
       </c>
@@ -15690,7 +15689,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>136</v>
       </c>
@@ -15749,7 +15748,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>137</v>
       </c>
@@ -15808,7 +15807,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>434</v>
       </c>
@@ -15858,7 +15857,7 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>130</v>
       </c>
@@ -15908,7 +15907,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>131</v>
       </c>
@@ -15969,12 +15968,12 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16066,7 +16065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -16112,7 +16111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -16155,7 +16154,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -16198,7 +16197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -16238,7 +16237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -16281,7 +16280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -16321,7 +16320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -16364,7 +16363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -16404,7 +16403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>241</v>
       </c>
@@ -16484,7 +16483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -16524,7 +16523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -16564,7 +16563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -16607,7 +16606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>392</v>
       </c>
@@ -16650,7 +16649,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>397</v>
       </c>
@@ -16693,7 +16692,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -16741,16 +16740,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE75" sqref="AE75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16830,7 +16829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -16884,7 +16883,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -16938,7 +16937,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -16992,7 +16991,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -17046,7 +17045,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -17100,7 +17099,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -17154,7 +17153,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -17208,7 +17207,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -17262,7 +17261,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -17316,7 +17315,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -17370,7 +17369,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -17424,7 +17423,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -17475,7 +17474,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -17529,7 +17528,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -17583,7 +17582,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -17637,7 +17636,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -17691,7 +17690,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -17742,7 +17741,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -17793,7 +17792,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -17844,7 +17843,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -17895,7 +17894,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -17946,7 +17945,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -17997,7 +17996,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -18048,7 +18047,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -18102,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -18156,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -18210,7 +18209,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -18261,7 +18260,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -18312,7 +18311,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -18363,7 +18362,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -18414,7 +18413,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -18465,7 +18464,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -18516,7 +18515,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -18567,7 +18566,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -18618,7 +18617,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -18669,7 +18668,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>221</v>
       </c>
@@ -18720,7 +18719,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -18771,7 +18770,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -18822,7 +18821,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -18873,7 +18872,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -18924,7 +18923,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -18975,7 +18974,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -19026,7 +19025,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -19077,7 +19076,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -19128,7 +19127,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -19179,7 +19178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -19230,7 +19229,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -19290,7 +19289,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -19348,7 +19347,7 @@
       </c>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>301</v>
       </c>
@@ -19406,7 +19405,7 @@
       </c>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>303</v>
       </c>
@@ -19464,7 +19463,7 @@
       </c>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>305</v>
       </c>
@@ -19522,7 +19521,7 @@
       </c>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -19580,7 +19579,7 @@
       </c>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -19638,7 +19637,7 @@
       </c>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -19696,7 +19695,7 @@
       </c>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>314</v>
       </c>
@@ -19754,7 +19753,7 @@
       </c>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -19812,7 +19811,7 @@
       </c>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>345</v>
       </c>
@@ -19869,7 +19868,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>346</v>
       </c>
@@ -19926,7 +19925,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>370</v>
       </c>
@@ -19983,7 +19982,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>371</v>
       </c>
@@ -20040,7 +20039,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -20097,7 +20096,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -20154,7 +20153,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>380</v>
       </c>
@@ -20211,7 +20210,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -20268,7 +20267,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>384</v>
       </c>
@@ -20325,7 +20324,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>388</v>
       </c>
@@ -20382,7 +20381,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -20439,7 +20438,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>386</v>
       </c>
@@ -20496,7 +20495,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>432</v>
       </c>
@@ -20547,7 +20546,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>433</v>
       </c>
@@ -20598,7 +20597,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>428</v>
       </c>
@@ -20649,7 +20648,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>430</v>
       </c>
@@ -20684,23 +20683,23 @@
         <v>49.2</v>
       </c>
       <c r="Q73">
-        <f t="shared" ref="Q73:Q74" si="45">MEDIAN(0,255,ROUND(P73/20+SQRT(H73)/40+SQRT(M73)/2+(SQRT(O73)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Q73:Q75" si="45">MEDIAN(0,255,ROUND(P73/20+SQRT(H73)/40+SQRT(M73)/2+(SQRT(O73)-SQRT(185)), 0))</f>
         <v>5</v>
       </c>
       <c r="R73">
-        <f t="shared" ref="R73:R74" si="46">Q73*50000/16</f>
+        <f t="shared" ref="R73:R75" si="46">Q73*50000/16</f>
         <v>15625</v>
       </c>
       <c r="S73">
-        <f t="shared" ref="S73:S74" si="47">MEDIAN(0,255,ROUND(SQRT(H73)/200+SQRT(M73)/2+(SQRT(O73)-SQRT(185)),0))</f>
+        <f t="shared" ref="S73:S75" si="47">MEDIAN(0,255,ROUND(SQRT(H73)/200+SQRT(M73)/2+(SQRT(O73)-SQRT(185)),0))</f>
         <v>2</v>
       </c>
       <c r="T73">
-        <f t="shared" ref="T73:T74" si="48">S73*300/16*12</f>
+        <f t="shared" ref="T73:T75" si="48">S73*300/16*12</f>
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>431</v>
       </c>
@@ -20749,6 +20748,57 @@
       <c r="T74">
         <f t="shared" si="48"/>
         <v>675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>435</v>
+      </c>
+      <c r="B75" t="s">
+        <v>436</v>
+      </c>
+      <c r="E75">
+        <v>1964</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75">
+        <v>20</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
+      <c r="I75" t="s">
+        <v>90</v>
+      </c>
+      <c r="M75">
+        <v>300</v>
+      </c>
+      <c r="N75">
+        <v>64</v>
+      </c>
+      <c r="O75">
+        <v>108</v>
+      </c>
+      <c r="P75">
+        <v>41</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="46"/>
+        <v>25000</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="47"/>
+        <v>6</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="48"/>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\John Franklin\Documents\GitHub\China-Set-Trains\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNS\CNST\local\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD7796-9307-4087-AA9F-B41D7FF85565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0291D626-054F-47DB-9DD9-EE716C4A3EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10130" yWindow="1180" windowWidth="13670" windowHeight="13290" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="436">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1708,6 +1708,10 @@
   </si>
   <si>
     <t>NZJ1-Jinlun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2077,14 +2081,14 @@
       <selection pane="bottomLeft" activeCell="AE54" sqref="AE54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.59765625" style="1"/>
-    <col min="29" max="30" width="8.59765625" style="2"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="8.58203125" style="1"/>
+    <col min="29" max="30" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2270,7 +2274,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2323,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2466,7 +2470,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +2516,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -2826,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3062,7 +3066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3247,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>319</v>
       </c>
@@ -3475,7 +3479,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -3569,7 +3573,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -3652,7 +3656,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>331</v>
       </c>
@@ -3723,7 +3727,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -3794,7 +3798,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -3868,7 +3872,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>338</v>
       </c>
@@ -3942,7 +3946,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -4026,7 +4030,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4079,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4148,7 +4152,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4221,7 +4225,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4294,7 +4298,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4391,7 +4395,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4467,7 +4471,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -4564,7 +4568,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -4628,7 +4632,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -4695,7 +4699,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -4780,7 +4784,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -4868,7 +4872,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -4956,7 +4960,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -5044,7 +5048,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -5132,7 +5136,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -5220,7 +5224,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -5399,7 +5403,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>351</v>
       </c>
@@ -5479,7 +5483,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>353</v>
       </c>
@@ -5559,7 +5563,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>355</v>
       </c>
@@ -5637,7 +5641,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>359</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>394</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>424</v>
       </c>
@@ -5873,7 +5877,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>425</v>
       </c>
@@ -5949,7 +5953,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R53" s="5"/>
     </row>
   </sheetData>
@@ -5962,17 +5966,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AF190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AA189" sqref="AA189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="32" max="32" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I3">
         <v>20</v>
       </c>
@@ -6188,7 +6192,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>130</v>
       </c>
@@ -6241,7 +6245,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>132</v>
       </c>
@@ -6347,7 +6351,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>138</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -6506,7 +6510,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -6559,7 +6563,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -6612,7 +6616,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -6665,7 +6669,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -6718,7 +6722,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>131</v>
       </c>
@@ -6771,7 +6775,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>132</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>134</v>
       </c>
@@ -6877,7 +6881,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -6930,7 +6934,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -6986,7 +6990,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -7039,7 +7043,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -7092,7 +7096,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -7145,7 +7149,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>138</v>
       </c>
@@ -7198,7 +7202,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -7251,7 +7255,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>130</v>
       </c>
@@ -7304,7 +7308,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>131</v>
       </c>
@@ -7357,7 +7361,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>132</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>134</v>
       </c>
@@ -7463,7 +7467,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -7516,7 +7520,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -7572,7 +7576,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>131</v>
       </c>
@@ -7625,7 +7629,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>132</v>
       </c>
@@ -7678,7 +7682,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>138</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -7834,7 +7838,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>248</v>
       </c>
@@ -7884,7 +7888,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>249</v>
       </c>
@@ -7934,7 +7938,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>250</v>
       </c>
@@ -7984,7 +7988,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>251</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>252</v>
       </c>
@@ -8084,7 +8088,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>248</v>
       </c>
@@ -8134,7 +8138,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>249</v>
       </c>
@@ -8184,7 +8188,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>250</v>
       </c>
@@ -8234,7 +8238,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>251</v>
       </c>
@@ -8284,7 +8288,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -8334,7 +8338,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>248</v>
       </c>
@@ -8434,7 +8438,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>249</v>
       </c>
@@ -8484,7 +8488,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>250</v>
       </c>
@@ -8534,7 +8538,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>251</v>
       </c>
@@ -8584,7 +8588,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -8634,7 +8638,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>248</v>
       </c>
@@ -8684,7 +8688,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>249</v>
       </c>
@@ -8734,7 +8738,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>250</v>
       </c>
@@ -8784,7 +8788,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>251</v>
       </c>
@@ -8834,7 +8838,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>252</v>
       </c>
@@ -8884,7 +8888,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -8934,7 +8938,7 @@
         <v>1668.75</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>248</v>
       </c>
@@ -8984,7 +8988,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>249</v>
       </c>
@@ -9034,7 +9038,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>250</v>
       </c>
@@ -9084,7 +9088,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>251</v>
       </c>
@@ -9134,7 +9138,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>252</v>
       </c>
@@ -9184,7 +9188,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -9234,7 +9238,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>248</v>
       </c>
@@ -9284,7 +9288,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>249</v>
       </c>
@@ -9334,7 +9338,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>250</v>
       </c>
@@ -9384,7 +9388,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>251</v>
       </c>
@@ -9434,7 +9438,7 @@
         <v>1143.75</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -9484,7 +9488,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>248</v>
       </c>
@@ -9534,7 +9538,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>249</v>
       </c>
@@ -9584,7 +9588,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>250</v>
       </c>
@@ -9634,7 +9638,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>251</v>
       </c>
@@ -9684,7 +9688,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>252</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -9784,7 +9788,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>248</v>
       </c>
@@ -9834,7 +9838,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>249</v>
       </c>
@@ -9884,7 +9888,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>252</v>
       </c>
@@ -9934,7 +9938,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -9984,7 +9988,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>249</v>
       </c>
@@ -10034,7 +10038,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>284</v>
       </c>
@@ -10084,7 +10088,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>285</v>
       </c>
@@ -10134,7 +10138,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>286</v>
       </c>
@@ -10184,7 +10188,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>287</v>
       </c>
@@ -10234,7 +10238,7 @@
         <v>1443.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>288</v>
       </c>
@@ -10284,7 +10288,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>289</v>
       </c>
@@ -10334,7 +10338,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -10387,7 +10391,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>286</v>
       </c>
@@ -10437,7 +10441,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>287</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>393.75</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>288</v>
       </c>
@@ -10537,7 +10541,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>289</v>
       </c>
@@ -10587,7 +10591,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -10637,7 +10641,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>285</v>
       </c>
@@ -10687,7 +10691,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>286</v>
       </c>
@@ -10737,7 +10741,7 @@
         <v>1256.25</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>287</v>
       </c>
@@ -10787,7 +10791,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>288</v>
       </c>
@@ -10837,7 +10841,7 @@
         <v>1368.75</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>289</v>
       </c>
@@ -10887,7 +10891,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -10940,7 +10944,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>286</v>
       </c>
@@ -10990,7 +10994,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>287</v>
       </c>
@@ -11040,7 +11044,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>288</v>
       </c>
@@ -11090,7 +11094,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>289</v>
       </c>
@@ -11140,7 +11144,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -11190,7 +11194,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>285</v>
       </c>
@@ -11240,7 +11244,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>286</v>
       </c>
@@ -11290,7 +11294,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>287</v>
       </c>
@@ -11340,7 +11344,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>288</v>
       </c>
@@ -11390,7 +11394,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>289</v>
       </c>
@@ -11440,7 +11444,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>151</v>
       </c>
@@ -11493,7 +11497,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>286</v>
       </c>
@@ -11543,7 +11547,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>287</v>
       </c>
@@ -11593,7 +11597,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>288</v>
       </c>
@@ -11643,7 +11647,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>289</v>
       </c>
@@ -11693,7 +11697,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>401</v>
       </c>
@@ -11746,7 +11750,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>130</v>
       </c>
@@ -11796,7 +11800,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>402</v>
       </c>
@@ -11849,7 +11853,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>137</v>
       </c>
@@ -11902,7 +11906,7 @@
         <v>1087.5</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>138</v>
       </c>
@@ -11955,7 +11959,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>151</v>
       </c>
@@ -12008,7 +12012,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>402</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>137</v>
       </c>
@@ -12108,7 +12112,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>138</v>
       </c>
@@ -12158,7 +12162,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>405</v>
       </c>
@@ -12211,7 +12215,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>130</v>
       </c>
@@ -12264,7 +12268,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>131</v>
       </c>
@@ -12314,7 +12318,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>132</v>
       </c>
@@ -12367,7 +12371,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>134</v>
       </c>
@@ -12420,7 +12424,7 @@
         <v>1068.75</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>138</v>
       </c>
@@ -12473,7 +12477,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -12526,7 +12530,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -12576,7 +12580,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -12626,7 +12630,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>134</v>
       </c>
@@ -12676,7 +12680,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>138</v>
       </c>
@@ -12726,7 +12730,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>406</v>
       </c>
@@ -12779,7 +12783,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>130</v>
       </c>
@@ -12832,7 +12836,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>131</v>
       </c>
@@ -12882,7 +12886,7 @@
         <v>1387.5</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>132</v>
       </c>
@@ -12935,7 +12939,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>134</v>
       </c>
@@ -12988,7 +12992,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>138</v>
       </c>
@@ -13041,7 +13045,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -13094,7 +13098,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>131</v>
       </c>
@@ -13144,7 +13148,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>132</v>
       </c>
@@ -13194,7 +13198,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>134</v>
       </c>
@@ -13244,7 +13248,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>138</v>
       </c>
@@ -13294,7 +13298,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>413</v>
       </c>
@@ -13347,7 +13351,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>130</v>
       </c>
@@ -13397,7 +13401,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>131</v>
       </c>
@@ -13447,7 +13451,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -13500,7 +13504,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>131</v>
       </c>
@@ -13550,7 +13554,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>412</v>
       </c>
@@ -13603,7 +13607,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>130</v>
       </c>
@@ -13653,7 +13657,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -13706,7 +13710,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>414</v>
       </c>
@@ -13762,7 +13766,7 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>130</v>
       </c>
@@ -13812,7 +13816,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -13865,7 +13869,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>415</v>
       </c>
@@ -13918,7 +13922,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>130</v>
       </c>
@@ -13968,7 +13972,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -14021,7 +14025,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>421</v>
       </c>
@@ -14080,7 +14084,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>130</v>
       </c>
@@ -14139,7 +14143,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>131</v>
       </c>
@@ -14198,7 +14202,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>132</v>
       </c>
@@ -14257,7 +14261,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>134</v>
       </c>
@@ -14316,7 +14320,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>138</v>
       </c>
@@ -14375,7 +14379,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -14437,7 +14441,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>131</v>
       </c>
@@ -14496,7 +14500,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>132</v>
       </c>
@@ -14555,7 +14559,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>134</v>
       </c>
@@ -14614,7 +14618,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>138</v>
       </c>
@@ -14673,7 +14677,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>423</v>
       </c>
@@ -14729,7 +14733,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>130</v>
       </c>
@@ -14785,7 +14789,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>131</v>
       </c>
@@ -14841,7 +14845,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>132</v>
       </c>
@@ -14897,7 +14901,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>134</v>
       </c>
@@ -14953,7 +14957,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>138</v>
       </c>
@@ -15009,7 +15013,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -15068,7 +15072,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>131</v>
       </c>
@@ -15124,7 +15128,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>132</v>
       </c>
@@ -15180,7 +15184,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>134</v>
       </c>
@@ -15236,7 +15240,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>138</v>
       </c>
@@ -15292,7 +15296,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>422</v>
       </c>
@@ -15351,7 +15355,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>130</v>
       </c>
@@ -15407,7 +15411,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>131</v>
       </c>
@@ -15463,7 +15467,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>132</v>
       </c>
@@ -15519,7 +15523,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>134</v>
       </c>
@@ -15575,7 +15579,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>138</v>
       </c>
@@ -15631,7 +15635,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>135</v>
       </c>
@@ -15690,7 +15694,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>136</v>
       </c>
@@ -15749,7 +15753,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>137</v>
       </c>
@@ -15808,7 +15812,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>434</v>
       </c>
@@ -15858,7 +15862,7 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>130</v>
       </c>
@@ -15908,7 +15912,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>131</v>
       </c>
@@ -15966,15 +15970,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16066,7 +16070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -16112,7 +16116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -16155,7 +16159,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -16198,7 +16202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -16238,7 +16242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -16281,7 +16285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -16321,7 +16325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -16364,7 +16368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -16404,7 +16408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -16444,7 +16448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>241</v>
       </c>
@@ -16484,7 +16488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -16524,7 +16528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -16564,7 +16568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -16607,7 +16611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>392</v>
       </c>
@@ -16650,7 +16654,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>397</v>
       </c>
@@ -16693,7 +16697,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -16725,11 +16729,48 @@
         <v>23.8</v>
       </c>
       <c r="U17">
-        <f t="shared" si="0"/>
+        <f>MEDIAN(0,255,ROUND(S17/20+SQRT(J17)/40+SQRT(P17)/2+(SQRT(R17)-SQRT(185)),0))</f>
         <v>6</v>
       </c>
       <c r="W17">
-        <f t="shared" si="2"/>
+        <f>MEDIAN(0,255,ROUND(SQRT(J17)/200+SQRT(P17)/2+(SQRT(R17)-SQRT(185)),0))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>435</v>
+      </c>
+      <c r="F18">
+        <v>1954</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>80</v>
+      </c>
+      <c r="P18">
+        <v>50</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>185</v>
+      </c>
+      <c r="S18">
+        <v>22.2</v>
+      </c>
+      <c r="U18">
+        <f>MEDIAN(0,255,ROUND(S18/20+SQRT(J18)/40+SQRT(P18)/2+(SQRT(R18)-SQRT(185)),0))</f>
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <f>MEDIAN(0,255,ROUND(SQRT(J18)/200+SQRT(P18)/2+(SQRT(R18)-SQRT(185)),0))</f>
         <v>4</v>
       </c>
     </row>
@@ -16748,9 +16789,9 @@
       <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16830,7 +16871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -16884,7 +16925,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -16938,7 +16979,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -16992,7 +17033,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -17046,7 +17087,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -17100,7 +17141,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -17154,7 +17195,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -17208,7 +17249,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -17262,7 +17303,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -17316,7 +17357,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -17370,7 +17411,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -17424,7 +17465,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -17475,7 +17516,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -17529,7 +17570,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -17583,7 +17624,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -17637,7 +17678,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -17691,7 +17732,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -17742,7 +17783,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -17793,7 +17834,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -17844,7 +17885,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -17895,7 +17936,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -17946,7 +17987,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -17997,7 +18038,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -18048,7 +18089,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -18102,7 +18143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -18156,7 +18197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -18210,7 +18251,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -18261,7 +18302,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -18312,7 +18353,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -18363,7 +18404,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -18414,7 +18455,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -18465,7 +18506,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -18516,7 +18557,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -18567,7 +18608,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -18618,7 +18659,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -18669,7 +18710,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>221</v>
       </c>
@@ -18720,7 +18761,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -18771,7 +18812,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -18822,7 +18863,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -18873,7 +18914,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -18924,7 +18965,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -18975,7 +19016,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -19026,7 +19067,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -19077,7 +19118,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -19128,7 +19169,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -19179,7 +19220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -19230,7 +19271,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -19290,7 +19331,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -19348,7 +19389,7 @@
       </c>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>301</v>
       </c>
@@ -19406,7 +19447,7 @@
       </c>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>303</v>
       </c>
@@ -19464,7 +19505,7 @@
       </c>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>305</v>
       </c>
@@ -19522,7 +19563,7 @@
       </c>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -19580,7 +19621,7 @@
       </c>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -19638,7 +19679,7 @@
       </c>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -19696,7 +19737,7 @@
       </c>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>314</v>
       </c>
@@ -19754,7 +19795,7 @@
       </c>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -19812,7 +19853,7 @@
       </c>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>345</v>
       </c>
@@ -19869,7 +19910,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>346</v>
       </c>
@@ -19926,7 +19967,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>370</v>
       </c>
@@ -19983,7 +20024,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>371</v>
       </c>
@@ -20040,7 +20081,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -20097,7 +20138,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -20154,7 +20195,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>380</v>
       </c>
@@ -20211,7 +20252,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -20268,7 +20309,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>384</v>
       </c>
@@ -20325,7 +20366,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>388</v>
       </c>
@@ -20382,7 +20423,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -20439,7 +20480,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>386</v>
       </c>
@@ -20496,7 +20537,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>432</v>
       </c>
@@ -20547,7 +20588,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>433</v>
       </c>
@@ -20598,7 +20639,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>428</v>
       </c>
@@ -20649,7 +20690,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>430</v>
       </c>
@@ -20700,7 +20741,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>431</v>
       </c>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-site\China-Set-Trains-240320\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNS\CNST\local\China-Set-Trains\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35E46BE-CA63-4772-8C46-068A59698F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162A554F-19B7-44EB-B3D2-5494173CEA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,26 @@
     <sheet name="Wagons" sheetId="4" r:id="rId3"/>
     <sheet name="Coaches" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="439">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1707,6 +1716,14 @@
   </si>
   <si>
     <t>yz31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR300BF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2071,19 +2088,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AE54" sqref="AE54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.625" style="1"/>
-    <col min="29" max="30" width="8.625" style="2"/>
+    <col min="26" max="28" width="8.58203125" style="1"/>
+    <col min="29" max="30" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2269,7 +2286,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2318,7 +2335,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2367,7 +2384,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2416,7 +2433,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2465,7 +2482,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2511,7 +2528,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2593,7 +2610,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -2690,7 +2707,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -2759,7 +2776,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -2825,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -2894,7 +2911,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -2943,7 +2960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3012,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3061,7 +3078,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3134,7 +3151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3180,7 +3197,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3246,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3295,7 +3312,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3389,7 +3406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>319</v>
       </c>
@@ -3474,7 +3491,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -3651,7 +3668,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>331</v>
       </c>
@@ -3722,7 +3739,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -3793,7 +3810,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -3867,7 +3884,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>338</v>
       </c>
@@ -3941,7 +3958,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -4025,7 +4042,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4074,7 +4091,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4147,7 +4164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4220,7 +4237,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4293,7 +4310,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4390,7 +4407,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4466,7 +4483,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -4563,7 +4580,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -4627,7 +4644,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -4694,7 +4711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -4779,7 +4796,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -4867,7 +4884,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -4955,7 +4972,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -5043,7 +5060,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -5131,7 +5148,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -5219,7 +5236,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -5310,7 +5327,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -5398,7 +5415,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>351</v>
       </c>
@@ -5478,7 +5495,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>353</v>
       </c>
@@ -5558,7 +5575,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>355</v>
       </c>
@@ -5636,7 +5653,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>359</v>
       </c>
@@ -5717,7 +5734,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>394</v>
       </c>
@@ -5796,7 +5813,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>424</v>
       </c>
@@ -5872,7 +5889,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>425</v>
       </c>
@@ -5948,7 +5965,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R53" s="5"/>
     </row>
   </sheetData>
@@ -5959,19 +5976,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
-  <dimension ref="A1:AF190"/>
+  <dimension ref="A1:AF202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA189" sqref="AA189"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W197" sqref="W197:W201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="32" max="32" width="20.375" customWidth="1"/>
+    <col min="32" max="32" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6069,7 +6086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -6137,7 +6154,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I3">
         <v>20</v>
       </c>
@@ -6187,7 +6204,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>130</v>
       </c>
@@ -6240,7 +6257,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -6293,7 +6310,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>132</v>
       </c>
@@ -6346,7 +6363,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -6399,7 +6416,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>138</v>
       </c>
@@ -6452,7 +6469,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -6505,7 +6522,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -6558,7 +6575,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -6611,7 +6628,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -6664,7 +6681,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -6717,7 +6734,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>131</v>
       </c>
@@ -6770,7 +6787,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>132</v>
       </c>
@@ -6823,7 +6840,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>134</v>
       </c>
@@ -6876,7 +6893,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -6929,7 +6946,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -6985,7 +7002,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -7038,7 +7055,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -7091,7 +7108,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -7144,7 +7161,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>138</v>
       </c>
@@ -7197,7 +7214,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -7250,7 +7267,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>130</v>
       </c>
@@ -7303,7 +7320,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>131</v>
       </c>
@@ -7356,7 +7373,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>132</v>
       </c>
@@ -7409,7 +7426,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>134</v>
       </c>
@@ -7462,7 +7479,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -7515,7 +7532,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -7571,7 +7588,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>131</v>
       </c>
@@ -7624,7 +7641,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>132</v>
       </c>
@@ -7677,7 +7694,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -7730,7 +7747,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>138</v>
       </c>
@@ -7783,7 +7800,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -7833,7 +7850,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>248</v>
       </c>
@@ -7883,7 +7900,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>249</v>
       </c>
@@ -7933,7 +7950,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>250</v>
       </c>
@@ -7983,7 +8000,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>251</v>
       </c>
@@ -8033,7 +8050,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>252</v>
       </c>
@@ -8083,7 +8100,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>248</v>
       </c>
@@ -8133,7 +8150,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>249</v>
       </c>
@@ -8183,7 +8200,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>250</v>
       </c>
@@ -8233,7 +8250,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>251</v>
       </c>
@@ -8283,7 +8300,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -8333,7 +8350,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -8383,7 +8400,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>248</v>
       </c>
@@ -8433,7 +8450,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>249</v>
       </c>
@@ -8483,7 +8500,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>250</v>
       </c>
@@ -8533,7 +8550,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>251</v>
       </c>
@@ -8583,7 +8600,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -8633,7 +8650,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>248</v>
       </c>
@@ -8683,7 +8700,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>249</v>
       </c>
@@ -8733,7 +8750,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>250</v>
       </c>
@@ -8783,7 +8800,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>251</v>
       </c>
@@ -8833,7 +8850,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>252</v>
       </c>
@@ -8883,7 +8900,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -8933,7 +8950,7 @@
         <v>1668.75</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>248</v>
       </c>
@@ -8983,7 +9000,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>249</v>
       </c>
@@ -9033,7 +9050,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>250</v>
       </c>
@@ -9083,7 +9100,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>251</v>
       </c>
@@ -9133,7 +9150,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>252</v>
       </c>
@@ -9183,7 +9200,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -9233,7 +9250,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>248</v>
       </c>
@@ -9283,7 +9300,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>249</v>
       </c>
@@ -9333,7 +9350,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>250</v>
       </c>
@@ -9383,7 +9400,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>251</v>
       </c>
@@ -9433,7 +9450,7 @@
         <v>1143.75</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -9483,7 +9500,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>248</v>
       </c>
@@ -9533,7 +9550,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>249</v>
       </c>
@@ -9583,7 +9600,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>250</v>
       </c>
@@ -9633,7 +9650,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>251</v>
       </c>
@@ -9683,7 +9700,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>252</v>
       </c>
@@ -9733,7 +9750,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -9783,7 +9800,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>248</v>
       </c>
@@ -9833,7 +9850,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>249</v>
       </c>
@@ -9883,7 +9900,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>252</v>
       </c>
@@ -9933,7 +9950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -9983,7 +10000,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>249</v>
       </c>
@@ -10033,7 +10050,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>284</v>
       </c>
@@ -10083,7 +10100,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>285</v>
       </c>
@@ -10133,7 +10150,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>286</v>
       </c>
@@ -10183,7 +10200,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>287</v>
       </c>
@@ -10233,7 +10250,7 @@
         <v>1443.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>288</v>
       </c>
@@ -10283,7 +10300,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>289</v>
       </c>
@@ -10333,7 +10350,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -10386,7 +10403,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>286</v>
       </c>
@@ -10436,7 +10453,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>287</v>
       </c>
@@ -10486,7 +10503,7 @@
         <v>393.75</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>288</v>
       </c>
@@ -10536,7 +10553,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>289</v>
       </c>
@@ -10586,7 +10603,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -10636,7 +10653,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>285</v>
       </c>
@@ -10686,7 +10703,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>286</v>
       </c>
@@ -10736,7 +10753,7 @@
         <v>1256.25</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>287</v>
       </c>
@@ -10786,7 +10803,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>288</v>
       </c>
@@ -10836,7 +10853,7 @@
         <v>1368.75</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>289</v>
       </c>
@@ -10886,7 +10903,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -10939,7 +10956,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>286</v>
       </c>
@@ -10989,7 +11006,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>287</v>
       </c>
@@ -11039,7 +11056,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>288</v>
       </c>
@@ -11089,7 +11106,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>289</v>
       </c>
@@ -11139,7 +11156,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -11189,7 +11206,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>285</v>
       </c>
@@ -11239,7 +11256,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>286</v>
       </c>
@@ -11289,7 +11306,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>287</v>
       </c>
@@ -11339,7 +11356,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>288</v>
       </c>
@@ -11389,7 +11406,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>289</v>
       </c>
@@ -11439,7 +11456,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>151</v>
       </c>
@@ -11492,7 +11509,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>286</v>
       </c>
@@ -11542,7 +11559,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>287</v>
       </c>
@@ -11592,7 +11609,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>288</v>
       </c>
@@ -11642,7 +11659,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>289</v>
       </c>
@@ -11692,7 +11709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>401</v>
       </c>
@@ -11745,7 +11762,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>130</v>
       </c>
@@ -11795,7 +11812,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>402</v>
       </c>
@@ -11848,7 +11865,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>137</v>
       </c>
@@ -11901,7 +11918,7 @@
         <v>1087.5</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>138</v>
       </c>
@@ -11954,7 +11971,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>151</v>
       </c>
@@ -12007,7 +12024,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>402</v>
       </c>
@@ -12057,7 +12074,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>137</v>
       </c>
@@ -12107,7 +12124,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>138</v>
       </c>
@@ -12157,7 +12174,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>405</v>
       </c>
@@ -12210,7 +12227,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>130</v>
       </c>
@@ -12263,7 +12280,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>131</v>
       </c>
@@ -12313,7 +12330,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>132</v>
       </c>
@@ -12366,7 +12383,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>134</v>
       </c>
@@ -12419,7 +12436,7 @@
         <v>1068.75</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>138</v>
       </c>
@@ -12472,7 +12489,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -12525,7 +12542,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -12575,7 +12592,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -12625,7 +12642,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>134</v>
       </c>
@@ -12675,7 +12692,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>138</v>
       </c>
@@ -12725,7 +12742,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>406</v>
       </c>
@@ -12778,7 +12795,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>130</v>
       </c>
@@ -12831,7 +12848,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>131</v>
       </c>
@@ -12881,7 +12898,7 @@
         <v>1387.5</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>132</v>
       </c>
@@ -12934,7 +12951,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>134</v>
       </c>
@@ -12987,7 +13004,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>138</v>
       </c>
@@ -13040,7 +13057,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -13093,7 +13110,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>131</v>
       </c>
@@ -13143,7 +13160,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>132</v>
       </c>
@@ -13193,7 +13210,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>134</v>
       </c>
@@ -13243,7 +13260,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>138</v>
       </c>
@@ -13293,7 +13310,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>413</v>
       </c>
@@ -13346,7 +13363,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>130</v>
       </c>
@@ -13396,7 +13413,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>131</v>
       </c>
@@ -13446,7 +13463,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -13499,7 +13516,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>131</v>
       </c>
@@ -13549,7 +13566,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>412</v>
       </c>
@@ -13602,7 +13619,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>130</v>
       </c>
@@ -13652,7 +13669,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -13705,7 +13722,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>414</v>
       </c>
@@ -13761,7 +13778,7 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>130</v>
       </c>
@@ -13811,7 +13828,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -13864,7 +13881,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>415</v>
       </c>
@@ -13917,7 +13934,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>130</v>
       </c>
@@ -13967,7 +13984,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -14020,7 +14037,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>421</v>
       </c>
@@ -14031,7 +14048,7 @@
         <v>350</v>
       </c>
       <c r="K157">
-        <f t="shared" ref="K157:K190" si="25">ROUND(L157/0.73549875,0)</f>
+        <f t="shared" ref="K157:K196" si="25">ROUND(L157/0.73549875,0)</f>
         <v>3314</v>
       </c>
       <c r="L157">
@@ -14053,23 +14070,23 @@
         <v>0.127</v>
       </c>
       <c r="V157">
-        <f t="shared" ref="V157:V190" si="26">T157*U157*9.8</f>
+        <f t="shared" ref="V157:V196" si="26">T157*U157*9.8</f>
         <v>67.208400000000012</v>
       </c>
       <c r="W157">
-        <f t="shared" ref="W157:W190" si="27">MAX(1, INT(T157/10+SQRT(J157)/20+SQRT(K157)+U157+SQRT(Q157)/2+SQRT(S157)-SQRT(185)+20-I157))</f>
+        <f t="shared" ref="W157:W196" si="27">MAX(1, INT(T157/10+SQRT(J157)/20+SQRT(K157)+U157+SQRT(Q157)/2+SQRT(S157)-SQRT(185)+20-I157))</f>
         <v>88</v>
       </c>
       <c r="X157">
-        <f t="shared" ref="X157:X190" si="28">W157*50000/16</f>
+        <f t="shared" ref="X157:X196" si="28">W157*50000/16</f>
         <v>275000</v>
       </c>
       <c r="Y157">
-        <f t="shared" ref="Y157:Y190" si="29">MAX(1, ROUND((SQRT(J157)/100+SQRT(K157)+U157+(40/I157-2)+SQRT(Q157)/2+SQRT(S157)-SQRT(185)), 0))</f>
+        <f t="shared" ref="Y157:Y196" si="29">MAX(1, ROUND((SQRT(J157)/100+SQRT(K157)+U157+(40/I157-2)+SQRT(Q157)/2+SQRT(S157)-SQRT(185)), 0))</f>
         <v>73</v>
       </c>
       <c r="Z157">
-        <f t="shared" ref="Z157:Z190" si="30">Y157*300/16</f>
+        <f t="shared" ref="Z157:Z196" si="30">Y157*300/16</f>
         <v>1368.75</v>
       </c>
       <c r="AE157" t="s">
@@ -14079,7 +14096,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>130</v>
       </c>
@@ -14138,7 +14155,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>131</v>
       </c>
@@ -14197,7 +14214,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>132</v>
       </c>
@@ -14256,7 +14273,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>134</v>
       </c>
@@ -14315,7 +14332,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>138</v>
       </c>
@@ -14374,7 +14391,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -14436,7 +14453,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>131</v>
       </c>
@@ -14495,7 +14512,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>132</v>
       </c>
@@ -14554,7 +14571,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>134</v>
       </c>
@@ -14613,7 +14630,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>138</v>
       </c>
@@ -14672,7 +14689,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>423</v>
       </c>
@@ -14728,7 +14745,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>130</v>
       </c>
@@ -14784,7 +14801,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>131</v>
       </c>
@@ -14840,7 +14857,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>132</v>
       </c>
@@ -14896,7 +14913,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>134</v>
       </c>
@@ -14952,7 +14969,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>138</v>
       </c>
@@ -15008,7 +15025,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -15067,7 +15084,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>131</v>
       </c>
@@ -15123,7 +15140,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>132</v>
       </c>
@@ -15179,7 +15196,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>134</v>
       </c>
@@ -15235,7 +15252,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>138</v>
       </c>
@@ -15291,7 +15308,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>422</v>
       </c>
@@ -15350,7 +15367,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>130</v>
       </c>
@@ -15406,7 +15423,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>131</v>
       </c>
@@ -15462,7 +15479,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>132</v>
       </c>
@@ -15518,7 +15535,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>134</v>
       </c>
@@ -15574,7 +15591,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>138</v>
       </c>
@@ -15630,7 +15647,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>135</v>
       </c>
@@ -15689,7 +15706,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>136</v>
       </c>
@@ -15748,7 +15765,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>137</v>
       </c>
@@ -15807,7 +15824,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>434</v>
       </c>
@@ -15857,7 +15874,7 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>130</v>
       </c>
@@ -15907,7 +15924,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>131</v>
       </c>
@@ -15957,23 +15974,615 @@
         <v>150</v>
       </c>
     </row>
+    <row r="191" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>438</v>
+      </c>
+      <c r="I191">
+        <v>8</v>
+      </c>
+      <c r="J191">
+        <v>250</v>
+      </c>
+      <c r="K191">
+        <f>ROUND(L191/0.73549875,0)</f>
+        <v>1856</v>
+      </c>
+      <c r="L191">
+        <v>1365</v>
+      </c>
+      <c r="M191" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q191">
+        <v>48</v>
+      </c>
+      <c r="S191">
+        <v>400</v>
+      </c>
+      <c r="T191">
+        <v>54</v>
+      </c>
+      <c r="U191">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="V191">
+        <f t="shared" si="26"/>
+        <v>70.912800000000018</v>
+      </c>
+      <c r="W191">
+        <f t="shared" si="27"/>
+        <v>71</v>
+      </c>
+      <c r="X191">
+        <f t="shared" si="28"/>
+        <v>221875</v>
+      </c>
+      <c r="Y191">
+        <f t="shared" si="29"/>
+        <v>56</v>
+      </c>
+      <c r="Z191">
+        <f t="shared" si="30"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="192" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>130</v>
+      </c>
+      <c r="I192">
+        <v>16</v>
+      </c>
+      <c r="J192">
+        <v>250</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="25"/>
+        <v>1856</v>
+      </c>
+      <c r="L192">
+        <v>1365</v>
+      </c>
+      <c r="M192" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q192">
+        <v>90</v>
+      </c>
+      <c r="S192">
+        <v>240</v>
+      </c>
+      <c r="T192">
+        <v>54</v>
+      </c>
+      <c r="U192">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="V192">
+        <f t="shared" si="26"/>
+        <v>70.912800000000018</v>
+      </c>
+      <c r="W192">
+        <f t="shared" si="27"/>
+        <v>60</v>
+      </c>
+      <c r="X192">
+        <f t="shared" si="28"/>
+        <v>187500</v>
+      </c>
+      <c r="Y192">
+        <f t="shared" si="29"/>
+        <v>51</v>
+      </c>
+      <c r="Z192">
+        <f t="shared" si="30"/>
+        <v>956.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>131</v>
+      </c>
+      <c r="I193">
+        <v>16</v>
+      </c>
+      <c r="J193">
+        <v>250</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="25"/>
+        <v>1856</v>
+      </c>
+      <c r="L193">
+        <v>1365</v>
+      </c>
+      <c r="M193" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q193">
+        <v>72</v>
+      </c>
+      <c r="S193">
+        <v>400</v>
+      </c>
+      <c r="T193">
+        <v>54</v>
+      </c>
+      <c r="U193">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="V193">
+        <f t="shared" si="26"/>
+        <v>70.912800000000018</v>
+      </c>
+      <c r="W193">
+        <f t="shared" si="27"/>
+        <v>64</v>
+      </c>
+      <c r="X193">
+        <f t="shared" si="28"/>
+        <v>200000</v>
+      </c>
+      <c r="Y193">
+        <f t="shared" si="29"/>
+        <v>55</v>
+      </c>
+      <c r="Z193">
+        <f t="shared" si="30"/>
+        <v>1031.25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>132</v>
+      </c>
+      <c r="I194">
+        <v>16</v>
+      </c>
+      <c r="J194">
+        <v>250</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="25"/>
+        <v>1856</v>
+      </c>
+      <c r="L194">
+        <v>1365</v>
+      </c>
+      <c r="M194" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q194">
+        <v>32</v>
+      </c>
+      <c r="S194">
+        <v>640</v>
+      </c>
+      <c r="T194">
+        <v>54</v>
+      </c>
+      <c r="U194">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="V194">
+        <f t="shared" si="26"/>
+        <v>70.912800000000018</v>
+      </c>
+      <c r="W194">
+        <f t="shared" si="27"/>
+        <v>67</v>
+      </c>
+      <c r="X194">
+        <f t="shared" si="28"/>
+        <v>209375</v>
+      </c>
+      <c r="Y194">
+        <f t="shared" si="29"/>
+        <v>58</v>
+      </c>
+      <c r="Z194">
+        <f t="shared" si="30"/>
+        <v>1087.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>134</v>
+      </c>
+      <c r="I195">
+        <v>16</v>
+      </c>
+      <c r="J195">
+        <v>250</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="25"/>
+        <v>1856</v>
+      </c>
+      <c r="L195">
+        <v>1365</v>
+      </c>
+      <c r="M195" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q195">
+        <v>18</v>
+      </c>
+      <c r="S195">
+        <v>720</v>
+      </c>
+      <c r="T195">
+        <v>54</v>
+      </c>
+      <c r="U195">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="V195">
+        <f t="shared" si="26"/>
+        <v>70.912800000000018</v>
+      </c>
+      <c r="W195">
+        <f t="shared" si="27"/>
+        <v>68</v>
+      </c>
+      <c r="X195">
+        <f t="shared" si="28"/>
+        <v>212500</v>
+      </c>
+      <c r="Y195">
+        <f t="shared" si="29"/>
+        <v>59</v>
+      </c>
+      <c r="Z195">
+        <f t="shared" si="30"/>
+        <v>1106.25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>138</v>
+      </c>
+      <c r="I196">
+        <v>16</v>
+      </c>
+      <c r="J196">
+        <v>250</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="25"/>
+        <v>1856</v>
+      </c>
+      <c r="L196">
+        <v>1365</v>
+      </c>
+      <c r="M196" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q196">
+        <v>63</v>
+      </c>
+      <c r="S196">
+        <v>240</v>
+      </c>
+      <c r="T196">
+        <v>54</v>
+      </c>
+      <c r="U196">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="V196">
+        <f t="shared" si="26"/>
+        <v>70.912800000000018</v>
+      </c>
+      <c r="W196">
+        <f t="shared" si="27"/>
+        <v>59</v>
+      </c>
+      <c r="X196">
+        <f t="shared" si="28"/>
+        <v>184375</v>
+      </c>
+      <c r="Y196">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="Z196">
+        <f t="shared" si="30"/>
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>151</v>
+      </c>
+      <c r="B197" t="s">
+        <v>130</v>
+      </c>
+      <c r="I197">
+        <v>16</v>
+      </c>
+      <c r="J197">
+        <v>250</v>
+      </c>
+      <c r="K197">
+        <f>ROUND(L197/0.73549875,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q197">
+        <v>90</v>
+      </c>
+      <c r="S197">
+        <v>240</v>
+      </c>
+      <c r="T197">
+        <v>54</v>
+      </c>
+      <c r="U197">
+        <v>0</v>
+      </c>
+      <c r="V197">
+        <f t="shared" ref="V197:V201" si="31">T197*U197*9.8</f>
+        <v>0</v>
+      </c>
+      <c r="W197">
+        <f t="shared" ref="W197:W201" si="32">MAX(1, INT(T197/10+SQRT(J197)/20+SQRT(K197)+U197+SQRT(Q197)/2+SQRT(S197)-SQRT(185)+20-I197))</f>
+        <v>16</v>
+      </c>
+      <c r="X197">
+        <f t="shared" ref="X197:X201" si="33">W197*50000/16</f>
+        <v>50000</v>
+      </c>
+      <c r="Y197">
+        <f t="shared" ref="Y197:Y201" si="34">MAX(1, ROUND((SQRT(J197)/100+SQRT(K197)+U197+(40/I197-2)+SQRT(Q197)/2+SQRT(S197)-SQRT(185)), 0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z197">
+        <f t="shared" ref="Z197:Z201" si="35">Y197*300/16</f>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>131</v>
+      </c>
+      <c r="I198">
+        <v>16</v>
+      </c>
+      <c r="J198">
+        <v>250</v>
+      </c>
+      <c r="K198">
+        <f t="shared" ref="K197:K201" si="36">ROUND(L198/0.73549875,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q198">
+        <v>72</v>
+      </c>
+      <c r="S198">
+        <v>400</v>
+      </c>
+      <c r="T198">
+        <v>54</v>
+      </c>
+      <c r="U198">
+        <v>0</v>
+      </c>
+      <c r="V198">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W198">
+        <f t="shared" si="32"/>
+        <v>20</v>
+      </c>
+      <c r="X198">
+        <f t="shared" si="33"/>
+        <v>62500</v>
+      </c>
+      <c r="Y198">
+        <f t="shared" si="34"/>
+        <v>11</v>
+      </c>
+      <c r="Z198">
+        <f t="shared" si="35"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>132</v>
+      </c>
+      <c r="I199">
+        <v>16</v>
+      </c>
+      <c r="J199">
+        <v>250</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q199">
+        <v>32</v>
+      </c>
+      <c r="S199">
+        <v>640</v>
+      </c>
+      <c r="T199">
+        <v>54</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <f t="shared" si="32"/>
+        <v>24</v>
+      </c>
+      <c r="X199">
+        <f t="shared" si="33"/>
+        <v>75000</v>
+      </c>
+      <c r="Y199">
+        <f t="shared" si="34"/>
+        <v>15</v>
+      </c>
+      <c r="Z199">
+        <f t="shared" si="35"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>134</v>
+      </c>
+      <c r="I200">
+        <v>16</v>
+      </c>
+      <c r="J200">
+        <v>250</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q200">
+        <v>18</v>
+      </c>
+      <c r="S200">
+        <v>720</v>
+      </c>
+      <c r="T200">
+        <v>54</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <f t="shared" si="32"/>
+        <v>25</v>
+      </c>
+      <c r="X200">
+        <f t="shared" si="33"/>
+        <v>78125</v>
+      </c>
+      <c r="Y200">
+        <f t="shared" si="34"/>
+        <v>16</v>
+      </c>
+      <c r="Z200">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>138</v>
+      </c>
+      <c r="I201">
+        <v>16</v>
+      </c>
+      <c r="J201">
+        <v>250</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q201">
+        <v>63</v>
+      </c>
+      <c r="S201">
+        <v>240</v>
+      </c>
+      <c r="T201">
+        <v>54</v>
+      </c>
+      <c r="U201">
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W201">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
+      <c r="X201">
+        <f t="shared" si="33"/>
+        <v>50000</v>
+      </c>
+      <c r="Y201">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="Z201">
+        <f t="shared" si="35"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8540264-B3C1-4C71-9FC9-001ABF042657}">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16065,7 +16674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -16111,7 +16720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -16154,7 +16763,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -16197,7 +16806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -16237,7 +16846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -16280,7 +16889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -16320,7 +16929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -16363,7 +16972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -16403,7 +17012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -16443,7 +17052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>241</v>
       </c>
@@ -16483,7 +17092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -16523,7 +17132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -16563,7 +17172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -16606,7 +17215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>392</v>
       </c>
@@ -16649,7 +17258,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>397</v>
       </c>
@@ -16692,7 +17301,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -16730,6 +17339,11 @@
       <c r="W17">
         <f t="shared" si="2"/>
         <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -16742,14 +17356,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CFCAE-41E9-4295-93E2-AE0B308CC62A}">
   <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AE75" sqref="AE75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16829,7 +17443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -16883,7 +17497,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -16937,7 +17551,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -16991,7 +17605,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -17045,7 +17659,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -17099,7 +17713,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -17153,7 +17767,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -17207,7 +17821,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -17261,7 +17875,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -17315,7 +17929,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -17369,7 +17983,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -17423,7 +18037,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -17474,7 +18088,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -17528,7 +18142,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -17582,7 +18196,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -17636,7 +18250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -17690,7 +18304,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -17741,7 +18355,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -17792,7 +18406,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -17843,7 +18457,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -17894,7 +18508,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -17945,7 +18559,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -17996,7 +18610,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -18047,7 +18661,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -18101,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -18155,7 +18769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -18209,7 +18823,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -18260,7 +18874,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -18311,7 +18925,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -18362,7 +18976,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -18413,7 +19027,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -18464,7 +19078,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -18515,7 +19129,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -18566,7 +19180,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -18617,7 +19231,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -18668,7 +19282,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>221</v>
       </c>
@@ -18719,7 +19333,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -18770,7 +19384,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -18821,7 +19435,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -18872,7 +19486,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -18923,7 +19537,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -18974,7 +19588,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -19025,7 +19639,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -19076,7 +19690,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -19127,7 +19741,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -19178,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -19229,7 +19843,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -19289,7 +19903,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -19347,7 +19961,7 @@
       </c>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>301</v>
       </c>
@@ -19405,7 +20019,7 @@
       </c>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>303</v>
       </c>
@@ -19463,7 +20077,7 @@
       </c>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>305</v>
       </c>
@@ -19521,7 +20135,7 @@
       </c>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -19579,7 +20193,7 @@
       </c>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -19637,7 +20251,7 @@
       </c>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -19695,7 +20309,7 @@
       </c>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>314</v>
       </c>
@@ -19753,7 +20367,7 @@
       </c>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -19811,7 +20425,7 @@
       </c>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>345</v>
       </c>
@@ -19868,7 +20482,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>346</v>
       </c>
@@ -19925,7 +20539,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>370</v>
       </c>
@@ -19982,7 +20596,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>371</v>
       </c>
@@ -20039,7 +20653,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -20096,7 +20710,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -20153,7 +20767,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>380</v>
       </c>
@@ -20210,7 +20824,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -20267,7 +20881,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>384</v>
       </c>
@@ -20324,7 +20938,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>388</v>
       </c>
@@ -20381,7 +20995,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -20438,7 +21052,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>386</v>
       </c>
@@ -20495,7 +21109,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>432</v>
       </c>
@@ -20546,7 +21160,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>433</v>
       </c>
@@ -20597,7 +21211,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>428</v>
       </c>
@@ -20648,7 +21262,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>430</v>
       </c>
@@ -20699,7 +21313,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>431</v>
       </c>
@@ -20750,7 +21364,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>435</v>
       </c>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNS\CNST\local\China-Set-Trains\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-site\China-Set-Trains-240406\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162A554F-19B7-44EB-B3D2-5494173CEA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8664FB-91F4-4F09-A236-B07C43D1C268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -18,26 +18,17 @@
     <sheet name="Wagons" sheetId="4" r:id="rId3"/>
     <sheet name="Coaches" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="459">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1725,6 +1716,66 @@
   <si>
     <t>CR300BF</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF11Z</t>
+  </si>
+  <si>
+    <t>df11z</t>
+  </si>
+  <si>
+    <t>10+10</t>
+  </si>
+  <si>
+    <t>DF43110</t>
+  </si>
+  <si>
+    <t>DF5</t>
+  </si>
+  <si>
+    <t>df5kz</t>
+  </si>
+  <si>
+    <t>HXD11000</t>
+  </si>
+  <si>
+    <t>hxd11000</t>
+  </si>
+  <si>
+    <t>HXD1F</t>
+  </si>
+  <si>
+    <t>hxd1f</t>
+  </si>
+  <si>
+    <t>HXD1F/FXD1B</t>
+  </si>
+  <si>
+    <t>8+8</t>
+  </si>
+  <si>
+    <t>DF4E</t>
+  </si>
+  <si>
+    <t>df4e</t>
+  </si>
+  <si>
+    <t>SS1</t>
+  </si>
+  <si>
+    <t>ss1</t>
+  </si>
+  <si>
+    <t>DF4BNB</t>
+  </si>
+  <si>
+    <t>df4bnb</t>
+  </si>
+  <si>
+    <t>DF4B (New Bodyshell)</t>
+  </si>
+  <si>
+    <t>model: Mikhail; alternative livery: wuwu, DF43110</t>
   </si>
 </sst>
 </file>
@@ -2086,21 +2137,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE54" sqref="AE54"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="8.58203125" style="1"/>
-    <col min="29" max="30" width="8.58203125" style="2"/>
+    <col min="26" max="28" width="8.625" style="1"/>
+    <col min="29" max="30" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2286,7 +2337,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2335,7 +2386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2384,7 +2435,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2433,7 +2484,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2482,7 +2533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2528,7 +2579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2610,7 +2661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -2707,7 +2758,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -2776,7 +2827,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -2842,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -2911,7 +2962,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -2960,7 +3011,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3029,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3078,7 +3129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3151,7 +3202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3197,7 +3248,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3263,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3312,7 +3363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3406,7 +3457,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>319</v>
       </c>
@@ -3491,7 +3542,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -3585,7 +3636,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -3668,7 +3719,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>331</v>
       </c>
@@ -3739,7 +3790,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -3810,7 +3861,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -3884,7 +3935,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>338</v>
       </c>
@@ -3958,7 +4009,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -4042,7 +4093,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4091,7 +4142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4164,7 +4215,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4237,7 +4288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4310,7 +4361,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4407,7 +4458,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4483,7 +4534,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -4580,7 +4631,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -4644,7 +4695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -4711,7 +4762,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -4796,7 +4847,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -4884,7 +4935,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -4972,7 +5023,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -5060,7 +5111,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -5148,7 +5199,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -5236,7 +5287,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -5327,7 +5378,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -5415,7 +5466,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>351</v>
       </c>
@@ -5495,7 +5546,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>353</v>
       </c>
@@ -5575,7 +5626,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>355</v>
       </c>
@@ -5653,7 +5704,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>359</v>
       </c>
@@ -5734,7 +5785,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>394</v>
       </c>
@@ -5813,7 +5864,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>424</v>
       </c>
@@ -5889,7 +5940,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>425</v>
       </c>
@@ -5965,8 +6016,484 @@
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="R53" s="5"/>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>439</v>
+      </c>
+      <c r="B53" t="s">
+        <v>440</v>
+      </c>
+      <c r="D53" t="s">
+        <v>439</v>
+      </c>
+      <c r="E53" t="s">
+        <v>322</v>
+      </c>
+      <c r="F53">
+        <v>2002</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>261</v>
+      </c>
+      <c r="J53">
+        <v>14</v>
+      </c>
+      <c r="K53">
+        <v>160</v>
+      </c>
+      <c r="L53">
+        <v>9816</v>
+      </c>
+      <c r="M53">
+        <v>291</v>
+      </c>
+      <c r="O53">
+        <v>291</v>
+      </c>
+      <c r="P53">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Q53">
+        <v>490.50959999999998</v>
+      </c>
+      <c r="R53" s="5">
+        <v>135</v>
+      </c>
+      <c r="S53">
+        <v>421875</v>
+      </c>
+      <c r="T53">
+        <v>100</v>
+      </c>
+      <c r="U53">
+        <v>24375</v>
+      </c>
+      <c r="V53" t="s">
+        <v>441</v>
+      </c>
+      <c r="W53">
+        <v>2</v>
+      </c>
+      <c r="X53">
+        <v>6</v>
+      </c>
+      <c r="Y53">
+        <v>2</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>443</v>
+      </c>
+      <c r="B54" t="s">
+        <v>444</v>
+      </c>
+      <c r="D54" t="s">
+        <v>443</v>
+      </c>
+      <c r="E54" t="s">
+        <v>322</v>
+      </c>
+      <c r="F54">
+        <v>1976</v>
+      </c>
+      <c r="G54">
+        <v>25</v>
+      </c>
+      <c r="H54">
+        <v>60</v>
+      </c>
+      <c r="I54">
+        <v>30</v>
+      </c>
+      <c r="J54">
+        <v>20</v>
+      </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
+      <c r="L54">
+        <v>1264</v>
+      </c>
+      <c r="M54">
+        <v>120</v>
+      </c>
+      <c r="O54">
+        <v>120</v>
+      </c>
+      <c r="P54">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="Q54">
+        <v>379.84800000000001</v>
+      </c>
+      <c r="R54">
+        <v>48</v>
+      </c>
+      <c r="S54">
+        <v>150000</v>
+      </c>
+      <c r="T54">
+        <v>36</v>
+      </c>
+      <c r="U54">
+        <v>8775</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>445</v>
+      </c>
+      <c r="B55" t="s">
+        <v>446</v>
+      </c>
+      <c r="F55">
+        <v>2012</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="H55" t="s">
+        <v>261</v>
+      </c>
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="K55">
+        <v>120</v>
+      </c>
+      <c r="L55">
+        <v>13052</v>
+      </c>
+      <c r="M55">
+        <v>184</v>
+      </c>
+      <c r="O55">
+        <v>184</v>
+      </c>
+      <c r="P55">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="Q55">
+        <v>759.1472</v>
+      </c>
+      <c r="R55">
+        <v>146</v>
+      </c>
+      <c r="S55">
+        <v>456250</v>
+      </c>
+      <c r="T55">
+        <v>118</v>
+      </c>
+      <c r="U55">
+        <v>26550</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>447</v>
+      </c>
+      <c r="B56" t="s">
+        <v>448</v>
+      </c>
+      <c r="C56" t="s">
+        <v>449</v>
+      </c>
+      <c r="E56" t="s">
+        <v>260</v>
+      </c>
+      <c r="F56">
+        <v>2013</v>
+      </c>
+      <c r="G56">
+        <v>30</v>
+      </c>
+      <c r="H56" t="s">
+        <v>261</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <v>100</v>
+      </c>
+      <c r="L56">
+        <v>13052</v>
+      </c>
+      <c r="M56">
+        <v>240</v>
+      </c>
+      <c r="O56">
+        <v>240</v>
+      </c>
+      <c r="P56">
+        <v>0.38690476200000001</v>
+      </c>
+      <c r="Q56">
+        <v>910.00000020000004</v>
+      </c>
+      <c r="R56">
+        <v>151</v>
+      </c>
+      <c r="S56">
+        <v>471875</v>
+      </c>
+      <c r="T56">
+        <v>118</v>
+      </c>
+      <c r="U56">
+        <v>26550</v>
+      </c>
+      <c r="V56" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD56" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>451</v>
+      </c>
+      <c r="B57" t="s">
+        <v>452</v>
+      </c>
+      <c r="E57" t="s">
+        <v>322</v>
+      </c>
+      <c r="F57">
+        <v>1994</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <v>60</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>14</v>
+      </c>
+      <c r="K57">
+        <v>100</v>
+      </c>
+      <c r="L57">
+        <v>5438</v>
+      </c>
+      <c r="M57">
+        <v>276</v>
+      </c>
+      <c r="O57">
+        <v>276</v>
+      </c>
+      <c r="P57">
+        <v>0.31425613699999999</v>
+      </c>
+      <c r="Q57">
+        <v>849.99999939999998</v>
+      </c>
+      <c r="R57">
+        <v>108</v>
+      </c>
+      <c r="S57">
+        <v>337500</v>
+      </c>
+      <c r="T57">
+        <v>75</v>
+      </c>
+      <c r="U57">
+        <v>18281.25</v>
+      </c>
+      <c r="V57" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD57" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>453</v>
+      </c>
+      <c r="B58" t="s">
+        <v>454</v>
+      </c>
+      <c r="E58" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58">
+        <v>1958</v>
+      </c>
+      <c r="G58">
+        <v>30</v>
+      </c>
+      <c r="H58">
+        <v>60</v>
+      </c>
+      <c r="I58">
+        <v>30</v>
+      </c>
+      <c r="J58">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>90</v>
+      </c>
+      <c r="L58">
+        <v>5302</v>
+      </c>
+      <c r="M58">
+        <v>138</v>
+      </c>
+      <c r="O58">
+        <v>5302</v>
+      </c>
+      <c r="P58">
+        <v>0.36010056200000001</v>
+      </c>
+      <c r="Q58">
+        <v>18710.68116</v>
+      </c>
+      <c r="R58">
+        <v>87</v>
+      </c>
+      <c r="S58">
+        <v>271875</v>
+      </c>
+      <c r="T58">
+        <v>73</v>
+      </c>
+      <c r="U58">
+        <v>16425</v>
+      </c>
+      <c r="V58">
+        <v>10</v>
+      </c>
+      <c r="AD58" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>455</v>
+      </c>
+      <c r="B59" t="s">
+        <v>456</v>
+      </c>
+      <c r="D59" t="s">
+        <v>457</v>
+      </c>
+      <c r="E59" t="s">
+        <v>322</v>
+      </c>
+      <c r="F59">
+        <v>1984</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59">
+        <v>60</v>
+      </c>
+      <c r="I59">
+        <v>40</v>
+      </c>
+      <c r="J59">
+        <v>14</v>
+      </c>
+      <c r="K59">
+        <v>100</v>
+      </c>
+      <c r="L59">
+        <v>2610</v>
+      </c>
+      <c r="M59">
+        <v>138</v>
+      </c>
+      <c r="O59">
+        <v>138</v>
+      </c>
+      <c r="P59">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="Q59">
+        <v>412.48200000000003</v>
+      </c>
+      <c r="R59">
+        <v>72</v>
+      </c>
+      <c r="S59">
+        <v>225000</v>
+      </c>
+      <c r="T59">
+        <v>52</v>
+      </c>
+      <c r="U59">
+        <v>12675</v>
+      </c>
+      <c r="V59">
+        <v>10</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>8</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>458</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5978,17 +6505,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4625FC-685F-4E56-AE60-F05D51350408}">
   <dimension ref="A1:AF202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W197" sqref="W197:W201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="32" max="32" width="20.33203125" customWidth="1"/>
+    <col min="32" max="32" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6086,7 +6613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -6154,7 +6681,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="I3">
         <v>20</v>
       </c>
@@ -6204,7 +6731,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>130</v>
       </c>
@@ -6257,7 +6784,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -6310,7 +6837,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>132</v>
       </c>
@@ -6363,7 +6890,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -6416,7 +6943,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>138</v>
       </c>
@@ -6469,7 +6996,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -6522,7 +7049,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -6575,7 +7102,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -6628,7 +7155,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -6681,7 +7208,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -6734,7 +7261,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>131</v>
       </c>
@@ -6787,7 +7314,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>132</v>
       </c>
@@ -6840,7 +7367,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>134</v>
       </c>
@@ -6893,7 +7420,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -6946,7 +7473,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -7002,7 +7529,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -7055,7 +7582,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -7108,7 +7635,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -7161,7 +7688,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>138</v>
       </c>
@@ -7214,7 +7741,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -7267,7 +7794,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>130</v>
       </c>
@@ -7320,7 +7847,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>131</v>
       </c>
@@ -7373,7 +7900,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>132</v>
       </c>
@@ -7426,7 +7953,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>134</v>
       </c>
@@ -7479,7 +8006,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -7532,7 +8059,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -7588,7 +8115,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>131</v>
       </c>
@@ -7641,7 +8168,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>132</v>
       </c>
@@ -7694,7 +8221,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -7747,7 +8274,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>138</v>
       </c>
@@ -7800,7 +8327,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -7850,7 +8377,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>248</v>
       </c>
@@ -7900,7 +8427,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>249</v>
       </c>
@@ -7950,7 +8477,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>250</v>
       </c>
@@ -8000,7 +8527,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>251</v>
       </c>
@@ -8050,7 +8577,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>252</v>
       </c>
@@ -8100,7 +8627,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>248</v>
       </c>
@@ -8150,7 +8677,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>249</v>
       </c>
@@ -8200,7 +8727,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>250</v>
       </c>
@@ -8250,7 +8777,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>251</v>
       </c>
@@ -8300,7 +8827,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -8350,7 +8877,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -8400,7 +8927,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>248</v>
       </c>
@@ -8450,7 +8977,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>249</v>
       </c>
@@ -8500,7 +9027,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>250</v>
       </c>
@@ -8550,7 +9077,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>251</v>
       </c>
@@ -8600,7 +9127,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -8650,7 +9177,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>248</v>
       </c>
@@ -8700,7 +9227,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>249</v>
       </c>
@@ -8750,7 +9277,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>250</v>
       </c>
@@ -8800,7 +9327,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>251</v>
       </c>
@@ -8850,7 +9377,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>252</v>
       </c>
@@ -8900,7 +9427,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -8950,7 +9477,7 @@
         <v>1668.75</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>248</v>
       </c>
@@ -9000,7 +9527,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>249</v>
       </c>
@@ -9050,7 +9577,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>250</v>
       </c>
@@ -9100,7 +9627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>251</v>
       </c>
@@ -9150,7 +9677,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>252</v>
       </c>
@@ -9200,7 +9727,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -9250,7 +9777,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>248</v>
       </c>
@@ -9300,7 +9827,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>249</v>
       </c>
@@ -9350,7 +9877,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>250</v>
       </c>
@@ -9400,7 +9927,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>251</v>
       </c>
@@ -9450,7 +9977,7 @@
         <v>1143.75</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -9500,7 +10027,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>248</v>
       </c>
@@ -9550,7 +10077,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>249</v>
       </c>
@@ -9600,7 +10127,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>250</v>
       </c>
@@ -9650,7 +10177,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>251</v>
       </c>
@@ -9700,7 +10227,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>252</v>
       </c>
@@ -9750,7 +10277,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -9800,7 +10327,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>248</v>
       </c>
@@ -9850,7 +10377,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>249</v>
       </c>
@@ -9900,7 +10427,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>252</v>
       </c>
@@ -9950,7 +10477,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -10000,7 +10527,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>249</v>
       </c>
@@ -10050,7 +10577,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>284</v>
       </c>
@@ -10100,7 +10627,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>285</v>
       </c>
@@ -10150,7 +10677,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>286</v>
       </c>
@@ -10200,7 +10727,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>287</v>
       </c>
@@ -10250,7 +10777,7 @@
         <v>1443.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>288</v>
       </c>
@@ -10300,7 +10827,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>289</v>
       </c>
@@ -10350,7 +10877,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -10403,7 +10930,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>286</v>
       </c>
@@ -10453,7 +10980,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>287</v>
       </c>
@@ -10503,7 +11030,7 @@
         <v>393.75</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>288</v>
       </c>
@@ -10553,7 +11080,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>289</v>
       </c>
@@ -10603,7 +11130,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -10653,7 +11180,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>285</v>
       </c>
@@ -10703,7 +11230,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>286</v>
       </c>
@@ -10753,7 +11280,7 @@
         <v>1256.25</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>287</v>
       </c>
@@ -10803,7 +11330,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>288</v>
       </c>
@@ -10853,7 +11380,7 @@
         <v>1368.75</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>289</v>
       </c>
@@ -10903,7 +11430,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -10956,7 +11483,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>286</v>
       </c>
@@ -11006,7 +11533,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>287</v>
       </c>
@@ -11056,7 +11583,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>288</v>
       </c>
@@ -11106,7 +11633,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>289</v>
       </c>
@@ -11156,7 +11683,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -11206,7 +11733,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>285</v>
       </c>
@@ -11256,7 +11783,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>286</v>
       </c>
@@ -11306,7 +11833,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>287</v>
       </c>
@@ -11356,7 +11883,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>288</v>
       </c>
@@ -11406,7 +11933,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>289</v>
       </c>
@@ -11456,7 +11983,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>151</v>
       </c>
@@ -11509,7 +12036,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>286</v>
       </c>
@@ -11559,7 +12086,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>287</v>
       </c>
@@ -11609,7 +12136,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>288</v>
       </c>
@@ -11659,7 +12186,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>289</v>
       </c>
@@ -11709,7 +12236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>401</v>
       </c>
@@ -11762,7 +12289,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>130</v>
       </c>
@@ -11812,7 +12339,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>402</v>
       </c>
@@ -11865,7 +12392,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>137</v>
       </c>
@@ -11918,7 +12445,7 @@
         <v>1087.5</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>138</v>
       </c>
@@ -11971,7 +12498,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>151</v>
       </c>
@@ -12024,7 +12551,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>402</v>
       </c>
@@ -12074,7 +12601,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>137</v>
       </c>
@@ -12124,7 +12651,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>138</v>
       </c>
@@ -12174,7 +12701,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>405</v>
       </c>
@@ -12227,7 +12754,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>130</v>
       </c>
@@ -12280,7 +12807,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>131</v>
       </c>
@@ -12330,7 +12857,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>132</v>
       </c>
@@ -12383,7 +12910,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>134</v>
       </c>
@@ -12436,7 +12963,7 @@
         <v>1068.75</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>138</v>
       </c>
@@ -12489,7 +13016,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -12542,7 +13069,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -12592,7 +13119,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -12642,7 +13169,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>134</v>
       </c>
@@ -12692,7 +13219,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>138</v>
       </c>
@@ -12742,7 +13269,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>406</v>
       </c>
@@ -12795,7 +13322,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>130</v>
       </c>
@@ -12848,7 +13375,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>131</v>
       </c>
@@ -12898,7 +13425,7 @@
         <v>1387.5</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>132</v>
       </c>
@@ -12951,7 +13478,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>134</v>
       </c>
@@ -13004,7 +13531,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>138</v>
       </c>
@@ -13057,7 +13584,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -13110,7 +13637,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>131</v>
       </c>
@@ -13160,7 +13687,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>132</v>
       </c>
@@ -13210,7 +13737,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>134</v>
       </c>
@@ -13260,7 +13787,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>138</v>
       </c>
@@ -13310,7 +13837,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>413</v>
       </c>
@@ -13363,7 +13890,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>130</v>
       </c>
@@ -13413,7 +13940,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>131</v>
       </c>
@@ -13463,7 +13990,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -13516,7 +14043,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>131</v>
       </c>
@@ -13566,7 +14093,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>412</v>
       </c>
@@ -13619,7 +14146,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>130</v>
       </c>
@@ -13669,7 +14196,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -13722,7 +14249,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>414</v>
       </c>
@@ -13778,7 +14305,7 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>130</v>
       </c>
@@ -13828,7 +14355,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -13881,7 +14408,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>415</v>
       </c>
@@ -13934,7 +14461,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>130</v>
       </c>
@@ -13984,7 +14511,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -14037,7 +14564,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>421</v>
       </c>
@@ -14096,7 +14623,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>130</v>
       </c>
@@ -14155,7 +14682,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>131</v>
       </c>
@@ -14214,7 +14741,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>132</v>
       </c>
@@ -14273,7 +14800,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>134</v>
       </c>
@@ -14332,7 +14859,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>138</v>
       </c>
@@ -14391,7 +14918,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -14453,7 +14980,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>131</v>
       </c>
@@ -14512,7 +15039,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>132</v>
       </c>
@@ -14571,7 +15098,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>134</v>
       </c>
@@ -14630,7 +15157,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>138</v>
       </c>
@@ -14689,7 +15216,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>423</v>
       </c>
@@ -14745,7 +15272,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>130</v>
       </c>
@@ -14801,7 +15328,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>131</v>
       </c>
@@ -14857,7 +15384,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>132</v>
       </c>
@@ -14913,7 +15440,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>134</v>
       </c>
@@ -14969,7 +15496,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>138</v>
       </c>
@@ -15025,7 +15552,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -15084,7 +15611,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>131</v>
       </c>
@@ -15140,7 +15667,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>132</v>
       </c>
@@ -15196,7 +15723,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>134</v>
       </c>
@@ -15252,7 +15779,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>138</v>
       </c>
@@ -15308,7 +15835,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>422</v>
       </c>
@@ -15367,7 +15894,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>130</v>
       </c>
@@ -15423,7 +15950,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>131</v>
       </c>
@@ -15479,7 +16006,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>132</v>
       </c>
@@ -15535,7 +16062,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>134</v>
       </c>
@@ -15591,7 +16118,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>138</v>
       </c>
@@ -15647,7 +16174,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>135</v>
       </c>
@@ -15706,7 +16233,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>136</v>
       </c>
@@ -15765,7 +16292,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>137</v>
       </c>
@@ -15824,7 +16351,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>434</v>
       </c>
@@ -15874,7 +16401,7 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>130</v>
       </c>
@@ -15924,7 +16451,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>131</v>
       </c>
@@ -15974,7 +16501,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>438</v>
       </c>
@@ -16027,7 +16554,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>130</v>
       </c>
@@ -16080,7 +16607,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>131</v>
       </c>
@@ -16133,7 +16660,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>132</v>
       </c>
@@ -16186,7 +16713,7 @@
         <v>1087.5</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>134</v>
       </c>
@@ -16239,7 +16766,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>138</v>
       </c>
@@ -16292,7 +16819,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>151</v>
       </c>
@@ -16348,7 +16875,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>131</v>
       </c>
@@ -16359,7 +16886,7 @@
         <v>250</v>
       </c>
       <c r="K198">
-        <f t="shared" ref="K197:K201" si="36">ROUND(L198/0.73549875,0)</f>
+        <f t="shared" ref="K198:K201" si="36">ROUND(L198/0.73549875,0)</f>
         <v>0</v>
       </c>
       <c r="L198">
@@ -16401,7 +16928,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>132</v>
       </c>
@@ -16454,7 +16981,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>134</v>
       </c>
@@ -16507,7 +17034,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>138</v>
       </c>
@@ -16560,7 +17087,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L202">
         <v>0</v>
       </c>
@@ -16580,9 +17107,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16674,7 +17201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -16720,7 +17247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -16763,7 +17290,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -16806,7 +17333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -16846,7 +17373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -16889,7 +17416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -16929,7 +17456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -16972,7 +17499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -17012,7 +17539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -17052,7 +17579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>241</v>
       </c>
@@ -17092,7 +17619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -17132,7 +17659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -17172,7 +17699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -17215,7 +17742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>392</v>
       </c>
@@ -17258,7 +17785,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>397</v>
       </c>
@@ -17301,7 +17828,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -17341,7 +17868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>437</v>
       </c>
@@ -17361,9 +17888,9 @@
       <selection pane="bottomLeft" activeCell="AE75" sqref="AE75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17443,7 +17970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -17497,7 +18024,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -17551,7 +18078,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -17605,7 +18132,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -17659,7 +18186,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -17713,7 +18240,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -17767,7 +18294,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -17821,7 +18348,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -17875,7 +18402,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -17929,7 +18456,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -17983,7 +18510,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -18037,7 +18564,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -18088,7 +18615,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -18142,7 +18669,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -18196,7 +18723,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -18250,7 +18777,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -18304,7 +18831,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -18355,7 +18882,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -18406,7 +18933,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -18457,7 +18984,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -18508,7 +19035,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -18559,7 +19086,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -18610,7 +19137,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -18661,7 +19188,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -18715,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -18769,7 +19296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -18823,7 +19350,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -18874,7 +19401,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -18925,7 +19452,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -18976,7 +19503,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -19027,7 +19554,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -19078,7 +19605,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -19129,7 +19656,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -19180,7 +19707,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -19231,7 +19758,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -19282,7 +19809,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>221</v>
       </c>
@@ -19333,7 +19860,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -19384,7 +19911,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -19435,7 +19962,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -19486,7 +20013,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -19537,7 +20064,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -19588,7 +20115,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -19639,7 +20166,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -19690,7 +20217,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -19741,7 +20268,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -19792,7 +20319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -19843,7 +20370,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -19903,7 +20430,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -19961,7 +20488,7 @@
       </c>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>301</v>
       </c>
@@ -20019,7 +20546,7 @@
       </c>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>303</v>
       </c>
@@ -20077,7 +20604,7 @@
       </c>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>305</v>
       </c>
@@ -20135,7 +20662,7 @@
       </c>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -20193,7 +20720,7 @@
       </c>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -20251,7 +20778,7 @@
       </c>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -20309,7 +20836,7 @@
       </c>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>314</v>
       </c>
@@ -20367,7 +20894,7 @@
       </c>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -20425,7 +20952,7 @@
       </c>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>345</v>
       </c>
@@ -20482,7 +21009,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>346</v>
       </c>
@@ -20539,7 +21066,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>370</v>
       </c>
@@ -20596,7 +21123,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>371</v>
       </c>
@@ -20653,7 +21180,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -20710,7 +21237,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -20767,7 +21294,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>380</v>
       </c>
@@ -20824,7 +21351,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -20881,7 +21408,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>384</v>
       </c>
@@ -20938,7 +21465,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>388</v>
       </c>
@@ -20995,7 +21522,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -21052,7 +21579,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>386</v>
       </c>
@@ -21109,7 +21636,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>432</v>
       </c>
@@ -21160,7 +21687,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>433</v>
       </c>
@@ -21211,7 +21738,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>428</v>
       </c>
@@ -21262,7 +21789,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>430</v>
       </c>
@@ -21313,7 +21840,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>431</v>
       </c>
@@ -21364,7 +21891,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>435</v>
       </c>

--- a/docs/China Set Trains.xlsx
+++ b/docs/China Set Trains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\John Franklin\Documents\GitHub\China-Set-Trains\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcet china set\China-Set-Trains-site\China-Set-Trains-240411\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49728EA-1DB5-495B-913C-6682947D9657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E986EA3E-460A-4343-B15C-2B5322C49285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loco" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,17 @@
     <sheet name="Wagons" sheetId="4" r:id="rId3"/>
     <sheet name="Coaches" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="486">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1779,13 +1768,110 @@
   </si>
   <si>
     <t>model: Mikhail; alternative livery: wuwu, DF43110</t>
+  </si>
+  <si>
+    <t>ShangYou</t>
+  </si>
+  <si>
+    <t>shangyou</t>
+  </si>
+  <si>
+    <t>SS7D</t>
+  </si>
+  <si>
+    <t>ss7d</t>
+  </si>
+  <si>
+    <t>SS9</t>
+  </si>
+  <si>
+    <t>ss9</t>
+  </si>
+  <si>
+    <t>SS9G</t>
+  </si>
+  <si>
+    <t>ss9g</t>
+  </si>
+  <si>
+    <t>ND5</t>
+  </si>
+  <si>
+    <t>nd5</t>
+  </si>
+  <si>
+    <t>HXN5</t>
+  </si>
+  <si>
+    <t>hxn5</t>
+  </si>
+  <si>
+    <t>SS7D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>John Franklin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF4_3110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P61</t>
+  </si>
+  <si>
+    <t>损局</t>
+  </si>
+  <si>
+    <t>P63</t>
+  </si>
+  <si>
+    <t>GN80</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>TZ2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tz2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ25ML</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YW25ML</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW25ML</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA25ML</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL25ML</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1815,6 +1901,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1839,7 +1932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1858,6 +1951,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2140,21 +2239,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD59"/>
+  <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="8.59765625" style="1"/>
-    <col min="27" max="28" width="8.59765625" style="2"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="8.625" style="1"/>
+    <col min="27" max="28" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2288,7 +2387,7 @@
         <v>235.61037500000003</v>
       </c>
       <c r="P2">
-        <f>MEDIAN(255, ROUND((M2/10+SQRT(K2)/20+SQRT(L2)+N2+20-J2), 0), 0)</f>
+        <f t="shared" ref="P2:P45" si="0">MEDIAN(255, ROUND((M2/10+SQRT(K2)/20+SQRT(L2)+N2+20-J2), 0), 0)</f>
         <v>53</v>
       </c>
       <c r="Q2">
@@ -2296,11 +2395,11 @@
         <v>165625</v>
       </c>
       <c r="R2">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K2)/100+SQRT(L2)+N2+40/J2-2,0))</f>
+        <f t="shared" ref="R2:R45" si="1">MEDIAN(0, 255, ROUND(SQRT(K2)/100+SQRT(L2)+N2+40/J2-2,0))</f>
         <v>39</v>
       </c>
       <c r="S2">
-        <f>IF(E2="Steam", R2*350/16*12, IF(E2="Diesel", R2*325/16*12,  R2*300/16*12))</f>
+        <f t="shared" ref="S2:S45" si="2">IF(E2="Steam", R2*350/16*12, IF(E2="Diesel", R2*325/16*12,  R2*300/16*12))</f>
         <v>10237.5</v>
       </c>
       <c r="T2">
@@ -2327,7 +2426,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2344,35 +2443,35 @@
         <v>1934</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O59" si="0">M3*N3*9.8</f>
+        <f t="shared" ref="O3:O59" si="3">M3*N3*9.8</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>MEDIAN(255, ROUND((M3/10+SQRT(K3)/20+SQRT(L3)+N3+20-J3), 0), 0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q20" si="1">P3*50000/16</f>
+        <f t="shared" ref="Q3:Q20" si="4">P3*50000/16</f>
         <v>62500</v>
       </c>
       <c r="R3" t="e">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K3)/100+SQRT(L3)+N3+40/J3-2,0))</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S3" t="e">
-        <f>IF(E3="Steam", R3*350/16*12, IF(E3="Diesel", R3*325/16*12,  R3*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T37" si="2">U3+V3+W3</f>
+        <f t="shared" ref="T3:T37" si="5">U3+V3+W3</f>
         <v>0</v>
       </c>
       <c r="AA3" s="2" t="e">
-        <f t="shared" ref="AA3:AA37" si="3">AVERAGE(X3:Z3)</f>
+        <f t="shared" ref="AA3:AA37" si="6">AVERAGE(X3:Z3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2389,35 +2488,35 @@
         <v>1933</v>
       </c>
       <c r="O4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>MEDIAN(255, ROUND((M4/10+SQRT(K4)/20+SQRT(L4)+N4+20-J4), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="R4" t="e">
         <f t="shared" si="1"/>
-        <v>62500</v>
-      </c>
-      <c r="R4" t="e">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K4)/100+SQRT(L4)+N4+40/J4-2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S4" t="e">
-        <f>IF(E4="Steam", R4*350/16*12, IF(E4="Diesel", R4*325/16*12,  R4*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA4" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2434,35 +2533,35 @@
         <v>1956</v>
       </c>
       <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>MEDIAN(255, ROUND((M5/10+SQRT(K5)/20+SQRT(L5)+N5+20-J5), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="R5" t="e">
         <f t="shared" si="1"/>
-        <v>62500</v>
-      </c>
-      <c r="R5" t="e">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K5)/100+SQRT(L5)+N5+40/J5-2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S5" t="e">
-        <f>IF(E5="Steam", R5*350/16*12, IF(E5="Diesel", R5*325/16*12,  R5*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA5" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2479,35 +2578,35 @@
         <v>1957</v>
       </c>
       <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f>MEDIAN(255, ROUND((M6/10+SQRT(K6)/20+SQRT(L6)+N6+20-J6), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="R6" t="e">
         <f t="shared" si="1"/>
-        <v>62500</v>
-      </c>
-      <c r="R6" t="e">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K6)/100+SQRT(L6)+N6+40/J6-2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S6" t="e">
-        <f>IF(E6="Steam", R6*350/16*12, IF(E6="Diesel", R6*325/16*12,  R6*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA6" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2548,35 +2647,35 @@
         <v>0.14849999999999999</v>
       </c>
       <c r="O7">
+        <f t="shared" si="3"/>
+        <v>203.74200000000002</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="0"/>
-        <v>203.74200000000002</v>
-      </c>
-      <c r="P7">
-        <f>MEDIAN(255, ROUND((M7/10+SQRT(K7)/20+SQRT(L7)+N7+20-J7), 0), 0)</f>
         <v>61</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>190625</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="1"/>
-        <v>190625</v>
-      </c>
-      <c r="R7">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K7)/100+SQRT(L7)+N7+40/J7-2,0))</f>
         <v>40</v>
       </c>
       <c r="S7">
-        <f>IF(E7="Steam", R7*350/16*12, IF(E7="Diesel", R7*325/16*12,  R7*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>10500</v>
       </c>
       <c r="T7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA7" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -2617,27 +2716,27 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="O8">
+        <f t="shared" si="3"/>
+        <v>327.28080000000006</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
-        <v>327.28080000000006</v>
-      </c>
-      <c r="P8">
-        <f>MEDIAN(255, ROUND((M8/10+SQRT(K8)/20+SQRT(L8)+N8+20-J8), 0), 0)</f>
         <v>54</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>168750</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="1"/>
-        <v>168750</v>
-      </c>
-      <c r="R8">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K8)/100+SQRT(L8)+N8+40/J8-2,0))</f>
         <v>51</v>
       </c>
       <c r="S8">
-        <f>IF(E8="Steam", R8*350/16*12, IF(E8="Diesel", R8*325/16*12,  R8*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>12431.25</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="U8">
@@ -2650,11 +2749,11 @@
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -2695,27 +2794,27 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="O9">
+        <f t="shared" si="3"/>
+        <v>412.48199999999997</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="0"/>
-        <v>412.48199999999997</v>
-      </c>
-      <c r="P9">
-        <f>MEDIAN(255, ROUND((M9/10+SQRT(K9)/20+SQRT(L9)+N9+20-J9), 0), 0)</f>
         <v>54</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9" si="4">P9*50000/16</f>
+        <f t="shared" ref="Q9" si="7">P9*50000/16</f>
         <v>168750</v>
       </c>
       <c r="R9">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K9)/100+SQRT(L9)+N9+40/J9-2,0))</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="S9">
-        <f>IF(E9="Steam", R9*350/16*12, IF(E9="Diesel", R9*325/16*12,  R9*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>12431.25</v>
       </c>
       <c r="T9">
-        <f t="shared" ref="T9" si="5">U9+V9+W9</f>
+        <f t="shared" ref="T9" si="8">U9+V9+W9</f>
         <v>10</v>
       </c>
       <c r="U9">
@@ -2737,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB9" s="2" t="s">
@@ -2747,7 +2846,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -2785,34 +2884,34 @@
         <v>0.224</v>
       </c>
       <c r="O10">
+        <f t="shared" si="3"/>
+        <v>302.93760000000003</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="0"/>
-        <v>302.93760000000003</v>
-      </c>
-      <c r="P10">
-        <f>MEDIAN(255, ROUND((M10/10+SQRT(K10)/20+SQRT(L10)+N10+20-J10), 0), 0)</f>
         <v>84</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q12" si="6">P10*50000/16</f>
+        <f t="shared" ref="Q10:Q12" si="9">P10*50000/16</f>
         <v>262500</v>
       </c>
       <c r="R10">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K10)/100+SQRT(L10)+N10+40/J10-2,0))</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="S10">
-        <f>IF(E10="Steam", R10*350/16*12, IF(E10="Diesel", R10*325/16*12,  R10*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>15600</v>
       </c>
       <c r="T10">
-        <f t="shared" ref="T10:T12" si="7">U10+V10+W10</f>
+        <f t="shared" ref="T10:T12" si="10">U10+V10+W10</f>
         <v>0</v>
       </c>
       <c r="AC10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -2850,31 +2949,31 @@
         <v>0.224</v>
       </c>
       <c r="O11">
+        <f t="shared" si="3"/>
+        <v>302.93760000000003</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="0"/>
-        <v>302.93760000000003</v>
-      </c>
-      <c r="P11">
-        <f>MEDIAN(255, ROUND((M11/10+SQRT(K11)/20+SQRT(L11)+N11+20-J11), 0), 0)</f>
         <v>84</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>262500</v>
       </c>
       <c r="R11">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K11)/100+SQRT(L11)+N11+40/J11-2,0))</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="S11">
-        <f>IF(E11="Steam", R11*350/16*12, IF(E11="Diesel", R11*325/16*12,  R11*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>15600</v>
       </c>
       <c r="T11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -2912,34 +3011,34 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="O12">
+        <f t="shared" si="3"/>
+        <v>480.10199999999998</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="0"/>
-        <v>480.10199999999998</v>
-      </c>
-      <c r="P12">
-        <f>MEDIAN(255, ROUND((M12/10+SQRT(K12)/20+SQRT(L12)+N12+20-J12), 0), 0)</f>
         <v>84</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>262500</v>
       </c>
       <c r="R12">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K12)/100+SQRT(L12)+N12+40/J12-2,0))</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="S12">
-        <f>IF(E12="Steam", R12*350/16*12, IF(E12="Diesel", R12*325/16*12,  R12*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>15843.75</v>
       </c>
       <c r="T12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC12" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>232</v>
       </c>
@@ -2956,35 +3055,35 @@
         <v>1976</v>
       </c>
       <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f>MEDIAN(255, ROUND((M13/10+SQRT(K13)/20+SQRT(L13)+N13+20-J13), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="R13" t="e">
         <f t="shared" si="1"/>
-        <v>62500</v>
-      </c>
-      <c r="R13" t="e">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K13)/100+SQRT(L13)+N13+40/J13-2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S13" t="e">
-        <f>IF(E13="Steam", R13*350/16*12, IF(E13="Diesel", R13*325/16*12,  R13*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA13" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3025,31 +3124,31 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="O14">
+        <f t="shared" si="3"/>
+        <v>435.47280000000001</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="0"/>
-        <v>435.47280000000001</v>
-      </c>
-      <c r="P14">
-        <f>MEDIAN(255, ROUND((M14/10+SQRT(K14)/20+SQRT(L14)+N14+20-J14), 0), 0)</f>
         <v>56</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q14" si="8">P14*50000/16</f>
+        <f t="shared" ref="Q14" si="11">P14*50000/16</f>
         <v>175000</v>
       </c>
       <c r="R14">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K14)/100+SQRT(L14)+N14+40/J14-2,0))</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="S14">
-        <f>IF(E14="Steam", R14*350/16*12, IF(E14="Diesel", R14*325/16*12,  R14*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>9506.25</v>
       </c>
       <c r="T14">
-        <f t="shared" ref="T14" si="9">U14+V14+W14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <f t="shared" ref="T14" si="12">U14+V14+W14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3066,35 +3165,35 @@
         <v>1974</v>
       </c>
       <c r="O15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f>MEDIAN(255, ROUND((M15/10+SQRT(K15)/20+SQRT(L15)+N15+20-J15), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="R15" t="e">
         <f t="shared" si="1"/>
-        <v>62500</v>
-      </c>
-      <c r="R15" t="e">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K15)/100+SQRT(L15)+N15+40/J15-2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S15" t="e">
-        <f>IF(E15="Steam", R15*350/16*12, IF(E15="Diesel", R15*325/16*12,  R15*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA15" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3135,35 +3234,35 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="O16">
+        <f t="shared" si="3"/>
+        <v>244.78440000000001</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="0"/>
-        <v>244.78440000000001</v>
-      </c>
-      <c r="P16">
-        <f>MEDIAN(255, ROUND((M16/10+SQRT(K16)/20+SQRT(L16)+N16+20-J16), 0), 0)</f>
         <v>89</v>
       </c>
       <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>278125</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="1"/>
-        <v>278125</v>
-      </c>
-      <c r="R16">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K16)/100+SQRT(L16)+N16+40/J16-2,0))</f>
         <v>67</v>
       </c>
       <c r="S16">
-        <f>IF(E16="Steam", R16*350/16*12, IF(E16="Diesel", R16*325/16*12,  R16*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>16331.25</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA16" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3177,35 +3276,35 @@
         <v>51</v>
       </c>
       <c r="O17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f>MEDIAN(255, ROUND((M17/10+SQRT(K17)/20+SQRT(L17)+N17+20-J17), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="R17" t="e">
         <f t="shared" si="1"/>
-        <v>62500</v>
-      </c>
-      <c r="R17" t="e">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K17)/100+SQRT(L17)+N17+40/J17-2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S17" t="e">
-        <f>IF(E17="Steam", R17*350/16*12, IF(E17="Diesel", R17*325/16*12,  R17*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA17" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>233</v>
       </c>
@@ -3243,31 +3342,31 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="O18">
+        <f t="shared" si="3"/>
+        <v>534.19800000000009</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="0"/>
-        <v>534.19800000000009</v>
-      </c>
-      <c r="P18">
-        <f>MEDIAN(255, ROUND((M18/10+SQRT(K18)/20+SQRT(L18)+N18+20-J18), 0), 0)</f>
         <v>86</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18" si="10">P18*50000/16</f>
+        <f t="shared" ref="Q18" si="13">P18*50000/16</f>
         <v>268750</v>
       </c>
       <c r="R18">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K18)/100+SQRT(L18)+N18+40/J18-2,0))</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="S18">
-        <f>IF(E18="Steam", R18*350/16*12, IF(E18="Diesel", R18*325/16*12,  R18*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>15112.5</v>
       </c>
       <c r="T18">
-        <f t="shared" ref="T18" si="11">U18+V18+W18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <f t="shared" ref="T18" si="14">U18+V18+W18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3284,35 +3383,35 @@
         <v>2005</v>
       </c>
       <c r="O19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f>MEDIAN(255, ROUND((M19/10+SQRT(K19)/20+SQRT(L19)+N19+20-J19), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>62500</v>
+      </c>
+      <c r="R19" t="e">
         <f t="shared" si="1"/>
-        <v>62500</v>
-      </c>
-      <c r="R19" t="e">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K19)/100+SQRT(L19)+N19+40/J19-2,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S19" t="e">
-        <f>IF(E19="Steam", R19*350/16*12, IF(E19="Diesel", R19*325/16*12,  R19*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA19" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -3350,27 +3449,27 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="O20">
+        <f t="shared" si="3"/>
+        <v>193.39320000000001</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="0"/>
-        <v>193.39320000000001</v>
-      </c>
-      <c r="P20">
-        <f>MEDIAN(255, ROUND((M20/10+SQRT(K20)/20+SQRT(L20)+N20+20-J20), 0), 0)</f>
         <v>93</v>
       </c>
       <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>290625</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="1"/>
-        <v>290625</v>
-      </c>
-      <c r="R20">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K20)/100+SQRT(L20)+N20+40/J20-2,0))</f>
         <v>69</v>
       </c>
       <c r="S20">
-        <f>IF(E20="Steam", R20*350/16*12, IF(E20="Diesel", R20*325/16*12,  R20*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>16818.75</v>
       </c>
       <c r="T20">
-        <f t="shared" ref="T20" si="12">U20+V20+W20</f>
+        <f t="shared" ref="T20" si="15">U20+V20+W20</f>
         <v>11</v>
       </c>
       <c r="U20">
@@ -3392,7 +3491,7 @@
         <v>0.5</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AB20" s="2" t="s">
@@ -3402,7 +3501,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>317</v>
       </c>
@@ -3443,23 +3542,23 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="O21">
+        <f t="shared" si="3"/>
+        <v>327.28080000000006</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="0"/>
-        <v>327.28080000000006</v>
-      </c>
-      <c r="P21">
-        <f>MEDIAN(255, ROUND((M21/10+SQRT(K21)/20+SQRT(L21)+N21+20-J21), 0), 0)</f>
         <v>72</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21:Q45" si="13">P21*50000/16</f>
+        <f t="shared" ref="Q21:Q45" si="16">P21*50000/16</f>
         <v>225000</v>
       </c>
       <c r="R21">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K21)/100+SQRT(L21)+N21+40/J21-2,0))</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="S21">
-        <f>IF(E21="Steam", R21*350/16*12, IF(E21="Diesel", R21*325/16*12,  R21*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>12675</v>
       </c>
       <c r="T21">
@@ -3484,7 +3583,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>322</v>
       </c>
@@ -3525,23 +3624,23 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="O22">
+        <f t="shared" si="3"/>
+        <v>412.48199999999997</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="0"/>
-        <v>412.48199999999997</v>
-      </c>
-      <c r="P22">
-        <f>MEDIAN(255, ROUND((M22/10+SQRT(K22)/20+SQRT(L22)+N22+20-J22), 0), 0)</f>
         <v>72</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>225000</v>
       </c>
       <c r="R22">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K22)/100+SQRT(L22)+N22+40/J22-2,0))</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="S22">
-        <f>IF(E22="Steam", R22*350/16*12, IF(E22="Diesel", R22*325/16*12,  R22*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>12675</v>
       </c>
       <c r="T22">
@@ -3575,7 +3674,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>325</v>
       </c>
@@ -3616,27 +3715,27 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="O23">
+        <f t="shared" si="3"/>
+        <v>442.23480000000006</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="0"/>
-        <v>442.23480000000006</v>
-      </c>
-      <c r="P23">
-        <f>MEDIAN(255, ROUND((M23/10+SQRT(K23)/20+SQRT(L23)+N23+20-J23), 0), 0)</f>
         <v>61</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>190625</v>
       </c>
       <c r="R23">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K23)/100+SQRT(L23)+N23+40/J23-2,0))</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="S23">
-        <f>IF(E23="Steam", R23*350/16*12, IF(E23="Diesel", R23*325/16*12,  R23*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>11456.25</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T27" si="14">U23+V23+W23</f>
+        <f t="shared" ref="T23:T27" si="17">U23+V23+W23</f>
         <v>9</v>
       </c>
       <c r="U23">
@@ -3655,7 +3754,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>329</v>
       </c>
@@ -3693,27 +3792,27 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="O24">
+        <f t="shared" si="3"/>
+        <v>435.47280000000001</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="0"/>
-        <v>435.47280000000001</v>
-      </c>
-      <c r="P24">
-        <f>MEDIAN(255, ROUND((M24/10+SQRT(K24)/20+SQRT(L24)+N24+20-J24), 0), 0)</f>
         <v>64</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>200000</v>
       </c>
       <c r="R24">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K24)/100+SQRT(L24)+N24+40/J24-2,0))</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="S24">
-        <f>IF(E24="Steam", R24*350/16*12, IF(E24="Diesel", R24*325/16*12,  R24*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>11212.5</v>
       </c>
       <c r="T24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB24" s="2" t="s">
@@ -3723,7 +3822,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>331</v>
       </c>
@@ -3761,27 +3860,27 @@
         <v>0.32100000000000001</v>
       </c>
       <c r="O25">
+        <f t="shared" si="3"/>
+        <v>440.41200000000003</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="0"/>
-        <v>440.41200000000003</v>
-      </c>
-      <c r="P25">
-        <f>MEDIAN(255, ROUND((M25/10+SQRT(K25)/20+SQRT(L25)+N25+20-J25), 0), 0)</f>
         <v>65</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>203125</v>
       </c>
       <c r="R25">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K25)/100+SQRT(L25)+N25+40/J25-2,0))</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="S25">
-        <f>IF(E25="Steam", R25*350/16*12, IF(E25="Diesel", R25*325/16*12,  R25*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>11700</v>
       </c>
       <c r="T25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB25" s="2" t="s">
@@ -3791,7 +3890,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -3832,27 +3931,27 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="O26">
+        <f t="shared" si="3"/>
+        <v>296.62640000000005</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="0"/>
-        <v>296.62640000000005</v>
-      </c>
-      <c r="P26">
-        <f>MEDIAN(255, ROUND((M26/10+SQRT(K26)/20+SQRT(L26)+N26+20-J26), 0), 0)</f>
         <v>39</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>121875</v>
       </c>
       <c r="R26">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K26)/100+SQRT(L26)+N26+40/J26-2,0))</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="S26">
-        <f>IF(E26="Steam", R26*350/16*12, IF(E26="Diesel", R26*325/16*12,  R26*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>8043.75</v>
       </c>
       <c r="T26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB26" s="2" t="s">
@@ -3862,7 +3961,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>336</v>
       </c>
@@ -3903,27 +4002,27 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="O27">
+        <f t="shared" si="3"/>
+        <v>296.62640000000005</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="0"/>
-        <v>296.62640000000005</v>
-      </c>
-      <c r="P27">
-        <f>MEDIAN(255, ROUND((M27/10+SQRT(K27)/20+SQRT(L27)+N27+20-J27), 0), 0)</f>
         <v>39</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>121875</v>
       </c>
       <c r="R27">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K27)/100+SQRT(L27)+N27+40/J27-2,0))</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="S27">
-        <f>IF(E27="Steam", R27*350/16*12, IF(E27="Diesel", R27*325/16*12,  R27*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>8043.75</v>
       </c>
       <c r="T27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB27" s="2" t="s">
@@ -3933,7 +4032,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>338</v>
       </c>
@@ -3971,27 +4070,27 @@
         <v>0.38100000000000001</v>
       </c>
       <c r="O28">
+        <f t="shared" si="3"/>
+        <v>560.07000000000005</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="0"/>
-        <v>560.07000000000005</v>
-      </c>
-      <c r="P28">
-        <f>MEDIAN(255, ROUND((M28/10+SQRT(K28)/20+SQRT(L28)+N28+20-J28), 0), 0)</f>
         <v>91</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>284375</v>
       </c>
       <c r="R28">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K28)/100+SQRT(L28)+N28+40/J28-2,0))</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="S28">
-        <f>IF(E28="Steam", R28*350/16*12, IF(E28="Diesel", R28*325/16*12,  R28*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>17306.25</v>
       </c>
       <c r="T28">
-        <f t="shared" ref="T28" si="15">U28+V28+W28</f>
+        <f t="shared" ref="T28" si="18">U28+V28+W28</f>
         <v>11</v>
       </c>
       <c r="U28">
@@ -4004,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="AA28" s="2" t="e">
-        <f t="shared" ref="AA28" si="16">AVERAGE(X28:Z28)</f>
+        <f t="shared" ref="AA28" si="19">AVERAGE(X28:Z28)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB28" s="2" t="s">
@@ -4014,7 +4113,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4031,35 +4130,35 @@
         <v>1958</v>
       </c>
       <c r="O29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <f>MEDIAN(255, ROUND((M29/10+SQRT(K29)/20+SQRT(L29)+N29+20-J29), 0), 0)</f>
         <v>20</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>62500</v>
       </c>
       <c r="R29" t="e">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K29)/100+SQRT(L29)+N29+40/J29-2,0))</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" t="e">
-        <f>IF(E29="Steam", R29*350/16*12, IF(E29="Diesel", R29*325/16*12,  R29*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA29" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4100,35 +4199,35 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="O30">
+        <f t="shared" si="3"/>
+        <v>469.28280000000001</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="0"/>
-        <v>469.28280000000001</v>
-      </c>
-      <c r="P30">
-        <f>MEDIAN(255, ROUND((M30/10+SQRT(K30)/20+SQRT(L30)+N30+20-J30), 0), 0)</f>
         <v>102</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>318750</v>
       </c>
       <c r="R30">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K30)/100+SQRT(L30)+N30+40/J30-2,0))</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="S30">
-        <f>IF(E30="Steam", R30*350/16*12, IF(E30="Diesel", R30*325/16*12,  R30*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>17775</v>
       </c>
       <c r="T30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA30" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4169,35 +4268,35 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="O31">
+        <f t="shared" si="3"/>
+        <v>627.5136</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="0"/>
-        <v>627.5136</v>
-      </c>
-      <c r="P31">
-        <f>MEDIAN(255, ROUND((M31/10+SQRT(K31)/20+SQRT(L31)+N31+20-J31), 0), 0)</f>
         <v>113</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>353125</v>
       </c>
       <c r="R31">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K31)/100+SQRT(L31)+N31+40/J31-2,0))</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="S31">
-        <f>IF(E31="Steam", R31*350/16*12, IF(E31="Diesel", R31*325/16*12,  R31*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>21150</v>
       </c>
       <c r="T31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA31" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4238,35 +4337,35 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="O32">
+        <f t="shared" si="3"/>
+        <v>209.56320000000002</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="0"/>
-        <v>209.56320000000002</v>
-      </c>
-      <c r="P32">
-        <f>MEDIAN(255, ROUND((M32/10+SQRT(K32)/20+SQRT(L32)+N32+20-J32), 0), 0)</f>
         <v>90</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>281250</v>
       </c>
       <c r="R32">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K32)/100+SQRT(L32)+N32+40/J32-2,0))</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="S32">
-        <f>IF(E32="Steam", R32*350/16*12, IF(E32="Diesel", R32*325/16*12,  R32*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>16200</v>
       </c>
       <c r="T32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA32" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4307,27 +4406,27 @@
         <v>0.38450000000000001</v>
       </c>
       <c r="O33">
+        <f t="shared" si="3"/>
+        <v>519.99779999999998</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="0"/>
-        <v>519.99779999999998</v>
-      </c>
-      <c r="P33">
-        <f>MEDIAN(255, ROUND((M33/10+SQRT(K33)/20+SQRT(L33)+N33+20-J33), 0), 0)</f>
         <v>127</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>396875</v>
       </c>
       <c r="R33">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K33)/100+SQRT(L33)+N33+40/J33-2,0))</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="S33">
-        <f>IF(E33="Steam", R33*350/16*12, IF(E33="Diesel", R33*325/16*12,  R33*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>23175</v>
       </c>
       <c r="T33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="U33">
@@ -4349,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="AA33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB33" s="2" t="s">
@@ -4359,7 +4458,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4397,31 +4496,31 @@
         <v>0.34</v>
       </c>
       <c r="O34">
+        <f t="shared" si="3"/>
+        <v>419.83200000000005</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="0"/>
-        <v>419.83200000000005</v>
-      </c>
-      <c r="P34">
-        <f>MEDIAN(255, ROUND((M34/10+SQRT(K34)/20+SQRT(L34)+N34+20-J34), 0), 0)</f>
         <v>126</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>393750</v>
       </c>
       <c r="R34">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K34)/100+SQRT(L34)+N34+40/J34-2,0))</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="S34">
-        <f>IF(E34="Steam", R34*350/16*12, IF(E34="Diesel", R34*325/16*12,  R34*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>23175</v>
       </c>
       <c r="T34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA34" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB34" s="2" t="s">
@@ -4431,7 +4530,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -4472,27 +4571,27 @@
         <v>0.34</v>
       </c>
       <c r="O35">
+        <f t="shared" si="3"/>
+        <v>419.83200000000005</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="0"/>
-        <v>419.83200000000005</v>
-      </c>
-      <c r="P35">
-        <f>MEDIAN(255, ROUND((M35/10+SQRT(K35)/20+SQRT(L35)+N35+20-J35), 0), 0)</f>
         <v>126</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>393750</v>
       </c>
       <c r="R35">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K35)/100+SQRT(L35)+N35+40/J35-2,0))</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="S35">
-        <f>IF(E35="Steam", R35*350/16*12, IF(E35="Diesel", R35*325/16*12,  R35*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>23175</v>
       </c>
       <c r="T35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="U35">
@@ -4514,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="AA35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB35" s="2" t="s">
@@ -4524,7 +4623,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>192</v>
       </c>
@@ -4556,35 +4655,35 @@
         <v>0.38750000000000001</v>
       </c>
       <c r="O36">
+        <f t="shared" si="3"/>
+        <v>569.625</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="0"/>
-        <v>569.625</v>
-      </c>
-      <c r="P36">
-        <f>MEDIAN(255, ROUND((M36/10+SQRT(K36)/20+SQRT(L36)+N36+20-J36), 0), 0)</f>
         <v>144</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>450000</v>
       </c>
       <c r="R36">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K36)/100+SQRT(L36)+N36+40/J36-2,0))</f>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="S36">
-        <f>IF(E36="Steam", R36*350/16*12, IF(E36="Diesel", R36*325/16*12,  R36*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>26775</v>
       </c>
       <c r="T36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA36" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>195</v>
       </c>
@@ -4619,35 +4718,35 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="O37">
+        <f t="shared" si="3"/>
+        <v>759.1472</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="0"/>
-        <v>759.1472</v>
-      </c>
-      <c r="P37">
-        <f>MEDIAN(255, ROUND((M37/10+SQRT(K37)/20+SQRT(L37)+N37+20-J37), 0), 0)</f>
         <v>146</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>456250</v>
       </c>
       <c r="R37">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K37)/100+SQRT(L37)+N37+40/J37-2,0))</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="S37">
-        <f>IF(E37="Steam", R37*350/16*12, IF(E37="Diesel", R37*325/16*12,  R37*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>26550</v>
       </c>
       <c r="T37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA37" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -4685,23 +4784,23 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="O38">
+        <f t="shared" si="3"/>
+        <v>627.5136</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="0"/>
-        <v>627.5136</v>
-      </c>
-      <c r="P38">
-        <f>MEDIAN(255, ROUND((M38/10+SQRT(K38)/20+SQRT(L38)+N38+20-J38), 0), 0)</f>
         <v>125</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>390625</v>
       </c>
       <c r="R38">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K38)/100+SQRT(L38)+N38+40/J38-2,0))</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="S38">
-        <f>IF(E38="Steam", R38*350/16*12, IF(E38="Diesel", R38*325/16*12,  R38*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>21825</v>
       </c>
       <c r="T38">
@@ -4729,7 +4828,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>261</v>
       </c>
@@ -4770,23 +4869,23 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="O39">
+        <f t="shared" si="3"/>
+        <v>235.14120000000005</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="0"/>
-        <v>235.14120000000005</v>
-      </c>
-      <c r="P39">
-        <f>MEDIAN(255, ROUND((M39/10+SQRT(K39)/20+SQRT(L39)+N39+20-J39), 0), 0)</f>
         <v>79</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>246875</v>
       </c>
       <c r="R39">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K39)/100+SQRT(L39)+N39+40/J39-2,0))</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="S39">
-        <f>IF(E39="Steam", R39*350/16*12, IF(E39="Diesel", R39*325/16*12,  R39*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>15075</v>
       </c>
       <c r="T39">
@@ -4814,7 +4913,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>263</v>
       </c>
@@ -4855,23 +4954,23 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="O40">
+        <f t="shared" si="3"/>
+        <v>485.51160000000004</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="0"/>
-        <v>485.51160000000004</v>
-      </c>
-      <c r="P40">
-        <f>MEDIAN(255, ROUND((M40/10+SQRT(K40)/20+SQRT(L40)+N40+20-J40), 0), 0)</f>
         <v>105</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>328125</v>
       </c>
       <c r="R40">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K40)/100+SQRT(L40)+N40+40/J40-2,0))</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="S40">
-        <f>IF(E40="Steam", R40*350/16*12, IF(E40="Diesel", R40*325/16*12,  R40*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>18675</v>
       </c>
       <c r="T40">
@@ -4899,7 +4998,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>265</v>
       </c>
@@ -4940,23 +5039,23 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="O41">
+        <f t="shared" si="3"/>
+        <v>485.51160000000004</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="0"/>
-        <v>485.51160000000004</v>
-      </c>
-      <c r="P41">
-        <f>MEDIAN(255, ROUND((M41/10+SQRT(K41)/20+SQRT(L41)+N41+20-J41), 0), 0)</f>
         <v>107</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>334375</v>
       </c>
       <c r="R41">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K41)/100+SQRT(L41)+N41+40/J41-2,0))</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="S41">
-        <f>IF(E41="Steam", R41*350/16*12, IF(E41="Diesel", R41*325/16*12,  R41*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
       <c r="T41">
@@ -4984,7 +5083,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>267</v>
       </c>
@@ -5025,23 +5124,23 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="O42">
+        <f t="shared" si="3"/>
+        <v>485.51160000000004</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="0"/>
-        <v>485.51160000000004</v>
-      </c>
-      <c r="P42">
-        <f>MEDIAN(255, ROUND((M42/10+SQRT(K42)/20+SQRT(L42)+N42+20-J42), 0), 0)</f>
         <v>99</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>309375</v>
       </c>
       <c r="R42">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K42)/100+SQRT(L42)+N42+40/J42-2,0))</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="S42">
-        <f>IF(E42="Steam", R42*350/16*12, IF(E42="Diesel", R42*325/16*12,  R42*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>18450</v>
       </c>
       <c r="T42">
@@ -5069,7 +5168,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>270</v>
       </c>
@@ -5110,23 +5209,23 @@
         <v>0.33</v>
       </c>
       <c r="O43">
+        <f t="shared" si="3"/>
+        <v>485.1</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="0"/>
-        <v>485.1</v>
-      </c>
-      <c r="P43">
-        <f>MEDIAN(255, ROUND((M43/10+SQRT(K43)/20+SQRT(L43)+N43+20-J43), 0), 0)</f>
         <v>101</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>315625</v>
       </c>
       <c r="R43">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K43)/100+SQRT(L43)+N43+40/J43-2,0))</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="S43">
-        <f>IF(E43="Steam", R43*350/16*12, IF(E43="Diesel", R43*325/16*12,  R43*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>18450</v>
       </c>
       <c r="T43">
@@ -5154,7 +5253,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -5195,23 +5294,23 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="O44">
+        <f t="shared" si="3"/>
+        <v>311.75760000000002</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="0"/>
-        <v>311.75760000000002</v>
-      </c>
-      <c r="P44">
-        <f>MEDIAN(255, ROUND((M44/10+SQRT(K44)/20+SQRT(L44)+N44+20-J44), 0), 0)</f>
         <v>105</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>328125</v>
       </c>
       <c r="R44">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K44)/100+SQRT(L44)+N44+40/J44-2,0))</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="S44">
-        <f>IF(E44="Steam", R44*350/16*12, IF(E44="Diesel", R44*325/16*12,  R44*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>18675</v>
       </c>
       <c r="T44">
@@ -5242,7 +5341,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>275</v>
       </c>
@@ -5268,7 +5367,7 @@
         <v>6</v>
       </c>
       <c r="K45">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L45">
         <v>6526</v>
@@ -5280,23 +5379,23 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="O45">
+        <f t="shared" si="3"/>
+        <v>244.49040000000002</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="0"/>
-        <v>244.49040000000002</v>
-      </c>
-      <c r="P45">
-        <f>MEDIAN(255, ROUND((M45/10+SQRT(K45)/20+SQRT(L45)+N45+20-J45), 0), 0)</f>
         <v>108</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>337500</v>
       </c>
       <c r="R45">
-        <f>MEDIAN(0, 255, ROUND(SQRT(K45)/100+SQRT(L45)+N45+40/J45-2,0))</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="S45">
-        <f>IF(E45="Steam", R45*350/16*12, IF(E45="Diesel", R45*325/16*12,  R45*300/16*12))</f>
+        <f t="shared" si="2"/>
         <v>19350</v>
       </c>
       <c r="T45">
@@ -5327,7 +5426,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>349</v>
       </c>
@@ -5369,7 +5468,7 @@
         <v>0.27876367899999999</v>
       </c>
       <c r="O46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>376.99999947960004</v>
       </c>
       <c r="P46" s="5">
@@ -5403,7 +5502,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>351</v>
       </c>
@@ -5445,7 +5544,7 @@
         <v>0.32534753</v>
       </c>
       <c r="O47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>439.99999957200004</v>
       </c>
       <c r="P47" s="5">
@@ -5479,7 +5578,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>353</v>
       </c>
@@ -5519,7 +5618,7 @@
         <v>0.34132119700000002</v>
       </c>
       <c r="O48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>479.99999934110008</v>
       </c>
       <c r="P48" s="5">
@@ -5553,7 +5652,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>357</v>
       </c>
@@ -5591,7 +5690,7 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="O49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>480.10199999999998</v>
       </c>
       <c r="P49">
@@ -5599,7 +5698,7 @@
         <v>84</v>
       </c>
       <c r="Q49">
-        <f t="shared" ref="Q49:Q52" si="17">P49*50000/16</f>
+        <f t="shared" ref="Q49:Q52" si="20">P49*50000/16</f>
         <v>262500</v>
       </c>
       <c r="R49">
@@ -5611,7 +5710,7 @@
         <v>15843.75</v>
       </c>
       <c r="T49">
-        <f t="shared" ref="T49" si="18">U49+V49+W49</f>
+        <f t="shared" ref="T49" si="21">U49+V49+W49</f>
         <v>10</v>
       </c>
       <c r="U49">
@@ -5630,7 +5729,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>392</v>
       </c>
@@ -5668,7 +5767,7 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="O50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>938.56560000000002</v>
       </c>
       <c r="P50">
@@ -5676,7 +5775,7 @@
         <v>147</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>459375</v>
       </c>
       <c r="R50">
@@ -5706,7 +5805,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>422</v>
       </c>
@@ -5741,7 +5840,7 @@
         <v>0.245</v>
       </c>
       <c r="O51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>302.52600000000001</v>
       </c>
       <c r="P51">
@@ -5749,7 +5848,7 @@
         <v>60</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>187500</v>
       </c>
       <c r="R51">
@@ -5779,7 +5878,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>423</v>
       </c>
@@ -5814,7 +5913,7 @@
         <v>0.377</v>
       </c>
       <c r="O52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>509.85480000000007</v>
       </c>
       <c r="P52">
@@ -5822,7 +5921,7 @@
         <v>102</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>318750</v>
       </c>
       <c r="R52">
@@ -5852,7 +5951,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>437</v>
       </c>
@@ -5890,7 +5989,7 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="O53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>490.50959999999998</v>
       </c>
       <c r="P53" s="5">
@@ -5924,7 +6023,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>441</v>
       </c>
@@ -5965,7 +6064,7 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="O54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>379.84800000000001</v>
       </c>
       <c r="P54">
@@ -5987,7 +6086,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>443</v>
       </c>
@@ -6019,7 +6118,7 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="O55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>759.1472</v>
       </c>
       <c r="P55">
@@ -6044,7 +6143,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>445</v>
       </c>
@@ -6082,7 +6181,7 @@
         <v>0.38690476200000001</v>
       </c>
       <c r="O56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>910.00000022400002</v>
       </c>
       <c r="P56">
@@ -6104,7 +6203,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>449</v>
       </c>
@@ -6142,7 +6241,7 @@
         <v>0.31425613699999999</v>
       </c>
       <c r="O57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>849.99999935760013</v>
       </c>
       <c r="P57">
@@ -6167,7 +6266,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>451</v>
       </c>
@@ -6205,7 +6304,7 @@
         <v>0.36010056200000001</v>
       </c>
       <c r="O58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>487.00000004880008</v>
       </c>
       <c r="P58">
@@ -6230,7 +6329,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>453</v>
       </c>
@@ -6271,7 +6370,7 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="O59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>412.48199999999997</v>
       </c>
       <c r="P59">
@@ -6315,6 +6414,440 @@
       </c>
       <c r="AC59" t="s">
         <v>456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="F60" s="10">
+        <v>1960</v>
+      </c>
+      <c r="G60" s="10">
+        <v>40</v>
+      </c>
+      <c r="H60" s="10">
+        <v>100</v>
+      </c>
+      <c r="I60" s="10">
+        <v>50</v>
+      </c>
+      <c r="J60" s="10">
+        <v>20</v>
+      </c>
+      <c r="K60" s="10">
+        <v>80</v>
+      </c>
+      <c r="L60" s="10">
+        <v>1500</v>
+      </c>
+      <c r="M60" s="10">
+        <v>140</v>
+      </c>
+      <c r="N60" s="10">
+        <v>0.14868804699999999</v>
+      </c>
+      <c r="O60" s="10">
+        <v>204</v>
+      </c>
+      <c r="P60" s="10">
+        <v>53</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>165625</v>
+      </c>
+      <c r="R60" s="10">
+        <v>39</v>
+      </c>
+      <c r="S60" s="10">
+        <v>10237.5</v>
+      </c>
+      <c r="AB60" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F61" s="10">
+        <v>1999</v>
+      </c>
+      <c r="G61" s="10">
+        <v>30</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J61" s="10">
+        <v>8</v>
+      </c>
+      <c r="K61" s="10">
+        <v>170</v>
+      </c>
+      <c r="L61" s="10">
+        <v>6526</v>
+      </c>
+      <c r="M61" s="10">
+        <v>126</v>
+      </c>
+      <c r="N61" s="10">
+        <v>0.198412698</v>
+      </c>
+      <c r="O61" s="10">
+        <v>245</v>
+      </c>
+      <c r="P61" s="10">
+        <v>106</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>331250</v>
+      </c>
+      <c r="R61" s="10">
+        <v>84</v>
+      </c>
+      <c r="S61" s="10">
+        <v>18900</v>
+      </c>
+      <c r="T61" s="10">
+        <v>10</v>
+      </c>
+      <c r="U61" s="10">
+        <v>2</v>
+      </c>
+      <c r="V61" s="10">
+        <v>6</v>
+      </c>
+      <c r="W61" s="10">
+        <v>2</v>
+      </c>
+      <c r="X61" s="9"/>
+      <c r="AB61" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" s="10">
+        <v>1998</v>
+      </c>
+      <c r="G62" s="10">
+        <v>30</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J62" s="10">
+        <v>6</v>
+      </c>
+      <c r="K62" s="10">
+        <v>170</v>
+      </c>
+      <c r="L62" s="10">
+        <v>6526</v>
+      </c>
+      <c r="M62" s="10">
+        <v>126</v>
+      </c>
+      <c r="N62" s="10">
+        <v>0.231616456</v>
+      </c>
+      <c r="O62" s="10">
+        <v>286</v>
+      </c>
+      <c r="P62" s="10">
+        <v>106</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>331250</v>
+      </c>
+      <c r="R62" s="10">
+        <v>84</v>
+      </c>
+      <c r="S62" s="10">
+        <v>18900</v>
+      </c>
+      <c r="T62" s="10">
+        <v>10</v>
+      </c>
+      <c r="U62" s="10">
+        <v>2</v>
+      </c>
+      <c r="V62" s="10">
+        <v>6</v>
+      </c>
+      <c r="W62" s="10">
+        <v>2</v>
+      </c>
+      <c r="X62" s="9"/>
+      <c r="AB62" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" s="10">
+        <v>2002</v>
+      </c>
+      <c r="G63" s="10">
+        <v>30</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J63" s="10">
+        <v>6</v>
+      </c>
+      <c r="K63" s="10">
+        <v>170</v>
+      </c>
+      <c r="L63" s="10">
+        <v>6526</v>
+      </c>
+      <c r="M63" s="10">
+        <v>126</v>
+      </c>
+      <c r="N63" s="10">
+        <v>0.231616456</v>
+      </c>
+      <c r="O63" s="10">
+        <v>286</v>
+      </c>
+      <c r="P63" s="10">
+        <v>106</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>331250</v>
+      </c>
+      <c r="R63" s="10">
+        <v>84</v>
+      </c>
+      <c r="S63" s="10">
+        <v>18900</v>
+      </c>
+      <c r="T63" s="10">
+        <v>10</v>
+      </c>
+      <c r="U63" s="10">
+        <v>2</v>
+      </c>
+      <c r="V63" s="10">
+        <v>6</v>
+      </c>
+      <c r="W63" s="10">
+        <v>2</v>
+      </c>
+      <c r="X63" s="9"/>
+      <c r="AB63" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1984</v>
+      </c>
+      <c r="G64" s="10">
+        <v>30</v>
+      </c>
+      <c r="H64" s="10">
+        <v>60</v>
+      </c>
+      <c r="I64" s="10">
+        <v>30</v>
+      </c>
+      <c r="J64" s="10">
+        <v>14</v>
+      </c>
+      <c r="K64" s="10">
+        <v>118</v>
+      </c>
+      <c r="L64" s="10">
+        <v>3467</v>
+      </c>
+      <c r="M64" s="10">
+        <v>138</v>
+      </c>
+      <c r="N64" s="10">
+        <v>0.39485359399999997</v>
+      </c>
+      <c r="O64" s="10">
+        <v>534</v>
+      </c>
+      <c r="P64" s="10">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>250000</v>
+      </c>
+      <c r="R64" s="10">
+        <v>60</v>
+      </c>
+      <c r="S64" s="10">
+        <v>14625</v>
+      </c>
+      <c r="T64" s="10">
+        <v>9</v>
+      </c>
+      <c r="U64" s="10">
+        <v>2</v>
+      </c>
+      <c r="V64" s="10">
+        <v>5</v>
+      </c>
+      <c r="W64" s="10">
+        <v>2</v>
+      </c>
+      <c r="X64" s="9"/>
+      <c r="AB64" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F65" s="10">
+        <v>2008</v>
+      </c>
+      <c r="G65" s="10">
+        <v>30</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J65" s="10">
+        <v>8</v>
+      </c>
+      <c r="K65" s="10">
+        <v>120</v>
+      </c>
+      <c r="L65" s="10">
+        <v>6336</v>
+      </c>
+      <c r="M65" s="10">
+        <v>150</v>
+      </c>
+      <c r="N65" s="10">
+        <v>0.42176870700000002</v>
+      </c>
+      <c r="O65" s="10">
+        <v>620</v>
+      </c>
+      <c r="P65" s="10">
+        <v>108</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>337500</v>
+      </c>
+      <c r="R65" s="10">
+        <v>83</v>
+      </c>
+      <c r="S65" s="10">
+        <v>20231.25</v>
+      </c>
+      <c r="T65" s="10">
+        <v>11</v>
+      </c>
+      <c r="U65" s="10">
+        <v>2</v>
+      </c>
+      <c r="V65" s="10">
+        <v>7</v>
+      </c>
+      <c r="W65" s="10">
+        <v>2</v>
+      </c>
+      <c r="X65" s="9"/>
+      <c r="AB65" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -6328,16 +6861,16 @@
   <dimension ref="A1:AF202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W197" sqref="W197:W201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="32" max="32" width="20.3984375" customWidth="1"/>
+    <col min="32" max="32" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6435,7 +6968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -6503,7 +7036,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="I3">
         <v>20</v>
       </c>
@@ -6553,7 +7086,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>128</v>
       </c>
@@ -6606,7 +7139,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>129</v>
       </c>
@@ -6659,7 +7192,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>130</v>
       </c>
@@ -6712,7 +7245,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>132</v>
       </c>
@@ -6765,7 +7298,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>136</v>
       </c>
@@ -6818,7 +7351,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>133</v>
       </c>
@@ -6871,7 +7404,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>134</v>
       </c>
@@ -6924,7 +7457,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>135</v>
       </c>
@@ -6977,7 +7510,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -7030,7 +7563,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>128</v>
       </c>
@@ -7083,7 +7616,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>129</v>
       </c>
@@ -7136,7 +7669,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>130</v>
       </c>
@@ -7189,7 +7722,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>132</v>
       </c>
@@ -7242,7 +7775,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>136</v>
       </c>
@@ -7295,7 +7828,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -7351,7 +7884,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>129</v>
       </c>
@@ -7404,7 +7937,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>130</v>
       </c>
@@ -7457,7 +7990,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>132</v>
       </c>
@@ -7510,7 +8043,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>136</v>
       </c>
@@ -7563,7 +8096,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -7616,7 +8149,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>128</v>
       </c>
@@ -7669,7 +8202,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>129</v>
       </c>
@@ -7722,7 +8255,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>130</v>
       </c>
@@ -7775,7 +8308,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>132</v>
       </c>
@@ -7828,7 +8361,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -7881,7 +8414,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -7937,7 +8470,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>129</v>
       </c>
@@ -7990,7 +8523,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>130</v>
       </c>
@@ -8043,7 +8576,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>132</v>
       </c>
@@ -8096,7 +8629,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>136</v>
       </c>
@@ -8149,7 +8682,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>245</v>
       </c>
@@ -8199,7 +8732,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>246</v>
       </c>
@@ -8249,7 +8782,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>247</v>
       </c>
@@ -8299,7 +8832,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>248</v>
       </c>
@@ -8349,7 +8882,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>249</v>
       </c>
@@ -8399,7 +8932,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>250</v>
       </c>
@@ -8449,7 +8982,7 @@
         <v>843.75</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>246</v>
       </c>
@@ -8499,7 +9032,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>247</v>
       </c>
@@ -8549,7 +9082,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>248</v>
       </c>
@@ -8599,7 +9132,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>249</v>
       </c>
@@ -8649,7 +9182,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>250</v>
       </c>
@@ -8699,7 +9232,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -8749,7 +9282,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>246</v>
       </c>
@@ -8799,7 +9332,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>247</v>
       </c>
@@ -8849,7 +9382,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>248</v>
       </c>
@@ -8899,7 +9432,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>249</v>
       </c>
@@ -8949,7 +9482,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>250</v>
       </c>
@@ -8999,7 +9532,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>246</v>
       </c>
@@ -9049,7 +9582,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>247</v>
       </c>
@@ -9099,7 +9632,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>248</v>
       </c>
@@ -9149,7 +9682,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>249</v>
       </c>
@@ -9199,7 +9732,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>250</v>
       </c>
@@ -9249,7 +9782,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>252</v>
       </c>
@@ -9299,7 +9832,7 @@
         <v>1668.75</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>246</v>
       </c>
@@ -9349,7 +9882,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>247</v>
       </c>
@@ -9399,7 +9932,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>248</v>
       </c>
@@ -9449,7 +9982,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>249</v>
       </c>
@@ -9499,7 +10032,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>250</v>
       </c>
@@ -9549,7 +10082,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>253</v>
       </c>
@@ -9599,7 +10132,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>246</v>
       </c>
@@ -9649,7 +10182,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>247</v>
       </c>
@@ -9699,7 +10232,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>248</v>
       </c>
@@ -9749,7 +10282,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>249</v>
       </c>
@@ -9799,7 +10332,7 @@
         <v>1143.75</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>250</v>
       </c>
@@ -9849,7 +10382,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>246</v>
       </c>
@@ -9899,7 +10432,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>247</v>
       </c>
@@ -9949,7 +10482,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>248</v>
       </c>
@@ -9999,7 +10532,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>249</v>
       </c>
@@ -10049,7 +10582,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>250</v>
       </c>
@@ -10099,7 +10632,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>254</v>
       </c>
@@ -10149,7 +10682,7 @@
         <v>1106.25</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>246</v>
       </c>
@@ -10199,7 +10732,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>247</v>
       </c>
@@ -10249,7 +10782,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>250</v>
       </c>
@@ -10299,7 +10832,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>255</v>
       </c>
@@ -10349,7 +10882,7 @@
         <v>1518.75</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>247</v>
       </c>
@@ -10399,7 +10932,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -10449,7 +10982,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>283</v>
       </c>
@@ -10499,7 +11032,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>284</v>
       </c>
@@ -10549,7 +11082,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>285</v>
       </c>
@@ -10599,7 +11132,7 @@
         <v>1443.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>286</v>
       </c>
@@ -10649,7 +11182,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>287</v>
       </c>
@@ -10699,7 +11232,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -10752,7 +11285,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>284</v>
       </c>
@@ -10802,7 +11335,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>285</v>
       </c>
@@ -10852,7 +11385,7 @@
         <v>393.75</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>286</v>
       </c>
@@ -10902,7 +11435,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>287</v>
       </c>
@@ -10952,7 +11485,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>288</v>
       </c>
@@ -11002,7 +11535,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>283</v>
       </c>
@@ -11052,7 +11585,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>284</v>
       </c>
@@ -11102,7 +11635,7 @@
         <v>1256.25</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>285</v>
       </c>
@@ -11152,7 +11685,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>286</v>
       </c>
@@ -11202,7 +11735,7 @@
         <v>1368.75</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>287</v>
       </c>
@@ -11252,7 +11785,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>149</v>
       </c>
@@ -11305,7 +11838,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>284</v>
       </c>
@@ -11355,7 +11888,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>285</v>
       </c>
@@ -11405,7 +11938,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>286</v>
       </c>
@@ -11455,7 +11988,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>287</v>
       </c>
@@ -11505,7 +12038,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>289</v>
       </c>
@@ -11555,7 +12088,7 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>283</v>
       </c>
@@ -11605,7 +12138,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>284</v>
       </c>
@@ -11655,7 +12188,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>285</v>
       </c>
@@ -11705,7 +12238,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>286</v>
       </c>
@@ -11755,7 +12288,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>287</v>
       </c>
@@ -11805,7 +12338,7 @@
         <v>862.5</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>149</v>
       </c>
@@ -11858,7 +12391,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>284</v>
       </c>
@@ -11908,7 +12441,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>285</v>
       </c>
@@ -11958,7 +12491,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>286</v>
       </c>
@@ -12008,7 +12541,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>287</v>
       </c>
@@ -12058,7 +12591,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>399</v>
       </c>
@@ -12111,7 +12644,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>128</v>
       </c>
@@ -12161,7 +12694,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>400</v>
       </c>
@@ -12214,7 +12747,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>135</v>
       </c>
@@ -12267,7 +12800,7 @@
         <v>1087.5</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>136</v>
       </c>
@@ -12320,7 +12853,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>149</v>
       </c>
@@ -12373,7 +12906,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>400</v>
       </c>
@@ -12423,7 +12956,7 @@
         <v>356.25</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>135</v>
       </c>
@@ -12473,7 +13006,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>136</v>
       </c>
@@ -12523,7 +13056,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>403</v>
       </c>
@@ -12576,7 +13109,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>128</v>
       </c>
@@ -12629,7 +13162,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>129</v>
       </c>
@@ -12679,7 +13212,7 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>130</v>
       </c>
@@ -12732,7 +13265,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>132</v>
       </c>
@@ -12785,7 +13318,7 @@
         <v>1068.75</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>136</v>
       </c>
@@ -12838,7 +13371,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>149</v>
       </c>
@@ -12891,7 +13424,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>129</v>
       </c>
@@ -12941,7 +13474,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>130</v>
       </c>
@@ -12991,7 +13524,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>132</v>
       </c>
@@ -13041,7 +13574,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>136</v>
       </c>
@@ -13091,7 +13624,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>404</v>
       </c>
@@ -13144,7 +13677,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>128</v>
       </c>
@@ -13197,7 +13730,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>129</v>
       </c>
@@ -13247,7 +13780,7 @@
         <v>1387.5</v>
       </c>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>130</v>
       </c>
@@ -13300,7 +13833,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>132</v>
       </c>
@@ -13353,7 +13886,7 @@
         <v>1481.25</v>
       </c>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>136</v>
       </c>
@@ -13406,7 +13939,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -13459,7 +13992,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>129</v>
       </c>
@@ -13509,7 +14042,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>130</v>
       </c>
@@ -13559,7 +14092,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>132</v>
       </c>
@@ -13609,7 +14142,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>136</v>
       </c>
@@ -13659,7 +14192,7 @@
         <v>206.25</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>411</v>
       </c>
@@ -13712,7 +14245,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>128</v>
       </c>
@@ -13762,7 +14295,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="145" spans="1:32">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>129</v>
       </c>
@@ -13812,7 +14345,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="146" spans="1:32">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>149</v